--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202306/hogandiff3/xyz.hotchpotch.hogandiff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202306-2/hogandiff4/xyz.hotchpotch.hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE82F647-CEC3-4095-8BB3-97AD596AD9D5}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3CC2E87-A99E-4F20-AC5C-AD6B536C4FC8}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="435">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -805,13 +805,7 @@
     <t>★失敗しました</t>
   </si>
   <si>
-    <t>CompareDirsTask.070</t>
-  </si>
-  <si>
     <t>比較結果フォルダを表示しています...</t>
-  </si>
-  <si>
-    <t>CompareDirsTask.080</t>
   </si>
   <si>
     <t>比較結果フォルダの表示に失敗しました。</t>
@@ -2126,6 +2120,234 @@
   </si>
   <si>
     <t>文件夹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AppTaskBase.130</t>
+  </si>
+  <si>
+    <t>AppTaskBase.140</t>
+  </si>
+  <si>
+    <t>AppTaskBase.150</t>
+  </si>
+  <si>
+    <t>AppTaskBase.160</t>
+  </si>
+  <si>
+    <t>(比較対象ファイルなし)</t>
+  </si>
+  <si>
+    <t>CompareTreesTask.010</t>
+  </si>
+  <si>
+    <t>CompareTreesTask.020</t>
+  </si>
+  <si>
+    <t>比較するフォルダの組み合わせを決定しています...</t>
+  </si>
+  <si>
+    <t>CompareTreesTask.030</t>
+  </si>
+  <si>
+    <t>フォルダの組み合わせ決定に失敗しました。</t>
+  </si>
+  <si>
+    <t>CompareTreesTask.040</t>
+  </si>
+  <si>
+    <t>フォルダツリーを比較しています...</t>
+  </si>
+  <si>
+    <t>CompareTreesTask.050</t>
+  </si>
+  <si>
+    <t>CompareTreesTask.060</t>
+  </si>
+  <si>
+    <t>excel.DResult.070</t>
+  </si>
+  <si>
+    <t>差異発生%dブック</t>
+  </si>
+  <si>
+    <t>excel.DResult.080</t>
+  </si>
+  <si>
+    <t>余剰%dブック</t>
+  </si>
+  <si>
+    <t>excel.DResult.090</t>
+  </si>
+  <si>
+    <t>比較失敗%dブック</t>
+  </si>
+  <si>
+    <t>excel.DResult.100</t>
+  </si>
+  <si>
+    <t>excel.TreeResult.010</t>
+  </si>
+  <si>
+    <t>excel.TreeResult.020</t>
+  </si>
+  <si>
+    <t>excel.TreeResult.030</t>
+  </si>
+  <si>
+    <t>excel.TreeResult.040</t>
+  </si>
+  <si>
+    <t>excel.TreeResult.050</t>
+  </si>
+  <si>
+    <t>Starting comparing folder trees.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダツリー同士の比較を開始します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>开始互相比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>较文件夹树。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pairing folders...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>确定要比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>较的文件夹的组合 ...</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to pair folders.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>确定文件夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>组合失败。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comparing folders...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>较文件夹...</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CompareDirsTask.070</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diff books:%d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>差异</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>工作簿%d</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redundant books:%d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冗余工作簿%d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>failed books:%d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失败工作簿%d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ルートフォルダ%s : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Root folder %s : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>根文件夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">%s : </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(No files to compare)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(没有可比较的文件)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2133,7 +2355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2179,13 +2401,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF00B050"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
       <name val="NSimSun"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2223,7 +2438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2247,9 +2462,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2549,2931 +2761,3429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I117"/>
+  <dimension ref="C1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.5625" style="1"/>
-    <col min="2" max="2" width="34.6875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.5625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.5625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="2.5625" style="1"/>
-    <col min="7" max="7" width="2.5625" style="4"/>
-    <col min="8" max="8" width="2.5625" style="5"/>
-    <col min="9" max="9" width="2.5625" style="6"/>
-    <col min="10" max="16384" width="2.5625" style="1"/>
+    <col min="1" max="2" width="2.5625" style="1"/>
+    <col min="3" max="3" width="34.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.5625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="30.5625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="2.5625" style="1"/>
+    <col min="8" max="8" width="2.5625" style="4"/>
+    <col min="9" max="9" width="2.5625" style="5"/>
+    <col min="10" max="10" width="2.5625" style="6"/>
+    <col min="11" max="16384" width="2.5625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="3:10">
+      <c r="C1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="3:10">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G2" s="4" t="str">
-        <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; C2)</f>
+      <c r="F2" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f xml:space="preserve"> IF($C2="", "", $C2 &amp; "=" &amp; D2)</f>
         <v>fx.ExecutePane.010=実行</v>
       </c>
-      <c r="H2" s="5" t="str">
-        <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; D2)</f>
+      <c r="I2" s="5" t="str">
+        <f xml:space="preserve"> IF($C2="", "", $C2 &amp; "=" &amp; E2)</f>
         <v>fx.ExecutePane.010=Exec</v>
       </c>
-      <c r="I2" s="6" t="str">
-        <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; E2)</f>
+      <c r="J2" s="6" t="str">
+        <f xml:space="preserve"> IF($C2="", "", $C2 &amp; "=" &amp; F2)</f>
         <v>fx.ExecutePane.010=执行</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="3:10">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G67" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H66" si="0" xml:space="preserve"> IF($C3="", "", $C3 &amp; "=" &amp; D3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
-      <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H67" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
+      <c r="I3" s="5" t="str">
+        <f t="shared" ref="I3:I66" si="1" xml:space="preserve"> IF($C3="", "", $C3 &amp; "=" &amp; E3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
-      <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I67" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
+      <c r="J3" s="6" t="str">
+        <f t="shared" ref="J3:J66" si="2" xml:space="preserve"> IF($C3="", "", $C3 &amp; "=" &amp; F3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="3:10">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="G4" s="4" t="str">
+      <c r="D4" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="H4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.MenuPane.010=ブック</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="I4" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.MenuPane.010=Books</v>
       </c>
-      <c r="I4" s="6" t="str">
+      <c r="J4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.MenuPane.010=工作簿</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="3:10">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="G5" s="4" t="str">
+      <c r="D5" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.MenuPane.020=シート</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="I5" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.MenuPane.020=Sheets</v>
       </c>
-      <c r="I5" s="6" t="str">
+      <c r="J5" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.MenuPane.020=工作表</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="G6" s="4" t="str">
+    <row r="6" spans="3:10">
+      <c r="C6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.MenuPane.030=フォルダ</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.MenuPane.030=Folders</v>
       </c>
-      <c r="I6" s="6" t="str">
+      <c r="J6" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.MenuPane.030=文件夹</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="3:10">
+      <c r="C7" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G7" s="4" t="str">
+      <c r="E7" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.MenuPane.040=子フォルダも含める</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.MenuPane.040=Include child folders</v>
       </c>
-      <c r="I7" s="6" t="str">
+      <c r="J7" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.MenuPane.040=包括子文件夹</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G8" s="4" t="str">
+    <row r="8" spans="3:10">
+      <c r="C8" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.MenuPane.050=比較対象：</v>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.MenuPane.050=Compare</v>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="J8" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.MenuPane.050=互相比较</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="3:10">
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G9" s="4" t="str">
+      <c r="F9" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.PasswordDialogPane.010=パスワード：</v>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="I9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.PasswordDialogPane.010=password :</v>
       </c>
-      <c r="I9" s="6" t="str">
+      <c r="J9" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.PasswordDialogPane.010=密码：</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="3:10">
+      <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G10" s="4" t="str">
+      <c r="F10" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.PasswordDialogPane.020=パスワードが異なります。</v>
       </c>
-      <c r="H10" s="5" t="str">
+      <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.PasswordDialogPane.020=incorrect password</v>
       </c>
-      <c r="I10" s="6" t="str">
+      <c r="J10" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.PasswordDialogPane.020=密码不正确。</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="3:10">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G11" s="4" t="str">
+      <c r="F11" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.010=比較オプション</v>
       </c>
-      <c r="H11" s="5" t="str">
+      <c r="I11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.010=Comparison options</v>
       </c>
-      <c r="I11" s="6" t="str">
+      <c r="J11" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.010=比较选项</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="3:10">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G12" s="4" t="str">
+      <c r="F12" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.compare.010=行の挿入／削除を考慮する</v>
       </c>
-      <c r="H12" s="5" t="str">
+      <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.compare.010=consider row insertions/deletions</v>
       </c>
-      <c r="I12" s="6" t="str">
+      <c r="J12" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.compare.010=考虑行的插入／删除</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="3:10">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G13" s="4" t="str">
+      <c r="F13" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.compare.020=列の挿入／削除を考慮する</v>
       </c>
-      <c r="H13" s="5" t="str">
+      <c r="I13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.compare.020=consider column insertions/deletions</v>
       </c>
-      <c r="I13" s="6" t="str">
+      <c r="J13" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.compare.020=考虑列的插入／删除</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="3:10">
+      <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G14" s="4" t="str">
+      <c r="F14" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.compare.030=値を比較する</v>
       </c>
-      <c r="H14" s="5" t="str">
+      <c r="I14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.compare.030=compare values</v>
       </c>
-      <c r="I14" s="6" t="str">
+      <c r="J14" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.compare.030=比较值</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="3:10">
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G15" s="4" t="str">
+      <c r="F15" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.compare.040=数式を比較する</v>
       </c>
-      <c r="H15" s="5" t="str">
+      <c r="I15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.compare.040=compare formulas</v>
       </c>
-      <c r="I15" s="6" t="str">
+      <c r="J15" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.compare.040=比较公式</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="3:10">
+      <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G16" s="4" t="str">
+      <c r="F16" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.020=レポートオプション</v>
       </c>
-      <c r="H16" s="5" t="str">
+      <c r="I16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.020=Reporting options</v>
       </c>
-      <c r="I16" s="6" t="str">
+      <c r="J16" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.020=报告选项</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="3:10">
+      <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G17" s="4" t="str">
+      <c r="F17" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.report.010=差分セルに色を付けて表示する</v>
       </c>
-      <c r="H17" s="5" t="str">
+      <c r="I17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.report.010=display diff cells with color</v>
       </c>
-      <c r="I17" s="6" t="str">
+      <c r="J17" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.report.010=给不同的单元格着色</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="3:10">
+      <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G18" s="4" t="str">
+      <c r="F18" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.report.020=比較結果のテキストを表示する</v>
       </c>
-      <c r="H18" s="5" t="str">
+      <c r="I18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.report.020=display result in text</v>
       </c>
-      <c r="I18" s="6" t="str">
+      <c r="J18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.report.020=显示比较结果的文本</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="3:10">
+      <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G19" s="4" t="str">
+      <c r="F19" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.030=実行オプション</v>
       </c>
-      <c r="H19" s="5" t="str">
+      <c r="I19" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.030=Execution options</v>
       </c>
-      <c r="I19" s="6" t="str">
+      <c r="J19" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.030=执行选项</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="3:10">
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G20" s="4" t="str">
+      <c r="F20" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.execute.010=比較完了時にこのアプリを終了する</v>
       </c>
-      <c r="H20" s="5" t="str">
+      <c r="I20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.execute.010=exit this app upon completion</v>
       </c>
-      <c r="I20" s="6" t="str">
+      <c r="J20" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.execute.010=比较结束后自动退出此应用程序</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="3:10">
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G21" s="4" t="str">
+      <c r="F21" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.execute.020=省メモリモード</v>
       </c>
-      <c r="H21" s="5" t="str">
+      <c r="I21" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.execute.020=memory-saving mode</v>
       </c>
-      <c r="I21" s="6" t="str">
+      <c r="J21" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.execute.020=内存节省模式</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="3:10">
+      <c r="C22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G22" s="4" t="str">
+      <c r="F22" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane2.010=言語</v>
       </c>
-      <c r="H22" s="5" t="str">
+      <c r="I22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane2.010=Language</v>
       </c>
-      <c r="I22" s="6" t="str">
+      <c r="J22" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane2.010=语言</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="3:10">
+      <c r="C23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G23" s="4" t="str">
+      <c r="F23" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane2.020=作業用\nフォルダ</v>
       </c>
-      <c r="H23" s="5" t="str">
+      <c r="I23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane2.020=Working directory</v>
       </c>
-      <c r="I23" s="6" t="str">
+      <c r="J23" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane2.020=工作\n文件夹</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="3:10">
+      <c r="C24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G24" s="4" t="str">
+      <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane2.workDir.010=開く</v>
       </c>
-      <c r="H24" s="5" t="str">
+      <c r="I24" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane2.workDir.010=Open</v>
       </c>
-      <c r="I24" s="6" t="str">
+      <c r="J24" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane2.workDir.010=打开</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="3:10">
+      <c r="C25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G25" s="4" t="str">
+      <c r="F25" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane2.workDir.020=変更...</v>
       </c>
-      <c r="H25" s="5" t="str">
+      <c r="I25" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane2.workDir.020=Change...</v>
       </c>
-      <c r="I25" s="6" t="str">
+      <c r="J25" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane2.workDir.020=改变...</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="3:10">
+      <c r="C26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G26" s="4" t="str">
+      <c r="F26" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane2.workDir.030=削除...</v>
       </c>
-      <c r="H26" s="5" t="str">
+      <c r="I26" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane2.workDir.030=Delete...</v>
       </c>
-      <c r="I26" s="6" t="str">
+      <c r="J26" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane2.workDir.030=删除...</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="3:10">
+      <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G27" s="4" t="str">
+      <c r="F27" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.TargetSelectionPane.010=ブックパス：</v>
       </c>
-      <c r="H27" s="5" t="str">
+      <c r="I27" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.TargetSelectionPane.010=Book Path :</v>
       </c>
-      <c r="I27" s="6" t="str">
+      <c r="J27" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.TargetSelectionPane.010=工作簿路径 :</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="3:10">
+      <c r="C28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G28" s="4" t="str">
+      <c r="E28" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.TargetSelectionPane.020=シート名：</v>
       </c>
-      <c r="H28" s="5" t="str">
+      <c r="I28" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.TargetSelectionPane.020=Sheet Name :</v>
       </c>
-      <c r="I28" s="6" t="str">
+      <c r="J28" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.TargetSelectionPane.020=工作表名称 :</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C29" s="4" t="s">
+    <row r="29" spans="3:10">
+      <c r="C29" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G29" s="4" t="str">
+      <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.TargetSelectionPane.030=フォルダパス：</v>
       </c>
-      <c r="H29" s="5" t="str">
+      <c r="I29" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.TargetSelectionPane.030=Folder Path :</v>
       </c>
-      <c r="I29" s="6" t="str">
+      <c r="J29" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.TargetSelectionPane.030=文件夹路径 :</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
-      <c r="G30" s="4" t="str">
+    <row r="30" spans="3:10">
+      <c r="H30" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="5" t="str">
+      <c r="I30" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I30" s="6" t="str">
+      <c r="J30" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="3:10">
+      <c r="C31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G31" s="4" t="str">
+      <c r="E31" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="H31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.MainController.010=同じフォルダ同士／ブック同士／シート同士を比較することはできません。</v>
       </c>
-      <c r="H31" s="5" t="str">
+      <c r="I31" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.MainController.010=Please specify different folders/books/sheets.</v>
       </c>
-      <c r="I31" s="6" t="str">
+      <c r="J31" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.MainController.010=指定非相同的文件夹／工作簿／工作表。</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="2" t="s">
+    <row r="32" spans="3:10">
+      <c r="C32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G32" s="4" t="str">
+      <c r="F32" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
       </c>
-      <c r="H32" s="5" t="str">
+      <c r="I32" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
       </c>
-      <c r="I32" s="6" t="str">
+      <c r="J32" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="2" t="s">
+    <row r="33" spans="3:10">
+      <c r="C33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G33" s="4" t="str">
+      <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.MainController.030=予期せぬ例外が発生しました。</v>
       </c>
-      <c r="H33" s="5" t="str">
+      <c r="I33" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.MainController.030=Unexpected exception occurred.</v>
       </c>
-      <c r="I33" s="6" t="str">
+      <c r="J33" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.MainController.030=意外的例外。</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="3:10">
+      <c r="C34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G34" s="4" t="str">
+      <c r="F34" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.PasswordDialog.010=パスワード指定</v>
       </c>
-      <c r="H34" s="5" t="str">
+      <c r="I34" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.PasswordDialog.010=Enter Password</v>
       </c>
-      <c r="I34" s="6" t="str">
+      <c r="J34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.PasswordDialog.010=输入密码</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="3:10">
+      <c r="C35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G35" s="4" t="str">
+      <c r="F35" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.PasswordDialogPane.010=%s はパスワードで保護されています。</v>
       </c>
-      <c r="H35" s="5" t="str">
+      <c r="I35" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.PasswordDialogPane.010=The book [%s] is password protected.</v>
       </c>
-      <c r="I35" s="6" t="str">
+      <c r="J35" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.PasswordDialogPane.010=%s 是受密码保护的。</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="G36" s="4" t="str">
+    <row r="36" spans="3:10">
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="5" t="str">
+      <c r="I36" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I36" s="6" t="str">
+      <c r="J36" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="2" t="s">
+    <row r="37" spans="3:10">
+      <c r="C37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G37" s="4" t="str">
+      <c r="F37" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.LinkPane.010=Webページの表示に失敗しました。ご利用のブラウザでお試しください。</v>
       </c>
-      <c r="H37" s="5" t="str">
+      <c r="I37" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.LinkPane.010=Failed to open the website. Please try using your browser.</v>
       </c>
-      <c r="I37" s="6" t="str">
+      <c r="J37" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.LinkPane.010=网页未能显示。 请尝试使用你的浏览器。</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="8" t="s">
+    <row r="38" spans="3:10">
+      <c r="C38" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G38" s="4" t="str">
+      <c r="H38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
       </c>
-      <c r="H38" s="5" t="str">
+      <c r="I38" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
       </c>
-      <c r="I38" s="6" t="str">
+      <c r="J38" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="8" t="s">
+    <row r="39" spans="3:10">
+      <c r="C39" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G39" s="4" t="str">
+      <c r="F39" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
       </c>
-      <c r="H39" s="5" t="str">
+      <c r="I39" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
       </c>
-      <c r="I39" s="6" t="str">
+      <c r="J39" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="8" t="s">
+    <row r="40" spans="3:10">
+      <c r="C40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G40" s="4" t="str">
+      <c r="F40" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
       </c>
-      <c r="H40" s="5" t="str">
+      <c r="I40" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.SettingsPane2.020=Change working directory</v>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="J40" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="8" t="s">
+    <row r="41" spans="3:10">
+      <c r="C41" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G41" s="4" t="str">
+      <c r="F41" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="H41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
       </c>
-      <c r="H41" s="5" t="str">
+      <c r="I41" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
       </c>
-      <c r="I41" s="6" t="str">
+      <c r="J41" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="8" t="s">
+    <row r="42" spans="3:10">
+      <c r="C42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G42" s="4" t="str">
+      <c r="F42" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
       </c>
-      <c r="H42" s="5" t="str">
+      <c r="I42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
       </c>
-      <c r="I42" s="6" t="str">
+      <c r="J42" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="8" t="s">
+    <row r="43" spans="3:10">
+      <c r="C43" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="4" t="str">
+      <c r="H43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
-      <c r="H43" s="5" t="str">
+      <c r="I43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
-      <c r="I43" s="6" t="str">
+      <c r="J43" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="8" t="s">
+    <row r="44" spans="3:10">
+      <c r="C44" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="4" t="str">
+      <c r="H44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
-      <c r="H44" s="5" t="str">
+      <c r="I44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
-      <c r="I44" s="6" t="str">
+      <c r="J44" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="8" t="s">
+    <row r="45" spans="3:10">
+      <c r="C45" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G45" s="4" t="str">
+      <c r="E45" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="H45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
-      <c r="H45" s="5" t="str">
+      <c r="I45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
-      <c r="I45" s="6" t="str">
+      <c r="J45" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="8" t="s">
+    <row r="46" spans="3:10">
+      <c r="C46" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G46" s="4" t="str">
+      <c r="E46" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="H46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
       </c>
-      <c r="H46" s="5" t="str">
+      <c r="I46" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
       </c>
-      <c r="I46" s="6" t="str">
+      <c r="J46" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="8" t="s">
+    <row r="47" spans="3:10">
+      <c r="C47" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G47" s="4" t="str">
+      <c r="F47" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
       </c>
-      <c r="H47" s="5" t="str">
+      <c r="I47" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
       </c>
-      <c r="I47" s="6" t="str">
+      <c r="J47" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="8" t="s">
+    <row r="48" spans="3:10">
+      <c r="C48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G48" s="4" t="str">
+      <c r="H48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
       </c>
-      <c r="H48" s="5" t="str">
+      <c r="I48" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.TargetSelectionPane.030=Excel book</v>
       </c>
-      <c r="I48" s="6" t="str">
+      <c r="J48" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="8" t="s">
+    <row r="49" spans="3:10">
+      <c r="C49" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G49" s="4" t="str">
+      <c r="F49" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="H49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
       </c>
-      <c r="H49" s="5" t="str">
+      <c r="I49" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
       </c>
-      <c r="I49" s="6" t="str">
+      <c r="J49" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="8" t="s">
+    <row r="50" spans="3:10">
+      <c r="C50" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G50" s="4" t="str">
+      <c r="H50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.TargetSelectionPane.050=シートが見つかりません：</v>
       </c>
-      <c r="H50" s="5" t="str">
+      <c r="I50" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">gui.component.TargetSelectionPane.050=No such sheet : </v>
       </c>
-      <c r="I50" s="6" t="str">
+      <c r="J50" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.TargetSelectionPane.050=没有找到工作表：</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
-      <c r="G51" s="4" t="str">
+    <row r="51" spans="3:10">
+      <c r="H51" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H51" s="5" t="str">
+      <c r="I51" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I51" s="6" t="str">
+      <c r="J51" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="2" t="s">
+    <row r="52" spans="3:10">
+      <c r="C52" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G52" s="4" t="str">
+      <c r="H52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppMain.010=方眼Diff</v>
       </c>
-      <c r="H52" s="5" t="str">
+      <c r="I52" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppMain.010=HoganDiff (方眼Diff)</v>
       </c>
-      <c r="I52" s="6" t="str">
+      <c r="J52" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppMain.010=方眼Diff</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="2" t="s">
+    <row r="53" spans="3:10">
+      <c r="C53" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G53" s="4" t="str">
+      <c r="F53" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppResource.010=設定の保存に失敗しました。</v>
       </c>
-      <c r="H53" s="5" t="str">
+      <c r="I53" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppResource.010=Failed to save settings.</v>
       </c>
-      <c r="I53" s="6" t="str">
+      <c r="J53" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppResource.010=保存设置失败。</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
-      <c r="G54" s="4" t="str">
+    <row r="54" spans="3:10">
+      <c r="C54" s="2"/>
+      <c r="D54" s="3"/>
+      <c r="H54" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H54" s="5" t="str">
+      <c r="I54" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I54" s="6" t="str">
+      <c r="J54" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="8" t="s">
+    <row r="55" spans="3:10">
+      <c r="C55" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="G55" s="4" t="str">
+      <c r="F55" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
       </c>
-      <c r="H55" s="5" t="str">
+      <c r="I55" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.010=Creating working directory...</v>
       </c>
-      <c r="I55" s="6" t="str">
+      <c r="J55" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.010=创建工作文件夹...</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="8" t="s">
+    <row r="56" spans="3:10">
+      <c r="C56" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G56" s="4" t="str">
+      <c r="F56" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
       </c>
-      <c r="H56" s="5" t="str">
+      <c r="I56" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.020=Failed to create working directory.</v>
       </c>
-      <c r="I56" s="6" t="str">
+      <c r="J56" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.020=创建工作文件夹失败。</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="8" t="s">
+    <row r="57" spans="3:10">
+      <c r="C57" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G57" s="4" t="str">
+      <c r="F57" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="H57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
       </c>
-      <c r="H57" s="5" t="str">
+      <c r="I57" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.030=Saving result text...</v>
       </c>
-      <c r="I57" s="6" t="str">
+      <c r="J57" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.030=存储比较结果文本...</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="8" t="s">
+    <row r="58" spans="3:10">
+      <c r="C58" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G58" s="4" t="str">
+      <c r="F58" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="H58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
       </c>
-      <c r="H58" s="5" t="str">
+      <c r="I58" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.040=Opening result text...</v>
       </c>
-      <c r="I58" s="6" t="str">
+      <c r="J58" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.040=显示比较结果文本...</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="8" t="s">
+    <row r="59" spans="3:10">
+      <c r="C59" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G59" s="4" t="str">
+      <c r="F59" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="H59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
       </c>
-      <c r="H59" s="5" t="str">
+      <c r="I59" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.050=Failed to save or open result text.</v>
       </c>
-      <c r="I59" s="6" t="str">
+      <c r="J59" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="8" t="s">
+    <row r="60" spans="3:10">
+      <c r="C60" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G60" s="4" t="str">
+      <c r="F60" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="H60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
       </c>
-      <c r="H60" s="5" t="str">
+      <c r="I60" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.060=Painting and saving result book(s)...</v>
       </c>
-      <c r="I60" s="6" t="str">
+      <c r="J60" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.060=着色和存储在工作簿...</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="8" t="s">
+    <row r="61" spans="3:10">
+      <c r="C61" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G61" s="4" t="str">
+      <c r="F61" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="H61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
       </c>
-      <c r="H61" s="5" t="str">
+      <c r="I61" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
       </c>
-      <c r="I61" s="6" t="str">
+      <c r="J61" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.070=着色和保存工作簿失败。</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="8" t="s">
+    <row r="62" spans="3:10">
+      <c r="C62" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G62" s="4" t="str">
+      <c r="F62" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
       </c>
-      <c r="H62" s="5" t="str">
+      <c r="I62" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.080=Opening result book(s)...</v>
       </c>
-      <c r="I62" s="6" t="str">
+      <c r="J62" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.080=显示比较结果的工作簿...</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="8" t="s">
+    <row r="63" spans="3:10">
+      <c r="C63" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G63" s="4" t="str">
+      <c r="F63" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
       </c>
-      <c r="H63" s="5" t="str">
+      <c r="I63" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.090=Failed to open result book(s).</v>
       </c>
-      <c r="I63" s="6" t="str">
+      <c r="J63" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.090=显示工作簿失败。</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="8" t="s">
+    <row r="64" spans="3:10">
+      <c r="C64" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G64" s="4" t="str">
+      <c r="F64" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
       </c>
-      <c r="H64" s="5" t="str">
+      <c r="I64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.100=Failed to paint or save result book A.</v>
       </c>
-      <c r="I64" s="6" t="str">
+      <c r="J64" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="8" t="s">
+    <row r="65" spans="3:10">
+      <c r="C65" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G65" s="4" t="str">
+      <c r="F65" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
       </c>
-      <c r="H65" s="5" t="str">
+      <c r="I65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.110=Failed to paint or save result book B.</v>
       </c>
-      <c r="I65" s="6" t="str">
+      <c r="J65" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="8" t="s">
+    <row r="66" spans="3:10">
+      <c r="C66" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G66" s="4" t="str">
+      <c r="F66" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="H66" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.120=処理が完了しました。</v>
       </c>
-      <c r="H66" s="5" t="str">
+      <c r="I66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.120=Process completed.</v>
       </c>
-      <c r="I66" s="6" t="str">
+      <c r="J66" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.120=过程完成。</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
-      <c r="G67" s="4" t="str">
-        <f t="shared" si="0"/>
+    <row r="67" spans="3:10">
+      <c r="C67" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H67" s="4" t="str">
+        <f t="shared" ref="H67:H130" si="3" xml:space="preserve"> IF($C67="", "", $C67 &amp; "=" &amp; D67)</f>
+        <v>AppTaskBase.130=比較結果フォルダを表示しています...</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f t="shared" ref="I67:I130" si="4" xml:space="preserve"> IF($C67="", "", $C67 &amp; "=" &amp; E67)</f>
+        <v>AppTaskBase.130=Opening result folder...</v>
+      </c>
+      <c r="J67" s="6" t="str">
+        <f t="shared" ref="J67:J130" si="5" xml:space="preserve"> IF($C67="", "", $C67 &amp; "=" &amp; F67)</f>
+        <v>AppTaskBase.130=显示比较结果文件夹...</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10">
+      <c r="C68" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="H68" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.140=比較結果フォルダの表示に失敗しました。</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.140=Failed to open result folder(s).</v>
+      </c>
+      <c r="J68" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.140=显示文件夹失败。</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10">
+      <c r="C69" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H69" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.150=★失敗しました</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.150=★Failed</v>
+      </c>
+      <c r="J69" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.150=★失败</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10">
+      <c r="C70" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H70" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.160=(比較対象ファイルなし)</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.160=(No files to compare)</v>
+      </c>
+      <c r="J70" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.160=(没有可比较的文件)</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10">
+      <c r="C71" s="2"/>
+      <c r="D71" s="3"/>
+      <c r="H71" s="4" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H67" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="I71" s="5" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I67" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="J71" s="6" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="8" t="s">
+    <row r="72" spans="3:10">
+      <c r="C72" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G68" s="4" t="str">
-        <f t="shared" ref="G68:G117" si="3" xml:space="preserve"> IF($B68="", "", $B68 &amp; "=" &amp; C68)</f>
+      <c r="E72" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="H72" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
       </c>
-      <c r="H68" s="5" t="str">
-        <f t="shared" ref="H68:H117" si="4" xml:space="preserve"> IF($B68="", "", $B68 &amp; "=" &amp; D68)</f>
+      <c r="I72" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>CompareBooksTask.010=Starting comparing books.</v>
       </c>
-      <c r="I68" s="6" t="str">
-        <f t="shared" ref="I68:I117" si="5" xml:space="preserve"> IF($B68="", "", $B68 &amp; "=" &amp; E68)</f>
+      <c r="J72" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>CompareBooksTask.010=开始互相比较工作簿。</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="8" t="s">
+    <row r="73" spans="3:10">
+      <c r="C73" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G69" s="4" t="str">
+      <c r="F73" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="H73" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
       </c>
-      <c r="H69" s="5" t="str">
+      <c r="I73" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.020=Pairing sheets...</v>
       </c>
-      <c r="I69" s="6" t="str">
+      <c r="J73" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="8" t="s">
+    <row r="74" spans="3:10">
+      <c r="C74" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G70" s="4" t="str">
+      <c r="F74" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H74" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H70" s="5" t="str">
+      <c r="I74" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.030=Failed to pair sheets.</v>
       </c>
-      <c r="I70" s="6" t="str">
+      <c r="J74" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.030=确定工作表组合失败。</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="8" t="s">
+    <row r="75" spans="3:10">
+      <c r="C75" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G71" s="4" t="str">
+      <c r="F75" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H75" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.040=シートを比較しています...</v>
       </c>
-      <c r="H71" s="5" t="str">
+      <c r="I75" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.040=Comparing sheets...</v>
       </c>
-      <c r="I71" s="6" t="str">
+      <c r="J75" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.040=比较工作表...</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="8" t="s">
+    <row r="76" spans="3:10">
+      <c r="C76" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G72" s="4" t="str">
+      <c r="F76" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H76" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
       </c>
-      <c r="H72" s="5" t="str">
+      <c r="I76" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.050=Failed to compare sheets.</v>
       </c>
-      <c r="I72" s="6" t="str">
+      <c r="J76" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.050=工作表比较失败。</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="2"/>
-      <c r="C73" s="3"/>
-      <c r="G73" s="4" t="str">
+    <row r="77" spans="3:10">
+      <c r="C77" s="2"/>
+      <c r="D77" s="3"/>
+      <c r="H77" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H73" s="5" t="str">
+      <c r="I77" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I73" s="6" t="str">
+      <c r="J77" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="8" t="s">
+    <row r="78" spans="3:10">
+      <c r="C78" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G74" s="4" t="str">
+      <c r="E78" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H78" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
       </c>
-      <c r="H74" s="5" t="str">
+      <c r="I78" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.010=Starting comparing folders.</v>
       </c>
-      <c r="I74" s="6" t="str">
+      <c r="J78" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.010=开始互相比较文件夹。</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="8" t="s">
+    <row r="79" spans="3:10">
+      <c r="C79" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="G75" s="4" t="str">
+      <c r="E79" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="H79" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
       </c>
-      <c r="H75" s="5" t="str">
+      <c r="I79" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.020=Failed to create output directory.</v>
       </c>
-      <c r="I75" s="6" t="str">
+      <c r="J79" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="8" t="s">
+    <row r="80" spans="3:10">
+      <c r="C80" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G76" s="4" t="str">
+      <c r="E80" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="H80" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
       </c>
-      <c r="H76" s="5" t="str">
+      <c r="I80" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.030=Pairing books...</v>
       </c>
-      <c r="I76" s="6" t="str">
+      <c r="J80" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="8" t="s">
+    <row r="81" spans="3:10">
+      <c r="C81" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G77" s="4" t="str">
+      <c r="E81" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H81" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H77" s="5" t="str">
+      <c r="I81" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.040=Failed to pair books.</v>
       </c>
-      <c r="I77" s="6" t="str">
+      <c r="J81" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.040=确定工作簿组合失败。</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="8" t="s">
+    <row r="82" spans="3:10">
+      <c r="C82" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G78" s="4" t="str">
+      <c r="E82" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H82" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.050=Excelブックを比較しています...</v>
       </c>
-      <c r="H78" s="5" t="str">
+      <c r="I82" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.050=Comparing books...</v>
       </c>
-      <c r="I78" s="6" t="str">
+      <c r="J82" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.050=比较工作簿...</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="8" t="s">
+    <row r="83" spans="3:10">
+      <c r="C83" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G79" s="4" t="str">
+      <c r="E83" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H83" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.060=★失敗しました</v>
       </c>
-      <c r="H79" s="5" t="str">
+      <c r="I83" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.060=★Failed</v>
       </c>
-      <c r="I79" s="6" t="str">
+      <c r="J83" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.060=★失败</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="G80" s="4" t="str">
+    <row r="84" spans="3:10">
+      <c r="C84" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H84" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CompareDirsTask.070=比較結果フォルダを表示しています...</v>
-      </c>
-      <c r="H80" s="5" t="str">
+        <v>CompareDirsTask.070=(比較対象ファイルなし)</v>
+      </c>
+      <c r="I84" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>CompareDirsTask.070=Opening result folder...</v>
-      </c>
-      <c r="I80" s="6" t="str">
+        <v>CompareDirsTask.070=(No files to compare)</v>
+      </c>
+      <c r="J84" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>CompareDirsTask.070=显示比较结果文件夹...</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="G81" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareDirsTask.080=比較結果フォルダの表示に失敗しました。</v>
-      </c>
-      <c r="H81" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareDirsTask.080=Failed to open result folder(s).</v>
-      </c>
-      <c r="I81" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareDirsTask.080=显示文件夹失败。</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="2"/>
-      <c r="C82" s="3"/>
-      <c r="G82" s="4" t="str">
+        <v>CompareDirsTask.070=(没有可比较的文件)</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10">
+      <c r="C85" s="2"/>
+      <c r="D85" s="3"/>
+      <c r="H85" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H82" s="5" t="str">
+      <c r="I85" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I82" s="6" t="str">
+      <c r="J85" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C83" s="3" t="s">
+    <row r="86" spans="3:10">
+      <c r="C86" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G83" s="4" t="str">
+      <c r="E86" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H86" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
       </c>
-      <c r="H83" s="5" t="str">
+      <c r="I86" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareSheetsTask.010=Starting comparing sheets.</v>
       </c>
-      <c r="I83" s="6" t="str">
+      <c r="J86" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C84" s="3" t="s">
+    <row r="87" spans="3:10">
+      <c r="C87" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G84" s="4" t="str">
+      <c r="F87" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="H87" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareSheetsTask.020=シートを比較しています...</v>
       </c>
-      <c r="H84" s="5" t="str">
+      <c r="I87" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareSheetsTask.020=Comparing sheets...</v>
       </c>
-      <c r="I84" s="6" t="str">
+      <c r="J87" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareSheetsTask.020=比较工作表...</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C85" s="3" t="s">
+    <row r="88" spans="3:10">
+      <c r="C88" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="E88" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E85" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G85" s="4" t="str">
+      <c r="F88" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H88" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
       </c>
-      <c r="H85" s="5" t="str">
+      <c r="I88" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareSheetsTask.030=Failed to compare sheets.</v>
       </c>
-      <c r="I85" s="6" t="str">
+      <c r="J88" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareSheetsTask.030=工作表比较失败。</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="2"/>
-      <c r="C86" s="3"/>
-      <c r="G86" s="4" t="str">
+    <row r="89" spans="3:10">
+      <c r="C89" s="2"/>
+      <c r="D89" s="3"/>
+      <c r="H89" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H86" s="5" t="str">
+      <c r="I89" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I86" s="6" t="str">
+      <c r="J89" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="2" t="s">
+    <row r="90" spans="3:10">
+      <c r="C90" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="H90" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
+      </c>
+      <c r="I90" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareTreesTask.010=Starting comparing folder trees.</v>
+      </c>
+      <c r="J90" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10">
+      <c r="C91" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H91" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareTreesTask.020=Pairing folders...</v>
+      </c>
+      <c r="J91" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10">
+      <c r="C92" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="H92" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
+      </c>
+      <c r="I92" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareTreesTask.030=Failed to pair folders.</v>
+      </c>
+      <c r="J92" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareTreesTask.030=确定文件夹组合失败。</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10">
+      <c r="C93" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="H93" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareTreesTask.040=Comparing folders...</v>
+      </c>
+      <c r="J93" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareTreesTask.040=比较文件夹...</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10">
+      <c r="C94" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H94" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareTreesTask.050=★失敗しました</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareTreesTask.050=★Failed</v>
+      </c>
+      <c r="J94" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareTreesTask.050=★失败</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10">
+      <c r="C95" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H95" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareTreesTask.060=(比較対象ファイルなし)</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareTreesTask.060=(No files to compare)</v>
+      </c>
+      <c r="J95" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareTreesTask.060=(没有可比较的文件)</v>
+      </c>
+    </row>
+    <row r="96" spans="3:10">
+      <c r="C96" s="2"/>
+      <c r="D96" s="3"/>
+      <c r="H96" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I96" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J96" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="3:10">
+      <c r="C97" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="E97" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E87" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G87" s="4" t="str">
+      <c r="F97" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="H97" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.010=(比較相手なし)</v>
       </c>
-      <c r="H87" s="5" t="str">
+      <c r="I97" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.010=(no opponent)</v>
       </c>
-      <c r="I87" s="6" t="str">
+      <c r="J97" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="2" t="s">
+    <row r="98" spans="3:10">
+      <c r="C98" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="E98" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E88" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G88" s="4" t="str">
+      <c r="F98" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="H98" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.020=(差分なし)</v>
       </c>
-      <c r="H88" s="5" t="str">
+      <c r="I98" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.020=(no diffs)</v>
       </c>
-      <c r="I88" s="6" t="str">
+      <c r="J98" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.020=(没有区别)</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="8" t="s">
+    <row r="99" spans="3:10">
+      <c r="C99" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G89" s="4" t="str">
+      <c r="D99" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="H99" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.030=差異発生%dシート</v>
       </c>
-      <c r="H89" s="5" t="str">
+      <c r="I99" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.030=diff sheets:%d</v>
       </c>
-      <c r="I89" s="6" t="str">
+      <c r="J99" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="8" t="s">
+    <row r="100" spans="3:10">
+      <c r="C100" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G90" s="4" t="str">
+      <c r="D100" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H100" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.040=余剰%dシート</v>
       </c>
-      <c r="H90" s="5" t="str">
+      <c r="I100" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.040=redundant sheets:%d</v>
       </c>
-      <c r="I90" s="6" t="str">
+      <c r="J100" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.040=冗余工作表%d</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
-      <c r="B91" s="8" t="s">
+    <row r="101" spans="3:10">
+      <c r="C101" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G91" s="4" t="str">
+      <c r="D101" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H101" s="4" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
       </c>
-      <c r="H91" s="5" t="str">
+      <c r="I101" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">excel.BResult.050=Book %s : </v>
       </c>
-      <c r="I91" s="6" t="str">
+      <c r="J101" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">excel.BResult.050=工作簿%s : </v>
       </c>
     </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C92" s="3" t="s">
+    <row r="102" spans="3:10">
+      <c r="C102" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="E102" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="F102" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G92" s="4" t="str">
+      <c r="H102" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H92" s="5" t="str">
+      <c r="I102" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I92" s="6" t="str">
+      <c r="J102" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C93" s="3" t="s">
+    <row r="103" spans="3:10">
+      <c r="C103" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="E103" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E93" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G93" s="4" t="str">
+      <c r="F103" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H103" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H93" s="5" t="str">
+      <c r="I103" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I93" s="6" t="str">
+      <c r="J103" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
-      <c r="G94" s="4" t="str">
+    <row r="104" spans="3:10">
+      <c r="H104" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H94" s="5" t="str">
+      <c r="I104" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I94" s="6" t="str">
+      <c r="J104" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="2" t="s">
+    <row r="105" spans="3:10">
+      <c r="C105" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="E105" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E95" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G95" s="4" t="str">
+      <c r="F105" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="H105" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
       </c>
-      <c r="H95" s="5" t="str">
+      <c r="I105" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
       </c>
-      <c r="I95" s="6" t="str">
+      <c r="J105" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
-      <c r="G96" s="4" t="str">
+    <row r="106" spans="3:10">
+      <c r="H106" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H96" s="5" t="str">
+      <c r="I106" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I96" s="6" t="str">
+      <c r="J106" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C97" s="3" t="s">
+    <row r="107" spans="3:10">
+      <c r="C107" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="E107" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E97" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G97" s="4" t="str">
+      <c r="F107" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="H107" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.010=(比較相手なし)</v>
       </c>
-      <c r="H97" s="5" t="str">
+      <c r="I107" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.010=(no opponent)</v>
       </c>
-      <c r="I97" s="6" t="str">
+      <c r="J107" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G98" s="4" t="str">
+    <row r="108" spans="3:10">
+      <c r="C108" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="H108" s="4" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
       </c>
-      <c r="H98" s="5" t="str">
+      <c r="I108" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
       </c>
-      <c r="I98" s="6" t="str">
+      <c r="J108" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
       </c>
     </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C99" s="3" t="s">
+    <row r="109" spans="3:10">
+      <c r="C109" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="E109" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="F109" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G99" s="4" t="str">
+      <c r="H109" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H99" s="5" t="str">
+      <c r="I109" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I99" s="6" t="str">
+      <c r="J109" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C100" s="3" t="s">
+    <row r="110" spans="3:10">
+      <c r="C110" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="E110" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G100" s="4" t="str">
+      <c r="F110" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H110" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H100" s="5" t="str">
+      <c r="I110" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I100" s="6" t="str">
+      <c r="J110" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C101" s="4" t="s">
+    <row r="111" spans="3:10">
+      <c r="C111" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G101" s="4" t="str">
+      <c r="E111" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H111" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.050=★失敗しました</v>
       </c>
-      <c r="H101" s="5" t="str">
+      <c r="I111" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.050=★Failed</v>
       </c>
-      <c r="I101" s="6" t="str">
+      <c r="J111" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.050=★失败</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C102" s="3" t="s">
+    <row r="112" spans="3:10">
+      <c r="C112" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="E112" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E102" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G102" s="4" t="str">
+      <c r="F112" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="H112" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.060=(差分なし)</v>
       </c>
-      <c r="H102" s="5" t="str">
+      <c r="I112" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.060=(no diffs)</v>
       </c>
-      <c r="I102" s="6" t="str">
+      <c r="J112" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.060=(没有区别)</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
-      <c r="G103" s="4" t="str">
+    <row r="113" spans="3:10">
+      <c r="C113" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H113" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>excel.DResult.070=差異発生%dブック</v>
+      </c>
+      <c r="I113" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>excel.DResult.070=diff books:%d</v>
+      </c>
+      <c r="J113" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>excel.DResult.070=差异工作簿%d</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10">
+      <c r="C114" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="H114" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>excel.DResult.080=余剰%dブック</v>
+      </c>
+      <c r="I114" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>excel.DResult.080=redundant books:%d</v>
+      </c>
+      <c r="J114" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>excel.DResult.080=冗余工作簿%d</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10">
+      <c r="C115" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="H115" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>excel.DResult.090=比較失敗%dブック</v>
+      </c>
+      <c r="I115" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>excel.DResult.090=failed books:%d</v>
+      </c>
+      <c r="J115" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>excel.DResult.090=失败工作簿%d</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10">
+      <c r="C116" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H116" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>excel.DResult.100=(比較対象ファイルなし)</v>
+      </c>
+      <c r="I116" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>excel.DResult.100=(No files to compare)</v>
+      </c>
+      <c r="J116" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>excel.DResult.100=(没有可比较的文件)</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10">
+      <c r="H117" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H103" s="5" t="str">
+      <c r="I117" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I103" s="6" t="str">
+      <c r="J117" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:9">
-      <c r="B104" s="2" t="s">
+    <row r="118" spans="3:10">
+      <c r="C118" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="F118" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G104" s="4" t="str">
+      <c r="H118" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SheetType.010=ワークシート</v>
       </c>
-      <c r="H104" s="5" t="str">
+      <c r="I118" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SheetType.010=Worksheet</v>
       </c>
-      <c r="I104" s="6" t="str">
+      <c r="J118" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="2" t="s">
+    <row r="119" spans="3:10">
+      <c r="C119" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="E119" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E105" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G105" s="4" t="str">
+      <c r="F119" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H119" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SheetType.020=グラフシート</v>
       </c>
-      <c r="H105" s="5" t="str">
+      <c r="I119" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SheetType.020=Chart</v>
       </c>
-      <c r="I105" s="6" t="str">
+      <c r="J119" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SheetType.020=图表表</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
-      <c r="B106" s="2" t="s">
+    <row r="120" spans="3:10">
+      <c r="C120" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="E120" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E106" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G106" s="4" t="str">
+      <c r="F120" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H120" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
       </c>
-      <c r="H106" s="5" t="str">
+      <c r="I120" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
       </c>
-      <c r="I106" s="6" t="str">
+      <c r="J120" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
-      <c r="B107" s="2" t="s">
+    <row r="121" spans="3:10">
+      <c r="C121" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="E121" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="F121" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G107" s="4" t="str">
+      <c r="H121" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
       </c>
-      <c r="H107" s="5" t="str">
+      <c r="I121" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SheetType.040=Excel 4.0 Macro</v>
       </c>
-      <c r="I107" s="6" t="str">
+      <c r="J121" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SheetType.040=Excel 4.0 宏表</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="2"/>
-      <c r="C108" s="3"/>
-      <c r="G108" s="4" t="str">
+    <row r="122" spans="3:10">
+      <c r="C122" s="2"/>
+      <c r="D122" s="3"/>
+      <c r="H122" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H108" s="5" t="str">
+      <c r="I122" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I108" s="6" t="str">
+      <c r="J122" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:9">
-      <c r="B109" s="2" t="s">
+    <row r="123" spans="3:10">
+      <c r="C123" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="E123" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E109" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G109" s="4" t="str">
+      <c r="F123" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="H123" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SResult.010=(差分なし)</v>
       </c>
-      <c r="H109" s="5" t="str">
+      <c r="I123" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SResult.010=(no diffs)</v>
       </c>
-      <c r="I109" s="6" t="str">
+      <c r="J123" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="2" t="s">
+    <row r="124" spans="3:10">
+      <c r="C124" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="E124" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="F124" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G110" s="4" t="str">
+      <c r="H124" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SResult.020=余剰行%d</v>
       </c>
-      <c r="H110" s="5" t="str">
+      <c r="I124" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SResult.020=redundant rows:%d</v>
       </c>
-      <c r="I110" s="6" t="str">
+      <c r="J124" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SResult.020=冗余行%d</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="2" t="s">
+    <row r="125" spans="3:10">
+      <c r="C125" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="E125" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="F125" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G111" s="4" t="str">
+      <c r="H125" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SResult.030=余剰列%d</v>
       </c>
-      <c r="H111" s="5" t="str">
+      <c r="I125" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SResult.030=redundant columns:%d</v>
       </c>
-      <c r="I111" s="6" t="str">
+      <c r="J125" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SResult.030=冗余列%d</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
-      <c r="B112" s="2" t="s">
+    <row r="126" spans="3:10">
+      <c r="C126" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="E126" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E112" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G112" s="4" t="str">
+      <c r="F126" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="H126" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SResult.040=差分セル%d</v>
       </c>
-      <c r="H112" s="5" t="str">
+      <c r="I126" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SResult.040=diff cells:%d</v>
       </c>
-      <c r="I112" s="6" t="str">
+      <c r="J126" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SResult.040=差异单元格%d</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
-      <c r="B113" s="2" t="s">
+    <row r="127" spans="3:10">
+      <c r="C127" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G113" s="4" t="str">
+      <c r="E127" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="H127" s="4" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
       </c>
-      <c r="H113" s="5" t="str">
+      <c r="I127" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
       </c>
-      <c r="I113" s="6" t="str">
+      <c r="J127" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
       </c>
     </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="2" t="s">
+    <row r="128" spans="3:10">
+      <c r="C128" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="E128" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="F128" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G114" s="4" t="str">
+      <c r="H128" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SResult.060=行%d</v>
       </c>
-      <c r="H114" s="5" t="str">
+      <c r="I128" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SResult.060=Row %d</v>
       </c>
-      <c r="I114" s="6" t="str">
+      <c r="J128" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SResult.060=行%d</v>
       </c>
     </row>
-    <row r="115" spans="2:9">
-      <c r="B115" s="2" t="s">
+    <row r="129" spans="3:10">
+      <c r="C129" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G115" s="4" t="str">
+      <c r="E129" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H129" s="4" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
       </c>
-      <c r="H115" s="5" t="str">
+      <c r="I129" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
       </c>
-      <c r="I115" s="6" t="str">
+      <c r="J129" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
       </c>
     </row>
-    <row r="116" spans="2:9">
-      <c r="B116" s="2" t="s">
+    <row r="130" spans="3:10">
+      <c r="C130" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="E130" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="F130" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G116" s="4" t="str">
+      <c r="H130" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SResult.080=%s列</v>
       </c>
-      <c r="H116" s="5" t="str">
+      <c r="I130" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SResult.080=Column %s</v>
       </c>
-      <c r="I116" s="6" t="str">
+      <c r="J130" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SResult.080=%s列</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
-      <c r="B117" s="2" t="s">
+    <row r="131" spans="3:10">
+      <c r="C131" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="D131" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G117" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="E131" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H131" s="4" t="str">
+        <f t="shared" ref="H131:H137" si="6" xml:space="preserve"> IF($C131="", "", $C131 &amp; "=" &amp; D131)</f>
         <v xml:space="preserve">excel.SResult.090=差分セル : </v>
       </c>
-      <c r="H117" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="I131" s="5" t="str">
+        <f t="shared" ref="I131:I137" si="7" xml:space="preserve"> IF($C131="", "", $C131 &amp; "=" &amp; E131)</f>
         <v xml:space="preserve">excel.SResult.090=Diff cells : </v>
       </c>
-      <c r="I117" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="J131" s="6" t="str">
+        <f t="shared" ref="J131:J137" si="8" xml:space="preserve"> IF($C131="", "", $C131 &amp; "=" &amp; F131)</f>
         <v xml:space="preserve">excel.SResult.090=差异单元格 : </v>
+      </c>
+    </row>
+    <row r="132" spans="3:10">
+      <c r="H132" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I132" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J132" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="3:10">
+      <c r="C133" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="H133" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.TreeResult.010=(比較相手なし)</v>
+      </c>
+      <c r="I133" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.TreeResult.010=(no opponent)</v>
+      </c>
+      <c r="J133" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.TreeResult.010=(没有对比)</v>
+      </c>
+    </row>
+    <row r="134" spans="3:10">
+      <c r="C134" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="H134" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
+      </c>
+      <c r="I134" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
+      </c>
+      <c r="J134" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
+      </c>
+    </row>
+    <row r="135" spans="3:10">
+      <c r="C135" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H135" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
+      </c>
+      <c r="I135" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
+      </c>
+      <c r="J135" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="136" spans="3:10">
+      <c r="C136" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H136" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
+      </c>
+      <c r="I136" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
+      </c>
+      <c r="J136" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="137" spans="3:10">
+      <c r="C137" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H137" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.TreeResult.050=★失敗しました</v>
+      </c>
+      <c r="I137" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.TreeResult.050=★Failed</v>
+      </c>
+      <c r="J137" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.TreeResult.050=★失败</v>
       </c>
     </row>
   </sheetData>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202306-2/hogandiff4/xyz.hotchpotch.hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3CC2E87-A99E-4F20-AC5C-AD6B536C4FC8}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC005B00-3711-48AE-9BC0-A94151F13F48}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="459">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -1615,20 +1615,6 @@
   </si>
   <si>
     <r>
-      <t>工作簿B的着色和保存失</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>败。</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF00B050"/>
@@ -2348,6 +2334,149 @@
   </si>
   <si>
     <t>(没有可比较的文件)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel.poi.usermodel.TreeResultBookCreator.010</t>
+  </si>
+  <si>
+    <t>比較フォルダ%s</t>
+  </si>
+  <si>
+    <t>excel.poi.usermodel.TreeResultBookCreator.020</t>
+  </si>
+  <si>
+    <t>作業用フォルダ</t>
+  </si>
+  <si>
+    <t>CompareTreesTask.070</t>
+  </si>
+  <si>
+    <t>比較結果Excelブックを保存しています...</t>
+  </si>
+  <si>
+    <t>CompareTreesTask.080</t>
+  </si>
+  <si>
+    <t>比較結果Excelブックの保存に失敗しました。</t>
+  </si>
+  <si>
+    <t>CompareTreesTask.090</t>
+  </si>
+  <si>
+    <t>比較結果Excelブックを表示しています...</t>
+  </si>
+  <si>
+    <t>CompareTreesTask.100</t>
+  </si>
+  <si>
+    <t>比較結果Excelブックの表示に失敗しました。</t>
+  </si>
+  <si>
+    <t>working dir</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工作文件夹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Folder %s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>文件夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>%s</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saving result book...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>工作簿B的着色和保存失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>败。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>储比较结果工作簿...</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to save result book.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>保存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>比较结果工作簿失败。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Opening result book...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>显示比较结果工作簿...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to open result book.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>比较结果工作簿失败。</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2495,6 +2624,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2761,7 +2894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J137"/>
+  <dimension ref="B1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2770,3418 +2903,3588 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="2.5625" style="1"/>
-    <col min="3" max="3" width="34.6875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.5625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="30.5625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="2.5625" style="1"/>
-    <col min="8" max="8" width="2.5625" style="4"/>
-    <col min="9" max="9" width="2.5625" style="5"/>
-    <col min="10" max="10" width="2.5625" style="6"/>
-    <col min="11" max="16384" width="2.5625" style="1"/>
+    <col min="1" max="1" width="2.5625" style="1"/>
+    <col min="2" max="2" width="34.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.5625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.5625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="2.5625" style="1"/>
+    <col min="7" max="7" width="2.5625" style="4"/>
+    <col min="8" max="8" width="2.5625" style="5"/>
+    <col min="9" max="9" width="2.5625" style="6"/>
+    <col min="10" max="16384" width="2.5625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="3:10">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="2:9">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="H2" s="4" t="str">
-        <f xml:space="preserve"> IF($C2="", "", $C2 &amp; "=" &amp; D2)</f>
+      <c r="G2" s="4" t="str">
+        <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; C2)</f>
         <v>fx.ExecutePane.010=実行</v>
       </c>
-      <c r="I2" s="5" t="str">
-        <f xml:space="preserve"> IF($C2="", "", $C2 &amp; "=" &amp; E2)</f>
+      <c r="H2" s="5" t="str">
+        <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; D2)</f>
         <v>fx.ExecutePane.010=Exec</v>
       </c>
-      <c r="J2" s="6" t="str">
-        <f xml:space="preserve"> IF($C2="", "", $C2 &amp; "=" &amp; F2)</f>
+      <c r="I2" s="6" t="str">
+        <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; E2)</f>
         <v>fx.ExecutePane.010=执行</v>
       </c>
     </row>
-    <row r="3" spans="3:10">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="2:9">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H66" si="0" xml:space="preserve"> IF($C3="", "", $C3 &amp; "=" &amp; D3)</f>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3:G66" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
-      <c r="I3" s="5" t="str">
-        <f t="shared" ref="I3:I66" si="1" xml:space="preserve"> IF($C3="", "", $C3 &amp; "=" &amp; E3)</f>
+      <c r="H3" s="5" t="str">
+        <f t="shared" ref="H3:H66" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
-      <c r="J3" s="6" t="str">
-        <f t="shared" ref="J3:J66" si="2" xml:space="preserve"> IF($C3="", "", $C3 &amp; "=" &amp; F3)</f>
+      <c r="I3" s="6" t="str">
+        <f t="shared" ref="I3:I66" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
     </row>
-    <row r="4" spans="3:10">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="2:9">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="H4" s="4" t="str">
+      <c r="C4" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.MenuPane.010=ブック</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="H4" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.MenuPane.010=Books</v>
       </c>
-      <c r="J4" s="6" t="str">
+      <c r="I4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.MenuPane.010=工作簿</v>
       </c>
     </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="H5" s="4" t="str">
+      <c r="C5" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.MenuPane.020=シート</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="H5" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.MenuPane.020=Sheets</v>
       </c>
-      <c r="J5" s="6" t="str">
+      <c r="I5" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.MenuPane.020=工作表</v>
       </c>
     </row>
-    <row r="6" spans="3:10">
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="H6" s="4" t="str">
+      <c r="C6" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.MenuPane.030=フォルダ</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="H6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.MenuPane.030=Folders</v>
       </c>
-      <c r="J6" s="6" t="str">
+      <c r="I6" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.MenuPane.030=文件夹</v>
       </c>
     </row>
-    <row r="7" spans="3:10">
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="2:9">
+      <c r="B7" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.MenuPane.040=子フォルダも含める</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="H7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.MenuPane.040=Include child folders</v>
       </c>
-      <c r="J7" s="6" t="str">
+      <c r="I7" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.MenuPane.040=包括子文件夹</v>
       </c>
     </row>
-    <row r="8" spans="3:10">
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="2:9">
+      <c r="B8" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="H8" s="4" t="str">
+      <c r="D8" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.MenuPane.050=比較対象：</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="H8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.MenuPane.050=Compare</v>
       </c>
-      <c r="J8" s="6" t="str">
+      <c r="I8" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.MenuPane.050=互相比较</v>
       </c>
     </row>
-    <row r="9" spans="3:10">
-      <c r="C9" s="2" t="s">
+    <row r="9" spans="2:9">
+      <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.PasswordDialogPane.010=パスワード：</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="H9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.PasswordDialogPane.010=password :</v>
       </c>
-      <c r="J9" s="6" t="str">
+      <c r="I9" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.PasswordDialogPane.010=密码：</v>
       </c>
     </row>
-    <row r="10" spans="3:10">
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="2:9">
+      <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="H10" s="4" t="str">
+      <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.PasswordDialogPane.020=パスワードが異なります。</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="H10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.PasswordDialogPane.020=incorrect password</v>
       </c>
-      <c r="J10" s="6" t="str">
+      <c r="I10" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.PasswordDialogPane.020=密码不正确。</v>
       </c>
     </row>
-    <row r="11" spans="3:10">
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="2:9">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="H11" s="4" t="str">
+      <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.010=比較オプション</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="H11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.010=Comparison options</v>
       </c>
-      <c r="J11" s="6" t="str">
+      <c r="I11" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.010=比较选项</v>
       </c>
     </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="2:9">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H12" s="4" t="str">
+      <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.compare.010=行の挿入／削除を考慮する</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="H12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.compare.010=consider row insertions/deletions</v>
       </c>
-      <c r="J12" s="6" t="str">
+      <c r="I12" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.compare.010=考虑行的插入／删除</v>
       </c>
     </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="2" t="s">
+    <row r="13" spans="2:9">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H13" s="4" t="str">
+      <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.compare.020=列の挿入／削除を考慮する</v>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="H13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.compare.020=consider column insertions/deletions</v>
       </c>
-      <c r="J13" s="6" t="str">
+      <c r="I13" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.compare.020=考虑列的插入／删除</v>
       </c>
     </row>
-    <row r="14" spans="3:10">
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="2:9">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="H14" s="4" t="str">
+      <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.compare.030=値を比較する</v>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="H14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.compare.030=compare values</v>
       </c>
-      <c r="J14" s="6" t="str">
+      <c r="I14" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.compare.030=比较值</v>
       </c>
     </row>
-    <row r="15" spans="3:10">
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="2:9">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="H15" s="4" t="str">
+      <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.compare.040=数式を比較する</v>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="H15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.compare.040=compare formulas</v>
       </c>
-      <c r="J15" s="6" t="str">
+      <c r="I15" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.compare.040=比较公式</v>
       </c>
     </row>
-    <row r="16" spans="3:10">
-      <c r="C16" s="2" t="s">
+    <row r="16" spans="2:9">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="H16" s="4" t="str">
+      <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.020=レポートオプション</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="H16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.020=Reporting options</v>
       </c>
-      <c r="J16" s="6" t="str">
+      <c r="I16" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.020=报告选项</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="2" t="s">
+    <row r="17" spans="2:9">
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="H17" s="4" t="str">
+      <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.report.010=差分セルに色を付けて表示する</v>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="H17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.report.010=display diff cells with color</v>
       </c>
-      <c r="J17" s="6" t="str">
+      <c r="I17" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.report.010=给不同的单元格着色</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="2" t="s">
+    <row r="18" spans="2:9">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="H18" s="4" t="str">
+      <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.report.020=比較結果のテキストを表示する</v>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="H18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.report.020=display result in text</v>
       </c>
-      <c r="J18" s="6" t="str">
+      <c r="I18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.report.020=显示比较结果的文本</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="2" t="s">
+    <row r="19" spans="2:9">
+      <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="H19" s="4" t="str">
+      <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.030=実行オプション</v>
       </c>
-      <c r="I19" s="5" t="str">
+      <c r="H19" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.030=Execution options</v>
       </c>
-      <c r="J19" s="6" t="str">
+      <c r="I19" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.030=执行选项</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
-      <c r="C20" s="2" t="s">
+    <row r="20" spans="2:9">
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="H20" s="4" t="str">
+      <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.execute.010=比較完了時にこのアプリを終了する</v>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="H20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.execute.010=exit this app upon completion</v>
       </c>
-      <c r="J20" s="6" t="str">
+      <c r="I20" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.execute.010=比较结束后自动退出此应用程序</v>
       </c>
     </row>
-    <row r="21" spans="3:10">
-      <c r="C21" s="2" t="s">
+    <row r="21" spans="2:9">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="H21" s="4" t="str">
+      <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane1.execute.020=省メモリモード</v>
       </c>
-      <c r="I21" s="5" t="str">
+      <c r="H21" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane1.execute.020=memory-saving mode</v>
       </c>
-      <c r="J21" s="6" t="str">
+      <c r="I21" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane1.execute.020=内存节省模式</v>
       </c>
     </row>
-    <row r="22" spans="3:10">
-      <c r="C22" s="2" t="s">
+    <row r="22" spans="2:9">
+      <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H22" s="4" t="str">
+      <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane2.010=言語</v>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="H22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane2.010=Language</v>
       </c>
-      <c r="J22" s="6" t="str">
+      <c r="I22" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane2.010=语言</v>
       </c>
     </row>
-    <row r="23" spans="3:10">
-      <c r="C23" s="2" t="s">
+    <row r="23" spans="2:9">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H23" s="4" t="str">
+      <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane2.020=作業用\nフォルダ</v>
       </c>
-      <c r="I23" s="5" t="str">
+      <c r="H23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane2.020=Working directory</v>
       </c>
-      <c r="J23" s="6" t="str">
+      <c r="I23" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane2.020=工作\n文件夹</v>
       </c>
     </row>
-    <row r="24" spans="3:10">
-      <c r="C24" s="2" t="s">
+    <row r="24" spans="2:9">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="4" t="str">
+      <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane2.workDir.010=開く</v>
       </c>
-      <c r="I24" s="5" t="str">
+      <c r="H24" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane2.workDir.010=Open</v>
       </c>
-      <c r="J24" s="6" t="str">
+      <c r="I24" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane2.workDir.010=打开</v>
       </c>
     </row>
-    <row r="25" spans="3:10">
-      <c r="C25" s="2" t="s">
+    <row r="25" spans="2:9">
+      <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="H25" s="4" t="str">
+      <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane2.workDir.020=変更...</v>
       </c>
-      <c r="I25" s="5" t="str">
+      <c r="H25" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane2.workDir.020=Change...</v>
       </c>
-      <c r="J25" s="6" t="str">
+      <c r="I25" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane2.workDir.020=改变...</v>
       </c>
     </row>
-    <row r="26" spans="3:10">
-      <c r="C26" s="2" t="s">
+    <row r="26" spans="2:9">
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="H26" s="4" t="str">
+      <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.SettingsPane2.workDir.030=削除...</v>
       </c>
-      <c r="I26" s="5" t="str">
+      <c r="H26" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.SettingsPane2.workDir.030=Delete...</v>
       </c>
-      <c r="J26" s="6" t="str">
+      <c r="I26" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.SettingsPane2.workDir.030=删除...</v>
       </c>
     </row>
-    <row r="27" spans="3:10">
-      <c r="C27" s="2" t="s">
+    <row r="27" spans="2:9">
+      <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="H27" s="4" t="str">
+      <c r="E27" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.TargetSelectionPane.010=ブックパス：</v>
       </c>
-      <c r="I27" s="5" t="str">
+      <c r="H27" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.TargetSelectionPane.010=Book Path :</v>
       </c>
-      <c r="J27" s="6" t="str">
+      <c r="I27" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.TargetSelectionPane.010=工作簿路径 :</v>
       </c>
     </row>
-    <row r="28" spans="3:10">
-      <c r="C28" s="2" t="s">
+    <row r="28" spans="2:9">
+      <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H28" s="4" t="str">
+      <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.TargetSelectionPane.020=シート名：</v>
       </c>
-      <c r="I28" s="5" t="str">
+      <c r="H28" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.TargetSelectionPane.020=Sheet Name :</v>
       </c>
-      <c r="J28" s="6" t="str">
+      <c r="I28" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.TargetSelectionPane.020=工作表名称 :</v>
       </c>
     </row>
-    <row r="29" spans="3:10">
-      <c r="C29" s="2" t="s">
+    <row r="29" spans="2:9">
+      <c r="B29" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="C29" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="H29" s="4" t="str">
+      <c r="E29" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.TargetSelectionPane.030=フォルダパス：</v>
       </c>
-      <c r="I29" s="5" t="str">
+      <c r="H29" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.TargetSelectionPane.030=Folder Path :</v>
       </c>
-      <c r="J29" s="6" t="str">
+      <c r="I29" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.TargetSelectionPane.030=文件夹路径 :</v>
       </c>
     </row>
-    <row r="30" spans="3:10">
-      <c r="H30" s="4" t="str">
+    <row r="30" spans="2:9">
+      <c r="G30" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I30" s="5" t="str">
+      <c r="H30" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J30" s="6" t="str">
+      <c r="I30" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="3:10">
-      <c r="C31" s="2" t="s">
+    <row r="31" spans="2:9">
+      <c r="B31" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.010=比較フォルダ%s</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.010=Folder %s</v>
+      </c>
+      <c r="I31" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.010=文件夹%s</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.020=作業用フォルダ</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.020=working dir</v>
+      </c>
+      <c r="I32" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.020=工作文件夹</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="G33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I33" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="H31" s="4" t="str">
+      <c r="G34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.MainController.010=同じフォルダ同士／ブック同士／シート同士を比較することはできません。</v>
       </c>
-      <c r="I31" s="5" t="str">
+      <c r="H34" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.MainController.010=Please specify different folders/books/sheets.</v>
       </c>
-      <c r="J31" s="6" t="str">
+      <c r="I34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.MainController.010=指定非相同的文件夹／工作簿／工作表。</v>
       </c>
     </row>
-    <row r="32" spans="3:10">
-      <c r="C32" s="2" t="s">
+    <row r="35" spans="2:9">
+      <c r="B35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="H32" s="4" t="str">
+      <c r="G35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
       </c>
-      <c r="I32" s="5" t="str">
+      <c r="H35" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
       </c>
-      <c r="J32" s="6" t="str">
+      <c r="I35" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
       </c>
     </row>
-    <row r="33" spans="3:10">
-      <c r="C33" s="2" t="s">
+    <row r="36" spans="2:9">
+      <c r="B36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="H33" s="4" t="str">
+      <c r="G36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.MainController.030=予期せぬ例外が発生しました。</v>
       </c>
-      <c r="I33" s="5" t="str">
+      <c r="H36" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.MainController.030=Unexpected exception occurred.</v>
       </c>
-      <c r="J33" s="6" t="str">
+      <c r="I36" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.MainController.030=意外的例外。</v>
       </c>
     </row>
-    <row r="34" spans="3:10">
-      <c r="C34" s="2" t="s">
+    <row r="37" spans="2:9">
+      <c r="B37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="H34" s="4" t="str">
+      <c r="G37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.PasswordDialog.010=パスワード指定</v>
       </c>
-      <c r="I34" s="5" t="str">
+      <c r="H37" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.PasswordDialog.010=Enter Password</v>
       </c>
-      <c r="J34" s="6" t="str">
+      <c r="I37" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.PasswordDialog.010=输入密码</v>
       </c>
     </row>
-    <row r="35" spans="3:10">
-      <c r="C35" s="2" t="s">
+    <row r="38" spans="2:9">
+      <c r="B38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="H35" s="4" t="str">
+      <c r="G38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.PasswordDialogPane.010=%s はパスワードで保護されています。</v>
       </c>
-      <c r="I35" s="5" t="str">
+      <c r="H38" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.PasswordDialogPane.010=The book [%s] is password protected.</v>
       </c>
-      <c r="J35" s="6" t="str">
+      <c r="I38" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.PasswordDialogPane.010=%s 是受密码保护的。</v>
       </c>
     </row>
-    <row r="36" spans="3:10">
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="H36" s="4" t="str">
+    <row r="39" spans="2:9">
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="G39" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I36" s="5" t="str">
+      <c r="H39" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J36" s="6" t="str">
+      <c r="I39" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="3:10">
-      <c r="C37" s="2" t="s">
+    <row r="40" spans="2:9">
+      <c r="B40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="H37" s="4" t="str">
+      <c r="G40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.LinkPane.010=Webページの表示に失敗しました。ご利用のブラウザでお試しください。</v>
       </c>
-      <c r="I37" s="5" t="str">
+      <c r="H40" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.LinkPane.010=Failed to open the website. Please try using your browser.</v>
       </c>
-      <c r="J37" s="6" t="str">
+      <c r="I40" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.LinkPane.010=网页未能显示。 请尝试使用你的浏览器。</v>
       </c>
     </row>
-    <row r="38" spans="3:10">
-      <c r="C38" s="7" t="s">
+    <row r="41" spans="2:9">
+      <c r="B41" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="C41" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E41" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="H38" s="4" t="str">
+      <c r="G41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
       </c>
-      <c r="I38" s="5" t="str">
+      <c r="H41" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
       </c>
-      <c r="J38" s="6" t="str">
+      <c r="I41" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
       </c>
     </row>
-    <row r="39" spans="3:10">
-      <c r="C39" s="7" t="s">
+    <row r="42" spans="2:9">
+      <c r="B42" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="H39" s="4" t="str">
+      <c r="G42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
       </c>
-      <c r="I39" s="5" t="str">
+      <c r="H42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
       </c>
-      <c r="J39" s="6" t="str">
+      <c r="I42" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
       </c>
     </row>
-    <row r="40" spans="3:10">
-      <c r="C40" s="7" t="s">
+    <row r="43" spans="2:9">
+      <c r="B43" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="4" t="str">
+      <c r="G43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
       </c>
-      <c r="I40" s="5" t="str">
+      <c r="H43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.SettingsPane2.020=Change working directory</v>
       </c>
-      <c r="J40" s="6" t="str">
+      <c r="I43" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
       </c>
     </row>
-    <row r="41" spans="3:10">
-      <c r="C41" s="7" t="s">
+    <row r="44" spans="2:9">
+      <c r="B44" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="4" t="str">
+      <c r="G44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
       </c>
-      <c r="I41" s="5" t="str">
+      <c r="H44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
       </c>
-      <c r="J41" s="6" t="str">
+      <c r="I44" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
       </c>
     </row>
-    <row r="42" spans="3:10">
-      <c r="C42" s="7" t="s">
+    <row r="45" spans="2:9">
+      <c r="B45" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="4" t="str">
+      <c r="G45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
       </c>
-      <c r="I42" s="5" t="str">
+      <c r="H45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
       </c>
-      <c r="J42" s="6" t="str">
+      <c r="I45" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
       </c>
     </row>
-    <row r="43" spans="3:10">
-      <c r="C43" s="7" t="s">
+    <row r="46" spans="2:9">
+      <c r="B46" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H43" s="4" t="str">
+      <c r="G46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
-      <c r="I43" s="5" t="str">
+      <c r="H46" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
-      <c r="J43" s="6" t="str">
+      <c r="I46" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
     </row>
-    <row r="44" spans="3:10">
-      <c r="C44" s="7" t="s">
+    <row r="47" spans="2:9">
+      <c r="B47" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H44" s="4" t="str">
+      <c r="G47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
-      <c r="I44" s="5" t="str">
+      <c r="H47" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
-      <c r="J44" s="6" t="str">
+      <c r="I47" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
     </row>
-    <row r="45" spans="3:10">
-      <c r="C45" s="7" t="s">
+    <row r="48" spans="2:9">
+      <c r="B48" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="H45" s="4" t="str">
+      <c r="G48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
-      <c r="I45" s="5" t="str">
+      <c r="H48" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
-      <c r="J45" s="6" t="str">
+      <c r="I48" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
     </row>
-    <row r="46" spans="3:10">
-      <c r="C46" s="7" t="s">
+    <row r="49" spans="2:9">
+      <c r="B49" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H46" s="4" t="str">
+      <c r="G49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
       </c>
-      <c r="I46" s="5" t="str">
+      <c r="H49" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
       </c>
-      <c r="J46" s="6" t="str">
+      <c r="I49" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
       </c>
     </row>
-    <row r="47" spans="3:10">
-      <c r="C47" s="7" t="s">
+    <row r="50" spans="2:9">
+      <c r="B50" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="H47" s="4" t="str">
+      <c r="G50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
       </c>
-      <c r="I47" s="5" t="str">
+      <c r="H50" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
       </c>
-      <c r="J47" s="6" t="str">
+      <c r="I50" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
       </c>
     </row>
-    <row r="48" spans="3:10">
-      <c r="C48" s="7" t="s">
+    <row r="51" spans="2:9">
+      <c r="B51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H48" s="4" t="str">
+      <c r="G51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
       </c>
-      <c r="I48" s="5" t="str">
+      <c r="H51" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.TargetSelectionPane.030=Excel book</v>
       </c>
-      <c r="J48" s="6" t="str">
+      <c r="I51" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
       </c>
     </row>
-    <row r="49" spans="3:10">
-      <c r="C49" s="7" t="s">
+    <row r="52" spans="2:9">
+      <c r="B52" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="H49" s="4" t="str">
+      <c r="G52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
       </c>
-      <c r="I49" s="5" t="str">
+      <c r="H52" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
       </c>
-      <c r="J49" s="6" t="str">
+      <c r="I52" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
       </c>
     </row>
-    <row r="50" spans="3:10">
-      <c r="C50" s="7" t="s">
+    <row r="53" spans="2:9">
+      <c r="B53" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H50" s="4" t="str">
+      <c r="G53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.TargetSelectionPane.050=シートが見つかりません：</v>
       </c>
-      <c r="I50" s="5" t="str">
+      <c r="H53" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">gui.component.TargetSelectionPane.050=No such sheet : </v>
       </c>
-      <c r="J50" s="6" t="str">
+      <c r="I53" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.TargetSelectionPane.050=没有找到工作表：</v>
       </c>
     </row>
-    <row r="51" spans="3:10">
-      <c r="H51" s="4" t="str">
+    <row r="54" spans="2:9">
+      <c r="G54" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I51" s="5" t="str">
+      <c r="H54" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J51" s="6" t="str">
+      <c r="I54" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="3:10">
-      <c r="C52" s="2" t="s">
+    <row r="55" spans="2:9">
+      <c r="B55" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H52" s="4" t="str">
+      <c r="G55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppMain.010=方眼Diff</v>
       </c>
-      <c r="I52" s="5" t="str">
+      <c r="H55" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppMain.010=HoganDiff (方眼Diff)</v>
       </c>
-      <c r="J52" s="6" t="str">
+      <c r="I55" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppMain.010=方眼Diff</v>
       </c>
     </row>
-    <row r="53" spans="3:10">
-      <c r="C53" s="2" t="s">
+    <row r="56" spans="2:9">
+      <c r="B56" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="H53" s="4" t="str">
+      <c r="G56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppResource.010=設定の保存に失敗しました。</v>
       </c>
-      <c r="I53" s="5" t="str">
+      <c r="H56" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppResource.010=Failed to save settings.</v>
       </c>
-      <c r="J53" s="6" t="str">
+      <c r="I56" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppResource.010=保存设置失败。</v>
       </c>
     </row>
-    <row r="54" spans="3:10">
-      <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
-      <c r="H54" s="4" t="str">
+    <row r="57" spans="2:9">
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="G57" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I54" s="5" t="str">
+      <c r="H57" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J54" s="6" t="str">
+      <c r="I57" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="3:10">
-      <c r="C55" s="7" t="s">
+    <row r="58" spans="2:9">
+      <c r="B58" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="E58" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="H55" s="4" t="str">
+      <c r="G58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
       </c>
-      <c r="I55" s="5" t="str">
+      <c r="H58" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.010=Creating working directory...</v>
       </c>
-      <c r="J55" s="6" t="str">
+      <c r="I58" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.010=创建工作文件夹...</v>
       </c>
     </row>
-    <row r="56" spans="3:10">
-      <c r="C56" s="7" t="s">
+    <row r="59" spans="2:9">
+      <c r="B59" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="E59" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="H56" s="4" t="str">
+      <c r="G59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
       </c>
-      <c r="I56" s="5" t="str">
+      <c r="H59" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.020=Failed to create working directory.</v>
       </c>
-      <c r="J56" s="6" t="str">
+      <c r="I59" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.020=创建工作文件夹失败。</v>
       </c>
     </row>
-    <row r="57" spans="3:10">
-      <c r="C57" s="7" t="s">
+    <row r="60" spans="2:9">
+      <c r="B60" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="H57" s="4" t="str">
+      <c r="G60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
       </c>
-      <c r="I57" s="5" t="str">
+      <c r="H60" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.030=Saving result text...</v>
       </c>
-      <c r="J57" s="6" t="str">
+      <c r="I60" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.030=存储比较结果文本...</v>
       </c>
     </row>
-    <row r="58" spans="3:10">
-      <c r="C58" s="7" t="s">
+    <row r="61" spans="2:9">
+      <c r="B61" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="H58" s="4" t="str">
+      <c r="G61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
       </c>
-      <c r="I58" s="5" t="str">
+      <c r="H61" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.040=Opening result text...</v>
       </c>
-      <c r="J58" s="6" t="str">
+      <c r="I61" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.040=显示比较结果文本...</v>
       </c>
     </row>
-    <row r="59" spans="3:10">
-      <c r="C59" s="7" t="s">
+    <row r="62" spans="2:9">
+      <c r="B62" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="H59" s="4" t="str">
+      <c r="G62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
       </c>
-      <c r="I59" s="5" t="str">
+      <c r="H62" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.050=Failed to save or open result text.</v>
       </c>
-      <c r="J59" s="6" t="str">
+      <c r="I62" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
       </c>
     </row>
-    <row r="60" spans="3:10">
-      <c r="C60" s="7" t="s">
+    <row r="63" spans="2:9">
+      <c r="B63" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="E63" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="H60" s="4" t="str">
+      <c r="G63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
       </c>
-      <c r="I60" s="5" t="str">
+      <c r="H63" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.060=Painting and saving result book(s)...</v>
       </c>
-      <c r="J60" s="6" t="str">
+      <c r="I63" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.060=着色和存储在工作簿...</v>
       </c>
     </row>
-    <row r="61" spans="3:10">
-      <c r="C61" s="7" t="s">
+    <row r="64" spans="2:9">
+      <c r="B64" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="H61" s="4" t="str">
+      <c r="G64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
       </c>
-      <c r="I61" s="5" t="str">
+      <c r="H64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
       </c>
-      <c r="J61" s="6" t="str">
+      <c r="I64" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.070=着色和保存工作簿失败。</v>
       </c>
     </row>
-    <row r="62" spans="3:10">
-      <c r="C62" s="7" t="s">
+    <row r="65" spans="2:9">
+      <c r="B65" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="H62" s="4" t="str">
+      <c r="G65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
       </c>
-      <c r="I62" s="5" t="str">
+      <c r="H65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.080=Opening result book(s)...</v>
       </c>
-      <c r="J62" s="6" t="str">
+      <c r="I65" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.080=显示比较结果的工作簿...</v>
       </c>
     </row>
-    <row r="63" spans="3:10">
-      <c r="C63" s="7" t="s">
+    <row r="66" spans="2:9">
+      <c r="B66" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="H63" s="4" t="str">
+      <c r="G66" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
       </c>
-      <c r="I63" s="5" t="str">
+      <c r="H66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.090=Failed to open result book(s).</v>
       </c>
-      <c r="J63" s="6" t="str">
+      <c r="I66" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.090=显示工作簿失败。</v>
       </c>
     </row>
-    <row r="64" spans="3:10">
-      <c r="C64" s="7" t="s">
+    <row r="67" spans="2:9">
+      <c r="B67" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="H64" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G67" s="4" t="str">
+        <f t="shared" ref="G67:G130" si="3" xml:space="preserve"> IF($B67="", "", $B67 &amp; "=" &amp; C67)</f>
         <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
       </c>
-      <c r="I64" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="H67" s="5" t="str">
+        <f t="shared" ref="H67:H130" si="4" xml:space="preserve"> IF($B67="", "", $B67 &amp; "=" &amp; D67)</f>
         <v>AppTaskBase.100=Failed to paint or save result book A.</v>
       </c>
-      <c r="J64" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="I67" s="6" t="str">
+        <f t="shared" ref="I67:I130" si="5" xml:space="preserve"> IF($B67="", "", $B67 &amp; "=" &amp; E67)</f>
         <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
       </c>
     </row>
-    <row r="65" spans="3:10">
-      <c r="C65" s="7" t="s">
+    <row r="68" spans="2:9">
+      <c r="B68" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="E68" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.110=Failed to paint or save result book B.</v>
+      </c>
+      <c r="I68" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="H65" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
-      </c>
-      <c r="I65" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.110=Failed to paint or save result book B.</v>
-      </c>
-      <c r="J65" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
-      </c>
-    </row>
-    <row r="66" spans="3:10">
-      <c r="C66" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="H66" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G69" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>AppTaskBase.120=処理が完了しました。</v>
       </c>
-      <c r="I66" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="H69" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>AppTaskBase.120=Process completed.</v>
       </c>
-      <c r="J66" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="I69" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>AppTaskBase.120=过程完成。</v>
       </c>
     </row>
-    <row r="67" spans="3:10">
-      <c r="C67" s="1" t="s">
+    <row r="70" spans="2:9">
+      <c r="B70" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.130=比較結果フォルダを表示しています...</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.130=Opening result folder...</v>
+      </c>
+      <c r="I70" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.130=显示比较结果文件夹...</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H67" s="4" t="str">
-        <f t="shared" ref="H67:H130" si="3" xml:space="preserve"> IF($C67="", "", $C67 &amp; "=" &amp; D67)</f>
-        <v>AppTaskBase.130=比較結果フォルダを表示しています...</v>
-      </c>
-      <c r="I67" s="5" t="str">
-        <f t="shared" ref="I67:I130" si="4" xml:space="preserve"> IF($C67="", "", $C67 &amp; "=" &amp; E67)</f>
-        <v>AppTaskBase.130=Opening result folder...</v>
-      </c>
-      <c r="J67" s="6" t="str">
-        <f t="shared" ref="J67:J130" si="5" xml:space="preserve"> IF($C67="", "", $C67 &amp; "=" &amp; F67)</f>
-        <v>AppTaskBase.130=显示比较结果文件夹...</v>
-      </c>
-    </row>
-    <row r="68" spans="3:10">
-      <c r="C68" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D68" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="D71" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="H68" s="4" t="str">
+      <c r="G71" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.140=比較結果フォルダの表示に失敗しました。</v>
       </c>
-      <c r="I68" s="5" t="str">
+      <c r="H71" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.140=Failed to open result folder(s).</v>
       </c>
-      <c r="J68" s="6" t="str">
+      <c r="I71" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.140=显示文件夹失败。</v>
       </c>
     </row>
-    <row r="69" spans="3:10">
-      <c r="C69" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D69" s="4" t="s">
+    <row r="72" spans="2:9">
+      <c r="B72" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="H69" s="4" t="str">
+      <c r="E72" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G72" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.150=★失敗しました</v>
       </c>
-      <c r="I69" s="5" t="str">
+      <c r="H72" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.150=★Failed</v>
       </c>
-      <c r="J69" s="6" t="str">
+      <c r="I72" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.150=★失败</v>
       </c>
     </row>
-    <row r="70" spans="3:10">
-      <c r="C70" s="1" t="s">
+    <row r="73" spans="2:9">
+      <c r="B73" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E70" s="5" t="s">
+      <c r="D73" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="H70" s="4" t="str">
+      <c r="G73" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.160=(比較対象ファイルなし)</v>
       </c>
-      <c r="I70" s="5" t="str">
+      <c r="H73" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.160=(No files to compare)</v>
       </c>
-      <c r="J70" s="6" t="str">
+      <c r="I73" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.160=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="71" spans="3:10">
-      <c r="C71" s="2"/>
-      <c r="D71" s="3"/>
-      <c r="H71" s="4" t="str">
+    <row r="74" spans="2:9">
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="G74" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I71" s="5" t="str">
+      <c r="H74" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J71" s="6" t="str">
+      <c r="I74" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="3:10">
-      <c r="C72" s="7" t="s">
+    <row r="75" spans="2:9">
+      <c r="B75" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F72" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="H72" s="4" t="str">
+      <c r="E75" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G75" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
       </c>
-      <c r="I72" s="5" t="str">
+      <c r="H75" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.010=Starting comparing books.</v>
       </c>
-      <c r="J72" s="6" t="str">
+      <c r="I75" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.010=开始互相比较工作簿。</v>
       </c>
     </row>
-    <row r="73" spans="3:10">
-      <c r="C73" s="7" t="s">
+    <row r="76" spans="2:9">
+      <c r="B76" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F73" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="H73" s="4" t="str">
+      <c r="E76" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G76" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
       </c>
-      <c r="I73" s="5" t="str">
+      <c r="H76" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.020=Pairing sheets...</v>
       </c>
-      <c r="J73" s="6" t="str">
+      <c r="I76" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
       </c>
     </row>
-    <row r="74" spans="3:10">
-      <c r="C74" s="7" t="s">
+    <row r="77" spans="2:9">
+      <c r="B77" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F74" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H74" s="4" t="str">
+      <c r="E77" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G77" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="I74" s="5" t="str">
+      <c r="H77" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.030=Failed to pair sheets.</v>
       </c>
-      <c r="J74" s="6" t="str">
+      <c r="I77" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.030=确定工作表组合失败。</v>
       </c>
     </row>
-    <row r="75" spans="3:10">
-      <c r="C75" s="7" t="s">
+    <row r="78" spans="2:9">
+      <c r="B78" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F75" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H75" s="4" t="str">
+      <c r="E78" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G78" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.040=シートを比較しています...</v>
       </c>
-      <c r="I75" s="5" t="str">
+      <c r="H78" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.040=Comparing sheets...</v>
       </c>
-      <c r="J75" s="6" t="str">
+      <c r="I78" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.040=比较工作表...</v>
       </c>
     </row>
-    <row r="76" spans="3:10">
-      <c r="C76" s="7" t="s">
+    <row r="79" spans="2:9">
+      <c r="B79" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F76" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="H76" s="4" t="str">
+      <c r="E79" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G79" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
       </c>
-      <c r="I76" s="5" t="str">
+      <c r="H79" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.050=Failed to compare sheets.</v>
       </c>
-      <c r="J76" s="6" t="str">
+      <c r="I79" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.050=工作表比较失败。</v>
       </c>
     </row>
-    <row r="77" spans="3:10">
-      <c r="C77" s="2"/>
-      <c r="D77" s="3"/>
-      <c r="H77" s="4" t="str">
+    <row r="80" spans="2:9">
+      <c r="B80" s="2"/>
+      <c r="C80" s="3"/>
+      <c r="G80" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I77" s="5" t="str">
+      <c r="H80" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J77" s="6" t="str">
+      <c r="I80" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="3:10">
-      <c r="C78" s="7" t="s">
+    <row r="81" spans="2:9">
+      <c r="B81" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F78" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="H78" s="4" t="str">
+      <c r="E81" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G81" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
       </c>
-      <c r="I78" s="5" t="str">
+      <c r="H81" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.010=Starting comparing folders.</v>
       </c>
-      <c r="J78" s="6" t="str">
+      <c r="I81" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.010=开始互相比较文件夹。</v>
       </c>
     </row>
-    <row r="79" spans="3:10">
-      <c r="C79" s="7" t="s">
+    <row r="82" spans="2:9">
+      <c r="B82" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F79" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="H79" s="4" t="str">
+      <c r="E82" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G82" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
       </c>
-      <c r="I79" s="5" t="str">
+      <c r="H82" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.020=Failed to create output directory.</v>
       </c>
-      <c r="J79" s="6" t="str">
+      <c r="I82" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
       </c>
     </row>
-    <row r="80" spans="3:10">
-      <c r="C80" s="7" t="s">
+    <row r="83" spans="2:9">
+      <c r="B83" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F80" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="H80" s="4" t="str">
+      <c r="E83" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G83" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
       </c>
-      <c r="I80" s="5" t="str">
+      <c r="H83" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.030=Pairing books...</v>
       </c>
-      <c r="J80" s="6" t="str">
+      <c r="I83" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
       </c>
     </row>
-    <row r="81" spans="3:10">
-      <c r="C81" s="7" t="s">
+    <row r="84" spans="2:9">
+      <c r="B84" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F81" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="H81" s="4" t="str">
+      <c r="E84" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G84" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="I81" s="5" t="str">
+      <c r="H84" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.040=Failed to pair books.</v>
       </c>
-      <c r="J81" s="6" t="str">
+      <c r="I84" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.040=确定工作簿组合失败。</v>
       </c>
     </row>
-    <row r="82" spans="3:10">
-      <c r="C82" s="7" t="s">
+    <row r="85" spans="2:9">
+      <c r="B85" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F82" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="H82" s="4" t="str">
+      <c r="E85" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G85" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.050=Excelブックを比較しています...</v>
       </c>
-      <c r="I82" s="5" t="str">
+      <c r="H85" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.050=Comparing books...</v>
       </c>
-      <c r="J82" s="6" t="str">
+      <c r="I85" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.050=比较工作簿...</v>
       </c>
     </row>
-    <row r="83" spans="3:10">
-      <c r="C83" s="7" t="s">
+    <row r="86" spans="2:9">
+      <c r="B86" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F83" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="H83" s="4" t="str">
+      <c r="E86" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G86" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.060=★失敗しました</v>
       </c>
-      <c r="I83" s="5" t="str">
+      <c r="H86" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.060=★Failed</v>
       </c>
-      <c r="J83" s="6" t="str">
+      <c r="I86" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.060=★失败</v>
       </c>
     </row>
-    <row r="84" spans="3:10">
-      <c r="C84" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E84" s="5" t="s">
+    <row r="87" spans="2:9">
+      <c r="B87" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="F84" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="H84" s="4" t="str">
+      <c r="G87" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.070=(比較対象ファイルなし)</v>
       </c>
-      <c r="I84" s="5" t="str">
+      <c r="H87" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.070=(No files to compare)</v>
       </c>
-      <c r="J84" s="6" t="str">
+      <c r="I87" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.070=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="85" spans="3:10">
-      <c r="C85" s="2"/>
-      <c r="D85" s="3"/>
-      <c r="H85" s="4" t="str">
+    <row r="88" spans="2:9">
+      <c r="B88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="G88" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I85" s="5" t="str">
+      <c r="H88" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J85" s="6" t="str">
+      <c r="I88" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="3:10">
-      <c r="C86" s="7" t="s">
+    <row r="89" spans="2:9">
+      <c r="B89" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F86" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="H86" s="4" t="str">
+      <c r="E89" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G89" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
       </c>
-      <c r="I86" s="5" t="str">
+      <c r="H89" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareSheetsTask.010=Starting comparing sheets.</v>
       </c>
-      <c r="J86" s="6" t="str">
+      <c r="I89" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
-    <row r="87" spans="3:10">
-      <c r="C87" s="7" t="s">
+    <row r="90" spans="2:9">
+      <c r="B90" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F87" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="H87" s="4" t="str">
+      <c r="E90" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="G90" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareSheetsTask.020=シートを比較しています...</v>
       </c>
-      <c r="I87" s="5" t="str">
+      <c r="H90" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareSheetsTask.020=Comparing sheets...</v>
       </c>
-      <c r="J87" s="6" t="str">
+      <c r="I90" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareSheetsTask.020=比较工作表...</v>
       </c>
     </row>
-    <row r="88" spans="3:10">
-      <c r="C88" s="7" t="s">
+    <row r="91" spans="2:9">
+      <c r="B91" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F88" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="H88" s="4" t="str">
+      <c r="E91" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G91" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
       </c>
-      <c r="I88" s="5" t="str">
+      <c r="H91" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareSheetsTask.030=Failed to compare sheets.</v>
       </c>
-      <c r="J88" s="6" t="str">
+      <c r="I91" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareSheetsTask.030=工作表比较失败。</v>
       </c>
     </row>
-    <row r="89" spans="3:10">
-      <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
-      <c r="H89" s="4" t="str">
+    <row r="92" spans="2:9">
+      <c r="B92" s="2"/>
+      <c r="C92" s="3"/>
+      <c r="G92" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I89" s="5" t="str">
+      <c r="H92" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J89" s="6" t="str">
+      <c r="I92" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="3:10">
-      <c r="C90" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D90" s="4" t="s">
+    <row r="93" spans="2:9">
+      <c r="B93" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H90" s="4" t="str">
+      <c r="G93" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
       </c>
-      <c r="I90" s="5" t="str">
+      <c r="H93" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareTreesTask.010=Starting comparing folder trees.</v>
       </c>
-      <c r="J90" s="6" t="str">
+      <c r="I93" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
       </c>
     </row>
-    <row r="91" spans="3:10">
-      <c r="C91" s="1" t="s">
+    <row r="94" spans="2:9">
+      <c r="B94" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E91" s="5" t="s">
+      <c r="D94" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="F91" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="H91" s="4" t="str">
+      <c r="G94" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
       </c>
-      <c r="I91" s="5" t="str">
+      <c r="H94" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareTreesTask.020=Pairing folders...</v>
       </c>
-      <c r="J91" s="6" t="str">
+      <c r="I94" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
       </c>
     </row>
-    <row r="92" spans="3:10">
-      <c r="C92" s="1" t="s">
+    <row r="95" spans="2:9">
+      <c r="B95" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E92" s="5" t="s">
+      <c r="D95" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="F92" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="H92" s="4" t="str">
+      <c r="G95" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="I92" s="5" t="str">
+      <c r="H95" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareTreesTask.030=Failed to pair folders.</v>
       </c>
-      <c r="J92" s="6" t="str">
+      <c r="I95" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareTreesTask.030=确定文件夹组合失败。</v>
       </c>
     </row>
-    <row r="93" spans="3:10">
-      <c r="C93" s="1" t="s">
+    <row r="96" spans="2:9">
+      <c r="B96" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="E93" s="5" t="s">
+      <c r="D96" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="F93" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="H93" s="4" t="str">
+      <c r="G96" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
       </c>
-      <c r="I93" s="5" t="str">
+      <c r="H96" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareTreesTask.040=Comparing folders...</v>
       </c>
-      <c r="J93" s="6" t="str">
+      <c r="I96" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareTreesTask.040=比较文件夹...</v>
       </c>
     </row>
-    <row r="94" spans="3:10">
-      <c r="C94" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D94" s="4" t="s">
+    <row r="97" spans="2:9">
+      <c r="B97" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F94" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="H94" s="4" t="str">
+      <c r="E97" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G97" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareTreesTask.050=★失敗しました</v>
       </c>
-      <c r="I94" s="5" t="str">
+      <c r="H97" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareTreesTask.050=★Failed</v>
       </c>
-      <c r="J94" s="6" t="str">
+      <c r="I97" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareTreesTask.050=★失败</v>
       </c>
     </row>
-    <row r="95" spans="3:10">
-      <c r="C95" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E95" s="5" t="s">
+    <row r="98" spans="2:9">
+      <c r="B98" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E98" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="F95" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="H95" s="4" t="str">
+      <c r="G98" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareTreesTask.060=(比較対象ファイルなし)</v>
       </c>
-      <c r="I95" s="5" t="str">
+      <c r="H98" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareTreesTask.060=(No files to compare)</v>
       </c>
-      <c r="J95" s="6" t="str">
+      <c r="I98" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareTreesTask.060=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="96" spans="3:10">
-      <c r="C96" s="2"/>
-      <c r="D96" s="3"/>
-      <c r="H96" s="4" t="str">
+    <row r="99" spans="2:9">
+      <c r="B99" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareTreesTask.070=比較結果Excelブックを保存しています...</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareTreesTask.070=Saving result book...</v>
+      </c>
+      <c r="I99" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareTreesTask.070=存储比较结果工作簿...</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareTreesTask.080=Failed to save result book.</v>
+      </c>
+      <c r="I100" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="B101" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="G101" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareTreesTask.090=Opening result book...</v>
+      </c>
+      <c r="I101" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareTreesTask.090=显示比较结果工作簿...</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="B102" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareTreesTask.100=比較結果Excelブックの表示に失敗しました。</v>
+      </c>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareTreesTask.100=Failed to open result book.</v>
+      </c>
+      <c r="I102" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareTreesTask.100=显示比较结果工作簿失败。</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="G103" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I96" s="5" t="str">
+      <c r="H103" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J96" s="6" t="str">
+      <c r="I103" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="3:10">
-      <c r="C97" s="2" t="s">
+    <row r="104" spans="2:9">
+      <c r="B104" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F97" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="H97" s="4" t="str">
+      <c r="E104" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G104" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.010=(比較相手なし)</v>
       </c>
-      <c r="I97" s="5" t="str">
+      <c r="H104" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.010=(no opponent)</v>
       </c>
-      <c r="J97" s="6" t="str">
+      <c r="I104" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="98" spans="3:10">
-      <c r="C98" s="2" t="s">
+    <row r="105" spans="2:9">
+      <c r="B105" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F98" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="H98" s="4" t="str">
+      <c r="E105" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="G105" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.020=(差分なし)</v>
       </c>
-      <c r="I98" s="5" t="str">
+      <c r="H105" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.020=(no diffs)</v>
       </c>
-      <c r="J98" s="6" t="str">
+      <c r="I105" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.020=(没有区别)</v>
       </c>
     </row>
-    <row r="99" spans="3:10">
-      <c r="C99" s="7" t="s">
+    <row r="106" spans="2:9">
+      <c r="B106" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E99" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="H99" s="4" t="str">
+      <c r="D106" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G106" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.030=差異発生%dシート</v>
       </c>
-      <c r="I99" s="5" t="str">
+      <c r="H106" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.030=diff sheets:%d</v>
       </c>
-      <c r="J99" s="6" t="str">
+      <c r="I106" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
-    <row r="100" spans="3:10">
-      <c r="C100" s="7" t="s">
+    <row r="107" spans="2:9">
+      <c r="B107" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="H100" s="4" t="str">
+      <c r="D107" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G107" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.040=余剰%dシート</v>
       </c>
-      <c r="I100" s="5" t="str">
+      <c r="H107" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.040=redundant sheets:%d</v>
       </c>
-      <c r="J100" s="6" t="str">
+      <c r="I107" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.040=冗余工作表%d</v>
       </c>
     </row>
-    <row r="101" spans="3:10">
-      <c r="C101" s="7" t="s">
+    <row r="108" spans="2:9">
+      <c r="B108" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="D108" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="F101" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="H101" s="4" t="str">
+      <c r="G108" s="4" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
       </c>
-      <c r="I101" s="5" t="str">
+      <c r="H108" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">excel.BResult.050=Book %s : </v>
       </c>
-      <c r="J101" s="6" t="str">
+      <c r="I108" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">excel.BResult.050=工作簿%s : </v>
       </c>
     </row>
-    <row r="102" spans="3:10">
-      <c r="C102" s="7" t="s">
+    <row r="109" spans="2:9">
+      <c r="B109" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="E109" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H102" s="4" t="str">
+      <c r="G109" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="I102" s="5" t="str">
+      <c r="H109" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="J102" s="6" t="str">
+      <c r="I109" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="103" spans="3:10">
-      <c r="C103" s="7" t="s">
+    <row r="110" spans="2:9">
+      <c r="B110" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F103" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="H103" s="4" t="str">
+      <c r="E110" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G110" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="I103" s="5" t="str">
+      <c r="H110" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="J103" s="6" t="str">
+      <c r="I110" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="104" spans="3:10">
-      <c r="H104" s="4" t="str">
+    <row r="111" spans="2:9">
+      <c r="G111" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I104" s="5" t="str">
+      <c r="H111" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J104" s="6" t="str">
+      <c r="I111" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="3:10">
-      <c r="C105" s="2" t="s">
+    <row r="112" spans="2:9">
+      <c r="B112" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F105" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="H105" s="4" t="str">
+      <c r="E112" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G112" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
       </c>
-      <c r="I105" s="5" t="str">
+      <c r="H112" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
       </c>
-      <c r="J105" s="6" t="str">
+      <c r="I112" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
       </c>
     </row>
-    <row r="106" spans="3:10">
-      <c r="H106" s="4" t="str">
+    <row r="113" spans="2:9">
+      <c r="G113" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I106" s="5" t="str">
+      <c r="H113" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J106" s="6" t="str">
+      <c r="I113" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="3:10">
-      <c r="C107" s="7" t="s">
+    <row r="114" spans="2:9">
+      <c r="B114" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F107" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="H107" s="4" t="str">
+      <c r="E114" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G114" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.010=(比較相手なし)</v>
       </c>
-      <c r="I107" s="5" t="str">
+      <c r="H114" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.010=(no opponent)</v>
       </c>
-      <c r="J107" s="6" t="str">
+      <c r="I114" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="108" spans="3:10">
-      <c r="C108" s="7" t="s">
+    <row r="115" spans="2:9">
+      <c r="B115" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="C115" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D115" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="H108" s="4" t="str">
+      <c r="E115" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G115" s="4" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
       </c>
-      <c r="I108" s="5" t="str">
+      <c r="H115" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
       </c>
-      <c r="J108" s="6" t="str">
+      <c r="I115" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
       </c>
     </row>
-    <row r="109" spans="3:10">
-      <c r="C109" s="7" t="s">
+    <row r="116" spans="2:9">
+      <c r="B116" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="E116" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H109" s="4" t="str">
+      <c r="G116" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="I109" s="5" t="str">
+      <c r="H116" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="J109" s="6" t="str">
+      <c r="I116" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="110" spans="3:10">
-      <c r="C110" s="7" t="s">
+    <row r="117" spans="2:9">
+      <c r="B117" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F110" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="H110" s="4" t="str">
+      <c r="E117" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G117" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="I110" s="5" t="str">
+      <c r="H117" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="J110" s="6" t="str">
+      <c r="I117" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="111" spans="3:10">
-      <c r="C111" s="7" t="s">
+    <row r="118" spans="2:9">
+      <c r="B118" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F111" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="H111" s="4" t="str">
+      <c r="E118" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G118" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.050=★失敗しました</v>
       </c>
-      <c r="I111" s="5" t="str">
+      <c r="H118" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.050=★Failed</v>
       </c>
-      <c r="J111" s="6" t="str">
+      <c r="I118" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.050=★失败</v>
       </c>
     </row>
-    <row r="112" spans="3:10">
-      <c r="C112" s="7" t="s">
+    <row r="119" spans="2:9">
+      <c r="B119" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F112" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="H112" s="4" t="str">
+      <c r="E119" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="G119" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.060=(差分なし)</v>
       </c>
-      <c r="I112" s="5" t="str">
+      <c r="H119" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.060=(no diffs)</v>
       </c>
-      <c r="J112" s="6" t="str">
+      <c r="I119" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.060=(没有区别)</v>
       </c>
     </row>
-    <row r="113" spans="3:10">
-      <c r="C113" s="1" t="s">
+    <row r="120" spans="2:9">
+      <c r="B120" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="E113" s="5" t="s">
+      <c r="D120" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="F113" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="H113" s="4" t="str">
+      <c r="G120" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.070=差異発生%dブック</v>
       </c>
-      <c r="I113" s="5" t="str">
+      <c r="H120" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.070=diff books:%d</v>
       </c>
-      <c r="J113" s="6" t="str">
+      <c r="I120" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.070=差异工作簿%d</v>
       </c>
     </row>
-    <row r="114" spans="3:10">
-      <c r="C114" s="1" t="s">
+    <row r="121" spans="2:9">
+      <c r="B121" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="E114" s="5" t="s">
+      <c r="D121" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E121" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="F114" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="H114" s="4" t="str">
+      <c r="G121" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.080=余剰%dブック</v>
       </c>
-      <c r="I114" s="5" t="str">
+      <c r="H121" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.080=redundant books:%d</v>
       </c>
-      <c r="J114" s="6" t="str">
+      <c r="I121" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.080=冗余工作簿%d</v>
       </c>
     </row>
-    <row r="115" spans="3:10">
-      <c r="C115" s="1" t="s">
+    <row r="122" spans="2:9">
+      <c r="B122" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="E115" s="5" t="s">
+      <c r="D122" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E122" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="F115" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="H115" s="4" t="str">
+      <c r="G122" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.090=比較失敗%dブック</v>
       </c>
-      <c r="I115" s="5" t="str">
+      <c r="H122" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.090=failed books:%d</v>
       </c>
-      <c r="J115" s="6" t="str">
+      <c r="I122" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.090=失败工作簿%d</v>
       </c>
     </row>
-    <row r="116" spans="3:10">
-      <c r="C116" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E116" s="5" t="s">
+    <row r="123" spans="2:9">
+      <c r="B123" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E123" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="F116" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="H116" s="4" t="str">
+      <c r="G123" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.100=(比較対象ファイルなし)</v>
       </c>
-      <c r="I116" s="5" t="str">
+      <c r="H123" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.100=(No files to compare)</v>
       </c>
-      <c r="J116" s="6" t="str">
+      <c r="I123" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.100=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="117" spans="3:10">
-      <c r="H117" s="4" t="str">
+    <row r="124" spans="2:9">
+      <c r="G124" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I117" s="5" t="str">
+      <c r="H124" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J117" s="6" t="str">
+      <c r="I124" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="3:10">
-      <c r="C118" s="2" t="s">
+    <row r="125" spans="2:9">
+      <c r="B125" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="E125" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H118" s="4" t="str">
+      <c r="G125" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SheetType.010=ワークシート</v>
       </c>
-      <c r="I118" s="5" t="str">
+      <c r="H125" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SheetType.010=Worksheet</v>
       </c>
-      <c r="J118" s="6" t="str">
+      <c r="I125" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
-    <row r="119" spans="3:10">
-      <c r="C119" s="2" t="s">
+    <row r="126" spans="2:9">
+      <c r="B126" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="D126" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F119" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="H119" s="4" t="str">
+      <c r="E126" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G126" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SheetType.020=グラフシート</v>
       </c>
-      <c r="I119" s="5" t="str">
+      <c r="H126" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SheetType.020=Chart</v>
       </c>
-      <c r="J119" s="6" t="str">
+      <c r="I126" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SheetType.020=图表表</v>
       </c>
     </row>
-    <row r="120" spans="3:10">
-      <c r="C120" s="2" t="s">
+    <row r="127" spans="2:9">
+      <c r="B127" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F120" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="H120" s="4" t="str">
+      <c r="E127" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G127" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
       </c>
-      <c r="I120" s="5" t="str">
+      <c r="H127" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
       </c>
-      <c r="J120" s="6" t="str">
+      <c r="I127" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
       </c>
     </row>
-    <row r="121" spans="3:10">
-      <c r="C121" s="2" t="s">
+    <row r="128" spans="2:9">
+      <c r="B128" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="E128" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="H121" s="4" t="str">
+      <c r="G128" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
       </c>
-      <c r="I121" s="5" t="str">
+      <c r="H128" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SheetType.040=Excel 4.0 Macro</v>
       </c>
-      <c r="J121" s="6" t="str">
+      <c r="I128" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SheetType.040=Excel 4.0 宏表</v>
       </c>
     </row>
-    <row r="122" spans="3:10">
-      <c r="C122" s="2"/>
-      <c r="D122" s="3"/>
-      <c r="H122" s="4" t="str">
+    <row r="129" spans="2:9">
+      <c r="B129" s="2"/>
+      <c r="C129" s="3"/>
+      <c r="G129" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I122" s="5" t="str">
+      <c r="H129" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J122" s="6" t="str">
+      <c r="I129" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="3:10">
-      <c r="C123" s="2" t="s">
+    <row r="130" spans="2:9">
+      <c r="B130" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F123" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="H123" s="4" t="str">
+      <c r="E130" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="G130" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SResult.010=(差分なし)</v>
       </c>
-      <c r="I123" s="5" t="str">
+      <c r="H130" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SResult.010=(no diffs)</v>
       </c>
-      <c r="J123" s="6" t="str">
+      <c r="I130" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
-    <row r="124" spans="3:10">
-      <c r="C124" s="2" t="s">
+    <row r="131" spans="2:9">
+      <c r="B131" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="E131" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="H124" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="G131" s="4" t="str">
+        <f t="shared" ref="G131:G144" si="6" xml:space="preserve"> IF($B131="", "", $B131 &amp; "=" &amp; C131)</f>
         <v>excel.SResult.020=余剰行%d</v>
       </c>
-      <c r="I124" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H131" s="5" t="str">
+        <f t="shared" ref="H131:H144" si="7" xml:space="preserve"> IF($B131="", "", $B131 &amp; "=" &amp; D131)</f>
         <v>excel.SResult.020=redundant rows:%d</v>
       </c>
-      <c r="J124" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I131" s="6" t="str">
+        <f t="shared" ref="I131:I144" si="8" xml:space="preserve"> IF($B131="", "", $B131 &amp; "=" &amp; E131)</f>
         <v>excel.SResult.020=冗余行%d</v>
       </c>
     </row>
-    <row r="125" spans="3:10">
-      <c r="C125" s="2" t="s">
+    <row r="132" spans="2:9">
+      <c r="B132" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="E132" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H125" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="G132" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>excel.SResult.030=余剰列%d</v>
       </c>
-      <c r="I125" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H132" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>excel.SResult.030=redundant columns:%d</v>
       </c>
-      <c r="J125" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I132" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>excel.SResult.030=冗余列%d</v>
       </c>
     </row>
-    <row r="126" spans="3:10">
-      <c r="C126" s="2" t="s">
+    <row r="133" spans="2:9">
+      <c r="B133" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F126" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="H126" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="E133" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G133" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>excel.SResult.040=差分セル%d</v>
       </c>
-      <c r="I126" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H133" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>excel.SResult.040=diff cells:%d</v>
       </c>
-      <c r="J126" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I133" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>excel.SResult.040=差异单元格%d</v>
       </c>
     </row>
-    <row r="127" spans="3:10">
-      <c r="C127" s="2" t="s">
+    <row r="134" spans="2:9">
+      <c r="B134" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="D134" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G134" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
+      </c>
+      <c r="H134" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
+      </c>
+      <c r="I134" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
+      </c>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="B135" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G135" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.SResult.060=行%d</v>
+      </c>
+      <c r="H135" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.SResult.060=Row %d</v>
+      </c>
+      <c r="I135" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.SResult.060=行%d</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9">
+      <c r="B136" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="F127" s="6" t="s">
+      <c r="E136" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="H127" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
-      </c>
-      <c r="I127" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
-      </c>
-      <c r="J127" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
-      </c>
-    </row>
-    <row r="128" spans="3:10">
-      <c r="C128" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H128" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.SResult.060=行%d</v>
-      </c>
-      <c r="I128" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.SResult.060=Row %d</v>
-      </c>
-      <c r="J128" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.SResult.060=行%d</v>
-      </c>
-    </row>
-    <row r="129" spans="3:10">
-      <c r="C129" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E129" s="5" t="s">
+      <c r="G136" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
+      </c>
+      <c r="H136" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
+      </c>
+      <c r="I136" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
+      </c>
+    </row>
+    <row r="137" spans="2:9">
+      <c r="B137" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G137" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.SResult.080=%s列</v>
+      </c>
+      <c r="H137" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.SResult.080=Column %s</v>
+      </c>
+      <c r="I137" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.SResult.080=%s列</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="B138" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="E138" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="H129" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
-      </c>
-      <c r="I129" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
-      </c>
-      <c r="J129" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
-      </c>
-    </row>
-    <row r="130" spans="3:10">
-      <c r="C130" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H130" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.SResult.080=%s列</v>
-      </c>
-      <c r="I130" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.SResult.080=Column %s</v>
-      </c>
-      <c r="J130" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.SResult.080=%s列</v>
-      </c>
-    </row>
-    <row r="131" spans="3:10">
-      <c r="C131" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="H131" s="4" t="str">
-        <f t="shared" ref="H131:H137" si="6" xml:space="preserve"> IF($C131="", "", $C131 &amp; "=" &amp; D131)</f>
+      <c r="G138" s="4" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">excel.SResult.090=差分セル : </v>
       </c>
-      <c r="I131" s="5" t="str">
-        <f t="shared" ref="I131:I137" si="7" xml:space="preserve"> IF($C131="", "", $C131 &amp; "=" &amp; E131)</f>
+      <c r="H138" s="5" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">excel.SResult.090=Diff cells : </v>
       </c>
-      <c r="J131" s="6" t="str">
-        <f t="shared" ref="J131:J137" si="8" xml:space="preserve"> IF($C131="", "", $C131 &amp; "=" &amp; F131)</f>
+      <c r="I138" s="6" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">excel.SResult.090=差异单元格 : </v>
       </c>
     </row>
-    <row r="132" spans="3:10">
-      <c r="H132" s="4" t="str">
+    <row r="139" spans="2:9">
+      <c r="G139" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I132" s="5" t="str">
+      <c r="H139" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J132" s="6" t="str">
+      <c r="I139" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="3:10">
-      <c r="C133" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D133" s="3" t="s">
+    <row r="140" spans="2:9">
+      <c r="B140" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E133" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F133" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="H133" s="4" t="str">
+      <c r="E140" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G140" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.TreeResult.010=(比較相手なし)</v>
       </c>
-      <c r="I133" s="5" t="str">
+      <c r="H140" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.TreeResult.010=(no opponent)</v>
       </c>
-      <c r="J133" s="6" t="str">
+      <c r="I140" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.TreeResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="134" spans="3:10">
-      <c r="C134" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D134" s="4" t="s">
+    <row r="141" spans="2:9">
+      <c r="B141" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D141" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="E141" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="F134" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="H134" s="4" t="str">
+      <c r="G141" s="4" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
       </c>
-      <c r="I134" s="5" t="str">
+      <c r="H141" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
       </c>
-      <c r="J134" s="6" t="str">
+      <c r="I141" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
       </c>
     </row>
-    <row r="135" spans="3:10">
-      <c r="C135" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D135" s="3" t="s">
+    <row r="142" spans="2:9">
+      <c r="B142" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="D142" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F135" s="6" t="s">
+      <c r="E142" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H135" s="4" t="str">
+      <c r="G142" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="I135" s="5" t="str">
+      <c r="H142" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="J135" s="6" t="str">
+      <c r="I142" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="136" spans="3:10">
-      <c r="C136" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D136" s="3" t="s">
+    <row r="143" spans="2:9">
+      <c r="B143" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="D143" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F136" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="H136" s="4" t="str">
+      <c r="E143" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G143" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="I136" s="5" t="str">
+      <c r="H143" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="J136" s="6" t="str">
+      <c r="I143" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="137" spans="3:10">
-      <c r="C137" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D137" s="4" t="s">
+    <row r="144" spans="2:9">
+      <c r="B144" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="D144" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F137" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="H137" s="4" t="str">
+      <c r="E144" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G144" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.TreeResult.050=★失敗しました</v>
       </c>
-      <c r="I137" s="5" t="str">
+      <c r="H144" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.TreeResult.050=★Failed</v>
       </c>
-      <c r="J137" s="6" t="str">
+      <c r="I144" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.TreeResult.050=★失败</v>
       </c>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202306-2/hogandiff4/xyz.hotchpotch.hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC005B00-3711-48AE-9BC0-A94151F13F48}"/>
+  <xr:revisionPtr revIDLastSave="351" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{162DD592-AC6F-431D-88EA-D2E901420DD9}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="458">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -43,9 +43,6 @@
     <t>fx.TargetSelectionPane.010</t>
   </si>
   <si>
-    <t>ブックパス：</t>
-  </si>
-  <si>
     <t>fx.TargetSelectionPane.020</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>gui.component.TargetSelectionPane.010</t>
   </si>
   <si>
-    <t>ファイルを読み込めません：</t>
-  </si>
-  <si>
     <t>gui.component.TargetSelectionPane.020</t>
   </si>
   <si>
@@ -397,9 +391,6 @@
     <t>excel.SResult.050</t>
   </si>
   <si>
-    <t xml:space="preserve">シート%s上の余剰行 : </t>
-  </si>
-  <si>
     <t>excel.SResult.060</t>
   </si>
   <si>
@@ -409,9 +400,6 @@
     <t>excel.SResult.070</t>
   </si>
   <si>
-    <t xml:space="preserve">シート%s上の余剰列 : </t>
-  </si>
-  <si>
     <t>excel.SResult.080</t>
   </si>
   <si>
@@ -421,12 +409,6 @@
     <t>excel.SResult.090</t>
   </si>
   <si>
-    <t xml:space="preserve">差分セル : </t>
-  </si>
-  <si>
-    <t>Book Path :</t>
-  </si>
-  <si>
     <t>Exec</t>
   </si>
   <si>
@@ -475,19 +457,10 @@
     <t>Delete...</t>
   </si>
   <si>
-    <t>password :</t>
-  </si>
-  <si>
     <t>incorrect password</t>
   </si>
   <si>
     <t>Failed to open the website. Please try using your browser.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failed to open file : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No such sheet : </t>
   </si>
   <si>
     <t>Select comparison book</t>
@@ -629,9 +602,6 @@
   </si>
   <si>
     <t>打开</t>
-  </si>
-  <si>
-    <t>没有找到工作表：</t>
   </si>
   <si>
     <t>Excel工作簿</t>
@@ -874,14 +844,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sheet Name :</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工作表名称 :</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Select comparison folder</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1088,20 +1050,6 @@
       <t>夹</t>
     </r>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>密</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>码：</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1908,10 +1856,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">工作簿%s : </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>比</t>
     </r>
@@ -1990,29 +1934,6 @@
   </si>
   <si>
     <t>フォルダパス：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工作簿路径 :</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>夹路径 :</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Folder Path :</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2340,15 +2261,9 @@
     <t>excel.poi.usermodel.TreeResultBookCreator.010</t>
   </si>
   <si>
-    <t>比較フォルダ%s</t>
-  </si>
-  <si>
     <t>excel.poi.usermodel.TreeResultBookCreator.020</t>
   </si>
   <si>
-    <t>作業用フォルダ</t>
-  </si>
-  <si>
     <t>CompareTreesTask.070</t>
   </si>
   <si>
@@ -2373,15 +2288,157 @@
     <t>比較結果Excelブックの表示に失敗しました。</t>
   </si>
   <si>
-    <t>working dir</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工作文件夹</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Folder %s</t>
+    <t>Saving result book...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>工作簿B的着色和保存失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>败。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>储比较结果工作簿...</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to save result book.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>保存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>比较结果工作簿失败。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Opening result book...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>显示比较结果工作簿...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to open result book.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>比较结果工作簿失败。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較フォルダ%s：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業用フォルダ：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed to open file : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Path : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet Name : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Folder Path : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>码：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工作簿路径：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブックパス：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工作表名称：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>夹路径：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">password : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">working dir : </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2395,88 +2452,40 @@
         <rFont val="NSimSun"/>
         <family val="3"/>
       </rPr>
-      <t>%s</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saving result book...</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>工作簿B的着色和保存失</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>败。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>储比较结果工作簿...</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Failed to save result book.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>保存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>比较结果工作簿失败。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Opening result book...</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>显示比较结果工作簿...</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Failed to open result book.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>显示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>比较结果工作簿失败。</t>
-    </r>
+      <t>%s：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工作文件夹：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルを読み込めません：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No such sheet : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>没有找到工作表：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工作簿%s：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">シート%s上の余剰行 : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">シート%s上の余剰列 : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">差分セル : </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2628,6 +2637,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2917,36 +2930,36 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="G2" s="4" t="str">
         <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; C2)</f>
@@ -2992,13 +3005,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3018,13 +3031,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3041,16 +3054,16 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3067,16 +3080,16 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3093,16 +3106,16 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3119,16 +3132,16 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>149</v>
+        <v>447</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>287</v>
+        <v>442</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3136,7 +3149,7 @@
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.PasswordDialogPane.010=password :</v>
+        <v xml:space="preserve">fx.PasswordDialogPane.010=password : </v>
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3145,16 +3158,16 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3171,16 +3184,16 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3197,16 +3210,16 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3223,16 +3236,16 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3249,16 +3262,16 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3275,16 +3288,16 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3301,16 +3314,16 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3327,16 +3340,16 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3353,16 +3366,16 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3379,16 +3392,16 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3405,16 +3418,16 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3431,16 +3444,16 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3457,16 +3470,16 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3483,16 +3496,16 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3509,16 +3522,16 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3535,16 +3548,16 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3561,16 +3574,16 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3590,13 +3603,13 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>5</v>
+        <v>444</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>132</v>
+        <v>439</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>367</v>
+        <v>443</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3604,25 +3617,25 @@
       </c>
       <c r="H27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.TargetSelectionPane.010=Book Path :</v>
+        <v xml:space="preserve">fx.TargetSelectionPane.010=Book Path : </v>
       </c>
       <c r="I27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.TargetSelectionPane.010=工作簿路径 :</v>
+        <v>fx.TargetSelectionPane.010=工作簿路径：</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>272</v>
+        <v>440</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>273</v>
+        <v>445</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3630,25 +3643,25 @@
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.TargetSelectionPane.020=Sheet Name :</v>
+        <v xml:space="preserve">fx.TargetSelectionPane.020=Sheet Name : </v>
       </c>
       <c r="I28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.TargetSelectionPane.020=工作表名称 :</v>
+        <v>fx.TargetSelectionPane.020=工作表名称：</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>369</v>
+        <v>441</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>368</v>
+        <v>446</v>
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3656,11 +3669,11 @@
       </c>
       <c r="H29" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.TargetSelectionPane.030=Folder Path :</v>
+        <v xml:space="preserve">fx.TargetSelectionPane.030=Folder Path : </v>
       </c>
       <c r="I29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.TargetSelectionPane.030=文件夹路径 :</v>
+        <v>fx.TargetSelectionPane.030=文件夹路径：</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -3679,54 +3692,54 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="1" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>448</v>
+        <v>345</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>449</v>
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.010=比較フォルダ%s</v>
+        <v>excel.poi.usermodel.TreeResultBookCreator.010=比較フォルダ%s：</v>
       </c>
       <c r="H31" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.010=Folder %s</v>
+        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.010=Folder %s : </v>
       </c>
       <c r="I31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.010=文件夹%s</v>
+        <v>excel.poi.usermodel.TreeResultBookCreator.010=文件夹%s：</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>437</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.020=作業用フォルダ</v>
+        <v>excel.poi.usermodel.TreeResultBookCreator.020=作業用フォルダ：</v>
       </c>
       <c r="H32" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.020=working dir</v>
+        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.020=working dir : </v>
       </c>
       <c r="I32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.020=工作文件夹</v>
+        <v>excel.poi.usermodel.TreeResultBookCreator.020=工作文件夹：</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -3745,16 +3758,16 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="G34" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3771,16 +3784,16 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="G35" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3797,16 +3810,16 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G36" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3823,16 +3836,16 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3849,16 +3862,16 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="G38" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3891,16 +3904,16 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D40" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3917,16 +3930,16 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3943,16 +3956,16 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3969,16 +3982,16 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3995,16 +4008,16 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4021,16 +4034,16 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="D45" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4047,16 +4060,16 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G46" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4073,16 +4086,16 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4099,16 +4112,16 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4125,16 +4138,16 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="G49" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4151,16 +4164,16 @@
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G50" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4177,16 +4190,16 @@
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G51" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4203,16 +4216,16 @@
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>49</v>
+        <v>451</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>152</v>
+        <v>438</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4229,16 +4242,16 @@
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>153</v>
+        <v>452</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>199</v>
+        <v>453</v>
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4269,16 +4282,16 @@
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4295,16 +4308,16 @@
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4337,16 +4350,16 @@
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4363,16 +4376,16 @@
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G59" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4389,16 +4402,16 @@
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4415,16 +4428,16 @@
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="G61" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4441,16 +4454,16 @@
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="G62" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4467,16 +4480,16 @@
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G63" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4493,16 +4506,16 @@
     </row>
     <row r="64" spans="2:9">
       <c r="B64" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G64" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4519,16 +4532,16 @@
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="G65" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4545,16 +4558,16 @@
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="G66" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4571,16 +4584,16 @@
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="G67" s="4" t="str">
         <f t="shared" ref="G67:G130" si="3" xml:space="preserve"> IF($B67="", "", $B67 &amp; "=" &amp; C67)</f>
@@ -4597,16 +4610,16 @@
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="G68" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4623,16 +4636,16 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="G69" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4649,16 +4662,16 @@
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="1" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="G70" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4675,16 +4688,16 @@
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="1" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="G71" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4701,16 +4714,16 @@
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="1" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="G72" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4727,16 +4740,16 @@
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="1" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="G73" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4769,16 +4782,16 @@
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="G75" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4795,16 +4808,16 @@
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G76" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4821,16 +4834,16 @@
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="G77" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4847,16 +4860,16 @@
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="G78" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4873,16 +4886,16 @@
     </row>
     <row r="79" spans="2:9">
       <c r="B79" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="G79" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4915,16 +4928,16 @@
     </row>
     <row r="81" spans="2:9">
       <c r="B81" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="G81" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4941,16 +4954,16 @@
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="G82" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4967,16 +4980,16 @@
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="G83" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4993,16 +5006,16 @@
     </row>
     <row r="84" spans="2:9">
       <c r="B84" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="G84" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5019,16 +5032,16 @@
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="G85" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5045,16 +5058,16 @@
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="G86" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5071,16 +5084,16 @@
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="7" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="G87" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5113,16 +5126,16 @@
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="G89" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5139,16 +5152,16 @@
     </row>
     <row r="90" spans="2:9">
       <c r="B90" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="G90" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5165,16 +5178,16 @@
     </row>
     <row r="91" spans="2:9">
       <c r="B91" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="G91" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5207,16 +5220,16 @@
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="1" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="G93" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5233,16 +5246,16 @@
     </row>
     <row r="94" spans="2:9">
       <c r="B94" s="1" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="G94" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5259,16 +5272,16 @@
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="1" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="G95" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5285,16 +5298,16 @@
     </row>
     <row r="96" spans="2:9">
       <c r="B96" s="1" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="G96" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5311,16 +5324,16 @@
     </row>
     <row r="97" spans="2:9">
       <c r="B97" s="1" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="G97" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5337,16 +5350,16 @@
     </row>
     <row r="98" spans="2:9">
       <c r="B98" s="1" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="G98" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5363,16 +5376,16 @@
     </row>
     <row r="99" spans="2:9">
       <c r="B99" s="2" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="G99" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5389,16 +5402,16 @@
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="2" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="G100" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5415,16 +5428,16 @@
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="2" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="G101" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5441,16 +5454,16 @@
     </row>
     <row r="102" spans="2:9">
       <c r="B102" s="2" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="G102" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5483,16 +5496,16 @@
     </row>
     <row r="104" spans="2:9">
       <c r="B104" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="G104" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5509,16 +5522,16 @@
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="G105" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5535,16 +5548,16 @@
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="G106" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5561,16 +5574,16 @@
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="G107" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5587,16 +5600,16 @@
     </row>
     <row r="108" spans="2:9">
       <c r="B108" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>354</v>
+        <v>454</v>
       </c>
       <c r="G108" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5608,21 +5621,21 @@
       </c>
       <c r="I108" s="6" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">excel.BResult.050=工作簿%s : </v>
+        <v>excel.BResult.050=工作簿%s：</v>
       </c>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G109" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5639,16 +5652,16 @@
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="G110" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5679,16 +5692,16 @@
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="G112" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5719,16 +5732,16 @@
     </row>
     <row r="114" spans="2:9">
       <c r="B114" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="G114" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5745,16 +5758,16 @@
     </row>
     <row r="115" spans="2:9">
       <c r="B115" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="G115" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5771,16 +5784,16 @@
     </row>
     <row r="116" spans="2:9">
       <c r="B116" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G116" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5797,16 +5810,16 @@
     </row>
     <row r="117" spans="2:9">
       <c r="B117" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="G117" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5823,16 +5836,16 @@
     </row>
     <row r="118" spans="2:9">
       <c r="B118" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="G118" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5849,16 +5862,16 @@
     </row>
     <row r="119" spans="2:9">
       <c r="B119" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="G119" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5875,16 +5888,16 @@
     </row>
     <row r="120" spans="2:9">
       <c r="B120" s="1" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="G120" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5901,16 +5914,16 @@
     </row>
     <row r="121" spans="2:9">
       <c r="B121" s="1" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="G121" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5927,16 +5940,16 @@
     </row>
     <row r="122" spans="2:9">
       <c r="B122" s="1" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="G122" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5953,16 +5966,16 @@
     </row>
     <row r="123" spans="2:9">
       <c r="B123" s="1" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="G123" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5993,16 +6006,16 @@
     </row>
     <row r="125" spans="2:9">
       <c r="B125" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G125" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6019,16 +6032,16 @@
     </row>
     <row r="126" spans="2:9">
       <c r="B126" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="G126" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6045,16 +6058,16 @@
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="G127" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6071,16 +6084,16 @@
     </row>
     <row r="128" spans="2:9">
       <c r="B128" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G128" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6113,16 +6126,16 @@
     </row>
     <row r="130" spans="2:9">
       <c r="B130" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="G130" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6139,16 +6152,16 @@
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G131" s="4" t="str">
         <f t="shared" ref="G131:G144" si="6" xml:space="preserve"> IF($B131="", "", $B131 &amp; "=" &amp; C131)</f>
@@ -6165,16 +6178,16 @@
     </row>
     <row r="132" spans="2:9">
       <c r="B132" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G132" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6191,16 +6204,16 @@
     </row>
     <row r="133" spans="2:9">
       <c r="B133" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="G133" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6217,16 +6230,16 @@
     </row>
     <row r="134" spans="2:9">
       <c r="B134" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>123</v>
+        <v>455</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="G134" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6243,16 +6256,16 @@
     </row>
     <row r="135" spans="2:9">
       <c r="B135" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G135" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6269,16 +6282,16 @@
     </row>
     <row r="136" spans="2:9">
       <c r="B136" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>127</v>
+        <v>456</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G136" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6295,16 +6308,16 @@
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G137" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6321,16 +6334,16 @@
     </row>
     <row r="138" spans="2:9">
       <c r="B138" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>131</v>
+        <v>457</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="G138" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6361,16 +6374,16 @@
     </row>
     <row r="140" spans="2:9">
       <c r="B140" s="1" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="G140" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6387,16 +6400,16 @@
     </row>
     <row r="141" spans="2:9">
       <c r="B141" s="1" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="G141" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6413,16 +6426,16 @@
     </row>
     <row r="142" spans="2:9">
       <c r="B142" s="1" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G142" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6439,16 +6452,16 @@
     </row>
     <row r="143" spans="2:9">
       <c r="B143" s="1" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="G143" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6465,16 +6478,16 @@
     </row>
     <row r="144" spans="2:9">
       <c r="B144" s="1" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="G144" s="4" t="str">
         <f t="shared" si="6"/>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202306-2/hogandiff4/xyz.hotchpotch.hogandiff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202309/hogandiff4/xyz.hotchpotch.hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="351" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{162DD592-AC6F-431D-88EA-D2E901420DD9}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2BA787E-4466-4685-B9D6-D6C751BF378D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="468">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -1026,816 +1026,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>执行</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>包括子文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>夹</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>密</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>码不正确。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较选项</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>考</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>虑行的插入／删除</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>考</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>虑列的插入／删除</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较值</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较公式</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>报告选项</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>给不同的单元格着色</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>显示比较结果的文本</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>执行选项</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较结束后自动退出此应用程序</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>内存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>节省模式</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>语言</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>工作\n文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>夹</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>改</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>变...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>删除...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>指定非相同的文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>夹／工作簿／工作表。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</t>
-    </r>
-    <rPh sb="58" eb="59">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>输入密码</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>%s 是受密</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>码保护的。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>页未能显示。 请尝试使用你的浏览器。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>显示工作文件夹失败。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>改</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>变工作文件夹</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>更改工作文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>夹失败。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>删除以下文件夹的所有内容。你确定吗？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>选择用于比较的文件夹</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>选择用于比较的工作簿</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>无法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>读取文件：</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>保存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>设置失败。</t>
-    </r>
-  </si>
-  <si>
     <t>创建工作文件夹...</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>创建工作文件夹失败。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>储比较结果文本...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>显示比较结果文本...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>保存和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>显示比较结果文本失败。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>着色和存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>储在工作簿...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>着色和保存工作簿失</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>败。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>显示比较结果的工作簿...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>显示工作簿失败。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>工作簿A的着色和保存失</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>败。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>过程完成。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>开始互相比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较工作簿。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>确定要比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较的工作表的组合 ...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>确定工作表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>组合失败。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较工作表...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>工作表比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较失败。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>开始互相比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较文件夹。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>创建输出目的地文件夹失败。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>确定要比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较的工作簿的组合 ...</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>确定工作簿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>组合失败。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较工作簿...</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>★失</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>败</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>显示比较结果文件夹...</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>开始相互比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较工作表。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(没有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>对比)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(没有区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>别)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>■差异</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>细节 -----------------------------------------------------</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>（在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>节省内存模式下，不能显示单元格内容）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>图表表</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MS Excel 5.0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>对话表</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>差异</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>单元格%d</t>
-    </r>
-  </si>
-  <si>
     <t>Failed to open result folder(s).</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1856,36 +1058,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较工作表...</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>差异</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>工作表%d</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>冗余工作表%d</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1918,21 +1090,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>差异</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">单元格 : </t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォルダパス：</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1942,36 +1099,6 @@
   </si>
   <si>
     <t>This is not supported in the current version.\nStay tuned for future versions!</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>当前版本不支持此功能。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>\n请继续关注未来版本！</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>文件夹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">%s : </t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2116,78 +1243,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>开始互相比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较文件夹树。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Pairing folders...</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>确定要比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较的文件夹的组合 ...</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Failed to pair folders.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>确定文件夹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>组合失败。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comparing folders...</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较文件夹...</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CompareDirsTask.070</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2196,21 +1263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>差异</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>工作簿%d</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>redundant books:%d</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2235,21 +1287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>根文件夹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">%s : </t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(No files to compare)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2292,55 +1329,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>工作簿B的着色和保存失</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>败。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>储比较结果工作簿...</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Failed to save result book.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>保存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>比较结果工作簿失败。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Opening result book...</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2353,21 +1345,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>显示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>比较结果工作簿失败。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>比較フォルダ%s：</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2392,21 +1369,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>密</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>码：</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>工作簿路径：</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2419,21 +1381,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>夹路径：</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">password : </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2442,21 +1389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>文件夹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>%s：</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>工作文件夹：</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2486,6 +1418,310 @@
   </si>
   <si>
     <t xml:space="preserve">差分セル : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gui.MainController.040</t>
+  </si>
+  <si>
+    <t>gui.MainController.050</t>
+  </si>
+  <si>
+    <t>gui.MainController.060</t>
+  </si>
+  <si>
+    <t>gui.MainController.070</t>
+  </si>
+  <si>
+    <t>別の場所を指定してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please specify another location.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>请指定其他位置。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>创建工作文件夹失败。</t>
+  </si>
+  <si>
+    <t>创建工作文件夹失败。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理を中止しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>处理已被取消。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Processing has been canceled.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
+    <t>包括子文件夹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>密码：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>密码不正确。</t>
+  </si>
+  <si>
+    <t>比较选项</t>
+  </si>
+  <si>
+    <t>考虑行的插入／删除</t>
+  </si>
+  <si>
+    <t>考虑列的插入／删除</t>
+  </si>
+  <si>
+    <t>比较值</t>
+  </si>
+  <si>
+    <t>比较公式</t>
+  </si>
+  <si>
+    <t>报告选项</t>
+  </si>
+  <si>
+    <t>给不同的单元格着色</t>
+  </si>
+  <si>
+    <t>显示比较结果的文本</t>
+  </si>
+  <si>
+    <t>执行选项</t>
+  </si>
+  <si>
+    <t>比较结束后自动退出此应用程序</t>
+  </si>
+  <si>
+    <t>内存节省模式</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>工作\n文件夹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改变...</t>
+  </si>
+  <si>
+    <t>删除...</t>
+  </si>
+  <si>
+    <t>文件夹路径：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文件夹%s：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定非相同的文件夹／工作簿／工作表。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</t>
+    <rPh sb="58" eb="59">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改变工作文件夹</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>%s 是受密码保护的。</t>
+  </si>
+  <si>
+    <t>网页未能显示。 请尝试使用你的浏览器。</t>
+  </si>
+  <si>
+    <t>当前版本不支持此功能。\n请继续关注未来版本！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>显示工作文件夹失败。</t>
+  </si>
+  <si>
+    <t>更改工作文件夹失败。</t>
+  </si>
+  <si>
+    <t>删除以下文件夹的所有内容。你确定吗？</t>
+  </si>
+  <si>
+    <t>选择用于比较的文件夹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>选择用于比较的工作簿</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>无法读取文件：</t>
+  </si>
+  <si>
+    <t>保存设置失败。</t>
+  </si>
+  <si>
+    <t>存储比较结果文本...</t>
+  </si>
+  <si>
+    <t>显示比较结果文本...</t>
+  </si>
+  <si>
+    <t>保存和显示比较结果文本失败。</t>
+  </si>
+  <si>
+    <t>着色和存储在工作簿...</t>
+  </si>
+  <si>
+    <t>着色和保存工作簿失败。</t>
+  </si>
+  <si>
+    <t>显示比较结果的工作簿...</t>
+  </si>
+  <si>
+    <t>显示工作簿失败。</t>
+  </si>
+  <si>
+    <t>工作簿A的着色和保存失败。</t>
+  </si>
+  <si>
+    <t>工作簿B的着色和保存失败。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>过程完成。</t>
+  </si>
+  <si>
+    <t>★失败</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>开始互相比较工作簿。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>确定要比较的工作表的组合 ...</t>
+  </si>
+  <si>
+    <t>确定工作表组合失败。</t>
+  </si>
+  <si>
+    <t>比较工作表...</t>
+  </si>
+  <si>
+    <t>工作表比较失败。</t>
+  </si>
+  <si>
+    <t>开始互相比较文件夹。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>确定要比较的工作簿的组合 ...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>确定工作簿组合失败。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比较工作簿...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>开始相互比较工作表。</t>
+  </si>
+  <si>
+    <t>比较工作表...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>开始互相比较文件夹树。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>确定要比较的文件夹的组合 ...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>确定文件夹组合失败。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比较文件夹...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存储比较结果工作簿...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存比较结果工作簿失败。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>显示比较结果工作簿失败。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(没有对比)</t>
+  </si>
+  <si>
+    <t>(没有区别)</t>
+  </si>
+  <si>
+    <t>差异工作表%d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■差异细节 -----------------------------------------------------</t>
+  </si>
+  <si>
+    <t>（在节省内存模式下，不能显示单元格内容）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文件夹%s : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差异工作簿%d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>图表表</t>
+  </si>
+  <si>
+    <t>MS Excel 5.0 对话表</t>
+  </si>
+  <si>
+    <t>差异单元格%d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">差异单元格 : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">根文件夹%s : </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2907,7 +2143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I144"/>
+  <dimension ref="B1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2920,7 +2156,7 @@
     <col min="2" max="2" width="34.6875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5625" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.5625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.5625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="30.5625" style="8" customWidth="1"/>
     <col min="6" max="6" width="2.5625" style="1"/>
     <col min="7" max="7" width="2.5625" style="4"/>
     <col min="8" max="8" width="2.5625" style="5"/>
@@ -2938,7 +2174,7 @@
       <c r="D1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>197</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -2958,8 +2194,8 @@
       <c r="D2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>273</v>
+      <c r="E2" s="8" t="s">
+        <v>392</v>
       </c>
       <c r="G2" s="4" t="str">
         <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; C2)</f>
@@ -2984,19 +2220,19 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G66" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
+        <f t="shared" ref="G3:G70" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H66" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
+        <f t="shared" ref="H3:H70" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I66" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
+        <f t="shared" ref="I3:I70" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
     </row>
@@ -3005,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>367</v>
+        <v>302</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3031,13 +2267,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>364</v>
+        <v>299</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>368</v>
+        <v>303</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3057,13 +2293,13 @@
         <v>256</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>369</v>
+        <v>304</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3088,8 +2324,8 @@
       <c r="D7" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>274</v>
+      <c r="E7" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3106,16 +2342,16 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
-        <v>357</v>
+        <v>292</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>358</v>
+        <v>293</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>366</v>
+        <v>297</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3138,10 +2374,10 @@
         <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>442</v>
+        <v>370</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3166,8 +2402,8 @@
       <c r="D10" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>275</v>
+      <c r="E10" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3192,8 +2428,8 @@
       <c r="D11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>276</v>
+      <c r="E11" s="8" t="s">
+        <v>396</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3218,8 +2454,8 @@
       <c r="D12" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>277</v>
+      <c r="E12" s="8" t="s">
+        <v>397</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3244,8 +2480,8 @@
       <c r="D13" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>278</v>
+      <c r="E13" s="8" t="s">
+        <v>398</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3270,8 +2506,8 @@
       <c r="D14" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>279</v>
+      <c r="E14" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3296,8 +2532,8 @@
       <c r="D15" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>280</v>
+      <c r="E15" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3322,8 +2558,8 @@
       <c r="D16" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>281</v>
+      <c r="E16" s="8" t="s">
+        <v>401</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3348,8 +2584,8 @@
       <c r="D17" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>282</v>
+      <c r="E17" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3374,8 +2610,8 @@
       <c r="D18" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>283</v>
+      <c r="E18" s="8" t="s">
+        <v>403</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3400,8 +2636,8 @@
       <c r="D19" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>284</v>
+      <c r="E19" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3426,8 +2662,8 @@
       <c r="D20" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>285</v>
+      <c r="E20" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3452,8 +2688,8 @@
       <c r="D21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>286</v>
+      <c r="E21" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3478,8 +2714,8 @@
       <c r="D22" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>287</v>
+      <c r="E22" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3504,8 +2740,8 @@
       <c r="D23" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>288</v>
+      <c r="E23" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3530,7 +2766,7 @@
       <c r="D24" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="8" t="s">
         <v>189</v>
       </c>
       <c r="G24" s="4" t="str">
@@ -3556,8 +2792,8 @@
       <c r="D25" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>289</v>
+      <c r="E25" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3582,8 +2818,8 @@
       <c r="D26" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>290</v>
+      <c r="E26" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3603,13 +2839,13 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>444</v>
+        <v>368</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>443</v>
+        <v>364</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3632,10 +2868,10 @@
         <v>6</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>445</v>
+        <v>365</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3655,13 +2891,13 @@
         <v>258</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>446</v>
+        <v>366</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3692,16 +2928,16 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="1" t="s">
-        <v>417</v>
+        <v>346</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>436</v>
+        <v>361</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>449</v>
+        <v>283</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3718,16 +2954,16 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="1" t="s">
-        <v>418</v>
+        <v>347</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>437</v>
+        <v>362</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>448</v>
+        <v>371</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>450</v>
+        <v>372</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3766,8 +3002,8 @@
       <c r="D34" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>291</v>
+      <c r="E34" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="G34" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3792,8 +3028,8 @@
       <c r="D35" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>292</v>
+      <c r="E35" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="G35" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3818,7 +3054,7 @@
       <c r="D36" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="8" t="s">
         <v>191</v>
       </c>
       <c r="G36" s="4" t="str">
@@ -3836,2669 +3072,2773 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>380</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>293</v>
+        <v>157</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.PasswordDialog.010=パスワード指定</v>
+        <f t="shared" ref="G37:G41" si="3" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; C37)</f>
+        <v>gui.MainController.040=作業用フォルダの作成に失敗しました。</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.PasswordDialog.010=Enter Password</v>
+        <f t="shared" ref="H37:H41" si="4" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; D37)</f>
+        <v>gui.MainController.040=Failed to create working directory.</v>
       </c>
       <c r="I37" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.PasswordDialog.010=输入密码</v>
+        <f t="shared" ref="I37:I41" si="5" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; E37)</f>
+        <v>gui.MainController.040=创建工作文件夹失败。</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="2" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>71</v>
+        <v>384</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>294</v>
+        <v>385</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.PasswordDialogPane.010=%s はパスワードで保護されています。</v>
+        <f t="shared" si="3"/>
+        <v>gui.MainController.050=別の場所を指定してください。</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.PasswordDialogPane.010=The book [%s] is password protected.</v>
+        <f t="shared" si="4"/>
+        <v>gui.MainController.050=Please specify another location.</v>
       </c>
       <c r="I38" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.PasswordDialogPane.010=%s 是受密码保护的。</v>
+        <f t="shared" si="5"/>
+        <v>gui.MainController.050=请指定其他位置。</v>
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
+      <c r="B39" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>415</v>
+      </c>
       <c r="G39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>gui.MainController.060=作業用フォルダの変更</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>gui.MainController.060=Change working directory</v>
       </c>
       <c r="I39" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>gui.MainController.060=改变工作文件夹</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.MainController.070=処理を中止しました。</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.MainController.070=Processing has been canceled.</v>
+      </c>
+      <c r="I40" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.MainController.070=处理已被取消。</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.PasswordDialog.010=パスワード指定</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.PasswordDialog.010=Enter Password</v>
+      </c>
+      <c r="I41" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.PasswordDialog.010=输入密码</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.PasswordDialogPane.010=%s はパスワードで保護されています。</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gui.PasswordDialogPane.010=The book [%s] is password protected.</v>
+      </c>
+      <c r="I42" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.PasswordDialogPane.010=%s 是受密码保护的。</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="G43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I43" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G40" s="4" t="str">
+      <c r="E44" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="G44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.LinkPane.010=Webページの表示に失敗しました。ご利用のブラウザでお試しください。</v>
       </c>
-      <c r="H40" s="5" t="str">
+      <c r="H44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.LinkPane.010=Failed to open the website. Please try using your browser.</v>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="I44" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.LinkPane.010=网页未能显示。 请尝试使用你的浏览器。</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="G41" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
-      </c>
-      <c r="H41" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
-      </c>
-      <c r="I41" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G42" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
-      </c>
-      <c r="H42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
-      </c>
-      <c r="I42" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G43" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
-      </c>
-      <c r="H43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.020=Change working directory</v>
-      </c>
-      <c r="I43" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G44" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
-      </c>
-      <c r="H44" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
-      </c>
-      <c r="I44" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>63</v>
+        <v>205</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>299</v>
+        <v>291</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
+        <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
       </c>
       <c r="H45" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
+        <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
       </c>
       <c r="I45" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
+        <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>54</v>
+        <v>147</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>420</v>
       </c>
       <c r="G46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+        <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
       </c>
       <c r="H46" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+        <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
       </c>
       <c r="I46" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+        <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="7" t="s">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>55</v>
+        <v>148</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>415</v>
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+        <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
       </c>
       <c r="H47" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+        <v>gui.component.SettingsPane2.020=Change working directory</v>
       </c>
       <c r="I47" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+        <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="7" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>300</v>
+        <v>149</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>421</v>
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+        <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
       </c>
       <c r="H48" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+        <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+        <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>210</v>
+        <v>61</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>301</v>
+        <v>150</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>422</v>
       </c>
       <c r="G49" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
+        <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
       </c>
       <c r="H49" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
+        <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
+        <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="7" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>302</v>
+        <v>54</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
       <c r="H50" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
       <c r="I50" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="7" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>190</v>
+        <v>55</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="G51" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
       <c r="H51" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.030=Excel book</v>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="7" t="s">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>451</v>
+        <v>56</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>303</v>
+        <v>263</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
       <c r="H52" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
       <c r="I52" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
+      </c>
+      <c r="I53" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
+      </c>
+      <c r="I54" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gui.component.TargetSelectionPane.030=Excel book</v>
+      </c>
+      <c r="I55" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
+      </c>
+      <c r="I56" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="G53" s="4" t="str">
+      <c r="D57" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.TargetSelectionPane.050=シートが見つかりません：</v>
       </c>
-      <c r="H53" s="5" t="str">
+      <c r="H57" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">gui.component.TargetSelectionPane.050=No such sheet : </v>
       </c>
-      <c r="I53" s="6" t="str">
+      <c r="I57" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.TargetSelectionPane.050=没有找到工作表：</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
-      <c r="G54" s="4" t="str">
+    <row r="58" spans="2:9">
+      <c r="G58" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H54" s="5" t="str">
+      <c r="H58" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I54" s="6" t="str">
+      <c r="I58" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="2" t="s">
+    <row r="59" spans="2:9">
+      <c r="B59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E59" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G55" s="4" t="str">
+      <c r="G59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppMain.010=方眼Diff</v>
       </c>
-      <c r="H55" s="5" t="str">
+      <c r="H59" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppMain.010=HoganDiff (方眼Diff)</v>
       </c>
-      <c r="I55" s="6" t="str">
+      <c r="I59" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppMain.010=方眼Diff</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="2" t="s">
+    <row r="60" spans="2:9">
+      <c r="B60" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G56" s="4" t="str">
+      <c r="E60" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="G60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppResource.010=設定の保存に失敗しました。</v>
       </c>
-      <c r="H56" s="5" t="str">
+      <c r="H60" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppResource.010=Failed to save settings.</v>
       </c>
-      <c r="I56" s="6" t="str">
+      <c r="I60" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppResource.010=保存设置失败。</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="G57" s="4" t="str">
+    <row r="61" spans="2:9">
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="G61" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H57" s="5" t="str">
+      <c r="H61" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I57" s="6" t="str">
+      <c r="I61" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G58" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
-      </c>
-      <c r="H58" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.010=Creating working directory...</v>
-      </c>
-      <c r="I58" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.010=创建工作文件夹...</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="G59" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
-      </c>
-      <c r="H59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.020=Failed to create working directory.</v>
-      </c>
-      <c r="I59" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.020=创建工作文件夹失败。</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="G60" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
-      </c>
-      <c r="H60" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.030=Saving result text...</v>
-      </c>
-      <c r="I60" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.030=存储比较结果文本...</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G61" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
-      </c>
-      <c r="H61" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.040=Opening result text...</v>
-      </c>
-      <c r="I61" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.040=显示比较结果文本...</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>309</v>
+        <v>156</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="G62" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
+        <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
       </c>
       <c r="H62" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.050=Failed to save or open result text.</v>
+        <v>AppTaskBase.010=Creating working directory...</v>
       </c>
       <c r="I62" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
+        <v>AppTaskBase.010=创建工作文件夹...</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>310</v>
+        <v>157</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="G63" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
+        <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
       </c>
       <c r="H63" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.060=Painting and saving result book(s)...</v>
+        <v>AppTaskBase.020=Failed to create working directory.</v>
       </c>
       <c r="I63" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.060=着色和存储在工作簿...</v>
+        <v>AppTaskBase.020=创建工作文件夹失败。</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>311</v>
+        <v>162</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>427</v>
       </c>
       <c r="G64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
+        <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
       </c>
       <c r="H64" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
+        <v>AppTaskBase.030=Saving result text...</v>
       </c>
       <c r="I64" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.070=着色和保存工作簿失败。</v>
+        <v>AppTaskBase.030=存储比较结果文本...</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>312</v>
+        <v>163</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>428</v>
       </c>
       <c r="G65" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
+        <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
       </c>
       <c r="H65" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.080=Opening result book(s)...</v>
+        <v>AppTaskBase.040=Opening result text...</v>
       </c>
       <c r="I65" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.080=显示比较结果的工作簿...</v>
+        <v>AppTaskBase.040=显示比较结果文本...</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>313</v>
+        <v>164</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="G66" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
+        <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
       </c>
       <c r="H66" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.090=Failed to open result book(s).</v>
+        <v>AppTaskBase.050=Failed to save or open result text.</v>
       </c>
       <c r="I66" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.090=显示工作簿失败。</v>
+        <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>314</v>
+        <v>165</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>430</v>
       </c>
       <c r="G67" s="4" t="str">
-        <f t="shared" ref="G67:G130" si="3" xml:space="preserve"> IF($B67="", "", $B67 &amp; "=" &amp; C67)</f>
-        <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
+        <f t="shared" si="0"/>
+        <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
       </c>
       <c r="H67" s="5" t="str">
-        <f t="shared" ref="H67:H130" si="4" xml:space="preserve"> IF($B67="", "", $B67 &amp; "=" &amp; D67)</f>
-        <v>AppTaskBase.100=Failed to paint or save result book A.</v>
+        <f t="shared" si="1"/>
+        <v>AppTaskBase.060=Painting and saving result book(s)...</v>
       </c>
       <c r="I67" s="6" t="str">
-        <f t="shared" ref="I67:I130" si="5" xml:space="preserve"> IF($B67="", "", $B67 &amp; "=" &amp; E67)</f>
-        <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
+        <f t="shared" si="2"/>
+        <v>AppTaskBase.060=着色和存储在工作簿...</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>428</v>
+        <v>166</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>431</v>
       </c>
       <c r="G68" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
+        <f t="shared" si="0"/>
+        <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
       </c>
       <c r="H68" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>AppTaskBase.110=Failed to paint or save result book B.</v>
+        <f t="shared" si="1"/>
+        <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
       </c>
       <c r="I68" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
+        <f t="shared" si="2"/>
+        <v>AppTaskBase.070=着色和保存工作簿失败。</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AppTaskBase.080=Opening result book(s)...</v>
+      </c>
+      <c r="I69" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>AppTaskBase.080=显示比较结果的工作簿...</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AppTaskBase.090=Failed to open result book(s).</v>
+      </c>
+      <c r="I70" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>AppTaskBase.090=显示工作簿失败。</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" ref="G71:G134" si="6" xml:space="preserve"> IF($B71="", "", $B71 &amp; "=" &amp; C71)</f>
+        <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <f t="shared" ref="H71:H134" si="7" xml:space="preserve"> IF($B71="", "", $B71 &amp; "=" &amp; D71)</f>
+        <v>AppTaskBase.100=Failed to paint or save result book A.</v>
+      </c>
+      <c r="I71" s="6" t="str">
+        <f t="shared" ref="I71:I134" si="8" xml:space="preserve"> IF($B71="", "", $B71 &amp; "=" &amp; E71)</f>
+        <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>AppTaskBase.110=Failed to paint or save result book B.</v>
+      </c>
+      <c r="I72" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="G69" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="E73" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>AppTaskBase.120=処理が完了しました。</v>
       </c>
-      <c r="H69" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H73" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>AppTaskBase.120=Process completed.</v>
       </c>
-      <c r="I69" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I73" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>AppTaskBase.120=过程完成。</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C70" s="4" t="s">
+    <row r="74" spans="2:9">
+      <c r="B74" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E70" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="G70" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="E74" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>AppTaskBase.130=比較結果フォルダを表示しています...</v>
       </c>
-      <c r="H70" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H74" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>AppTaskBase.130=Opening result folder...</v>
       </c>
-      <c r="I70" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I74" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>AppTaskBase.130=显示比较结果文件夹...</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C71" s="4" t="s">
+    <row r="75" spans="2:9">
+      <c r="B75" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="G71" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D75" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>AppTaskBase.140=比較結果フォルダの表示に失敗しました。</v>
       </c>
-      <c r="H71" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H75" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>AppTaskBase.140=Failed to open result folder(s).</v>
       </c>
-      <c r="I71" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I75" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>AppTaskBase.140=显示文件夹失败。</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C72" s="4" t="s">
+    <row r="76" spans="2:9">
+      <c r="B76" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="G72" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="E76" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>AppTaskBase.150=★失敗しました</v>
       </c>
-      <c r="H72" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H76" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>AppTaskBase.150=★Failed</v>
       </c>
-      <c r="I72" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I76" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>AppTaskBase.150=★失败</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="G73" s="4" t="str">
-        <f t="shared" si="3"/>
+    <row r="77" spans="2:9">
+      <c r="B77" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>AppTaskBase.160=(比較対象ファイルなし)</v>
       </c>
-      <c r="H73" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H77" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>AppTaskBase.160=(No files to compare)</v>
       </c>
-      <c r="I73" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I77" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>AppTaskBase.160=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="2"/>
-      <c r="C74" s="3"/>
-      <c r="G74" s="4" t="str">
-        <f t="shared" si="3"/>
+    <row r="78" spans="2:9">
+      <c r="B78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="G78" s="4" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H74" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I74" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I78" s="6" t="str">
+        <f t="shared" si="8"/>
         <v/>
-      </c>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G75" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
-      </c>
-      <c r="H75" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareBooksTask.010=Starting comparing books.</v>
-      </c>
-      <c r="I75" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareBooksTask.010=开始互相比较工作簿。</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="G76" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
-      </c>
-      <c r="H76" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareBooksTask.020=Pairing sheets...</v>
-      </c>
-      <c r="I76" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="G77" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
-      </c>
-      <c r="H77" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareBooksTask.030=Failed to pair sheets.</v>
-      </c>
-      <c r="I77" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareBooksTask.030=确定工作表组合失败。</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="G78" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareBooksTask.040=シートを比較しています...</v>
-      </c>
-      <c r="H78" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareBooksTask.040=Comparing sheets...</v>
-      </c>
-      <c r="I78" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareBooksTask.040=比较工作表...</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>320</v>
+        <v>264</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="G79" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
+        <f t="shared" si="6"/>
+        <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
       </c>
       <c r="H79" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareBooksTask.050=Failed to compare sheets.</v>
+        <f t="shared" si="7"/>
+        <v>CompareBooksTask.010=Starting comparing books.</v>
       </c>
       <c r="I79" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareBooksTask.050=工作表比较失败。</v>
+        <f t="shared" si="8"/>
+        <v>CompareBooksTask.010=开始互相比较工作簿。</v>
       </c>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="2"/>
-      <c r="C80" s="3"/>
+      <c r="B80" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>439</v>
+      </c>
       <c r="G80" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
       </c>
       <c r="H80" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>CompareBooksTask.020=Pairing sheets...</v>
       </c>
       <c r="I80" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>321</v>
+        <v>159</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="G81" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
+        <f t="shared" si="6"/>
+        <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
       </c>
       <c r="H81" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareDirsTask.010=Starting comparing folders.</v>
+        <f t="shared" si="7"/>
+        <v>CompareBooksTask.030=Failed to pair sheets.</v>
       </c>
       <c r="I81" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareDirsTask.010=开始互相比较文件夹。</v>
+        <f t="shared" si="8"/>
+        <v>CompareBooksTask.030=确定工作表组合失败。</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>322</v>
+        <v>441</v>
       </c>
       <c r="G82" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
+        <f t="shared" si="6"/>
+        <v>CompareBooksTask.040=シートを比較しています...</v>
       </c>
       <c r="H82" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareDirsTask.020=Failed to create output directory.</v>
+        <f t="shared" si="7"/>
+        <v>CompareBooksTask.040=Comparing sheets...</v>
       </c>
       <c r="I82" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
+        <f t="shared" si="8"/>
+        <v>CompareBooksTask.040=比较工作表...</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>323</v>
+        <v>161</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="G83" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
+        <f t="shared" si="6"/>
+        <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
       </c>
       <c r="H83" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareDirsTask.030=Pairing books...</v>
+        <f t="shared" si="7"/>
+        <v>CompareBooksTask.050=Failed to compare sheets.</v>
       </c>
       <c r="I83" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
+        <f t="shared" si="8"/>
+        <v>CompareBooksTask.050=工作表比较失败。</v>
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>324</v>
-      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="3"/>
       <c r="G84" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="H84" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareDirsTask.040=Failed to pair books.</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I84" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareDirsTask.040=确定工作簿组合失败。</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>325</v>
+        <v>266</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="G85" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareDirsTask.050=Excelブックを比較しています...</v>
+        <f t="shared" si="6"/>
+        <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
       </c>
       <c r="H85" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareDirsTask.050=Comparing books...</v>
+        <f t="shared" si="7"/>
+        <v>CompareDirsTask.010=Starting comparing folders.</v>
       </c>
       <c r="I85" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareDirsTask.050=比较工作簿...</v>
+        <f t="shared" si="8"/>
+        <v>CompareDirsTask.010=开始互相比较文件夹。</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>326</v>
+        <v>267</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="G86" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareDirsTask.060=★失敗しました</v>
+        <f t="shared" si="6"/>
+        <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
       </c>
       <c r="H86" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareDirsTask.060=★Failed</v>
+        <f t="shared" si="7"/>
+        <v>CompareDirsTask.020=Failed to create output directory.</v>
       </c>
       <c r="I86" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareDirsTask.060=★失败</v>
+        <f t="shared" si="8"/>
+        <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="7" t="s">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>374</v>
+        <v>234</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>415</v>
+        <v>268</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="G87" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareDirsTask.070=(比較対象ファイルなし)</v>
+        <f t="shared" si="6"/>
+        <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
       </c>
       <c r="H87" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareDirsTask.070=(No files to compare)</v>
+        <f t="shared" si="7"/>
+        <v>CompareDirsTask.030=Pairing books...</v>
       </c>
       <c r="I87" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareDirsTask.070=(没有可比较的文件)</v>
+        <f t="shared" si="8"/>
+        <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
       </c>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="2"/>
-      <c r="C88" s="3"/>
+      <c r="B88" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>445</v>
+      </c>
       <c r="G88" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
       </c>
       <c r="H88" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>CompareDirsTask.040=Failed to pair books.</v>
       </c>
       <c r="I88" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>CompareDirsTask.040=确定工作簿组合失败。</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>77</v>
+        <v>237</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>328</v>
+        <v>270</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="G89" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
+        <f t="shared" si="6"/>
+        <v>CompareDirsTask.050=Excelブックを比較しています...</v>
       </c>
       <c r="H89" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareSheetsTask.010=Starting comparing sheets.</v>
+        <f t="shared" si="7"/>
+        <v>CompareDirsTask.050=Comparing books...</v>
       </c>
       <c r="I89" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareSheetsTask.010=开始相互比较工作表。</v>
+        <f t="shared" si="8"/>
+        <v>CompareDirsTask.050=比较工作簿...</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>82</v>
+        <v>239</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>341</v>
+        <v>271</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>437</v>
       </c>
       <c r="G90" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareSheetsTask.020=シートを比較しています...</v>
+        <f t="shared" si="6"/>
+        <v>CompareDirsTask.060=★失敗しました</v>
       </c>
       <c r="H90" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareSheetsTask.020=Comparing sheets...</v>
+        <f t="shared" si="7"/>
+        <v>CompareDirsTask.060=★Failed</v>
       </c>
       <c r="I90" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareSheetsTask.020=比较工作表...</v>
+        <f t="shared" si="8"/>
+        <v>CompareDirsTask.060=★失败</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>83</v>
+        <v>336</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>320</v>
+        <v>344</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>345</v>
       </c>
       <c r="G91" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
+        <f t="shared" si="6"/>
+        <v>CompareDirsTask.070=(比較対象ファイルなし)</v>
       </c>
       <c r="H91" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareSheetsTask.030=Failed to compare sheets.</v>
+        <f t="shared" si="7"/>
+        <v>CompareDirsTask.070=(No files to compare)</v>
       </c>
       <c r="I91" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareSheetsTask.030=工作表比较失败。</v>
+        <f t="shared" si="8"/>
+        <v>CompareDirsTask.070=(没有可比较的文件)</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
       <c r="G92" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H92" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I92" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="2:9">
-      <c r="B93" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>397</v>
+      <c r="B93" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>398</v>
+        <v>265</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="G93" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
+        <f t="shared" si="6"/>
+        <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
       </c>
       <c r="H93" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareTreesTask.010=Starting comparing folder trees.</v>
+        <f t="shared" si="7"/>
+        <v>CompareSheetsTask.010=Starting comparing sheets.</v>
       </c>
       <c r="I93" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
+        <f t="shared" si="8"/>
+        <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
     <row r="94" spans="2:9">
-      <c r="B94" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>377</v>
+      <c r="B94" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>400</v>
+        <v>160</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>448</v>
       </c>
       <c r="G94" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
+        <f t="shared" si="6"/>
+        <v>CompareSheetsTask.020=シートを比較しています...</v>
       </c>
       <c r="H94" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareTreesTask.020=Pairing folders...</v>
+        <f t="shared" si="7"/>
+        <v>CompareSheetsTask.020=Comparing sheets...</v>
       </c>
       <c r="I94" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
+        <f t="shared" si="8"/>
+        <v>CompareSheetsTask.020=比较工作表...</v>
       </c>
     </row>
     <row r="95" spans="2:9">
-      <c r="B95" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>379</v>
+      <c r="B95" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>402</v>
+        <v>161</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="G95" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
+        <f t="shared" si="6"/>
+        <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
       </c>
       <c r="H95" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareTreesTask.030=Failed to pair folders.</v>
+        <f t="shared" si="7"/>
+        <v>CompareSheetsTask.030=Failed to compare sheets.</v>
       </c>
       <c r="I95" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareTreesTask.030=确定文件夹组合失败。</v>
+        <f t="shared" si="8"/>
+        <v>CompareSheetsTask.030=工作表比较失败。</v>
       </c>
     </row>
     <row r="96" spans="2:9">
-      <c r="B96" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>404</v>
-      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
       <c r="G96" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="H96" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareTreesTask.040=Comparing folders...</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I96" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareTreesTask.040=比较文件夹...</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
     </row>
     <row r="97" spans="2:9">
       <c r="B97" s="1" t="s">
-        <v>382</v>
+        <v>310</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>240</v>
+        <v>332</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>326</v>
+        <v>331</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>449</v>
       </c>
       <c r="G97" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareTreesTask.050=★失敗しました</v>
+        <f t="shared" si="6"/>
+        <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
       </c>
       <c r="H97" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareTreesTask.050=★Failed</v>
+        <f t="shared" si="7"/>
+        <v>CompareTreesTask.010=Starting comparing folder trees.</v>
       </c>
       <c r="I97" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareTreesTask.050=★失败</v>
+        <f t="shared" si="8"/>
+        <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
       </c>
     </row>
     <row r="98" spans="2:9">
       <c r="B98" s="1" t="s">
-        <v>383</v>
+        <v>311</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>415</v>
+        <v>333</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="G98" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
+      </c>
+      <c r="H98" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareTreesTask.020=Pairing folders...</v>
+      </c>
+      <c r="I98" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareTreesTask.030=Failed to pair folders.</v>
+      </c>
+      <c r="I99" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareTreesTask.030=确定文件夹组合失败。</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareTreesTask.040=Comparing folders...</v>
+      </c>
+      <c r="I100" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareTreesTask.040=比较文件夹...</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="B101" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G101" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CompareTreesTask.050=★失敗しました</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareTreesTask.050=★Failed</v>
+      </c>
+      <c r="I101" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareTreesTask.050=★失败</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="B102" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>CompareTreesTask.060=(比較対象ファイルなし)</v>
       </c>
-      <c r="H98" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>CompareTreesTask.060=(No files to compare)</v>
       </c>
-      <c r="I98" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I102" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>CompareTreesTask.060=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="G99" s="4" t="str">
-        <f t="shared" si="3"/>
+    <row r="103" spans="2:9">
+      <c r="B103" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="G103" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>CompareTreesTask.070=比較結果Excelブックを保存しています...</v>
       </c>
-      <c r="H99" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H103" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>CompareTreesTask.070=Saving result book...</v>
       </c>
-      <c r="I99" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I103" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>CompareTreesTask.070=存储比较结果工作簿...</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="G100" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
-      </c>
-      <c r="H100" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareTreesTask.080=Failed to save result book.</v>
-      </c>
-      <c r="I100" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="G101" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
-      </c>
-      <c r="H101" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareTreesTask.090=Opening result book...</v>
-      </c>
-      <c r="I101" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareTreesTask.090=显示比较结果工作簿...</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="G102" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CompareTreesTask.100=比較結果Excelブックの表示に失敗しました。</v>
-      </c>
-      <c r="H102" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>CompareTreesTask.100=Failed to open result book.</v>
-      </c>
-      <c r="I102" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>CompareTreesTask.100=显示比较结果工作簿失败。</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="2"/>
-      <c r="C103" s="3"/>
-      <c r="G103" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H103" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I103" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
       </c>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" s="2" t="s">
-        <v>94</v>
+        <v>350</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>95</v>
+        <v>351</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>329</v>
+        <v>357</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="G104" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.BResult.010=(比較相手なし)</v>
+        <f t="shared" si="6"/>
+        <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
       </c>
       <c r="H104" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.BResult.010=(no opponent)</v>
+        <f t="shared" si="7"/>
+        <v>CompareTreesTask.080=Failed to save result book.</v>
       </c>
       <c r="I104" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.BResult.010=(没有对比)</v>
+        <f t="shared" si="8"/>
+        <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="G105" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
+      </c>
+      <c r="H105" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareTreesTask.090=Opening result book...</v>
+      </c>
+      <c r="I105" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareTreesTask.090=显示比较结果工作簿...</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="B106" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="G106" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CompareTreesTask.100=比較結果Excelブックの表示に失敗しました。</v>
+      </c>
+      <c r="H106" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareTreesTask.100=Failed to open result book.</v>
+      </c>
+      <c r="I106" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareTreesTask.100=显示比较结果工作簿失败。</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="B107" s="2"/>
+      <c r="C107" s="3"/>
+      <c r="G107" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H107" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I107" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="B108" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.BResult.010=(比較相手なし)</v>
+      </c>
+      <c r="H108" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.BResult.010=(no opponent)</v>
+      </c>
+      <c r="I108" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.BResult.010=(没有对比)</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="B109" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E105" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G105" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="E109" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="G109" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>excel.BResult.020=(差分なし)</v>
       </c>
-      <c r="H105" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H109" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>excel.BResult.020=(no diffs)</v>
       </c>
-      <c r="I105" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I109" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>excel.BResult.020=(没有区别)</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9">
-      <c r="B106" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="G106" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.BResult.030=差異発生%dシート</v>
-      </c>
-      <c r="H106" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.BResult.030=diff sheets:%d</v>
-      </c>
-      <c r="I106" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.BResult.030=差异工作表%d</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9">
-      <c r="B107" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="G107" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.BResult.040=余剰%dシート</v>
-      </c>
-      <c r="H107" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.BResult.040=redundant sheets:%d</v>
-      </c>
-      <c r="I107" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.BResult.040=冗余工作表%d</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="G108" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
-      </c>
-      <c r="H108" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">excel.BResult.050=Book %s : </v>
-      </c>
-      <c r="I108" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.BResult.050=工作簿%s：</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9">
-      <c r="B109" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G109" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
-      </c>
-      <c r="H109" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
-      </c>
-      <c r="I109" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>331</v>
+        <v>278</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="G110" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
+        <f t="shared" si="6"/>
+        <v>excel.BResult.030=差異発生%dシート</v>
       </c>
       <c r="H110" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
+        <f t="shared" si="7"/>
+        <v>excel.BResult.030=diff sheets:%d</v>
       </c>
       <c r="I110" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
+        <f t="shared" si="8"/>
+        <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
     <row r="111" spans="2:9">
+      <c r="B111" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="G111" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>excel.BResult.040=余剰%dシート</v>
       </c>
       <c r="H111" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>excel.BResult.040=redundant sheets:%d</v>
       </c>
       <c r="I111" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>excel.BResult.040=冗余工作表%d</v>
       </c>
     </row>
     <row r="112" spans="2:9">
-      <c r="B112" s="2" t="s">
-        <v>103</v>
+      <c r="B112" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>332</v>
+        <v>280</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>376</v>
       </c>
       <c r="G112" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
       </c>
       <c r="H112" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">excel.BResult.050=Book %s : </v>
       </c>
       <c r="I112" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
+        <f t="shared" si="8"/>
+        <v>excel.BResult.050=工作簿%s：</v>
       </c>
     </row>
     <row r="113" spans="2:9">
+      <c r="B113" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="G113" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
       </c>
       <c r="H113" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
       </c>
       <c r="I113" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="114" spans="2:9">
       <c r="B114" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>329</v>
+        <v>175</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>459</v>
       </c>
       <c r="G114" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.DResult.010=(比較相手なし)</v>
+        <f t="shared" si="6"/>
+        <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
       </c>
       <c r="H114" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.DResult.010=(no opponent)</v>
+        <f t="shared" si="7"/>
+        <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
       </c>
       <c r="I114" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.DResult.010=(没有对比)</v>
+        <f t="shared" si="8"/>
+        <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="115" spans="2:9">
-      <c r="B115" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>356</v>
-      </c>
       <c r="G115" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="H115" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I115" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
     </row>
     <row r="116" spans="2:9">
-      <c r="B116" s="7" t="s">
-        <v>252</v>
+      <c r="B116" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>192</v>
+        <v>176</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="G116" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
+        <f t="shared" si="6"/>
+        <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
       </c>
       <c r="H116" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
+        <f t="shared" si="7"/>
+        <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
       </c>
       <c r="I116" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
+        <f t="shared" si="8"/>
+        <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
       </c>
     </row>
     <row r="117" spans="2:9">
-      <c r="B117" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="G117" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="H117" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I117" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
     </row>
     <row r="118" spans="2:9">
       <c r="B118" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>240</v>
+        <v>250</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>326</v>
+        <v>172</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="G118" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.DResult.050=★失敗しました</v>
+        <f t="shared" si="6"/>
+        <v>excel.DResult.010=(比較相手なし)</v>
       </c>
       <c r="H118" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.DResult.050=★Failed</v>
+        <f t="shared" si="7"/>
+        <v>excel.DResult.010=(no opponent)</v>
       </c>
       <c r="I118" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.DResult.050=★失败</v>
+        <f t="shared" si="8"/>
+        <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="119" spans="2:9">
       <c r="B119" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="G119" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
+      </c>
+      <c r="H119" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
+      </c>
+      <c r="I119" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
+      </c>
+    </row>
+    <row r="120" spans="2:9">
+      <c r="B120" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
+      </c>
+      <c r="H120" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
+      </c>
+      <c r="I120" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="G121" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
+      </c>
+      <c r="H121" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
+      </c>
+      <c r="I121" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9">
+      <c r="B122" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G122" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.DResult.050=★失敗しました</v>
+      </c>
+      <c r="H122" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.DResult.050=★Failed</v>
+      </c>
+      <c r="I122" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.DResult.050=★失败</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G119" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="E123" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="G123" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>excel.DResult.060=(差分なし)</v>
       </c>
-      <c r="H119" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H123" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>excel.DResult.060=(no diffs)</v>
       </c>
-      <c r="I119" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I123" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>excel.DResult.060=(没有区别)</v>
       </c>
     </row>
-    <row r="120" spans="2:9">
-      <c r="B120" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="G120" s="4" t="str">
-        <f t="shared" si="3"/>
+    <row r="124" spans="2:9">
+      <c r="B124" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="G124" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>excel.DResult.070=差異発生%dブック</v>
       </c>
-      <c r="H120" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H124" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>excel.DResult.070=diff books:%d</v>
       </c>
-      <c r="I120" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I124" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>excel.DResult.070=差异工作簿%d</v>
       </c>
     </row>
-    <row r="121" spans="2:9">
-      <c r="B121" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G121" s="4" t="str">
-        <f t="shared" si="3"/>
+    <row r="125" spans="2:9">
+      <c r="B125" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="G125" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>excel.DResult.080=余剰%dブック</v>
       </c>
-      <c r="H121" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H125" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>excel.DResult.080=redundant books:%d</v>
       </c>
-      <c r="I121" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I125" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>excel.DResult.080=冗余工作簿%d</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
-      <c r="B122" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="G122" s="4" t="str">
-        <f t="shared" si="3"/>
+    <row r="126" spans="2:9">
+      <c r="B126" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G126" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>excel.DResult.090=比較失敗%dブック</v>
       </c>
-      <c r="H122" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H126" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>excel.DResult.090=failed books:%d</v>
       </c>
-      <c r="I122" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I126" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>excel.DResult.090=失败工作簿%d</v>
       </c>
     </row>
-    <row r="123" spans="2:9">
-      <c r="B123" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="G123" s="4" t="str">
-        <f t="shared" si="3"/>
+    <row r="127" spans="2:9">
+      <c r="B127" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G127" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>excel.DResult.100=(比較対象ファイルなし)</v>
       </c>
-      <c r="H123" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H127" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>excel.DResult.100=(No files to compare)</v>
       </c>
-      <c r="I123" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I127" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>excel.DResult.100=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
-      <c r="G124" s="4" t="str">
-        <f t="shared" si="3"/>
+    <row r="128" spans="2:9">
+      <c r="G128" s="4" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H124" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H128" s="5" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I124" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I128" s="6" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:9">
-      <c r="B125" s="2" t="s">
+    <row r="129" spans="2:9">
+      <c r="B129" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="E129" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G125" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="G129" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>excel.SheetType.010=ワークシート</v>
       </c>
-      <c r="H125" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H129" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>excel.SheetType.010=Worksheet</v>
       </c>
-      <c r="I125" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="I129" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>excel.SheetType.010=工作表</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9">
-      <c r="B126" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="G126" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.SheetType.020=グラフシート</v>
-      </c>
-      <c r="H126" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.SheetType.020=Chart</v>
-      </c>
-      <c r="I126" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.SheetType.020=图表表</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9">
-      <c r="B127" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="G127" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
-      </c>
-      <c r="H127" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
-      </c>
-      <c r="I127" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9">
-      <c r="B128" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G128" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
-      </c>
-      <c r="H128" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.SheetType.040=Excel 4.0 Macro</v>
-      </c>
-      <c r="I128" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.SheetType.040=Excel 4.0 宏表</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9">
-      <c r="B129" s="2"/>
-      <c r="C129" s="3"/>
-      <c r="G129" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H129" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I129" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
       </c>
     </row>
     <row r="130" spans="2:9">
       <c r="B130" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>330</v>
+        <v>178</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="G130" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.SResult.010=(差分なし)</v>
+        <f t="shared" si="6"/>
+        <v>excel.SheetType.020=グラフシート</v>
       </c>
       <c r="H130" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.SResult.010=(no diffs)</v>
+        <f t="shared" si="7"/>
+        <v>excel.SheetType.020=Chart</v>
       </c>
       <c r="I130" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.SResult.010=(没有区别)</v>
+        <f t="shared" si="8"/>
+        <v>excel.SheetType.020=图表表</v>
       </c>
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>195</v>
+        <v>179</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>464</v>
       </c>
       <c r="G131" s="4" t="str">
-        <f t="shared" ref="G131:G144" si="6" xml:space="preserve"> IF($B131="", "", $B131 &amp; "=" &amp; C131)</f>
-        <v>excel.SResult.020=余剰行%d</v>
+        <f t="shared" si="6"/>
+        <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
       </c>
       <c r="H131" s="5" t="str">
-        <f t="shared" ref="H131:H144" si="7" xml:space="preserve"> IF($B131="", "", $B131 &amp; "=" &amp; D131)</f>
-        <v>excel.SResult.020=redundant rows:%d</v>
+        <f t="shared" si="7"/>
+        <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
       </c>
       <c r="I131" s="6" t="str">
-        <f t="shared" ref="I131:I144" si="8" xml:space="preserve"> IF($B131="", "", $B131 &amp; "=" &amp; E131)</f>
-        <v>excel.SResult.020=冗余行%d</v>
+        <f t="shared" si="8"/>
+        <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
       </c>
     </row>
     <row r="132" spans="2:9">
       <c r="B132" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>196</v>
+        <v>180</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="G132" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SResult.030=余剰列%d</v>
+        <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
       </c>
       <c r="H132" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SResult.030=redundant columns:%d</v>
+        <v>excel.SheetType.040=Excel 4.0 Macro</v>
       </c>
       <c r="I132" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SResult.030=冗余列%d</v>
+        <v>excel.SheetType.040=Excel 4.0 宏表</v>
       </c>
     </row>
     <row r="133" spans="2:9">
-      <c r="B133" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>335</v>
-      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="3"/>
       <c r="G133" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SResult.040=差分セル%d</v>
+        <v/>
       </c>
       <c r="H133" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SResult.040=diff cells:%d</v>
+        <v/>
       </c>
       <c r="I133" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SResult.040=差异单元格%d</v>
+        <v/>
       </c>
     </row>
     <row r="134" spans="2:9">
       <c r="B134" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>455</v>
+        <v>97</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>349</v>
+        <v>173</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>457</v>
       </c>
       <c r="G134" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
+        <v>excel.SResult.010=(差分なし)</v>
       </c>
       <c r="H134" s="5" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
+        <v>excel.SResult.010=(no diffs)</v>
       </c>
       <c r="I134" s="6" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
+        <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
     <row r="135" spans="2:9">
       <c r="B135" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>122</v>
+        <v>181</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="G135" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.SResult.060=行%d</v>
+        <f t="shared" ref="G135:G148" si="9" xml:space="preserve"> IF($B135="", "", $B135 &amp; "=" &amp; C135)</f>
+        <v>excel.SResult.020=余剰行%d</v>
       </c>
       <c r="H135" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.SResult.060=Row %d</v>
+        <f t="shared" ref="H135:H148" si="10" xml:space="preserve"> IF($B135="", "", $B135 &amp; "=" &amp; D135)</f>
+        <v>excel.SResult.020=redundant rows:%d</v>
       </c>
       <c r="I135" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.SResult.060=行%d</v>
+        <f t="shared" ref="I135:I148" si="11" xml:space="preserve"> IF($B135="", "", $B135 &amp; "=" &amp; E135)</f>
+        <v>excel.SResult.020=冗余行%d</v>
       </c>
     </row>
     <row r="136" spans="2:9">
       <c r="B136" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>456</v>
+        <v>117</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>350</v>
+        <v>182</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="G136" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
+        <f t="shared" si="9"/>
+        <v>excel.SResult.030=余剰列%d</v>
       </c>
       <c r="H136" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
+        <f t="shared" si="10"/>
+        <v>excel.SResult.030=redundant columns:%d</v>
       </c>
       <c r="I136" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
+        <f t="shared" si="11"/>
+        <v>excel.SResult.030=冗余列%d</v>
       </c>
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>125</v>
+        <v>183</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>465</v>
       </c>
       <c r="G137" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.SResult.080=%s列</v>
+        <f t="shared" si="9"/>
+        <v>excel.SResult.040=差分セル%d</v>
       </c>
       <c r="H137" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.SResult.080=Column %s</v>
+        <f t="shared" si="10"/>
+        <v>excel.SResult.040=diff cells:%d</v>
       </c>
       <c r="I137" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.SResult.080=%s列</v>
+        <f t="shared" si="11"/>
+        <v>excel.SResult.040=差异单元格%d</v>
       </c>
     </row>
     <row r="138" spans="2:9">
       <c r="B138" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G138" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
+      </c>
+      <c r="H138" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
+      </c>
+      <c r="I138" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="B139" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G139" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>excel.SResult.060=行%d</v>
+      </c>
+      <c r="H139" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>excel.SResult.060=Row %d</v>
+      </c>
+      <c r="I139" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>excel.SResult.060=行%d</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9">
+      <c r="B140" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G140" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
+      </c>
+      <c r="H140" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
+      </c>
+      <c r="I140" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
+      </c>
+    </row>
+    <row r="141" spans="2:9">
+      <c r="B141" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G141" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>excel.SResult.080=%s列</v>
+      </c>
+      <c r="H141" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>excel.SResult.080=Column %s</v>
+      </c>
+      <c r="I141" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>excel.SResult.080=%s列</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9">
+      <c r="B142" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="G138" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="C142" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="G142" s="4" t="str">
+        <f t="shared" si="9"/>
         <v xml:space="preserve">excel.SResult.090=差分セル : </v>
       </c>
-      <c r="H138" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H142" s="5" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">excel.SResult.090=Diff cells : </v>
       </c>
-      <c r="I138" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I142" s="6" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">excel.SResult.090=差异单元格 : </v>
       </c>
     </row>
-    <row r="139" spans="2:9">
-      <c r="G139" s="4" t="str">
-        <f t="shared" si="6"/>
+    <row r="143" spans="2:9">
+      <c r="G143" s="4" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H139" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H143" s="5" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I139" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I143" s="6" t="str">
+        <f t="shared" si="11"/>
         <v/>
-      </c>
-    </row>
-    <row r="140" spans="2:9">
-      <c r="B140" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="G140" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.TreeResult.010=(比較相手なし)</v>
-      </c>
-      <c r="H140" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.TreeResult.010=(no opponent)</v>
-      </c>
-      <c r="I140" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.TreeResult.010=(没有对比)</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9">
-      <c r="B141" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="G141" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
-      </c>
-      <c r="H141" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
-      </c>
-      <c r="I141" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
-      </c>
-    </row>
-    <row r="142" spans="2:9">
-      <c r="B142" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G142" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
-      </c>
-      <c r="H142" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
-      </c>
-      <c r="I142" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9">
-      <c r="B143" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="G143" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
-      </c>
-      <c r="H143" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
-      </c>
-      <c r="I143" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="144" spans="2:9">
       <c r="B144" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C144" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="G144" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>excel.TreeResult.010=(比較相手なし)</v>
+      </c>
+      <c r="H144" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>excel.TreeResult.010=(no opponent)</v>
+      </c>
+      <c r="I144" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>excel.TreeResult.010=(没有对比)</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
+      <c r="B145" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="G145" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
+      </c>
+      <c r="H145" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
+      </c>
+      <c r="I145" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
+      </c>
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G146" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
+      </c>
+      <c r="H146" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
+      </c>
+      <c r="I146" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9">
+      <c r="B147" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="G147" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
+      </c>
+      <c r="H147" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
+      </c>
+      <c r="I147" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9">
+      <c r="B148" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E144" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="G144" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="E148" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G148" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>excel.TreeResult.050=★失敗しました</v>
       </c>
-      <c r="H144" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H148" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>excel.TreeResult.050=★Failed</v>
       </c>
-      <c r="I144" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I148" s="6" t="str">
+        <f t="shared" si="11"/>
         <v>excel.TreeResult.050=★失败</v>
       </c>
     </row>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202309/hogandiff4/xyz.hotchpotch.hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="362" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2BA787E-4466-4685-B9D6-D6C751BF378D}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{268E8989-0870-4F13-B295-A7ABA049B4DA}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="472">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -440,9 +440,6 @@
   </si>
   <si>
     <t>exit this app upon completion</t>
-  </si>
-  <si>
-    <t>memory-saving mode</t>
   </si>
   <si>
     <t>Language</t>
@@ -1508,9 +1505,6 @@
     <t>比较结束后自动退出此应用程序</t>
   </si>
   <si>
-    <t>内存节省模式</t>
-  </si>
-  <si>
     <t>语言</t>
   </si>
   <si>
@@ -1722,6 +1716,41 @@
   </si>
   <si>
     <t xml:space="preserve">根文件夹%s : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AppTaskBase.170</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリ不足のため処理が失敗しました。\n「省メモリモード」オプションを選択するか、割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memory-saving mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Processing failed due to insufficient memory.\nPlease select the "memory-saving mode" option or increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内存节省模式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>由于内存不足，处理失败。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n请选择 "内存节省模式" 选项或增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1812,7 +1841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1833,9 +1862,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1877,6 +1903,10 @@
 </file>
 
 <file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2143,7 +2173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I148"/>
+  <dimension ref="B1:I149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2156,7 +2186,7 @@
     <col min="2" max="2" width="34.6875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5625" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.5625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.5625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="30.5625" style="6" customWidth="1"/>
     <col min="6" max="6" width="2.5625" style="1"/>
     <col min="7" max="7" width="2.5625" style="4"/>
     <col min="8" max="8" width="2.5625" style="5"/>
@@ -2166,22 +2196,22 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="2:9">
@@ -2194,8 +2224,8 @@
       <c r="D2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>392</v>
+      <c r="E2" s="6" t="s">
+        <v>391</v>
       </c>
       <c r="G2" s="4" t="str">
         <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; C2)</f>
@@ -2220,7 +2250,7 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="4" t="str">
@@ -2241,13 +2271,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2267,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2290,16 +2320,16 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>304</v>
+        <v>299</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2316,16 +2346,16 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>393</v>
+        <v>260</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2342,16 +2372,16 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2374,10 +2404,10 @@
         <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>394</v>
+        <v>369</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2400,10 +2430,10 @@
         <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>395</v>
+        <v>142</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2428,8 +2458,8 @@
       <c r="D11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>396</v>
+      <c r="E11" s="6" t="s">
+        <v>395</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2454,8 +2484,8 @@
       <c r="D12" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>397</v>
+      <c r="E12" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2480,8 +2510,8 @@
       <c r="D13" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>398</v>
+      <c r="E13" s="6" t="s">
+        <v>397</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2506,8 +2536,8 @@
       <c r="D14" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>399</v>
+      <c r="E14" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2532,8 +2562,8 @@
       <c r="D15" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>400</v>
+      <c r="E15" s="6" t="s">
+        <v>399</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2558,8 +2588,8 @@
       <c r="D16" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>401</v>
+      <c r="E16" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2584,8 +2614,8 @@
       <c r="D17" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>402</v>
+      <c r="E17" s="6" t="s">
+        <v>401</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2610,8 +2640,8 @@
       <c r="D18" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>403</v>
+      <c r="E18" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2636,8 +2666,8 @@
       <c r="D19" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>404</v>
+      <c r="E19" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2662,8 +2692,8 @@
       <c r="D20" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>405</v>
+      <c r="E20" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2686,10 +2716,10 @@
         <v>30</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>406</v>
+        <v>468</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2712,10 +2742,10 @@
         <v>32</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>407</v>
+        <v>138</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2738,10 +2768,10 @@
         <v>34</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>408</v>
+        <v>199</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2764,10 +2794,10 @@
         <v>36</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>189</v>
+        <v>139</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2790,10 +2820,10 @@
         <v>38</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>409</v>
+        <v>140</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2816,10 +2846,10 @@
         <v>40</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>410</v>
+        <v>141</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>408</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2839,13 +2869,13 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2868,10 +2898,10 @@
         <v>6</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2888,16 +2918,16 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>411</v>
+        <v>365</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>409</v>
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2928,16 +2958,16 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>412</v>
+        <v>282</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2954,16 +2984,16 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>372</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2997,13 +3027,13 @@
         <v>64</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>413</v>
+        <v>259</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>411</v>
       </c>
       <c r="G34" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3023,13 +3053,13 @@
         <v>65</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>414</v>
+      <c r="E35" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="G35" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3052,10 +3082,10 @@
         <v>67</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>191</v>
+        <v>150</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="G36" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3072,16 +3102,16 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>388</v>
+        <v>156</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" ref="G37:G41" si="3" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; C37)</f>
@@ -3098,16 +3128,16 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>386</v>
       </c>
       <c r="G38" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3124,16 +3154,16 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>415</v>
+        <v>147</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="G39" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3150,16 +3180,16 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3182,10 +3212,10 @@
         <v>69</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>416</v>
+        <v>151</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3208,10 +3238,10 @@
         <v>71</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>417</v>
+        <v>152</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>415</v>
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3250,10 +3280,10 @@
         <v>46</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>418</v>
+        <v>143</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>416</v>
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3270,16 +3300,16 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>419</v>
+      <c r="E45" s="6" t="s">
+        <v>417</v>
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3296,16 +3326,16 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>420</v>
+        <v>146</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>418</v>
       </c>
       <c r="G46" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3328,10 +3358,10 @@
         <v>60</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>415</v>
+        <v>147</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3354,10 +3384,10 @@
         <v>62</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>421</v>
+        <v>148</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>419</v>
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3380,10 +3410,10 @@
         <v>63</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>422</v>
+        <v>149</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="G49" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3400,7 +3430,7 @@
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>54</v>
@@ -3408,7 +3438,7 @@
       <c r="D50" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G50" s="4" t="str">
@@ -3426,7 +3456,7 @@
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>55</v>
@@ -3434,7 +3464,7 @@
       <c r="D51" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G51" s="4" t="str">
@@ -3452,15 +3482,15 @@
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E52" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G52" s="4" t="str">
@@ -3481,13 +3511,13 @@
         <v>47</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>423</v>
+        <v>261</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3510,10 +3540,10 @@
         <v>51</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>424</v>
+        <v>144</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>422</v>
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3536,10 +3566,10 @@
         <v>53</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>190</v>
+        <v>145</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3559,13 +3589,13 @@
         <v>52</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>425</v>
+        <v>362</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>423</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3582,16 +3612,16 @@
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>375</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3628,9 +3658,9 @@
         <v>73</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E59" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G59" s="4" t="str">
@@ -3654,10 +3684,10 @@
         <v>75</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>426</v>
+        <v>154</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3690,16 +3720,16 @@
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>273</v>
+        <v>155</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="G62" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3716,16 +3746,16 @@
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>387</v>
+        <v>156</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="G63" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3742,16 +3772,16 @@
     </row>
     <row r="64" spans="2:9">
       <c r="B64" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>427</v>
+        <v>161</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="G64" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3768,16 +3798,16 @@
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>428</v>
+        <v>162</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>426</v>
       </c>
       <c r="G65" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3794,16 +3824,16 @@
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>429</v>
+        <v>163</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>427</v>
       </c>
       <c r="G66" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3820,16 +3850,16 @@
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>430</v>
+        <v>164</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>428</v>
       </c>
       <c r="G67" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3846,16 +3876,16 @@
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>431</v>
+        <v>165</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="G68" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3872,16 +3902,16 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>432</v>
+        <v>166</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="G69" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3898,16 +3928,16 @@
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>433</v>
+        <v>167</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>431</v>
       </c>
       <c r="G70" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3924,42 +3954,42 @@
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>434</v>
+        <v>168</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="G71" s="4" t="str">
-        <f t="shared" ref="G71:G134" si="6" xml:space="preserve"> IF($B71="", "", $B71 &amp; "=" &amp; C71)</f>
+        <f t="shared" ref="G71:G135" si="6" xml:space="preserve"> IF($B71="", "", $B71 &amp; "=" &amp; C71)</f>
         <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
       </c>
       <c r="H71" s="5" t="str">
-        <f t="shared" ref="H71:H134" si="7" xml:space="preserve"> IF($B71="", "", $B71 &amp; "=" &amp; D71)</f>
+        <f t="shared" ref="H71:H135" si="7" xml:space="preserve"> IF($B71="", "", $B71 &amp; "=" &amp; D71)</f>
         <v>AppTaskBase.100=Failed to paint or save result book A.</v>
       </c>
       <c r="I71" s="6" t="str">
-        <f t="shared" ref="I71:I134" si="8" xml:space="preserve"> IF($B71="", "", $B71 &amp; "=" &amp; E71)</f>
+        <f t="shared" ref="I71:I135" si="8" xml:space="preserve"> IF($B71="", "", $B71 &amp; "=" &amp; E71)</f>
         <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>435</v>
+        <v>169</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="G72" s="4" t="str">
         <f t="shared" si="6"/>
@@ -3976,16 +4006,16 @@
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>436</v>
+        <v>170</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>434</v>
       </c>
       <c r="G73" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4002,16 +4032,16 @@
     </row>
     <row r="74" spans="2:9">
       <c r="B74" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="G74" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4028,16 +4058,16 @@
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D75" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="G75" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4054,16 +4084,16 @@
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>437</v>
+        <v>270</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>435</v>
       </c>
       <c r="G76" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4080,17 +4110,17 @@
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="D77" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E77" s="8" t="s">
-        <v>345</v>
-      </c>
       <c r="G77" s="4" t="str">
         <f t="shared" si="6"/>
         <v>AppTaskBase.160=(比較対象ファイルなし)</v>
@@ -4105,1740 +4135,1766 @@
       </c>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="2"/>
-      <c r="C78" s="3"/>
+      <c r="B78" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>471</v>
+      </c>
       <c r="G78" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G78:G80" si="9" xml:space="preserve"> IF($B78="", "", $B78 &amp; "=" &amp; C78)</f>
+        <v>AppTaskBase.170=メモリ不足のため処理が失敗しました。\n「省メモリモード」オプションを選択するか、割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" ref="H78:H80" si="10" xml:space="preserve"> IF($B78="", "", $B78 &amp; "=" &amp; D78)</f>
+        <v>AppTaskBase.170=Processing failed due to insufficient memory.\nPlease select the "memory-saving mode" option or increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
+      </c>
+      <c r="I78" s="6" t="str">
+        <f t="shared" ref="I78:I80" si="11" xml:space="preserve"> IF($B78="", "", $B78 &amp; "=" &amp; E78)</f>
+        <v>AppTaskBase.170=由于内存不足，处理失败。\n请选择 "内存节省模式" 选项或增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H78" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H79" s="5" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I78" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I79" s="6" t="str">
+        <f t="shared" si="11"/>
         <v/>
-      </c>
-    </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="G79" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
-      </c>
-      <c r="H79" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareBooksTask.010=Starting comparing books.</v>
-      </c>
-      <c r="I79" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareBooksTask.010=开始互相比较工作簿。</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>439</v>
+        <v>263</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="G80" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
+        <f t="shared" si="9"/>
+        <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
       </c>
       <c r="H80" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareBooksTask.020=Pairing sheets...</v>
+        <f t="shared" si="10"/>
+        <v>CompareBooksTask.010=Starting comparing books.</v>
       </c>
       <c r="I80" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
+        <f t="shared" si="11"/>
+        <v>CompareBooksTask.010=开始互相比较工作簿。</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>440</v>
+        <v>157</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>437</v>
       </c>
       <c r="G81" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
+        <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
       </c>
       <c r="H81" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareBooksTask.030=Failed to pair sheets.</v>
+        <v>CompareBooksTask.020=Pairing sheets...</v>
       </c>
       <c r="I81" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareBooksTask.030=确定工作表组合失败。</v>
+        <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>441</v>
+        <v>158</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>438</v>
       </c>
       <c r="G82" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareBooksTask.040=シートを比較しています...</v>
+        <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
       </c>
       <c r="H82" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareBooksTask.040=Comparing sheets...</v>
+        <v>CompareBooksTask.030=Failed to pair sheets.</v>
       </c>
       <c r="I82" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareBooksTask.040=比较工作表...</v>
+        <v>CompareBooksTask.030=确定工作表组合失败。</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CompareBooksTask.040=シートを比較しています...</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareBooksTask.040=Comparing sheets...</v>
+      </c>
+      <c r="I83" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareBooksTask.040=比较工作表...</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="G83" s="4" t="str">
+      <c r="D84" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="G84" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
       </c>
-      <c r="H83" s="5" t="str">
+      <c r="H84" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareBooksTask.050=Failed to compare sheets.</v>
       </c>
-      <c r="I83" s="6" t="str">
+      <c r="I84" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareBooksTask.050=工作表比较失败。</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="2"/>
-      <c r="C84" s="3"/>
-      <c r="G84" s="4" t="str">
+    <row r="85" spans="2:9">
+      <c r="B85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="G85" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H84" s="5" t="str">
+      <c r="H85" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I84" s="6" t="str">
+      <c r="I85" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="G85" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
-      </c>
-      <c r="H85" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareDirsTask.010=Starting comparing folders.</v>
-      </c>
-      <c r="I85" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareDirsTask.010=开始互相比较文件夹。</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>441</v>
       </c>
       <c r="G86" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
+        <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
       </c>
       <c r="H86" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareDirsTask.020=Failed to create output directory.</v>
+        <v>CompareDirsTask.010=Starting comparing folders.</v>
       </c>
       <c r="I86" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
+        <v>CompareDirsTask.010=开始互相比较文件夹。</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>444</v>
+        <v>266</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="G87" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
+        <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
       </c>
       <c r="H87" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareDirsTask.030=Pairing books...</v>
+        <v>CompareDirsTask.020=Failed to create output directory.</v>
       </c>
       <c r="I87" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
+        <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>445</v>
+        <v>267</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="G88" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
+        <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
       </c>
       <c r="H88" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareDirsTask.040=Failed to pair books.</v>
+        <v>CompareDirsTask.030=Pairing books...</v>
       </c>
       <c r="I88" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareDirsTask.040=确定工作簿组合失败。</v>
+        <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>446</v>
+        <v>268</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="G89" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareDirsTask.050=Excelブックを比較しています...</v>
+        <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
       </c>
       <c r="H89" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareDirsTask.050=Comparing books...</v>
+        <v>CompareDirsTask.040=Failed to pair books.</v>
       </c>
       <c r="I89" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareDirsTask.050=比较工作簿...</v>
+        <v>CompareDirsTask.040=确定工作簿组合失败。</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>437</v>
+        <v>269</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="G90" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareDirsTask.060=★失敗しました</v>
+        <v>CompareDirsTask.050=Excelブックを比較しています...</v>
       </c>
       <c r="H90" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareDirsTask.060=★Failed</v>
+        <v>CompareDirsTask.050=Comparing books...</v>
       </c>
       <c r="I90" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareDirsTask.060=★失败</v>
+        <v>CompareDirsTask.050=比较工作簿...</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" s="7" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c r="D91" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G91" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CompareDirsTask.060=★失敗しました</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareDirsTask.060=★Failed</v>
+      </c>
+      <c r="I91" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareDirsTask.060=★失败</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="G91" s="4" t="str">
+      <c r="G92" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareDirsTask.070=(比較対象ファイルなし)</v>
       </c>
-      <c r="H91" s="5" t="str">
+      <c r="H92" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareDirsTask.070=(No files to compare)</v>
       </c>
-      <c r="I91" s="6" t="str">
+      <c r="I92" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareDirsTask.070=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="2"/>
-      <c r="C92" s="3"/>
-      <c r="G92" s="4" t="str">
+    <row r="93" spans="2:9">
+      <c r="B93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="G93" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H92" s="5" t="str">
+      <c r="H93" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I92" s="6" t="str">
+      <c r="I93" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
-      </c>
-    </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="G93" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
-      </c>
-      <c r="H93" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareSheetsTask.010=Starting comparing sheets.</v>
-      </c>
-      <c r="I93" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
     <row r="94" spans="2:9">
       <c r="B94" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>448</v>
+        <v>264</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="G94" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareSheetsTask.020=シートを比較しています...</v>
+        <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
       </c>
       <c r="H94" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareSheetsTask.020=Comparing sheets...</v>
+        <v>CompareSheetsTask.010=Starting comparing sheets.</v>
       </c>
       <c r="I94" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareSheetsTask.020=比较工作表...</v>
+        <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G95" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CompareSheetsTask.020=シートを比較しています...</v>
+      </c>
+      <c r="H95" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareSheetsTask.020=Comparing sheets...</v>
+      </c>
+      <c r="I95" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareSheetsTask.020=比较工作表...</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="G95" s="4" t="str">
+      <c r="D96" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="G96" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
       </c>
-      <c r="H95" s="5" t="str">
+      <c r="H96" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareSheetsTask.030=Failed to compare sheets.</v>
       </c>
-      <c r="I95" s="6" t="str">
+      <c r="I96" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareSheetsTask.030=工作表比较失败。</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="2"/>
-      <c r="C96" s="3"/>
-      <c r="G96" s="4" t="str">
+    <row r="97" spans="2:9">
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="G97" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H96" s="5" t="str">
+      <c r="H97" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I96" s="6" t="str">
+      <c r="I97" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
-      </c>
-    </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="G97" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
-      </c>
-      <c r="H97" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareTreesTask.010=Starting comparing folder trees.</v>
-      </c>
-      <c r="I97" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
       </c>
     </row>
     <row r="98" spans="2:9">
       <c r="B98" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>450</v>
+        <v>330</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>447</v>
       </c>
       <c r="G98" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
+        <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
       </c>
       <c r="H98" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareTreesTask.020=Pairing folders...</v>
+        <v>CompareTreesTask.010=Starting comparing folder trees.</v>
       </c>
       <c r="I98" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
+        <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
       </c>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>451</v>
+        <v>332</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>448</v>
       </c>
       <c r="G99" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
+        <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
       </c>
       <c r="H99" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareTreesTask.030=Failed to pair folders.</v>
+        <v>CompareTreesTask.020=Pairing folders...</v>
       </c>
       <c r="I99" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareTreesTask.030=确定文件夹组合失败。</v>
+        <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
       </c>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>452</v>
+        <v>333</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>449</v>
       </c>
       <c r="G100" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
+        <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
       </c>
       <c r="H100" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareTreesTask.040=Comparing folders...</v>
+        <v>CompareTreesTask.030=Failed to pair folders.</v>
       </c>
       <c r="I100" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareTreesTask.040=比较文件夹...</v>
+        <v>CompareTreesTask.030=确定文件夹组合失败。</v>
       </c>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>240</v>
+        <v>315</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>437</v>
+        <v>334</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>450</v>
       </c>
       <c r="G101" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareTreesTask.050=★失敗しました</v>
+        <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
       </c>
       <c r="H101" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareTreesTask.050=★Failed</v>
+        <v>CompareTreesTask.040=Comparing folders...</v>
       </c>
       <c r="I101" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareTreesTask.050=★失败</v>
+        <v>CompareTreesTask.040=比较文件夹...</v>
       </c>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c r="D102" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CompareTreesTask.050=★失敗しました</v>
+      </c>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareTreesTask.050=★Failed</v>
+      </c>
+      <c r="I102" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareTreesTask.050=★失败</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E102" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="G102" s="4" t="str">
+      <c r="G103" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.060=(比較対象ファイルなし)</v>
       </c>
-      <c r="H102" s="5" t="str">
+      <c r="H103" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.060=(No files to compare)</v>
       </c>
-      <c r="I102" s="6" t="str">
+      <c r="I103" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.060=(没有可比较的文件)</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="G103" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareTreesTask.070=比較結果Excelブックを保存しています...</v>
-      </c>
-      <c r="H103" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareTreesTask.070=Saving result book...</v>
-      </c>
-      <c r="I103" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareTreesTask.070=存储比较结果工作簿...</v>
       </c>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>454</v>
+        <v>355</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>451</v>
       </c>
       <c r="G104" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
+        <v>CompareTreesTask.070=比較結果Excelブックを保存しています...</v>
       </c>
       <c r="H104" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareTreesTask.080=Failed to save result book.</v>
+        <v>CompareTreesTask.070=Saving result book...</v>
       </c>
       <c r="I104" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
+        <v>CompareTreesTask.070=存储比较结果工作簿...</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>452</v>
       </c>
       <c r="G105" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
+        <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
       </c>
       <c r="H105" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareTreesTask.090=Opening result book...</v>
+        <v>CompareTreesTask.080=Failed to save result book.</v>
       </c>
       <c r="I105" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareTreesTask.090=显示比较结果工作簿...</v>
+        <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
       </c>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G106" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
+      </c>
+      <c r="H106" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareTreesTask.090=Opening result book...</v>
+      </c>
+      <c r="I106" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareTreesTask.090=显示比较结果工作簿...</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="B107" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="G106" s="4" t="str">
+      <c r="D107" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="G107" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.100=比較結果Excelブックの表示に失敗しました。</v>
       </c>
-      <c r="H106" s="5" t="str">
+      <c r="H107" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.100=Failed to open result book.</v>
       </c>
-      <c r="I106" s="6" t="str">
+      <c r="I107" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.100=显示比较结果工作簿失败。</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
-      <c r="B107" s="2"/>
-      <c r="C107" s="3"/>
-      <c r="G107" s="4" t="str">
+    <row r="108" spans="2:9">
+      <c r="B108" s="2"/>
+      <c r="C108" s="3"/>
+      <c r="G108" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H107" s="5" t="str">
+      <c r="H108" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I107" s="6" t="str">
+      <c r="I108" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
-      </c>
-    </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="G108" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.BResult.010=(比較相手なし)</v>
-      </c>
-      <c r="H108" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.BResult.010=(no opponent)</v>
-      </c>
-      <c r="I108" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.BResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G109" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.BResult.010=(比較相手なし)</v>
+      </c>
+      <c r="H109" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.BResult.010=(no opponent)</v>
+      </c>
+      <c r="I109" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.BResult.010=(没有对比)</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="B110" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="G109" s="4" t="str">
+      <c r="D110" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="G110" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.BResult.020=(差分なし)</v>
       </c>
-      <c r="H109" s="5" t="str">
+      <c r="H110" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.BResult.020=(no diffs)</v>
       </c>
-      <c r="I109" s="6" t="str">
+      <c r="I110" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.020=(没有区别)</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="G110" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.BResult.030=差異発生%dシート</v>
-      </c>
-      <c r="H110" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.BResult.030=diff sheets:%d</v>
-      </c>
-      <c r="I110" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>281</v>
+        <v>277</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>456</v>
       </c>
       <c r="G111" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.BResult.040=余剰%dシート</v>
+        <v>excel.BResult.030=差異発生%dシート</v>
       </c>
       <c r="H111" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.BResult.040=redundant sheets:%d</v>
+        <v>excel.BResult.030=diff sheets:%d</v>
       </c>
       <c r="I111" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.BResult.040=冗余工作表%d</v>
+        <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>259</v>
+        <v>99</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="D112" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E112" s="8" t="s">
-        <v>376</v>
-      </c>
       <c r="G112" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
+        <v>excel.BResult.040=余剰%dシート</v>
       </c>
       <c r="H112" s="5" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">excel.BResult.050=Book %s : </v>
+        <v>excel.BResult.040=redundant sheets:%d</v>
       </c>
       <c r="I112" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.BResult.050=工作簿%s：</v>
+        <v>excel.BResult.040=冗余工作表%d</v>
       </c>
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="7" t="s">
-        <v>248</v>
+        <v>101</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>192</v>
+        <v>279</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="G113" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
+        <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
       </c>
       <c r="H113" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
+        <v xml:space="preserve">excel.BResult.050=Book %s : </v>
       </c>
       <c r="I113" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
+        <v>excel.BResult.050=工作簿%s：</v>
       </c>
     </row>
     <row r="114" spans="2:9">
       <c r="B114" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G114" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
+      </c>
+      <c r="H114" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
+      </c>
+      <c r="I114" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D115" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G115" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
+      </c>
+      <c r="H115" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
+      </c>
+      <c r="I115" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="G116" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H116" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I116" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E114" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="G114" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
-      </c>
-      <c r="H114" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
-      </c>
-      <c r="I114" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9">
-      <c r="G115" s="4" t="str">
+      <c r="E117" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G117" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
+      </c>
+      <c r="H117" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
+      </c>
+      <c r="I117" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="G118" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H115" s="5" t="str">
+      <c r="H118" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I115" s="6" t="str">
+      <c r="I118" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
-      </c>
-    </row>
-    <row r="116" spans="2:9">
-      <c r="B116" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="G116" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
-      </c>
-      <c r="H116" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
-      </c>
-      <c r="I116" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9">
-      <c r="G117" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H117" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I117" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="2:9">
-      <c r="B118" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="G118" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.DResult.010=(比較相手なし)</v>
-      </c>
-      <c r="H118" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.DResult.010=(no opponent)</v>
-      </c>
-      <c r="I118" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="119" spans="2:9">
       <c r="B119" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>282</v>
+        <v>249</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>461</v>
+        <v>171</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>454</v>
       </c>
       <c r="G119" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
+        <v>excel.DResult.010=(比較相手なし)</v>
       </c>
       <c r="H119" s="5" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
+        <v>excel.DResult.010=(no opponent)</v>
       </c>
       <c r="I119" s="6" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
+        <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="120" spans="2:9">
       <c r="B120" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>100</v>
+        <v>250</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>192</v>
+        <v>282</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="G120" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
+        <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
       </c>
       <c r="H120" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
+        <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
       </c>
       <c r="I120" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
+        <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
       </c>
     </row>
     <row r="121" spans="2:9">
       <c r="B121" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>459</v>
+        <v>173</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="G121" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
+        <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
       <c r="H121" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
+        <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
       <c r="I121" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
+        <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="122" spans="2:9">
       <c r="B122" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>240</v>
+        <v>252</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>437</v>
+        <v>174</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="G122" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.050=★失敗しました</v>
+        <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
       <c r="H122" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.050=★Failed</v>
+        <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
       <c r="I122" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.050=★失败</v>
+        <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="123" spans="2:9">
       <c r="B123" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C123" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G123" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.DResult.050=★失敗しました</v>
+      </c>
+      <c r="H123" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.DResult.050=★Failed</v>
+      </c>
+      <c r="I123" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.DResult.050=★失败</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="B124" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="G123" s="4" t="str">
+      <c r="D124" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="G124" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.DResult.060=(差分なし)</v>
       </c>
-      <c r="H123" s="5" t="str">
+      <c r="H124" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.DResult.060=(no diffs)</v>
       </c>
-      <c r="I123" s="6" t="str">
+      <c r="I124" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.DResult.060=(没有区别)</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9">
-      <c r="B124" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="G124" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.DResult.070=差異発生%dブック</v>
-      </c>
-      <c r="H124" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.DResult.070=diff books:%d</v>
-      </c>
-      <c r="I124" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.DResult.070=差异工作簿%d</v>
       </c>
     </row>
     <row r="125" spans="2:9">
       <c r="B125" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>460</v>
       </c>
       <c r="G125" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.080=余剰%dブック</v>
+        <v>excel.DResult.070=差異発生%dブック</v>
       </c>
       <c r="H125" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.080=redundant books:%d</v>
+        <v>excel.DResult.070=diff books:%d</v>
       </c>
       <c r="I125" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.080=冗余工作簿%d</v>
+        <v>excel.DResult.070=差异工作簿%d</v>
       </c>
     </row>
     <row r="126" spans="2:9">
       <c r="B126" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>338</v>
       </c>
       <c r="G126" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.090=比較失敗%dブック</v>
+        <v>excel.DResult.080=余剰%dブック</v>
       </c>
       <c r="H126" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.090=failed books:%d</v>
+        <v>excel.DResult.080=redundant books:%d</v>
       </c>
       <c r="I126" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.090=失败工作簿%d</v>
+        <v>excel.DResult.080=冗余工作簿%d</v>
       </c>
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D127" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G127" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.DResult.090=比較失敗%dブック</v>
+      </c>
+      <c r="H127" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.DResult.090=failed books:%d</v>
+      </c>
+      <c r="I127" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.DResult.090=失败工作簿%d</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9">
+      <c r="B128" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E128" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E127" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="G127" s="4" t="str">
+      <c r="G128" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.DResult.100=(比較対象ファイルなし)</v>
       </c>
-      <c r="H127" s="5" t="str">
+      <c r="H128" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.DResult.100=(No files to compare)</v>
       </c>
-      <c r="I127" s="6" t="str">
+      <c r="I128" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.DResult.100=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="128" spans="2:9">
-      <c r="G128" s="4" t="str">
+    <row r="129" spans="2:9">
+      <c r="G129" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H128" s="5" t="str">
+      <c r="H129" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I128" s="6" t="str">
+      <c r="I129" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
-      </c>
-    </row>
-    <row r="129" spans="2:9">
-      <c r="B129" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G129" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.SheetType.010=ワークシート</v>
-      </c>
-      <c r="H129" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.SheetType.010=Worksheet</v>
-      </c>
-      <c r="I129" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
     <row r="130" spans="2:9">
       <c r="B130" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>463</v>
+        <v>176</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="G130" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SheetType.020=グラフシート</v>
+        <v>excel.SheetType.010=ワークシート</v>
       </c>
       <c r="H130" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SheetType.020=Chart</v>
+        <v>excel.SheetType.010=Worksheet</v>
       </c>
       <c r="I130" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SheetType.020=图表表</v>
+        <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>464</v>
+        <v>177</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>461</v>
       </c>
       <c r="G131" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
+        <v>excel.SheetType.020=グラフシート</v>
       </c>
       <c r="H131" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
+        <v>excel.SheetType.020=Chart</v>
       </c>
       <c r="I131" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
+        <v>excel.SheetType.020=图表表</v>
       </c>
     </row>
     <row r="132" spans="2:9">
       <c r="B132" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="G132" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
+      </c>
+      <c r="H132" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
+      </c>
+      <c r="I132" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9">
+      <c r="B133" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G132" s="4" t="str">
+      <c r="D133" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G133" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
       </c>
-      <c r="H132" s="5" t="str">
+      <c r="H133" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.SheetType.040=Excel 4.0 Macro</v>
       </c>
-      <c r="I132" s="6" t="str">
+      <c r="I133" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.SheetType.040=Excel 4.0 宏表</v>
       </c>
     </row>
-    <row r="133" spans="2:9">
-      <c r="B133" s="2"/>
-      <c r="C133" s="3"/>
-      <c r="G133" s="4" t="str">
+    <row r="134" spans="2:9">
+      <c r="B134" s="2"/>
+      <c r="C134" s="3"/>
+      <c r="G134" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H133" s="5" t="str">
+      <c r="H134" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I133" s="6" t="str">
+      <c r="I134" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
-      </c>
-    </row>
-    <row r="134" spans="2:9">
-      <c r="B134" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="G134" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.SResult.010=(差分なし)</v>
-      </c>
-      <c r="H134" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.SResult.010=(no diffs)</v>
-      </c>
-      <c r="I134" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
     <row r="135" spans="2:9">
       <c r="B135" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>195</v>
+        <v>172</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="G135" s="4" t="str">
-        <f t="shared" ref="G135:G148" si="9" xml:space="preserve"> IF($B135="", "", $B135 &amp; "=" &amp; C135)</f>
-        <v>excel.SResult.020=余剰行%d</v>
+        <f t="shared" si="6"/>
+        <v>excel.SResult.010=(差分なし)</v>
       </c>
       <c r="H135" s="5" t="str">
-        <f t="shared" ref="H135:H148" si="10" xml:space="preserve"> IF($B135="", "", $B135 &amp; "=" &amp; D135)</f>
-        <v>excel.SResult.020=redundant rows:%d</v>
+        <f t="shared" si="7"/>
+        <v>excel.SResult.010=(no diffs)</v>
       </c>
       <c r="I135" s="6" t="str">
-        <f t="shared" ref="I135:I148" si="11" xml:space="preserve"> IF($B135="", "", $B135 &amp; "=" &amp; E135)</f>
-        <v>excel.SResult.020=冗余行%d</v>
+        <f t="shared" si="8"/>
+        <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
     <row r="136" spans="2:9">
       <c r="B136" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>196</v>
+        <v>180</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="G136" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.SResult.030=余剰列%d</v>
+        <f t="shared" ref="G136:G149" si="12" xml:space="preserve"> IF($B136="", "", $B136 &amp; "=" &amp; C136)</f>
+        <v>excel.SResult.020=余剰行%d</v>
       </c>
       <c r="H136" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.SResult.030=redundant columns:%d</v>
+        <f t="shared" ref="H136:H149" si="13" xml:space="preserve"> IF($B136="", "", $B136 &amp; "=" &amp; D136)</f>
+        <v>excel.SResult.020=redundant rows:%d</v>
       </c>
       <c r="I136" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.SResult.030=冗余列%d</v>
+        <f t="shared" ref="I136:I149" si="14" xml:space="preserve"> IF($B136="", "", $B136 &amp; "=" &amp; E136)</f>
+        <v>excel.SResult.020=冗余行%d</v>
       </c>
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>465</v>
+        <v>181</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="G137" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.SResult.040=差分セル%d</v>
+        <f t="shared" si="12"/>
+        <v>excel.SResult.030=余剰列%d</v>
       </c>
       <c r="H137" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.SResult.040=diff cells:%d</v>
+        <f t="shared" si="13"/>
+        <v>excel.SResult.030=redundant columns:%d</v>
       </c>
       <c r="I137" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.SResult.040=差异单元格%d</v>
+        <f t="shared" si="14"/>
+        <v>excel.SResult.030=冗余列%d</v>
       </c>
     </row>
     <row r="138" spans="2:9">
       <c r="B138" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>377</v>
+        <v>119</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>287</v>
+        <v>182</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>463</v>
       </c>
       <c r="G138" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
+        <f t="shared" si="12"/>
+        <v>excel.SResult.040=差分セル%d</v>
       </c>
       <c r="H138" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
+        <f t="shared" si="13"/>
+        <v>excel.SResult.040=diff cells:%d</v>
       </c>
       <c r="I138" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
+        <f t="shared" si="14"/>
+        <v>excel.SResult.040=差异单元格%d</v>
       </c>
     </row>
     <row r="139" spans="2:9">
       <c r="B139" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>122</v>
+        <v>376</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>122</v>
+        <v>283</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="G139" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.SResult.060=行%d</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
       </c>
       <c r="H139" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.SResult.060=Row %d</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
       </c>
       <c r="I139" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.SResult.060=行%d</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
       </c>
     </row>
     <row r="140" spans="2:9">
       <c r="B140" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>378</v>
+        <v>122</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>288</v>
+        <v>183</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="G140" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
+        <f t="shared" si="12"/>
+        <v>excel.SResult.060=行%d</v>
       </c>
       <c r="H140" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
+        <f t="shared" si="13"/>
+        <v>excel.SResult.060=Row %d</v>
       </c>
       <c r="I140" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
+        <f t="shared" si="14"/>
+        <v>excel.SResult.060=行%d</v>
       </c>
     </row>
     <row r="141" spans="2:9">
       <c r="B141" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>125</v>
+        <v>377</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>125</v>
+        <v>284</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="G141" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.SResult.080=%s列</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
       </c>
       <c r="H141" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.SResult.080=Column %s</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
       </c>
       <c r="I141" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.SResult.080=%s列</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
       </c>
     </row>
     <row r="142" spans="2:9">
       <c r="B142" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G142" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>excel.SResult.080=%s列</v>
+      </c>
+      <c r="H142" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>excel.SResult.080=Column %s</v>
+      </c>
+      <c r="I142" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>excel.SResult.080=%s列</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9">
+      <c r="B143" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="G142" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="C143" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G143" s="4" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">excel.SResult.090=差分セル : </v>
       </c>
-      <c r="H142" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H143" s="5" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">excel.SResult.090=Diff cells : </v>
       </c>
-      <c r="I142" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I143" s="6" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">excel.SResult.090=差异单元格 : </v>
       </c>
     </row>
-    <row r="143" spans="2:9">
-      <c r="G143" s="4" t="str">
-        <f t="shared" si="9"/>
+    <row r="144" spans="2:9">
+      <c r="G144" s="4" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H143" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H144" s="5" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I143" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I144" s="6" t="str">
+        <f t="shared" si="14"/>
         <v/>
-      </c>
-    </row>
-    <row r="144" spans="2:9">
-      <c r="B144" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="G144" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.TreeResult.010=(比較相手なし)</v>
-      </c>
-      <c r="H144" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.TreeResult.010=(no opponent)</v>
-      </c>
-      <c r="I144" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.TreeResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="145" spans="2:9">
       <c r="B145" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>342</v>
+        <v>325</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>467</v>
+        <v>171</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>454</v>
       </c>
       <c r="G145" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
+        <f t="shared" si="12"/>
+        <v>excel.TreeResult.010=(比較相手なし)</v>
       </c>
       <c r="H145" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
+        <f t="shared" si="13"/>
+        <v>excel.TreeResult.010=(no opponent)</v>
       </c>
       <c r="I145" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
+        <f t="shared" si="14"/>
+        <v>excel.TreeResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="146" spans="2:9">
       <c r="B146" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>100</v>
+        <v>326</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>192</v>
+        <v>342</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="G146" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
       </c>
       <c r="H146" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
       </c>
       <c r="I146" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
       </c>
     </row>
     <row r="147" spans="2:9">
       <c r="B147" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>459</v>
+        <v>173</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="G147" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
+        <f t="shared" si="12"/>
+        <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
       <c r="H147" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
+        <f t="shared" si="13"/>
+        <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
       <c r="I147" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
+        <f t="shared" si="14"/>
+        <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="148" spans="2:9">
       <c r="B148" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>240</v>
+        <v>328</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>437</v>
+        <v>174</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="G148" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
+        <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
+      </c>
+      <c r="H148" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
+      </c>
+      <c r="I148" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="B149" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G149" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>excel.TreeResult.050=★失敗しました</v>
       </c>
-      <c r="H148" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H149" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>excel.TreeResult.050=★Failed</v>
       </c>
-      <c r="I148" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I149" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>excel.TreeResult.050=★失败</v>
       </c>
     </row>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202309/hogandiff4/xyz.hotchpotch.hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{268E8989-0870-4F13-B295-A7ABA049B4DA}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D0CFBD5-94BC-4C92-A8E2-0D87F93E5603}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="476">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -113,12 +113,6 @@
   </si>
   <si>
     <t>比較完了時にこのアプリを終了する</t>
-  </si>
-  <si>
-    <t>fx.SettingsPane1.execute.020</t>
-  </si>
-  <si>
-    <t>省メモリモード</t>
   </si>
   <si>
     <t>fx.SettingsPane2.010</t>
@@ -1727,15 +1721,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>memory-saving mode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Processing failed due to insufficient memory.\nPlease select the "memory-saving mode" option or increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内存节省模式</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1751,6 +1737,50 @@
       </rPr>
       <t>\n请选择 "内存节省模式" 选项或增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.SettingsPane1.execute.030</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.SettingsPane1.execute.040</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>早さ優先</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精度優先</t>
+    <rPh sb="0" eb="2">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prioritize speed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prioritize accuracy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>优先考虑速度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>优先考虑准确性</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1907,6 +1937,10 @@
 </file>
 
 <file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2173,7 +2207,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I149"/>
+  <dimension ref="B1:I150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2196,22 +2230,22 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="2:9">
@@ -2222,10 +2256,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G2" s="4" t="str">
         <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; C2)</f>
@@ -2254,15 +2288,15 @@
         <v>3</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G70" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
+        <f t="shared" ref="G3:G71" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H70" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
+        <f t="shared" ref="H3:H71" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I70" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
+        <f t="shared" ref="I3:I71" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
     </row>
@@ -2271,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2297,13 +2331,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2320,16 +2354,16 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2346,16 +2380,16 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2372,16 +2406,16 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2398,16 +2432,16 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2424,16 +2458,16 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2456,10 +2490,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2482,10 +2516,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2508,10 +2542,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2534,10 +2568,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2560,10 +2594,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2586,10 +2620,10 @@
         <v>20</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2612,10 +2646,10 @@
         <v>22</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2638,10 +2672,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2664,10 +2698,10 @@
         <v>26</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2690,10 +2724,10 @@
         <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2710,3190 +2744,3216 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>30</v>
+        <v>470</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.execute.020=省メモリモード</v>
+        <v>fx.SettingsPane1.execute.030=早さ優先</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.execute.020=memory-saving mode</v>
+        <v>fx.SettingsPane1.execute.030=prioritize speed</v>
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.execute.020=内存节省模式</v>
+        <v>fx.SettingsPane1.execute.030=优先考虑速度</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>469</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>471</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>138</v>
+        <v>473</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.010=言語</v>
+        <v>fx.SettingsPane1.execute.040=精度優先</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.010=Language</v>
+        <v>fx.SettingsPane1.execute.040=prioritize accuracy</v>
       </c>
       <c r="I22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.010=语言</v>
+        <v>fx.SettingsPane1.execute.040=优先考虑准确性</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.020=作業用\nフォルダ</v>
+        <v>fx.SettingsPane2.010=言語</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.020=Working directory</v>
+        <v>fx.SettingsPane2.010=Language</v>
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.020=工作\n文件夹</v>
+        <v>fx.SettingsPane2.010=语言</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>188</v>
+        <v>404</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.workDir.010=開く</v>
+        <v>fx.SettingsPane2.020=作業用\nフォルダ</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.workDir.010=Open</v>
+        <v>fx.SettingsPane2.020=Working directory</v>
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.workDir.010=打开</v>
+        <v>fx.SettingsPane2.020=工作\n文件夹</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>407</v>
+        <v>186</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.workDir.020=変更...</v>
+        <v>fx.SettingsPane2.workDir.010=開く</v>
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.workDir.020=Change...</v>
+        <v>fx.SettingsPane2.workDir.010=Open</v>
       </c>
       <c r="I25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.workDir.020=改变...</v>
+        <v>fx.SettingsPane2.workDir.010=打开</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.workDir.030=削除...</v>
+        <v>fx.SettingsPane2.workDir.020=変更...</v>
       </c>
       <c r="H26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.workDir.030=Delete...</v>
+        <v>fx.SettingsPane2.workDir.020=Change...</v>
       </c>
       <c r="I26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.workDir.030=删除...</v>
+        <v>fx.SettingsPane2.workDir.020=改变...</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>367</v>
+        <v>38</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>363</v>
+        <v>139</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.TargetSelectionPane.010=ブックパス：</v>
+        <v>fx.SettingsPane2.workDir.030=削除...</v>
       </c>
       <c r="H27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">fx.TargetSelectionPane.010=Book Path : </v>
+        <v>fx.SettingsPane2.workDir.030=Delete...</v>
       </c>
       <c r="I27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.TargetSelectionPane.010=工作簿路径：</v>
+        <v>fx.SettingsPane2.workDir.030=删除...</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>6</v>
+        <v>365</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.TargetSelectionPane.020=シート名：</v>
+        <v>fx.TargetSelectionPane.010=ブックパス：</v>
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">fx.TargetSelectionPane.020=Sheet Name : </v>
+        <v xml:space="preserve">fx.TargetSelectionPane.010=Book Path : </v>
       </c>
       <c r="I28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.TargetSelectionPane.020=工作表名称：</v>
+        <v>fx.TargetSelectionPane.010=工作簿路径：</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>288</v>
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>fx.TargetSelectionPane.020=シート名：</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fx.TargetSelectionPane.020=Sheet Name : </v>
+      </c>
+      <c r="I29" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>fx.TargetSelectionPane.020=工作表名称：</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>fx.TargetSelectionPane.030=フォルダパス：</v>
       </c>
-      <c r="H29" s="5" t="str">
+      <c r="H30" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fx.TargetSelectionPane.030=Folder Path : </v>
       </c>
-      <c r="I29" s="6" t="str">
+      <c r="I30" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.TargetSelectionPane.030=文件夹路径：</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
-      <c r="G30" s="4" t="str">
+    <row r="31" spans="2:9">
+      <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="5" t="str">
+      <c r="H31" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I30" s="6" t="str">
+      <c r="I31" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="G31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.010=比較フォルダ%s：</v>
-      </c>
-      <c r="H31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.010=Folder %s : </v>
-      </c>
-      <c r="I31" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.010=文件夹%s：</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.010=比較フォルダ%s：</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.010=Folder %s : </v>
+      </c>
+      <c r="I32" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.010=文件夹%s：</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>excel.poi.usermodel.TreeResultBookCreator.020=作業用フォルダ：</v>
       </c>
-      <c r="H32" s="5" t="str">
+      <c r="H33" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.020=working dir : </v>
       </c>
-      <c r="I32" s="6" t="str">
+      <c r="I33" s="6" t="str">
         <f t="shared" si="2"/>
         <v>excel.poi.usermodel.TreeResultBookCreator.020=工作文件夹：</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
-      <c r="G33" s="4" t="str">
+    <row r="34" spans="2:9">
+      <c r="G34" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H33" s="5" t="str">
+      <c r="H34" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I33" s="6" t="str">
+      <c r="I34" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="G34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.MainController.010=同じフォルダ同士／ブック同士／シート同士を比較することはできません。</v>
-      </c>
-      <c r="H34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.MainController.010=Please specify different folders/books/sheets.</v>
-      </c>
-      <c r="I34" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.MainController.010=指定非相同的文件夹／工作簿／工作表。</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>200</v>
+        <v>62</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
+        <v>gui.MainController.010=同じフォルダ同士／ブック同士／シート同士を比較することはできません。</v>
       </c>
       <c r="H35" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
+        <v>gui.MainController.010=Please specify different folders/books/sheets.</v>
       </c>
       <c r="I35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
+        <v>gui.MainController.010=指定非相同的文件夹／工作簿／工作表。</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>190</v>
+        <v>410</v>
       </c>
       <c r="G36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.MainController.030=予期せぬ例外が発生しました。</v>
+        <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
       </c>
       <c r="H36" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.MainController.030=Unexpected exception occurred.</v>
+        <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
       </c>
       <c r="I36" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.MainController.030=意外的例外。</v>
+        <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="2" t="s">
-        <v>379</v>
+        <v>64</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>387</v>
+        <v>188</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f t="shared" ref="G37:G41" si="3" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; C37)</f>
-        <v>gui.MainController.040=作業用フォルダの作成に失敗しました。</v>
+        <f t="shared" si="0"/>
+        <v>gui.MainController.030=予期せぬ例外が発生しました。</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f t="shared" ref="H37:H41" si="4" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; D37)</f>
-        <v>gui.MainController.040=Failed to create working directory.</v>
+        <f t="shared" si="1"/>
+        <v>gui.MainController.030=Unexpected exception occurred.</v>
       </c>
       <c r="I37" s="6" t="str">
-        <f t="shared" ref="I37:I41" si="5" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; E37)</f>
-        <v>gui.MainController.040=创建工作文件夹失败。</v>
+        <f t="shared" si="2"/>
+        <v>gui.MainController.030=意外的例外。</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>384</v>
+        <v>154</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>385</v>
       </c>
       <c r="G38" s="4" t="str">
+        <f t="shared" ref="G38:G42" si="3" xml:space="preserve"> IF($B38="", "", $B38 &amp; "=" &amp; C38)</f>
+        <v>gui.MainController.040=作業用フォルダの作成に失敗しました。</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f t="shared" ref="H38:H42" si="4" xml:space="preserve"> IF($B38="", "", $B38 &amp; "=" &amp; D38)</f>
+        <v>gui.MainController.040=Failed to create working directory.</v>
+      </c>
+      <c r="I38" s="6" t="str">
+        <f t="shared" ref="I38:I42" si="5" xml:space="preserve"> IF($B38="", "", $B38 &amp; "=" &amp; E38)</f>
+        <v>gui.MainController.040=创建工作文件夹失败。</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G39" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.050=別の場所を指定してください。</v>
       </c>
-      <c r="H38" s="5" t="str">
+      <c r="H39" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.050=Please specify another location.</v>
       </c>
-      <c r="I38" s="6" t="str">
+      <c r="I39" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.050=请指定其他位置。</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="G39" s="4" t="str">
+    <row r="40" spans="2:9">
+      <c r="B40" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="G40" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.060=作業用フォルダの変更</v>
       </c>
-      <c r="H39" s="5" t="str">
+      <c r="H40" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.060=Change working directory</v>
       </c>
-      <c r="I39" s="6" t="str">
+      <c r="I40" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.060=改变工作文件夹</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C40" s="3" t="s">
+    <row r="41" spans="2:9">
+      <c r="B41" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="G40" s="4" t="str">
+      <c r="E41" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="G41" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.070=処理を中止しました。</v>
       </c>
-      <c r="H40" s="5" t="str">
+      <c r="H41" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.070=Processing has been canceled.</v>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="I41" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.070=处理已被取消。</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="G41" s="4" t="str">
+    <row r="42" spans="2:9">
+      <c r="B42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G42" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.PasswordDialog.010=パスワード指定</v>
       </c>
-      <c r="H41" s="5" t="str">
+      <c r="H42" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.PasswordDialog.010=Enter Password</v>
       </c>
-      <c r="I41" s="6" t="str">
+      <c r="I42" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.PasswordDialog.010=输入密码</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="G42" s="4" t="str">
+    <row r="43" spans="2:9">
+      <c r="B43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="G43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.PasswordDialogPane.010=%s はパスワードで保護されています。</v>
       </c>
-      <c r="H42" s="5" t="str">
+      <c r="H43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.PasswordDialogPane.010=The book [%s] is password protected.</v>
       </c>
-      <c r="I42" s="6" t="str">
+      <c r="I43" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.PasswordDialogPane.010=%s 是受密码保护的。</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="G43" s="4" t="str">
+    <row r="44" spans="2:9">
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="G44" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H43" s="5" t="str">
+      <c r="H44" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I43" s="6" t="str">
+      <c r="I44" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="G44" s="4" t="str">
+    <row r="45" spans="2:9">
+      <c r="B45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.LinkPane.010=Webページの表示に失敗しました。ご利用のブラウザでお試しください。</v>
       </c>
-      <c r="H44" s="5" t="str">
+      <c r="H45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.LinkPane.010=Failed to open the website. Please try using your browser.</v>
       </c>
-      <c r="I44" s="6" t="str">
+      <c r="I45" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.LinkPane.010=网页未能显示。 请尝试使用你的浏览器。</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="G45" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
-      </c>
-      <c r="H45" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
-      </c>
-      <c r="I45" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>58</v>
+        <v>202</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
+        <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
       </c>
       <c r="H46" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
+        <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
       </c>
       <c r="I46" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
+        <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="7" t="s">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
+        <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
       </c>
       <c r="H47" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.020=Change working directory</v>
+        <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
       </c>
       <c r="I47" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
+        <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
+        <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
       </c>
       <c r="H48" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
+        <v>gui.component.SettingsPane2.020=Change working directory</v>
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
+        <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G49" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
+        <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
       </c>
       <c r="H49" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
+        <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
+        <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="7" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>54</v>
+        <v>418</v>
       </c>
       <c r="G50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+        <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
       </c>
       <c r="H50" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+        <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
       </c>
       <c r="I50" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+        <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G51" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
       <c r="H51" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
       <c r="H52" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
       <c r="I52" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>421</v>
+        <v>54</v>
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
       <c r="H53" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
+        <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
       </c>
       <c r="H54" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
+        <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
+        <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>189</v>
+        <v>420</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
+        <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
       </c>
       <c r="H55" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.030=Excel book</v>
+        <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
+        <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>372</v>
+        <v>51</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>362</v>
+        <v>143</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>423</v>
+        <v>187</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
+        <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
       </c>
       <c r="H56" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
+        <v>gui.component.TargetSelectionPane.030=Excel book</v>
       </c>
       <c r="I56" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
+        <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="7" t="s">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>49</v>
+        <v>370</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
+      </c>
+      <c r="I57" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>gui.component.TargetSelectionPane.050=シートが見つかりません：</v>
       </c>
-      <c r="H57" s="5" t="str">
+      <c r="H58" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">gui.component.TargetSelectionPane.050=No such sheet : </v>
       </c>
-      <c r="I57" s="6" t="str">
+      <c r="I58" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.TargetSelectionPane.050=没有找到工作表：</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
-      <c r="G58" s="4" t="str">
+    <row r="59" spans="2:9">
+      <c r="G59" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H58" s="5" t="str">
+      <c r="H59" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I58" s="6" t="str">
+      <c r="I59" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppMain.010=方眼Diff</v>
-      </c>
-      <c r="H59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppMain.010=HoganDiff (方眼Diff)</v>
-      </c>
-      <c r="I59" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppMain.010=方眼Diff</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>424</v>
+        <v>71</v>
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>AppMain.010=方眼Diff</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AppMain.010=HoganDiff (方眼Diff)</v>
+      </c>
+      <c r="I60" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>AppMain.010=方眼Diff</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>AppResource.010=設定の保存に失敗しました。</v>
       </c>
-      <c r="H60" s="5" t="str">
+      <c r="H61" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppResource.010=Failed to save settings.</v>
       </c>
-      <c r="I60" s="6" t="str">
+      <c r="I61" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppResource.010=保存设置失败。</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="G61" s="4" t="str">
+    <row r="62" spans="2:9">
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="G62" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H61" s="5" t="str">
+      <c r="H62" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I61" s="6" t="str">
+      <c r="I62" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G62" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
-      </c>
-      <c r="H62" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.010=Creating working directory...</v>
-      </c>
-      <c r="I62" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.010=创建工作文件夹...</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>386</v>
+        <v>270</v>
       </c>
       <c r="G63" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
+        <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
       </c>
       <c r="H63" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.020=Failed to create working directory.</v>
+        <v>AppTaskBase.010=Creating working directory...</v>
       </c>
       <c r="I63" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.020=创建工作文件夹失败。</v>
+        <v>AppTaskBase.010=创建工作文件夹...</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="G64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
+        <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
       </c>
       <c r="H64" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.030=Saving result text...</v>
+        <v>AppTaskBase.020=Failed to create working directory.</v>
       </c>
       <c r="I64" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.030=存储比较结果文本...</v>
+        <v>AppTaskBase.020=创建工作文件夹失败。</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G65" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
+        <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
       </c>
       <c r="H65" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.040=Opening result text...</v>
+        <v>AppTaskBase.030=Saving result text...</v>
       </c>
       <c r="I65" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.040=显示比较结果文本...</v>
+        <v>AppTaskBase.030=存储比较结果文本...</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G66" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
+        <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
       </c>
       <c r="H66" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.050=Failed to save or open result text.</v>
+        <v>AppTaskBase.040=Opening result text...</v>
       </c>
       <c r="I66" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
+        <v>AppTaskBase.040=显示比较结果文本...</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G67" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
+        <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
       </c>
       <c r="H67" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.060=Painting and saving result book(s)...</v>
+        <v>AppTaskBase.050=Failed to save or open result text.</v>
       </c>
       <c r="I67" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.060=着色和存储在工作簿...</v>
+        <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G68" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
+        <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
       </c>
       <c r="H68" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
+        <v>AppTaskBase.060=Painting and saving result book(s)...</v>
       </c>
       <c r="I68" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.070=着色和保存工作簿失败。</v>
+        <v>AppTaskBase.060=着色和存储在工作簿...</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G69" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
+        <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
       </c>
       <c r="H69" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.080=Opening result book(s)...</v>
+        <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
       </c>
       <c r="I69" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.080=显示比较结果的工作簿...</v>
+        <v>AppTaskBase.070=着色和保存工作簿失败。</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G70" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
+        <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
       </c>
       <c r="H70" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.090=Failed to open result book(s).</v>
+        <v>AppTaskBase.080=Opening result book(s)...</v>
       </c>
       <c r="I70" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.090=显示工作簿失败。</v>
+        <v>AppTaskBase.080=显示比较结果的工作簿...</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G71" s="4" t="str">
-        <f t="shared" ref="G71:G135" si="6" xml:space="preserve"> IF($B71="", "", $B71 &amp; "=" &amp; C71)</f>
-        <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
+        <f t="shared" si="0"/>
+        <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
       </c>
       <c r="H71" s="5" t="str">
-        <f t="shared" ref="H71:H135" si="7" xml:space="preserve"> IF($B71="", "", $B71 &amp; "=" &amp; D71)</f>
-        <v>AppTaskBase.100=Failed to paint or save result book A.</v>
+        <f t="shared" si="1"/>
+        <v>AppTaskBase.090=Failed to open result book(s).</v>
       </c>
       <c r="I71" s="6" t="str">
-        <f t="shared" ref="I71:I135" si="8" xml:space="preserve"> IF($B71="", "", $B71 &amp; "=" &amp; E71)</f>
-        <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
+        <f t="shared" si="2"/>
+        <v>AppTaskBase.090=显示工作簿失败。</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G72" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
+        <f t="shared" ref="G72:G136" si="6" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; C72)</f>
+        <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
       </c>
       <c r="H72" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>AppTaskBase.110=Failed to paint or save result book B.</v>
+        <f t="shared" ref="H72:H136" si="7" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; D72)</f>
+        <v>AppTaskBase.100=Failed to paint or save result book A.</v>
       </c>
       <c r="I72" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
+        <f t="shared" ref="I72:I136" si="8" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; E72)</f>
+        <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G73" s="4" t="str">
         <f t="shared" si="6"/>
+        <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>AppTaskBase.110=Failed to paint or save result book B.</v>
+      </c>
+      <c r="I73" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>AppTaskBase.120=処理が完了しました。</v>
       </c>
-      <c r="H73" s="5" t="str">
+      <c r="H74" s="5" t="str">
         <f t="shared" si="7"/>
         <v>AppTaskBase.120=Process completed.</v>
       </c>
-      <c r="I73" s="6" t="str">
+      <c r="I74" s="6" t="str">
         <f t="shared" si="8"/>
         <v>AppTaskBase.120=过程完成。</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G74" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>AppTaskBase.130=比較結果フォルダを表示しています...</v>
-      </c>
-      <c r="H74" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>AppTaskBase.130=Opening result folder...</v>
-      </c>
-      <c r="I74" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>AppTaskBase.130=显示比较结果文件夹...</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G75" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>AppTaskBase.140=比較結果フォルダの表示に失敗しました。</v>
+        <v>AppTaskBase.130=比較結果フォルダを表示しています...</v>
       </c>
       <c r="H75" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>AppTaskBase.140=Failed to open result folder(s).</v>
+        <v>AppTaskBase.130=Opening result folder...</v>
       </c>
       <c r="I75" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>AppTaskBase.140=显示文件夹失败。</v>
+        <v>AppTaskBase.130=显示比较结果文件夹...</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>435</v>
+        <v>274</v>
       </c>
       <c r="G76" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>AppTaskBase.150=★失敗しました</v>
+        <v>AppTaskBase.140=比較結果フォルダの表示に失敗しました。</v>
       </c>
       <c r="H76" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>AppTaskBase.150=★Failed</v>
+        <v>AppTaskBase.140=Failed to open result folder(s).</v>
       </c>
       <c r="I76" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>AppTaskBase.150=★失败</v>
+        <v>AppTaskBase.140=显示文件夹失败。</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>343</v>
+        <v>268</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="G77" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>AppTaskBase.160=(比較対象ファイルなし)</v>
+        <v>AppTaskBase.150=★失敗しました</v>
       </c>
       <c r="H77" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>AppTaskBase.160=(No files to compare)</v>
+        <v>AppTaskBase.150=★Failed</v>
       </c>
       <c r="I77" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>AppTaskBase.160=(没有可比较的文件)</v>
+        <v>AppTaskBase.150=★失败</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>AppTaskBase.160=(比較対象ファイルなし)</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>AppTaskBase.160=(No files to compare)</v>
+      </c>
+      <c r="I78" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>AppTaskBase.160=(没有可比较的文件)</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="E79" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="G78" s="4" t="str">
-        <f t="shared" ref="G78:G80" si="9" xml:space="preserve"> IF($B78="", "", $B78 &amp; "=" &amp; C78)</f>
+      <c r="G79" s="4" t="str">
+        <f t="shared" ref="G79:G81" si="9" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; C79)</f>
         <v>AppTaskBase.170=メモリ不足のため処理が失敗しました。\n「省メモリモード」オプションを選択するか、割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
       </c>
-      <c r="H78" s="5" t="str">
-        <f t="shared" ref="H78:H80" si="10" xml:space="preserve"> IF($B78="", "", $B78 &amp; "=" &amp; D78)</f>
+      <c r="H79" s="5" t="str">
+        <f t="shared" ref="H79:H81" si="10" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; D79)</f>
         <v>AppTaskBase.170=Processing failed due to insufficient memory.\nPlease select the "memory-saving mode" option or increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
       </c>
-      <c r="I78" s="6" t="str">
-        <f t="shared" ref="I78:I80" si="11" xml:space="preserve"> IF($B78="", "", $B78 &amp; "=" &amp; E78)</f>
+      <c r="I79" s="6" t="str">
+        <f t="shared" ref="I79:I81" si="11" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; E79)</f>
         <v>AppTaskBase.170=由于内存不足，处理失败。\n请选择 "内存节省模式" 选项或增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="2"/>
-      <c r="C79" s="3"/>
-      <c r="G79" s="4" t="str">
+    <row r="80" spans="2:9">
+      <c r="B80" s="2"/>
+      <c r="C80" s="3"/>
+      <c r="G80" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H79" s="5" t="str">
+      <c r="H80" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I79" s="6" t="str">
+      <c r="I80" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="G80" s="4" t="str">
+    <row r="81" spans="2:9">
+      <c r="B81" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="G81" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
       </c>
-      <c r="H80" s="5" t="str">
+      <c r="H81" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareBooksTask.010=Starting comparing books.</v>
       </c>
-      <c r="I80" s="6" t="str">
+      <c r="I81" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareBooksTask.010=开始互相比较工作簿。</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="G81" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
-      </c>
-      <c r="H81" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareBooksTask.020=Pairing sheets...</v>
-      </c>
-      <c r="I81" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
-      </c>
-    </row>
     <row r="82" spans="2:9">
       <c r="B82" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G82" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
+        <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
       </c>
       <c r="H82" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareBooksTask.030=Failed to pair sheets.</v>
+        <v>CompareBooksTask.020=Pairing sheets...</v>
       </c>
       <c r="I82" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareBooksTask.030=确定工作表组合失败。</v>
+        <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G83" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareBooksTask.040=シートを比較しています...</v>
+        <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
       </c>
       <c r="H83" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareBooksTask.040=Comparing sheets...</v>
+        <v>CompareBooksTask.030=Failed to pair sheets.</v>
       </c>
       <c r="I83" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareBooksTask.040=比较工作表...</v>
+        <v>CompareBooksTask.030=确定工作表组合失败。</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G84" s="4" t="str">
         <f t="shared" si="6"/>
+        <v>CompareBooksTask.040=シートを比較しています...</v>
+      </c>
+      <c r="H84" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareBooksTask.040=Comparing sheets...</v>
+      </c>
+      <c r="I84" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareBooksTask.040=比较工作表...</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
       </c>
-      <c r="H84" s="5" t="str">
+      <c r="H85" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareBooksTask.050=Failed to compare sheets.</v>
       </c>
-      <c r="I84" s="6" t="str">
+      <c r="I85" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareBooksTask.050=工作表比较失败。</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="2"/>
-      <c r="C85" s="3"/>
-      <c r="G85" s="4" t="str">
+    <row r="86" spans="2:9">
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="G86" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H85" s="5" t="str">
+      <c r="H86" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I85" s="6" t="str">
+      <c r="I86" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="G86" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
-      </c>
-      <c r="H86" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareDirsTask.010=Starting comparing folders.</v>
-      </c>
-      <c r="I86" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareDirsTask.010=开始互相比较文件夹。</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>273</v>
+        <v>439</v>
       </c>
       <c r="G87" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
+        <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
       </c>
       <c r="H87" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareDirsTask.020=Failed to create output directory.</v>
+        <v>CompareDirsTask.010=Starting comparing folders.</v>
       </c>
       <c r="I87" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
+        <v>CompareDirsTask.010=开始互相比较文件夹。</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>442</v>
+        <v>271</v>
       </c>
       <c r="G88" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
+        <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
       </c>
       <c r="H88" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareDirsTask.030=Pairing books...</v>
+        <v>CompareDirsTask.020=Failed to create output directory.</v>
       </c>
       <c r="I88" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
+        <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G89" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
+        <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
       </c>
       <c r="H89" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareDirsTask.040=Failed to pair books.</v>
+        <v>CompareDirsTask.030=Pairing books...</v>
       </c>
       <c r="I89" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareDirsTask.040=确定工作簿组合失败。</v>
+        <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G90" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareDirsTask.050=Excelブックを比較しています...</v>
+        <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
       </c>
       <c r="H90" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareDirsTask.050=Comparing books...</v>
+        <v>CompareDirsTask.040=Failed to pair books.</v>
       </c>
       <c r="I90" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareDirsTask.050=比较工作簿...</v>
+        <v>CompareDirsTask.040=确定工作簿组合失败。</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="G91" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareDirsTask.060=★失敗しました</v>
+        <v>CompareDirsTask.050=Excelブックを比較しています...</v>
       </c>
       <c r="H91" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareDirsTask.060=★Failed</v>
+        <v>CompareDirsTask.050=Comparing books...</v>
       </c>
       <c r="I91" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareDirsTask.060=★失败</v>
+        <v>CompareDirsTask.050=比较工作簿...</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="7" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>343</v>
+        <v>268</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="G92" s="4" t="str">
         <f t="shared" si="6"/>
+        <v>CompareDirsTask.060=★失敗しました</v>
+      </c>
+      <c r="H92" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareDirsTask.060=★Failed</v>
+      </c>
+      <c r="I92" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareDirsTask.060=★失败</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G93" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>CompareDirsTask.070=(比較対象ファイルなし)</v>
       </c>
-      <c r="H92" s="5" t="str">
+      <c r="H93" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareDirsTask.070=(No files to compare)</v>
       </c>
-      <c r="I92" s="6" t="str">
+      <c r="I93" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareDirsTask.070=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="2"/>
-      <c r="C93" s="3"/>
-      <c r="G93" s="4" t="str">
+    <row r="94" spans="2:9">
+      <c r="B94" s="2"/>
+      <c r="C94" s="3"/>
+      <c r="G94" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H93" s="5" t="str">
+      <c r="H94" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I93" s="6" t="str">
+      <c r="I94" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
-      </c>
-    </row>
-    <row r="94" spans="2:9">
-      <c r="B94" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="G94" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
-      </c>
-      <c r="H94" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareSheetsTask.010=Starting comparing sheets.</v>
-      </c>
-      <c r="I94" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G95" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareSheetsTask.020=シートを比較しています...</v>
+        <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
       </c>
       <c r="H95" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareSheetsTask.020=Comparing sheets...</v>
+        <v>CompareSheetsTask.010=Starting comparing sheets.</v>
       </c>
       <c r="I95" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareSheetsTask.020=比较工作表...</v>
+        <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G96" s="4" t="str">
         <f t="shared" si="6"/>
+        <v>CompareSheetsTask.020=シートを比較しています...</v>
+      </c>
+      <c r="H96" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareSheetsTask.020=Comparing sheets...</v>
+      </c>
+      <c r="I96" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareSheetsTask.020=比较工作表...</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G97" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
       </c>
-      <c r="H96" s="5" t="str">
+      <c r="H97" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareSheetsTask.030=Failed to compare sheets.</v>
       </c>
-      <c r="I96" s="6" t="str">
+      <c r="I97" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareSheetsTask.030=工作表比较失败。</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="2"/>
-      <c r="C97" s="3"/>
-      <c r="G97" s="4" t="str">
+    <row r="98" spans="2:9">
+      <c r="B98" s="2"/>
+      <c r="C98" s="3"/>
+      <c r="G98" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H97" s="5" t="str">
+      <c r="H98" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I97" s="6" t="str">
+      <c r="I98" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
-      </c>
-    </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="G98" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
-      </c>
-      <c r="H98" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareTreesTask.010=Starting comparing folder trees.</v>
-      </c>
-      <c r="I98" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
       </c>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G99" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
+        <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
       </c>
       <c r="H99" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareTreesTask.020=Pairing folders...</v>
+        <v>CompareTreesTask.010=Starting comparing folder trees.</v>
       </c>
       <c r="I99" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
+        <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
       </c>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G100" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
+        <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
       </c>
       <c r="H100" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareTreesTask.030=Failed to pair folders.</v>
+        <v>CompareTreesTask.020=Pairing folders...</v>
       </c>
       <c r="I100" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareTreesTask.030=确定文件夹组合失败。</v>
+        <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
       </c>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G101" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
+        <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
       </c>
       <c r="H101" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareTreesTask.040=Comparing folders...</v>
+        <v>CompareTreesTask.030=Failed to pair folders.</v>
       </c>
       <c r="I101" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareTreesTask.040=比较文件夹...</v>
+        <v>CompareTreesTask.030=确定文件夹组合失败。</v>
       </c>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>270</v>
+        <v>332</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="G102" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareTreesTask.050=★失敗しました</v>
+        <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
       </c>
       <c r="H102" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareTreesTask.050=★Failed</v>
+        <v>CompareTreesTask.040=Comparing folders...</v>
       </c>
       <c r="I102" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareTreesTask.050=★失败</v>
+        <v>CompareTreesTask.040=比较文件夹...</v>
       </c>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>343</v>
+        <v>268</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="G103" s="4" t="str">
         <f t="shared" si="6"/>
+        <v>CompareTreesTask.050=★失敗しました</v>
+      </c>
+      <c r="H103" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareTreesTask.050=★Failed</v>
+      </c>
+      <c r="I103" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareTreesTask.050=★失败</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="B104" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G104" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>CompareTreesTask.060=(比較対象ファイルなし)</v>
       </c>
-      <c r="H103" s="5" t="str">
+      <c r="H104" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.060=(No files to compare)</v>
       </c>
-      <c r="I103" s="6" t="str">
+      <c r="I104" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.060=(没有可比较的文件)</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9">
-      <c r="B104" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="G104" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareTreesTask.070=比較結果Excelブックを保存しています...</v>
-      </c>
-      <c r="H104" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareTreesTask.070=Saving result book...</v>
-      </c>
-      <c r="I104" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareTreesTask.070=存储比较结果工作簿...</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G105" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
+        <v>CompareTreesTask.070=比較結果Excelブックを保存しています...</v>
       </c>
       <c r="H105" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareTreesTask.080=Failed to save result book.</v>
+        <v>CompareTreesTask.070=Saving result book...</v>
       </c>
       <c r="I105" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
+        <v>CompareTreesTask.070=存储比较结果工作簿...</v>
       </c>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>358</v>
+        <v>450</v>
       </c>
       <c r="G106" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
+        <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
       </c>
       <c r="H106" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>CompareTreesTask.090=Opening result book...</v>
+        <v>CompareTreesTask.080=Failed to save result book.</v>
       </c>
       <c r="I106" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>CompareTreesTask.090=显示比较结果工作簿...</v>
+        <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>453</v>
+        <v>356</v>
       </c>
       <c r="G107" s="4" t="str">
         <f t="shared" si="6"/>
+        <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
+      </c>
+      <c r="H107" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareTreesTask.090=Opening result book...</v>
+      </c>
+      <c r="I107" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareTreesTask.090=显示比较结果工作簿...</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="B108" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>CompareTreesTask.100=比較結果Excelブックの表示に失敗しました。</v>
       </c>
-      <c r="H107" s="5" t="str">
+      <c r="H108" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.100=Failed to open result book.</v>
       </c>
-      <c r="I107" s="6" t="str">
+      <c r="I108" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.100=显示比较结果工作簿失败。</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="2"/>
-      <c r="C108" s="3"/>
-      <c r="G108" s="4" t="str">
+    <row r="109" spans="2:9">
+      <c r="B109" s="2"/>
+      <c r="C109" s="3"/>
+      <c r="G109" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H108" s="5" t="str">
+      <c r="H109" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I108" s="6" t="str">
+      <c r="I109" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
-      </c>
-    </row>
-    <row r="109" spans="2:9">
-      <c r="B109" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="G109" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.BResult.010=(比較相手なし)</v>
-      </c>
-      <c r="H109" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.BResult.010=(no opponent)</v>
-      </c>
-      <c r="I109" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.BResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G110" s="4" t="str">
         <f t="shared" si="6"/>
+        <v>excel.BResult.010=(比較相手なし)</v>
+      </c>
+      <c r="H110" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.BResult.010=(no opponent)</v>
+      </c>
+      <c r="I110" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.BResult.010=(没有对比)</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="G111" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>excel.BResult.020=(差分なし)</v>
       </c>
-      <c r="H110" s="5" t="str">
+      <c r="H111" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.BResult.020=(no diffs)</v>
       </c>
-      <c r="I110" s="6" t="str">
+      <c r="I111" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.020=(没有区别)</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="G111" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.BResult.030=差異発生%dシート</v>
-      </c>
-      <c r="H111" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.BResult.030=diff sheets:%d</v>
-      </c>
-      <c r="I111" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="G112" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.BResult.040=余剰%dシート</v>
+        <v>excel.BResult.030=差異発生%dシート</v>
       </c>
       <c r="H112" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.BResult.040=redundant sheets:%d</v>
+        <v>excel.BResult.030=diff sheets:%d</v>
       </c>
       <c r="I112" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.BResult.040=冗余工作表%d</v>
+        <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>258</v>
+        <v>97</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>375</v>
+        <v>278</v>
       </c>
       <c r="G113" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
+        <v>excel.BResult.040=余剰%dシート</v>
       </c>
       <c r="H113" s="5" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">excel.BResult.050=Book %s : </v>
+        <v>excel.BResult.040=redundant sheets:%d</v>
       </c>
       <c r="I113" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.BResult.050=工作簿%s：</v>
+        <v>excel.BResult.040=冗余工作表%d</v>
       </c>
     </row>
     <row r="114" spans="2:9">
       <c r="B114" s="7" t="s">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>173</v>
+        <v>277</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>191</v>
+        <v>373</v>
       </c>
       <c r="G114" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
+        <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
       </c>
       <c r="H114" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
+        <v xml:space="preserve">excel.BResult.050=Book %s : </v>
       </c>
       <c r="I114" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
+        <v>excel.BResult.050=工作簿%s：</v>
       </c>
     </row>
     <row r="115" spans="2:9">
       <c r="B115" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G115" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
+      </c>
+      <c r="H115" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
+      </c>
+      <c r="I115" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="G116" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
+      </c>
+      <c r="H116" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
+      </c>
+      <c r="I116" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="G117" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H117" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I117" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="G115" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
-      </c>
-      <c r="H115" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
-      </c>
-      <c r="I115" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9">
-      <c r="G116" s="4" t="str">
+      <c r="D118" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G118" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
+      </c>
+      <c r="H118" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
+      </c>
+      <c r="I118" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9">
+      <c r="G119" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H116" s="5" t="str">
+      <c r="H119" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I116" s="6" t="str">
+      <c r="I119" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
-      </c>
-    </row>
-    <row r="117" spans="2:9">
-      <c r="B117" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="G117" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
-      </c>
-      <c r="H117" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
-      </c>
-      <c r="I117" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9">
-      <c r="G118" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H118" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I118" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="2:9">
-      <c r="B119" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="G119" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.DResult.010=(比較相手なし)</v>
-      </c>
-      <c r="H119" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.DResult.010=(no opponent)</v>
-      </c>
-      <c r="I119" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="120" spans="2:9">
       <c r="B120" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>281</v>
+        <v>247</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G120" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
+        <v>excel.DResult.010=(比較相手なし)</v>
       </c>
       <c r="H120" s="5" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
+        <v>excel.DResult.010=(no opponent)</v>
       </c>
       <c r="I120" s="6" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
+        <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="121" spans="2:9">
       <c r="B121" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>191</v>
+        <v>457</v>
       </c>
       <c r="G121" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
+        <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
       </c>
       <c r="H121" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
+        <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
       </c>
       <c r="I121" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
+        <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
       </c>
     </row>
     <row r="122" spans="2:9">
       <c r="B122" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>457</v>
+        <v>189</v>
       </c>
       <c r="G122" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
+        <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
       <c r="H122" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
+        <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
       <c r="I122" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
+        <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="123" spans="2:9">
       <c r="B123" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>239</v>
+        <v>250</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>270</v>
+        <v>172</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="G123" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.050=★失敗しました</v>
+        <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
       <c r="H123" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.050=★Failed</v>
+        <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
       <c r="I123" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.050=★失败</v>
+        <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="124" spans="2:9">
       <c r="B124" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>97</v>
+        <v>251</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="G124" s="4" t="str">
         <f t="shared" si="6"/>
+        <v>excel.DResult.050=★失敗しました</v>
+      </c>
+      <c r="H124" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.DResult.050=★Failed</v>
+      </c>
+      <c r="I124" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.DResult.050=★失败</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9">
+      <c r="B125" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="G125" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>excel.DResult.060=(差分なし)</v>
       </c>
-      <c r="H124" s="5" t="str">
+      <c r="H125" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.DResult.060=(no diffs)</v>
       </c>
-      <c r="I124" s="6" t="str">
+      <c r="I125" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.DResult.060=(没有区别)</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9">
-      <c r="B125" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="G125" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.DResult.070=差異発生%dブック</v>
-      </c>
-      <c r="H125" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.DResult.070=diff books:%d</v>
-      </c>
-      <c r="I125" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.DResult.070=差异工作簿%d</v>
       </c>
     </row>
     <row r="126" spans="2:9">
       <c r="B126" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>338</v>
+        <v>458</v>
       </c>
       <c r="G126" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.080=余剰%dブック</v>
+        <v>excel.DResult.070=差異発生%dブック</v>
       </c>
       <c r="H126" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.080=redundant books:%d</v>
+        <v>excel.DResult.070=diff books:%d</v>
       </c>
       <c r="I126" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.080=冗余工作簿%d</v>
+        <v>excel.DResult.070=差异工作簿%d</v>
       </c>
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G127" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.090=比較失敗%dブック</v>
+        <v>excel.DResult.080=余剰%dブック</v>
       </c>
       <c r="H127" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.090=failed books:%d</v>
+        <v>excel.DResult.080=redundant books:%d</v>
       </c>
       <c r="I127" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.090=失败工作簿%d</v>
+        <v>excel.DResult.080=冗余工作簿%d</v>
       </c>
     </row>
     <row r="128" spans="2:9">
       <c r="B128" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G128" s="4" t="str">
         <f t="shared" si="6"/>
+        <v>excel.DResult.090=比較失敗%dブック</v>
+      </c>
+      <c r="H128" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.DResult.090=failed books:%d</v>
+      </c>
+      <c r="I128" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.DResult.090=失败工作簿%d</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9">
+      <c r="B129" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G129" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>excel.DResult.100=(比較対象ファイルなし)</v>
       </c>
-      <c r="H128" s="5" t="str">
+      <c r="H129" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.DResult.100=(No files to compare)</v>
       </c>
-      <c r="I128" s="6" t="str">
+      <c r="I129" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.DResult.100=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="129" spans="2:9">
-      <c r="G129" s="4" t="str">
+    <row r="130" spans="2:9">
+      <c r="G130" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H129" s="5" t="str">
+      <c r="H130" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I129" s="6" t="str">
+      <c r="I130" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
-      </c>
-    </row>
-    <row r="130" spans="2:9">
-      <c r="B130" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G130" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.SheetType.010=ワークシート</v>
-      </c>
-      <c r="H130" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.SheetType.010=Worksheet</v>
-      </c>
-      <c r="I130" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>461</v>
+        <v>190</v>
       </c>
       <c r="G131" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SheetType.020=グラフシート</v>
+        <v>excel.SheetType.010=ワークシート</v>
       </c>
       <c r="H131" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SheetType.020=Chart</v>
+        <v>excel.SheetType.010=Worksheet</v>
       </c>
       <c r="I131" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SheetType.020=图表表</v>
+        <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
     <row r="132" spans="2:9">
       <c r="B132" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G132" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
+        <v>excel.SheetType.020=グラフシート</v>
       </c>
       <c r="H132" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
+        <v>excel.SheetType.020=Chart</v>
       </c>
       <c r="I132" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
+        <v>excel.SheetType.020=图表表</v>
       </c>
     </row>
     <row r="133" spans="2:9">
       <c r="B133" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>193</v>
+        <v>460</v>
       </c>
       <c r="G133" s="4" t="str">
         <f t="shared" si="6"/>
+        <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
+      </c>
+      <c r="H133" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
+      </c>
+      <c r="I133" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="B134" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G134" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
       </c>
-      <c r="H133" s="5" t="str">
+      <c r="H134" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.SheetType.040=Excel 4.0 Macro</v>
       </c>
-      <c r="I133" s="6" t="str">
+      <c r="I134" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.SheetType.040=Excel 4.0 宏表</v>
       </c>
     </row>
-    <row r="134" spans="2:9">
-      <c r="B134" s="2"/>
-      <c r="C134" s="3"/>
-      <c r="G134" s="4" t="str">
+    <row r="135" spans="2:9">
+      <c r="B135" s="2"/>
+      <c r="C135" s="3"/>
+      <c r="G135" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H134" s="5" t="str">
+      <c r="H135" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I134" s="6" t="str">
+      <c r="I135" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
-      </c>
-    </row>
-    <row r="135" spans="2:9">
-      <c r="B135" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="G135" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.SResult.010=(差分なし)</v>
-      </c>
-      <c r="H135" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.SResult.010=(no diffs)</v>
-      </c>
-      <c r="I135" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
     <row r="136" spans="2:9">
       <c r="B136" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>194</v>
+        <v>453</v>
       </c>
       <c r="G136" s="4" t="str">
-        <f t="shared" ref="G136:G149" si="12" xml:space="preserve"> IF($B136="", "", $B136 &amp; "=" &amp; C136)</f>
-        <v>excel.SResult.020=余剰行%d</v>
+        <f t="shared" si="6"/>
+        <v>excel.SResult.010=(差分なし)</v>
       </c>
       <c r="H136" s="5" t="str">
-        <f t="shared" ref="H136:H149" si="13" xml:space="preserve"> IF($B136="", "", $B136 &amp; "=" &amp; D136)</f>
-        <v>excel.SResult.020=redundant rows:%d</v>
+        <f t="shared" si="7"/>
+        <v>excel.SResult.010=(no diffs)</v>
       </c>
       <c r="I136" s="6" t="str">
-        <f t="shared" ref="I136:I149" si="14" xml:space="preserve"> IF($B136="", "", $B136 &amp; "=" &amp; E136)</f>
-        <v>excel.SResult.020=冗余行%d</v>
+        <f t="shared" si="8"/>
+        <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G137" s="4" t="str">
+        <f t="shared" ref="G137:G150" si="12" xml:space="preserve"> IF($B137="", "", $B137 &amp; "=" &amp; C137)</f>
+        <v>excel.SResult.020=余剰行%d</v>
+      </c>
+      <c r="H137" s="5" t="str">
+        <f t="shared" ref="H137:H150" si="13" xml:space="preserve"> IF($B137="", "", $B137 &amp; "=" &amp; D137)</f>
+        <v>excel.SResult.020=redundant rows:%d</v>
+      </c>
+      <c r="I137" s="6" t="str">
+        <f t="shared" ref="I137:I150" si="14" xml:space="preserve"> IF($B137="", "", $B137 &amp; "=" &amp; E137)</f>
+        <v>excel.SResult.020=冗余行%d</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="B138" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G138" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.030=余剰列%d</v>
       </c>
-      <c r="H137" s="5" t="str">
+      <c r="H138" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.030=redundant columns:%d</v>
       </c>
-      <c r="I137" s="6" t="str">
+      <c r="I138" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.030=冗余列%d</v>
       </c>
     </row>
-    <row r="138" spans="2:9">
-      <c r="B138" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="G138" s="4" t="str">
+    <row r="139" spans="2:9">
+      <c r="B139" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="G139" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.040=差分セル%d</v>
       </c>
-      <c r="H138" s="5" t="str">
+      <c r="H139" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.040=diff cells:%d</v>
       </c>
-      <c r="I138" s="6" t="str">
+      <c r="I139" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.040=差异单元格%d</v>
       </c>
     </row>
-    <row r="139" spans="2:9">
-      <c r="B139" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G139" s="4" t="str">
+    <row r="140" spans="2:9">
+      <c r="B140" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G140" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
       </c>
-      <c r="H139" s="5" t="str">
+      <c r="H140" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
       </c>
-      <c r="I139" s="6" t="str">
+      <c r="I140" s="6" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
       </c>
     </row>
-    <row r="140" spans="2:9">
-      <c r="B140" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G140" s="4" t="str">
+    <row r="141" spans="2:9">
+      <c r="B141" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G141" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.060=行%d</v>
       </c>
-      <c r="H140" s="5" t="str">
+      <c r="H141" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.060=Row %d</v>
       </c>
-      <c r="I140" s="6" t="str">
+      <c r="I141" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.060=行%d</v>
       </c>
     </row>
-    <row r="141" spans="2:9">
-      <c r="B141" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G141" s="4" t="str">
+    <row r="142" spans="2:9">
+      <c r="B142" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G142" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
       </c>
-      <c r="H141" s="5" t="str">
+      <c r="H142" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
       </c>
-      <c r="I141" s="6" t="str">
+      <c r="I142" s="6" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
       </c>
     </row>
-    <row r="142" spans="2:9">
-      <c r="B142" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G142" s="4" t="str">
+    <row r="143" spans="2:9">
+      <c r="B143" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G143" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.080=%s列</v>
       </c>
-      <c r="H142" s="5" t="str">
+      <c r="H143" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.080=Column %s</v>
       </c>
-      <c r="I142" s="6" t="str">
+      <c r="I143" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.080=%s列</v>
       </c>
     </row>
-    <row r="143" spans="2:9">
-      <c r="B143" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G143" s="4" t="str">
+    <row r="144" spans="2:9">
+      <c r="B144" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="G144" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.SResult.090=差分セル : </v>
       </c>
-      <c r="H143" s="5" t="str">
+      <c r="H144" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.SResult.090=Diff cells : </v>
       </c>
-      <c r="I143" s="6" t="str">
+      <c r="I144" s="6" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">excel.SResult.090=差异单元格 : </v>
       </c>
     </row>
-    <row r="144" spans="2:9">
-      <c r="G144" s="4" t="str">
+    <row r="145" spans="2:9">
+      <c r="G145" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H144" s="5" t="str">
+      <c r="H145" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I144" s="6" t="str">
+      <c r="I145" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:9">
-      <c r="B145" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="G145" s="4" t="str">
+    <row r="146" spans="2:9">
+      <c r="B146" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="G146" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.TreeResult.010=(比較相手なし)</v>
       </c>
-      <c r="H145" s="5" t="str">
+      <c r="H146" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.TreeResult.010=(no opponent)</v>
       </c>
-      <c r="I145" s="6" t="str">
+      <c r="I146" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.TreeResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="146" spans="2:9">
-      <c r="B146" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="G146" s="4" t="str">
+    <row r="147" spans="2:9">
+      <c r="B147" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="G147" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
       </c>
-      <c r="H146" s="5" t="str">
+      <c r="H147" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
       </c>
-      <c r="I146" s="6" t="str">
+      <c r="I147" s="6" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
       </c>
     </row>
-    <row r="147" spans="2:9">
-      <c r="B147" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G147" s="4" t="str">
+    <row r="148" spans="2:9">
+      <c r="B148" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G148" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H147" s="5" t="str">
+      <c r="H148" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I147" s="6" t="str">
+      <c r="I148" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="148" spans="2:9">
-      <c r="B148" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="G148" s="4" t="str">
+    <row r="149" spans="2:9">
+      <c r="B149" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="G149" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H148" s="5" t="str">
+      <c r="H149" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I148" s="6" t="str">
+      <c r="I149" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="149" spans="2:9">
-      <c r="B149" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="G149" s="4" t="str">
+    <row r="150" spans="2:9">
+      <c r="B150" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="G150" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.TreeResult.050=★失敗しました</v>
       </c>
-      <c r="H149" s="5" t="str">
+      <c r="H150" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.TreeResult.050=★Failed</v>
       </c>
-      <c r="I149" s="6" t="str">
+      <c r="I150" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.TreeResult.050=★失败</v>
       </c>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202309/hogandiff4/xyz.hotchpotch.hogandiff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202403/hogandiff4/xyz.hotchpotch.hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D0CFBD5-94BC-4C92-A8E2-0D87F93E5603}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F609B9EF-1289-423F-9217-784980862E23}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -94,15 +94,9 @@
     <t>fx.SettingsPane1.report.010</t>
   </si>
   <si>
-    <t>差分セルに色を付けて表示する</t>
-  </si>
-  <si>
     <t>fx.SettingsPane1.report.020</t>
   </si>
   <si>
-    <t>比較結果のテキストを表示する</t>
-  </si>
-  <si>
     <t>fx.SettingsPane1.030</t>
   </si>
   <si>
@@ -422,12 +416,6 @@
   </si>
   <si>
     <t>Reporting options</t>
-  </si>
-  <si>
-    <t>display diff cells with color</t>
-  </si>
-  <si>
-    <t>display result in text</t>
   </si>
   <si>
     <t>Execution options</t>
@@ -1487,12 +1475,6 @@
     <t>报告选项</t>
   </si>
   <si>
-    <t>给不同的单元格着色</t>
-  </si>
-  <si>
-    <t>显示比较结果的文本</t>
-  </si>
-  <si>
     <t>执行选项</t>
   </si>
   <si>
@@ -1722,21 +1704,6 @@
   </si>
   <si>
     <t>Processing failed due to insufficient memory.\nPlease select the "memory-saving mode" option or increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>由于内存不足，处理失败。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>\n请选择 "内存节省模式" 选项或增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1781,6 +1748,43 @@
   </si>
   <si>
     <t>优先考虑准确性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較結果をExcelで表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較結果をテキストで表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在Excel中显示比较结果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以文本形式显示比较结果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show results in Excel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show results in text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>由于内存不足，处理失败。\n请选择 "内存节省模式" 选项或增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1871,7 +1875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1892,6 +1896,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2220,7 +2227,7 @@
     <col min="2" max="2" width="34.6875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5625" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.5625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.5625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="30.5625" style="8" customWidth="1"/>
     <col min="6" max="6" width="2.5625" style="1"/>
     <col min="7" max="7" width="2.5625" style="4"/>
     <col min="8" max="8" width="2.5625" style="5"/>
@@ -2230,22 +2237,22 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="2:9">
@@ -2256,10 +2263,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>389</v>
+        <v>123</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>385</v>
       </c>
       <c r="G2" s="4" t="str">
         <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; C2)</f>
@@ -2284,7 +2291,7 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="4" t="str">
@@ -2305,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2331,13 +2338,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2354,16 +2361,16 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2380,16 +2387,16 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>390</v>
+      <c r="E7" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2406,16 +2413,16 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2432,16 +2439,16 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>391</v>
+        <v>363</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2458,16 +2465,16 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>392</v>
+        <v>136</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2490,10 +2497,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>393</v>
+        <v>124</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2516,10 +2523,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>394</v>
+        <v>125</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>390</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2542,10 +2549,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>395</v>
+        <v>126</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2568,10 +2575,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>396</v>
+        <v>127</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>392</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2594,10 +2601,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>397</v>
+        <v>128</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2620,10 +2627,10 @@
         <v>20</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>398</v>
+        <v>129</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2643,65 +2650,65 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>469</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>399</v>
+        <v>473</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>471</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.report.010=差分セルに色を付けて表示する</v>
+        <v>fx.SettingsPane1.report.010=比較結果をExcelで表示する</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.report.010=display diff cells with color</v>
+        <v>fx.SettingsPane1.report.010=show results in Excel</v>
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.report.010=给不同的单元格着色</v>
+        <v>fx.SettingsPane1.report.010=在Excel中显示比较结果</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>470</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>400</v>
+        <v>474</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>472</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.report.020=比較結果のテキストを表示する</v>
+        <v>fx.SettingsPane1.report.020=比較結果をテキストで表示する</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.report.020=display result in text</v>
+        <v>fx.SettingsPane1.report.020=show results in text</v>
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.report.020=显示比较结果的文本</v>
+        <v>fx.SettingsPane1.report.020=以文本形式显示比较结果</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>401</v>
+        <v>130</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2718,16 +2725,16 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>402</v>
+        <v>131</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>396</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2744,16 +2751,16 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>474</v>
+        <v>465</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>467</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2770,16 +2777,16 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="2" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>475</v>
+        <v>466</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>468</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2796,16 +2803,16 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>403</v>
+        <v>132</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>397</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2822,16 +2829,16 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>404</v>
+        <v>193</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>398</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2848,16 +2855,16 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2874,16 +2881,16 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>405</v>
+        <v>134</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2900,16 +2907,16 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>406</v>
+        <v>135</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2929,13 +2936,13 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>364</v>
+        <v>357</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>360</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2958,10 +2965,10 @@
         <v>6</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2978,16 +2985,16 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>407</v>
+        <v>359</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>401</v>
       </c>
       <c r="G30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3018,16 +3025,16 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>408</v>
+        <v>276</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3044,16 +3051,16 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>369</v>
+        <v>364</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>365</v>
       </c>
       <c r="G33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3084,16 +3091,16 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>409</v>
+        <v>253</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>403</v>
       </c>
       <c r="G35" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3110,16 +3117,16 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>410</v>
+        <v>195</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="G36" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3136,16 +3143,16 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>188</v>
+        <v>144</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3162,16 +3169,16 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>385</v>
+        <v>150</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="G38" s="4" t="str">
         <f t="shared" ref="G38:G42" si="3" xml:space="preserve"> IF($B38="", "", $B38 &amp; "=" &amp; C38)</f>
@@ -3188,16 +3195,16 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>383</v>
+      <c r="E39" s="8" t="s">
+        <v>379</v>
       </c>
       <c r="G39" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3214,16 +3221,16 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>411</v>
+        <v>141</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3240,16 +3247,16 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>383</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3266,16 +3273,16 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>412</v>
+        <v>145</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3292,16 +3299,16 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>413</v>
+        <v>146</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3334,16 +3341,16 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>414</v>
+        <v>137</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3360,16 +3367,16 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>415</v>
+        <v>284</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="G46" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3386,16 +3393,16 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>416</v>
+        <v>140</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3412,16 +3419,16 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>411</v>
+        <v>141</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3438,16 +3445,16 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>417</v>
+        <v>142</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="G49" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3464,16 +3471,16 @@
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D50" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>418</v>
+        <v>143</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="G50" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3490,16 +3497,16 @@
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="G51" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3516,16 +3523,16 @@
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3542,16 +3549,16 @@
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>54</v>
+        <v>256</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3568,16 +3575,16 @@
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>419</v>
+        <v>255</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3594,16 +3601,16 @@
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>420</v>
+        <v>138</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3620,16 +3627,16 @@
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>187</v>
+        <v>139</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3646,16 +3653,16 @@
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>421</v>
+        <v>356</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>415</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3672,16 +3679,16 @@
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>372</v>
+        <v>367</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3712,16 +3719,16 @@
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>71</v>
+        <v>147</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3738,16 +3745,16 @@
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>422</v>
+        <v>148</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="G61" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3780,16 +3787,16 @@
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>270</v>
+        <v>149</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="G63" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3806,16 +3813,16 @@
     </row>
     <row r="64" spans="2:9">
       <c r="B64" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>384</v>
+        <v>150</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>380</v>
       </c>
       <c r="G64" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3832,16 +3839,16 @@
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>423</v>
+        <v>155</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>417</v>
       </c>
       <c r="G65" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3858,16 +3865,16 @@
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>424</v>
+        <v>156</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="G66" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3884,16 +3891,16 @@
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>425</v>
+        <v>157</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="G67" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3910,16 +3917,16 @@
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>426</v>
+        <v>158</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>420</v>
       </c>
       <c r="G68" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3936,16 +3943,16 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>427</v>
+        <v>159</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>421</v>
       </c>
       <c r="G69" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3962,16 +3969,16 @@
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>428</v>
+        <v>160</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>422</v>
       </c>
       <c r="G70" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3988,16 +3995,16 @@
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>429</v>
+        <v>161</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>423</v>
       </c>
       <c r="G71" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4014,16 +4021,16 @@
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>430</v>
+        <v>162</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>424</v>
       </c>
       <c r="G72" s="4" t="str">
         <f t="shared" ref="G72:G136" si="6" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; C72)</f>
@@ -4040,16 +4047,16 @@
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>431</v>
+        <v>163</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>425</v>
       </c>
       <c r="G73" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4066,16 +4073,16 @@
     </row>
     <row r="74" spans="2:9">
       <c r="B74" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>432</v>
+        <v>164</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>426</v>
       </c>
       <c r="G74" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4092,16 +4099,16 @@
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>272</v>
+        <v>265</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="G75" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4118,16 +4125,16 @@
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="G76" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4144,16 +4151,16 @@
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>433</v>
+        <v>264</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>427</v>
       </c>
       <c r="G77" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4170,16 +4177,16 @@
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="G78" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4196,16 +4203,16 @@
     </row>
     <row r="79" spans="2:9">
       <c r="B79" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>467</v>
+        <v>460</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>475</v>
       </c>
       <c r="G79" s="4" t="str">
         <f t="shared" ref="G79:G81" si="9" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; C79)</f>
@@ -4238,16 +4245,16 @@
     </row>
     <row r="81" spans="2:9">
       <c r="B81" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>434</v>
+        <v>257</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>428</v>
       </c>
       <c r="G81" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4264,16 +4271,16 @@
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>435</v>
+        <v>151</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="G82" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4290,16 +4297,16 @@
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>436</v>
+        <v>152</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>430</v>
       </c>
       <c r="G83" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4316,16 +4323,16 @@
     </row>
     <row r="84" spans="2:9">
       <c r="B84" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>437</v>
+        <v>153</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>431</v>
       </c>
       <c r="G84" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4342,16 +4349,16 @@
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>438</v>
+        <v>154</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="G85" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4384,16 +4391,16 @@
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>439</v>
+        <v>259</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="G87" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4410,16 +4417,16 @@
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>271</v>
+        <v>260</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="G88" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4436,16 +4443,16 @@
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>440</v>
+        <v>261</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>434</v>
       </c>
       <c r="G89" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4462,16 +4469,16 @@
     </row>
     <row r="90" spans="2:9">
       <c r="B90" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>441</v>
+        <v>262</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>435</v>
       </c>
       <c r="G90" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4488,16 +4495,16 @@
     </row>
     <row r="91" spans="2:9">
       <c r="B91" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>442</v>
+        <v>263</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>436</v>
       </c>
       <c r="G91" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4514,16 +4521,16 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>433</v>
+        <v>264</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>427</v>
       </c>
       <c r="G92" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4540,16 +4547,16 @@
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="G93" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4582,16 +4589,16 @@
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>443</v>
+        <v>258</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>437</v>
       </c>
       <c r="G95" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4608,16 +4615,16 @@
     </row>
     <row r="96" spans="2:9">
       <c r="B96" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>444</v>
+        <v>153</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="G96" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4634,16 +4641,16 @@
     </row>
     <row r="97" spans="2:9">
       <c r="B97" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>438</v>
+        <v>154</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="G97" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4676,16 +4683,16 @@
     </row>
     <row r="99" spans="2:9">
       <c r="B99" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>445</v>
+        <v>324</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G99" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4702,16 +4709,16 @@
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>446</v>
+        <v>326</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="G100" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4728,16 +4735,16 @@
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>447</v>
+        <v>327</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>441</v>
       </c>
       <c r="G101" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4754,16 +4761,16 @@
     </row>
     <row r="102" spans="2:9">
       <c r="B102" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>448</v>
+        <v>328</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="G102" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4780,16 +4787,16 @@
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>433</v>
+        <v>264</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>427</v>
       </c>
       <c r="G103" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4806,16 +4813,16 @@
     </row>
     <row r="104" spans="2:9">
       <c r="B104" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="G104" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4832,16 +4839,16 @@
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>449</v>
+        <v>349</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="G105" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4858,16 +4865,16 @@
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>450</v>
+        <v>350</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="G106" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4884,16 +4891,16 @@
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="G107" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4910,16 +4917,16 @@
     </row>
     <row r="108" spans="2:9">
       <c r="B108" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>451</v>
+        <v>353</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>445</v>
       </c>
       <c r="G108" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4952,16 +4959,16 @@
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>452</v>
+        <v>165</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="G110" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4978,16 +4985,16 @@
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>453</v>
+        <v>166</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="G111" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5004,16 +5011,16 @@
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>454</v>
+        <v>271</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>448</v>
       </c>
       <c r="G112" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5030,16 +5037,16 @@
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="G113" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5056,16 +5063,16 @@
     </row>
     <row r="114" spans="2:9">
       <c r="B114" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>373</v>
+        <v>273</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="G114" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5082,16 +5089,16 @@
     </row>
     <row r="115" spans="2:9">
       <c r="B115" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>189</v>
+        <v>167</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="G115" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5108,16 +5115,16 @@
     </row>
     <row r="116" spans="2:9">
       <c r="B116" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>455</v>
+        <v>168</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>449</v>
       </c>
       <c r="G116" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5148,16 +5155,16 @@
     </row>
     <row r="118" spans="2:9">
       <c r="B118" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>456</v>
+        <v>169</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>450</v>
       </c>
       <c r="G118" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5188,16 +5195,16 @@
     </row>
     <row r="120" spans="2:9">
       <c r="B120" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>452</v>
+        <v>165</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="G120" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5214,16 +5221,16 @@
     </row>
     <row r="121" spans="2:9">
       <c r="B121" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>457</v>
+        <v>276</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>451</v>
       </c>
       <c r="G121" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5240,16 +5247,16 @@
     </row>
     <row r="122" spans="2:9">
       <c r="B122" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>189</v>
+        <v>167</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="G122" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5266,16 +5273,16 @@
     </row>
     <row r="123" spans="2:9">
       <c r="B123" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>455</v>
+        <v>168</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>449</v>
       </c>
       <c r="G123" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5292,16 +5299,16 @@
     </row>
     <row r="124" spans="2:9">
       <c r="B124" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>433</v>
+        <v>264</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>427</v>
       </c>
       <c r="G124" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5318,16 +5325,16 @@
     </row>
     <row r="125" spans="2:9">
       <c r="B125" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>453</v>
+        <v>166</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="G125" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5344,16 +5351,16 @@
     </row>
     <row r="126" spans="2:9">
       <c r="B126" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>458</v>
+        <v>330</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>452</v>
       </c>
       <c r="G126" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5370,16 +5377,16 @@
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="G127" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5396,16 +5403,16 @@
     </row>
     <row r="128" spans="2:9">
       <c r="B128" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>334</v>
       </c>
       <c r="G128" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5422,16 +5429,16 @@
     </row>
     <row r="129" spans="2:9">
       <c r="B129" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="G129" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5462,16 +5469,16 @@
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="G131" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5488,16 +5495,16 @@
     </row>
     <row r="132" spans="2:9">
       <c r="B132" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>459</v>
+        <v>171</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="G132" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5514,16 +5521,16 @@
     </row>
     <row r="133" spans="2:9">
       <c r="B133" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>460</v>
+        <v>172</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="G133" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5540,16 +5547,16 @@
     </row>
     <row r="134" spans="2:9">
       <c r="B134" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>191</v>
+        <v>173</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="G134" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5582,16 +5589,16 @@
     </row>
     <row r="136" spans="2:9">
       <c r="B136" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>453</v>
+        <v>166</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="G136" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5608,16 +5615,16 @@
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>192</v>
+        <v>174</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="G137" s="4" t="str">
         <f t="shared" ref="G137:G150" si="12" xml:space="preserve"> IF($B137="", "", $B137 &amp; "=" &amp; C137)</f>
@@ -5634,16 +5641,16 @@
     </row>
     <row r="138" spans="2:9">
       <c r="B138" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>193</v>
+        <v>175</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="G138" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5660,16 +5667,16 @@
     </row>
     <row r="139" spans="2:9">
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>461</v>
+        <v>176</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="G139" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5686,16 +5693,16 @@
     </row>
     <row r="140" spans="2:9">
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>284</v>
+        <v>277</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="G140" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5712,16 +5719,16 @@
     </row>
     <row r="141" spans="2:9">
       <c r="B141" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>120</v>
+        <v>177</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="G141" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5738,16 +5745,16 @@
     </row>
     <row r="142" spans="2:9">
       <c r="B142" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>285</v>
+        <v>278</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="G142" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5764,16 +5771,16 @@
     </row>
     <row r="143" spans="2:9">
       <c r="B143" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>123</v>
+        <v>178</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="G143" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5790,16 +5797,16 @@
     </row>
     <row r="144" spans="2:9">
       <c r="B144" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>462</v>
+        <v>279</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="G144" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5830,16 +5837,16 @@
     </row>
     <row r="146" spans="2:9">
       <c r="B146" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>452</v>
+        <v>165</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="G146" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5856,16 +5863,16 @@
     </row>
     <row r="147" spans="2:9">
       <c r="B147" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>463</v>
+        <v>336</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>457</v>
       </c>
       <c r="G147" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5882,16 +5889,16 @@
     </row>
     <row r="148" spans="2:9">
       <c r="B148" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>189</v>
+        <v>167</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="G148" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5908,16 +5915,16 @@
     </row>
     <row r="149" spans="2:9">
       <c r="B149" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>455</v>
+        <v>168</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>449</v>
       </c>
       <c r="G149" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5934,16 +5941,16 @@
     </row>
     <row r="150" spans="2:9">
       <c r="B150" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>433</v>
+        <v>264</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>427</v>
       </c>
       <c r="G150" s="4" t="str">
         <f t="shared" si="12"/>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202403/hogandiff4/xyz.hotchpotch.hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="410" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F609B9EF-1289-423F-9217-784980862E23}"/>
+  <xr:revisionPtr revIDLastSave="421" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D19DC4C-285B-4766-9A7E-276775217863}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="481">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -1785,6 +1785,29 @@
   </si>
   <si>
     <t>由于内存不足，处理失败。\n请选择 "内存节省模式" 选项或增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AppTaskBase.180</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AppTaskBase.190</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダのロードに失敗しました。</t>
+    <rPh sb="9" eb="11">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to load directories.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>无法加载文件夹。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1948,6 +1971,10 @@
 </file>
 
 <file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2214,7 +2241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I150"/>
+  <dimension ref="B1:I152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4033,15 +4060,15 @@
         <v>424</v>
       </c>
       <c r="G72" s="4" t="str">
-        <f t="shared" ref="G72:G136" si="6" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; C72)</f>
+        <f t="shared" ref="G72:G138" si="6" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; C72)</f>
         <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
       </c>
       <c r="H72" s="5" t="str">
-        <f t="shared" ref="H72:H136" si="7" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; D72)</f>
+        <f t="shared" ref="H72:H138" si="7" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; D72)</f>
         <v>AppTaskBase.100=Failed to paint or save result book A.</v>
       </c>
       <c r="I72" s="6" t="str">
-        <f t="shared" ref="I72:I136" si="8" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; E72)</f>
+        <f t="shared" ref="I72:I138" si="8" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; E72)</f>
         <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
       </c>
     </row>
@@ -4215,968 +4242,980 @@
         <v>475</v>
       </c>
       <c r="G79" s="4" t="str">
-        <f t="shared" ref="G79:G81" si="9" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; C79)</f>
+        <f t="shared" ref="G79:G83" si="9" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; C79)</f>
         <v>AppTaskBase.170=メモリ不足のため処理が失敗しました。\n「省メモリモード」オプションを選択するか、割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
       </c>
       <c r="H79" s="5" t="str">
-        <f t="shared" ref="H79:H81" si="10" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; D79)</f>
+        <f t="shared" ref="H79:H83" si="10" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; D79)</f>
         <v>AppTaskBase.170=Processing failed due to insufficient memory.\nPlease select the "memory-saving mode" option or increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
       </c>
       <c r="I79" s="6" t="str">
-        <f t="shared" ref="I79:I81" si="11" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; E79)</f>
+        <f t="shared" ref="I79:I83" si="11" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; E79)</f>
         <v>AppTaskBase.170=由于内存不足，处理失败。\n请选择 "内存节省模式" 选项或增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
       </c>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="2"/>
-      <c r="C80" s="3"/>
+      <c r="B80" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="G80" s="4" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>AppTaskBase.180=予期せぬ例外が発生しました。</v>
       </c>
       <c r="H80" s="5" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>AppTaskBase.180=Unexpected exception occurred.</v>
       </c>
       <c r="I80" s="6" t="str">
         <f t="shared" si="11"/>
+        <v>AppTaskBase.180=意外的例外。</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" ref="G81" si="12" xml:space="preserve"> IF($B81="", "", $B81 &amp; "=" &amp; C81)</f>
+        <v>AppTaskBase.190=フォルダのロードに失敗しました。</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" ref="H81" si="13" xml:space="preserve"> IF($B81="", "", $B81 &amp; "=" &amp; D81)</f>
+        <v>AppTaskBase.190=Failed to load directories.</v>
+      </c>
+      <c r="I81" s="6" t="str">
+        <f t="shared" ref="I81" si="14" xml:space="preserve"> IF($B81="", "", $B81 &amp; "=" &amp; E81)</f>
+        <v>AppTaskBase.190=无法加载文件夹。</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="7" t="s">
+      <c r="H82" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I82" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E83" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="G81" s="4" t="str">
+      <c r="G83" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
       </c>
-      <c r="H81" s="5" t="str">
+      <c r="H83" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareBooksTask.010=Starting comparing books.</v>
       </c>
-      <c r="I81" s="6" t="str">
+      <c r="I83" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareBooksTask.010=开始互相比较工作簿。</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="7" t="s">
+    <row r="84" spans="2:9">
+      <c r="B84" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E84" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="G82" s="4" t="str">
+      <c r="G84" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
       </c>
-      <c r="H82" s="5" t="str">
+      <c r="H84" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareBooksTask.020=Pairing sheets...</v>
       </c>
-      <c r="I82" s="6" t="str">
+      <c r="I84" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="7" t="s">
+    <row r="85" spans="2:9">
+      <c r="B85" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E85" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="G83" s="4" t="str">
+      <c r="G85" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H83" s="5" t="str">
+      <c r="H85" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareBooksTask.030=Failed to pair sheets.</v>
       </c>
-      <c r="I83" s="6" t="str">
+      <c r="I85" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareBooksTask.030=确定工作表组合失败。</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="7" t="s">
+    <row r="86" spans="2:9">
+      <c r="B86" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E86" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="G84" s="4" t="str">
+      <c r="G86" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareBooksTask.040=シートを比較しています...</v>
       </c>
-      <c r="H84" s="5" t="str">
+      <c r="H86" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareBooksTask.040=Comparing sheets...</v>
       </c>
-      <c r="I84" s="6" t="str">
+      <c r="I86" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareBooksTask.040=比较工作表...</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="7" t="s">
+    <row r="87" spans="2:9">
+      <c r="B87" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E87" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="G85" s="4" t="str">
+      <c r="G87" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
       </c>
-      <c r="H85" s="5" t="str">
+      <c r="H87" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareBooksTask.050=Failed to compare sheets.</v>
       </c>
-      <c r="I85" s="6" t="str">
+      <c r="I87" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareBooksTask.050=工作表比较失败。</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="2"/>
-      <c r="C86" s="3"/>
-      <c r="G86" s="4" t="str">
+    <row r="88" spans="2:9">
+      <c r="B88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="G88" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H86" s="5" t="str">
+      <c r="H88" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I86" s="6" t="str">
+      <c r="I88" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="7" t="s">
+    <row r="89" spans="2:9">
+      <c r="B89" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E89" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="G87" s="4" t="str">
+      <c r="G89" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
       </c>
-      <c r="H87" s="5" t="str">
+      <c r="H89" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareDirsTask.010=Starting comparing folders.</v>
       </c>
-      <c r="I87" s="6" t="str">
+      <c r="I89" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareDirsTask.010=开始互相比较文件夹。</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="7" t="s">
+    <row r="90" spans="2:9">
+      <c r="B90" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E90" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="G88" s="4" t="str">
+      <c r="G90" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
       </c>
-      <c r="H88" s="5" t="str">
+      <c r="H90" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareDirsTask.020=Failed to create output directory.</v>
       </c>
-      <c r="I88" s="6" t="str">
+      <c r="I90" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="7" t="s">
+    <row r="91" spans="2:9">
+      <c r="B91" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E91" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="G89" s="4" t="str">
+      <c r="G91" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
       </c>
-      <c r="H89" s="5" t="str">
+      <c r="H91" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareDirsTask.030=Pairing books...</v>
       </c>
-      <c r="I89" s="6" t="str">
+      <c r="I91" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="7" t="s">
+    <row r="92" spans="2:9">
+      <c r="B92" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E92" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="G90" s="4" t="str">
+      <c r="G92" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H90" s="5" t="str">
+      <c r="H92" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareDirsTask.040=Failed to pair books.</v>
       </c>
-      <c r="I90" s="6" t="str">
+      <c r="I92" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareDirsTask.040=确定工作簿组合失败。</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
-      <c r="B91" s="7" t="s">
+    <row r="93" spans="2:9">
+      <c r="B93" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E93" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="G91" s="4" t="str">
+      <c r="G93" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareDirsTask.050=Excelブックを比較しています...</v>
       </c>
-      <c r="H91" s="5" t="str">
+      <c r="H93" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareDirsTask.050=Comparing books...</v>
       </c>
-      <c r="I91" s="6" t="str">
+      <c r="I93" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareDirsTask.050=比较工作簿...</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="7" t="s">
+    <row r="94" spans="2:9">
+      <c r="B94" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E94" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="G92" s="4" t="str">
+      <c r="G94" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareDirsTask.060=★失敗しました</v>
       </c>
-      <c r="H92" s="5" t="str">
+      <c r="H94" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareDirsTask.060=★Failed</v>
       </c>
-      <c r="I92" s="6" t="str">
+      <c r="I94" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareDirsTask.060=★失败</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="7" t="s">
+    <row r="95" spans="2:9">
+      <c r="B95" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E95" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G93" s="4" t="str">
+      <c r="G95" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareDirsTask.070=(比較対象ファイルなし)</v>
       </c>
-      <c r="H93" s="5" t="str">
+      <c r="H95" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareDirsTask.070=(No files to compare)</v>
       </c>
-      <c r="I93" s="6" t="str">
+      <c r="I95" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareDirsTask.070=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
-      <c r="B94" s="2"/>
-      <c r="C94" s="3"/>
-      <c r="G94" s="4" t="str">
+    <row r="96" spans="2:9">
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="G96" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H94" s="5" t="str">
+      <c r="H96" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I94" s="6" t="str">
+      <c r="I96" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="7" t="s">
+    <row r="97" spans="2:9">
+      <c r="B97" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E97" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="G95" s="4" t="str">
+      <c r="G97" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
       </c>
-      <c r="H95" s="5" t="str">
+      <c r="H97" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareSheetsTask.010=Starting comparing sheets.</v>
       </c>
-      <c r="I95" s="6" t="str">
+      <c r="I97" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="7" t="s">
+    <row r="98" spans="2:9">
+      <c r="B98" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E98" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="G96" s="4" t="str">
+      <c r="G98" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareSheetsTask.020=シートを比較しています...</v>
       </c>
-      <c r="H96" s="5" t="str">
+      <c r="H98" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareSheetsTask.020=Comparing sheets...</v>
       </c>
-      <c r="I96" s="6" t="str">
+      <c r="I98" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareSheetsTask.020=比较工作表...</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="7" t="s">
+    <row r="99" spans="2:9">
+      <c r="B99" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E99" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="G97" s="4" t="str">
+      <c r="G99" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
       </c>
-      <c r="H97" s="5" t="str">
+      <c r="H99" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareSheetsTask.030=Failed to compare sheets.</v>
       </c>
-      <c r="I97" s="6" t="str">
+      <c r="I99" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareSheetsTask.030=工作表比较失败。</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="2"/>
-      <c r="C98" s="3"/>
-      <c r="G98" s="4" t="str">
+    <row r="100" spans="2:9">
+      <c r="B100" s="2"/>
+      <c r="C100" s="3"/>
+      <c r="G100" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H98" s="5" t="str">
+      <c r="H100" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I98" s="6" t="str">
+      <c r="I100" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="1" t="s">
+    <row r="101" spans="2:9">
+      <c r="B101" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E101" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="G99" s="4" t="str">
+      <c r="G101" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
       </c>
-      <c r="H99" s="5" t="str">
+      <c r="H101" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.010=Starting comparing folder trees.</v>
       </c>
-      <c r="I99" s="6" t="str">
+      <c r="I101" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="1" t="s">
+    <row r="102" spans="2:9">
+      <c r="B102" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E102" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="G100" s="4" t="str">
+      <c r="G102" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
       </c>
-      <c r="H100" s="5" t="str">
+      <c r="H102" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.020=Pairing folders...</v>
       </c>
-      <c r="I100" s="6" t="str">
+      <c r="I102" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="1" t="s">
+    <row r="103" spans="2:9">
+      <c r="B103" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E103" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="G101" s="4" t="str">
+      <c r="G103" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H101" s="5" t="str">
+      <c r="H103" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.030=Failed to pair folders.</v>
       </c>
-      <c r="I101" s="6" t="str">
+      <c r="I103" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.030=确定文件夹组合失败。</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="1" t="s">
+    <row r="104" spans="2:9">
+      <c r="B104" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E104" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="G102" s="4" t="str">
+      <c r="G104" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
       </c>
-      <c r="H102" s="5" t="str">
+      <c r="H104" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.040=Comparing folders...</v>
       </c>
-      <c r="I102" s="6" t="str">
+      <c r="I104" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.040=比较文件夹...</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="1" t="s">
+    <row r="105" spans="2:9">
+      <c r="B105" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E105" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="G103" s="4" t="str">
+      <c r="G105" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.050=★失敗しました</v>
       </c>
-      <c r="H103" s="5" t="str">
+      <c r="H105" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.050=★Failed</v>
       </c>
-      <c r="I103" s="6" t="str">
+      <c r="I105" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.050=★失败</v>
       </c>
     </row>
-    <row r="104" spans="2:9">
-      <c r="B104" s="1" t="s">
+    <row r="106" spans="2:9">
+      <c r="B106" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E106" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G104" s="4" t="str">
+      <c r="G106" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.060=(比較対象ファイルなし)</v>
       </c>
-      <c r="H104" s="5" t="str">
+      <c r="H106" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.060=(No files to compare)</v>
       </c>
-      <c r="I104" s="6" t="str">
+      <c r="I106" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.060=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="2" t="s">
+    <row r="107" spans="2:9">
+      <c r="B107" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E107" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G105" s="4" t="str">
+      <c r="G107" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.070=比較結果Excelブックを保存しています...</v>
       </c>
-      <c r="H105" s="5" t="str">
+      <c r="H107" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.070=Saving result book...</v>
       </c>
-      <c r="I105" s="6" t="str">
+      <c r="I107" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.070=存储比较结果工作簿...</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
-      <c r="B106" s="2" t="s">
+    <row r="108" spans="2:9">
+      <c r="B108" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E108" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="G106" s="4" t="str">
+      <c r="G108" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
       </c>
-      <c r="H106" s="5" t="str">
+      <c r="H108" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.080=Failed to save result book.</v>
       </c>
-      <c r="I106" s="6" t="str">
+      <c r="I108" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
-      <c r="B107" s="2" t="s">
+    <row r="109" spans="2:9">
+      <c r="B109" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E109" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="G107" s="4" t="str">
+      <c r="G109" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
       </c>
-      <c r="H107" s="5" t="str">
+      <c r="H109" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.090=Opening result book...</v>
       </c>
-      <c r="I107" s="6" t="str">
+      <c r="I109" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.090=显示比较结果工作簿...</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="2" t="s">
+    <row r="110" spans="2:9">
+      <c r="B110" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E110" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="G108" s="4" t="str">
+      <c r="G110" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.100=比較結果Excelブックの表示に失敗しました。</v>
       </c>
-      <c r="H108" s="5" t="str">
+      <c r="H110" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.100=Failed to open result book.</v>
       </c>
-      <c r="I108" s="6" t="str">
+      <c r="I110" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.100=显示比较结果工作簿失败。</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
-      <c r="B109" s="2"/>
-      <c r="C109" s="3"/>
-      <c r="G109" s="4" t="str">
+    <row r="111" spans="2:9">
+      <c r="B111" s="2"/>
+      <c r="C111" s="3"/>
+      <c r="G111" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H109" s="5" t="str">
+      <c r="H111" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I109" s="6" t="str">
+      <c r="I111" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="2" t="s">
+    <row r="112" spans="2:9">
+      <c r="B112" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E112" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="G110" s="4" t="str">
+      <c r="G112" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.BResult.010=(比較相手なし)</v>
       </c>
-      <c r="H110" s="5" t="str">
+      <c r="H112" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.BResult.010=(no opponent)</v>
       </c>
-      <c r="I110" s="6" t="str">
+      <c r="I112" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="2" t="s">
+    <row r="113" spans="2:9">
+      <c r="B113" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E113" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="G111" s="4" t="str">
+      <c r="G113" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.BResult.020=(差分なし)</v>
       </c>
-      <c r="H111" s="5" t="str">
+      <c r="H113" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.BResult.020=(no diffs)</v>
       </c>
-      <c r="I111" s="6" t="str">
+      <c r="I113" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.020=(没有区别)</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
-      <c r="B112" s="7" t="s">
+    <row r="114" spans="2:9">
+      <c r="B114" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E114" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="G112" s="4" t="str">
+      <c r="G114" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.BResult.030=差異発生%dシート</v>
       </c>
-      <c r="H112" s="5" t="str">
+      <c r="H114" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.BResult.030=diff sheets:%d</v>
       </c>
-      <c r="I112" s="6" t="str">
+      <c r="I114" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
-      <c r="B113" s="7" t="s">
+    <row r="115" spans="2:9">
+      <c r="B115" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E115" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="G113" s="4" t="str">
+      <c r="G115" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.BResult.040=余剰%dシート</v>
       </c>
-      <c r="H113" s="5" t="str">
+      <c r="H115" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.BResult.040=redundant sheets:%d</v>
       </c>
-      <c r="I113" s="6" t="str">
+      <c r="I115" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.040=冗余工作表%d</v>
       </c>
     </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="7" t="s">
+    <row r="116" spans="2:9">
+      <c r="B116" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E116" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="G114" s="4" t="str">
+      <c r="G116" s="4" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
       </c>
-      <c r="H114" s="5" t="str">
+      <c r="H116" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">excel.BResult.050=Book %s : </v>
       </c>
-      <c r="I114" s="6" t="str">
+      <c r="I116" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.050=工作簿%s：</v>
       </c>
     </row>
-    <row r="115" spans="2:9">
-      <c r="B115" s="7" t="s">
+    <row r="117" spans="2:9">
+      <c r="B117" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E117" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G115" s="4" t="str">
+      <c r="G117" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H115" s="5" t="str">
+      <c r="H117" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I115" s="6" t="str">
+      <c r="I117" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="116" spans="2:9">
-      <c r="B116" s="7" t="s">
+    <row r="118" spans="2:9">
+      <c r="B118" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E118" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="G116" s="4" t="str">
+      <c r="G118" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H116" s="5" t="str">
+      <c r="H118" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I116" s="6" t="str">
+      <c r="I118" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9">
-      <c r="G117" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H117" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I117" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="2:9">
-      <c r="B118" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="G118" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
-      </c>
-      <c r="H118" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
-      </c>
-      <c r="I118" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
       </c>
     </row>
     <row r="119" spans="2:9">
@@ -5194,774 +5233,814 @@
       </c>
     </row>
     <row r="120" spans="2:9">
-      <c r="B120" s="7" t="s">
-        <v>243</v>
+      <c r="B120" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G120" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.010=(比較相手なし)</v>
+        <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
       </c>
       <c r="H120" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.010=(no opponent)</v>
+        <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
       </c>
       <c r="I120" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.010=(没有对比)</v>
+        <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
       </c>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>451</v>
-      </c>
       <c r="G121" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
+        <v/>
       </c>
       <c r="H121" s="5" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
+        <v/>
       </c>
       <c r="I121" s="6" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
+        <v/>
       </c>
     </row>
     <row r="122" spans="2:9">
       <c r="B122" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>185</v>
+        <v>446</v>
       </c>
       <c r="G122" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
+        <v>excel.DResult.010=(比較相手なし)</v>
       </c>
       <c r="H122" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
+        <v>excel.DResult.010=(no opponent)</v>
       </c>
       <c r="I122" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
+        <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="123" spans="2:9">
       <c r="B123" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>98</v>
+        <v>244</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G123" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
+        <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
       </c>
       <c r="H123" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
+        <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
       </c>
       <c r="I123" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
+        <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
       </c>
     </row>
     <row r="124" spans="2:9">
       <c r="B124" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>233</v>
+        <v>245</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>427</v>
+        <v>185</v>
       </c>
       <c r="G124" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.050=★失敗しました</v>
+        <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
       <c r="H124" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.050=★Failed</v>
+        <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
       <c r="I124" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.050=★失败</v>
+        <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="125" spans="2:9">
       <c r="B125" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G125" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.060=(差分なし)</v>
+        <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
       <c r="H125" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.060=(no diffs)</v>
+        <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
       <c r="I125" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.060=(没有区别)</v>
+        <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="126" spans="2:9">
-      <c r="B126" s="1" t="s">
-        <v>312</v>
+      <c r="B126" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="G126" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.070=差異発生%dブック</v>
+        <v>excel.DResult.050=★失敗しました</v>
       </c>
       <c r="H126" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.070=diff books:%d</v>
+        <v>excel.DResult.050=★Failed</v>
       </c>
       <c r="I126" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.070=差异工作簿%d</v>
+        <v>excel.DResult.050=★失败</v>
       </c>
     </row>
     <row r="127" spans="2:9">
-      <c r="B127" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>315</v>
+      <c r="B127" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>331</v>
+        <v>166</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>332</v>
+        <v>447</v>
       </c>
       <c r="G127" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.080=余剰%dブック</v>
+        <v>excel.DResult.060=(差分なし)</v>
       </c>
       <c r="H127" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.080=redundant books:%d</v>
+        <v>excel.DResult.060=(no diffs)</v>
       </c>
       <c r="I127" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.080=冗余工作簿%d</v>
+        <v>excel.DResult.060=(没有区别)</v>
       </c>
     </row>
     <row r="128" spans="2:9">
       <c r="B128" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>334</v>
+        <v>452</v>
       </c>
       <c r="G128" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.090=比較失敗%dブック</v>
+        <v>excel.DResult.070=差異発生%dブック</v>
       </c>
       <c r="H128" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.090=failed books:%d</v>
+        <v>excel.DResult.070=diff books:%d</v>
       </c>
       <c r="I128" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.090=失败工作簿%d</v>
+        <v>excel.DResult.070=差异工作簿%d</v>
       </c>
     </row>
     <row r="129" spans="2:9">
       <c r="B129" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G129" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.100=(比較対象ファイルなし)</v>
+        <v>excel.DResult.080=余剰%dブック</v>
       </c>
       <c r="H129" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.100=(No files to compare)</v>
+        <v>excel.DResult.080=redundant books:%d</v>
       </c>
       <c r="I129" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.100=(没有可比较的文件)</v>
+        <v>excel.DResult.080=冗余工作簿%d</v>
       </c>
     </row>
     <row r="130" spans="2:9">
+      <c r="B130" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>334</v>
+      </c>
       <c r="G130" s="4" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>excel.DResult.090=比較失敗%dブック</v>
       </c>
       <c r="H130" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>excel.DResult.090=failed books:%d</v>
       </c>
       <c r="I130" s="6" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>excel.DResult.090=失败工作簿%d</v>
       </c>
     </row>
     <row r="131" spans="2:9">
-      <c r="B131" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>102</v>
+      <c r="B131" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>170</v>
+        <v>337</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>186</v>
+        <v>338</v>
       </c>
       <c r="G131" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SheetType.010=ワークシート</v>
+        <v>excel.DResult.100=(比較対象ファイルなし)</v>
       </c>
       <c r="H131" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SheetType.010=Worksheet</v>
+        <v>excel.DResult.100=(No files to compare)</v>
       </c>
       <c r="I131" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SheetType.010=工作表</v>
+        <v>excel.DResult.100=(没有可比较的文件)</v>
       </c>
     </row>
     <row r="132" spans="2:9">
-      <c r="B132" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>453</v>
-      </c>
       <c r="G132" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SheetType.020=グラフシート</v>
+        <v/>
       </c>
       <c r="H132" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SheetType.020=Chart</v>
+        <v/>
       </c>
       <c r="I132" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SheetType.020=图表表</v>
+        <v/>
       </c>
     </row>
     <row r="133" spans="2:9">
       <c r="B133" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>454</v>
+        <v>186</v>
       </c>
       <c r="G133" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
+        <v>excel.SheetType.010=ワークシート</v>
       </c>
       <c r="H133" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
+        <v>excel.SheetType.010=Worksheet</v>
       </c>
       <c r="I133" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
+        <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
     <row r="134" spans="2:9">
       <c r="B134" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>187</v>
+        <v>453</v>
       </c>
       <c r="G134" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
+        <v>excel.SheetType.020=グラフシート</v>
       </c>
       <c r="H134" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SheetType.040=Excel 4.0 Macro</v>
+        <v>excel.SheetType.020=Chart</v>
       </c>
       <c r="I134" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SheetType.040=Excel 4.0 宏表</v>
+        <v>excel.SheetType.020=图表表</v>
       </c>
     </row>
     <row r="135" spans="2:9">
-      <c r="B135" s="2"/>
-      <c r="C135" s="3"/>
+      <c r="B135" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="G135" s="4" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
       </c>
       <c r="H135" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
       </c>
       <c r="I135" s="6" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
       </c>
     </row>
     <row r="136" spans="2:9">
       <c r="B136" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>447</v>
+        <v>187</v>
       </c>
       <c r="G136" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SResult.010=(差分なし)</v>
+        <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
       </c>
       <c r="H136" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SResult.010=(no diffs)</v>
+        <v>excel.SheetType.040=Excel 4.0 Macro</v>
       </c>
       <c r="I136" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SResult.010=(没有区别)</v>
+        <v>excel.SheetType.040=Excel 4.0 宏表</v>
       </c>
     </row>
     <row r="137" spans="2:9">
-      <c r="B137" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>188</v>
-      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="3"/>
       <c r="G137" s="4" t="str">
-        <f t="shared" ref="G137:G150" si="12" xml:space="preserve"> IF($B137="", "", $B137 &amp; "=" &amp; C137)</f>
-        <v>excel.SResult.020=余剰行%d</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="H137" s="5" t="str">
-        <f t="shared" ref="H137:H150" si="13" xml:space="preserve"> IF($B137="", "", $B137 &amp; "=" &amp; D137)</f>
-        <v>excel.SResult.020=redundant rows:%d</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I137" s="6" t="str">
-        <f t="shared" ref="I137:I150" si="14" xml:space="preserve"> IF($B137="", "", $B137 &amp; "=" &amp; E137)</f>
-        <v>excel.SResult.020=冗余行%d</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
     </row>
     <row r="138" spans="2:9">
       <c r="B138" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>189</v>
+        <v>447</v>
       </c>
       <c r="G138" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>excel.SResult.030=余剰列%d</v>
+        <f t="shared" si="6"/>
+        <v>excel.SResult.010=(差分なし)</v>
       </c>
       <c r="H138" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>excel.SResult.030=redundant columns:%d</v>
+        <f t="shared" si="7"/>
+        <v>excel.SResult.010=(no diffs)</v>
       </c>
       <c r="I138" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>excel.SResult.030=冗余列%d</v>
+        <f t="shared" si="8"/>
+        <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
     <row r="139" spans="2:9">
       <c r="B139" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>455</v>
+        <v>188</v>
       </c>
       <c r="G139" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>excel.SResult.040=差分セル%d</v>
+        <f t="shared" ref="G139:G152" si="15" xml:space="preserve"> IF($B139="", "", $B139 &amp; "=" &amp; C139)</f>
+        <v>excel.SResult.020=余剰行%d</v>
       </c>
       <c r="H139" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>excel.SResult.040=diff cells:%d</v>
+        <f t="shared" ref="H139:H152" si="16" xml:space="preserve"> IF($B139="", "", $B139 &amp; "=" &amp; D139)</f>
+        <v>excel.SResult.020=redundant rows:%d</v>
       </c>
       <c r="I139" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>excel.SResult.040=差异单元格%d</v>
+        <f t="shared" ref="I139:I152" si="17" xml:space="preserve"> IF($B139="", "", $B139 &amp; "=" &amp; E139)</f>
+        <v>excel.SResult.020=冗余行%d</v>
       </c>
     </row>
     <row r="140" spans="2:9">
       <c r="B140" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>370</v>
+        <v>113</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>280</v>
+        <v>189</v>
       </c>
       <c r="G140" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
+        <f t="shared" si="15"/>
+        <v>excel.SResult.030=余剰列%d</v>
       </c>
       <c r="H140" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
+        <f t="shared" si="16"/>
+        <v>excel.SResult.030=redundant columns:%d</v>
       </c>
       <c r="I140" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
+        <f t="shared" si="17"/>
+        <v>excel.SResult.030=冗余列%d</v>
       </c>
     </row>
     <row r="141" spans="2:9">
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>118</v>
+        <v>455</v>
       </c>
       <c r="G141" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>excel.SResult.060=行%d</v>
+        <f t="shared" si="15"/>
+        <v>excel.SResult.040=差分セル%d</v>
       </c>
       <c r="H141" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>excel.SResult.060=Row %d</v>
+        <f t="shared" si="16"/>
+        <v>excel.SResult.040=diff cells:%d</v>
       </c>
       <c r="I141" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>excel.SResult.060=行%d</v>
+        <f t="shared" si="17"/>
+        <v>excel.SResult.040=差异单元格%d</v>
       </c>
     </row>
     <row r="142" spans="2:9">
       <c r="B142" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G142" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
       </c>
       <c r="H142" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
       </c>
       <c r="I142" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
       </c>
     </row>
     <row r="143" spans="2:9">
       <c r="B143" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G143" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>excel.SResult.080=%s列</v>
+        <f t="shared" si="15"/>
+        <v>excel.SResult.060=行%d</v>
       </c>
       <c r="H143" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>excel.SResult.080=Column %s</v>
+        <f t="shared" si="16"/>
+        <v>excel.SResult.060=Row %d</v>
       </c>
       <c r="I143" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>excel.SResult.080=%s列</v>
+        <f t="shared" si="17"/>
+        <v>excel.SResult.060=行%d</v>
       </c>
     </row>
     <row r="144" spans="2:9">
       <c r="B144" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G144" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
+      </c>
+      <c r="H144" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
+      </c>
+      <c r="I144" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
+      <c r="B145" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G145" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>excel.SResult.080=%s列</v>
+      </c>
+      <c r="H145" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>excel.SResult.080=Column %s</v>
+      </c>
+      <c r="I145" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>excel.SResult.080=%s列</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D146" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="E146" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="G144" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="G146" s="4" t="str">
+        <f t="shared" si="15"/>
         <v xml:space="preserve">excel.SResult.090=差分セル : </v>
       </c>
-      <c r="H144" s="5" t="str">
-        <f t="shared" si="13"/>
+      <c r="H146" s="5" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">excel.SResult.090=Diff cells : </v>
       </c>
-      <c r="I144" s="6" t="str">
-        <f t="shared" si="14"/>
+      <c r="I146" s="6" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">excel.SResult.090=差异单元格 : </v>
       </c>
     </row>
-    <row r="145" spans="2:9">
-      <c r="G145" s="4" t="str">
-        <f t="shared" si="12"/>
+    <row r="147" spans="2:9">
+      <c r="G147" s="4" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H145" s="5" t="str">
-        <f t="shared" si="13"/>
+      <c r="H147" s="5" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="I145" s="6" t="str">
-        <f t="shared" si="14"/>
+      <c r="I147" s="6" t="str">
+        <f t="shared" si="17"/>
         <v/>
-      </c>
-    </row>
-    <row r="146" spans="2:9">
-      <c r="B146" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="G146" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>excel.TreeResult.010=(比較相手なし)</v>
-      </c>
-      <c r="H146" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>excel.TreeResult.010=(no opponent)</v>
-      </c>
-      <c r="I146" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>excel.TreeResult.010=(没有对比)</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9">
-      <c r="B147" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="G147" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
-      </c>
-      <c r="H147" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
-      </c>
-      <c r="I147" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
       </c>
     </row>
     <row r="148" spans="2:9">
       <c r="B148" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>185</v>
+        <v>446</v>
       </c>
       <c r="G148" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
+        <f t="shared" si="15"/>
+        <v>excel.TreeResult.010=(比較相手なし)</v>
       </c>
       <c r="H148" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
+        <f t="shared" si="16"/>
+        <v>excel.TreeResult.010=(no opponent)</v>
       </c>
       <c r="I148" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
+        <f t="shared" si="17"/>
+        <v>excel.TreeResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="149" spans="2:9">
       <c r="B149" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>98</v>
+        <v>320</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>168</v>
+        <v>336</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="G149" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
       </c>
       <c r="H149" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
       </c>
       <c r="I149" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
       </c>
     </row>
     <row r="150" spans="2:9">
       <c r="B150" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G150" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
+      </c>
+      <c r="H150" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
+      </c>
+      <c r="I150" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9">
+      <c r="B151" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="G151" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
+      </c>
+      <c r="H151" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
+      </c>
+      <c r="I151" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C152" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D152" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="E152" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="G150" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="G152" s="4" t="str">
+        <f t="shared" si="15"/>
         <v>excel.TreeResult.050=★失敗しました</v>
       </c>
-      <c r="H150" s="5" t="str">
-        <f t="shared" si="13"/>
+      <c r="H152" s="5" t="str">
+        <f t="shared" si="16"/>
         <v>excel.TreeResult.050=★Failed</v>
       </c>
-      <c r="I150" s="6" t="str">
-        <f t="shared" si="14"/>
+      <c r="I152" s="6" t="str">
+        <f t="shared" si="17"/>
         <v>excel.TreeResult.050=★失败</v>
       </c>
     </row>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202403/hogandiff4/xyz.hotchpotch.hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="421" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D19DC4C-285B-4766-9A7E-276775217863}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88961840-F8F1-4515-92E4-6C709074325A}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1699,14 +1699,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メモリ不足のため処理が失敗しました。\n「省メモリモード」オプションを選択するか、割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Processing failed due to insufficient memory.\nPlease select the "memory-saving mode" option or increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fx.SettingsPane1.execute.030</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1784,10 +1776,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>由于内存不足，处理失败。\n请选择 "内存节省模式" 选项或增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AppTaskBase.180</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1808,6 +1796,18 @@
   </si>
   <si>
     <t>无法加载文件夹。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリ不足のため処理が失敗しました。\n割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Processing failed due to insufficient memory.\nPlease increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1975,6 +1975,10 @@
 </file>
 
 <file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2677,13 +2681,13 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>469</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>471</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2703,13 +2707,13 @@
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>470</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>472</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2778,16 +2782,16 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="8" t="s">
         <v>465</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>467</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2804,16 +2808,16 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="8" t="s">
         <v>466</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>468</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4233,30 +4237,30 @@
         <v>458</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="G79" s="4" t="str">
         <f t="shared" ref="G79:G83" si="9" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; C79)</f>
-        <v>AppTaskBase.170=メモリ不足のため処理が失敗しました。\n「省メモリモード」オプションを選択するか、割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
+        <v>AppTaskBase.170=メモリ不足のため処理が失敗しました。\n割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
       </c>
       <c r="H79" s="5" t="str">
         <f t="shared" ref="H79:H83" si="10" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; D79)</f>
-        <v>AppTaskBase.170=Processing failed due to insufficient memory.\nPlease select the "memory-saving mode" option or increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
+        <v>AppTaskBase.170=Processing failed due to insufficient memory.\nPlease increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
       </c>
       <c r="I79" s="6" t="str">
         <f t="shared" ref="I79:I83" si="11" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; E79)</f>
-        <v>AppTaskBase.170=由于内存不足，处理失败。\n请选择 "内存节省模式" 选项或增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
+        <v>AppTaskBase.170=由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>63</v>
@@ -4282,16 +4286,16 @@
     </row>
     <row r="81" spans="2:9">
       <c r="B81" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>477</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>480</v>
       </c>
       <c r="G81" s="4" t="str">
         <f t="shared" ref="G81" si="12" xml:space="preserve"> IF($B81="", "", $B81 &amp; "=" &amp; C81)</f>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202403/hogandiff4/xyz.hotchpotch.hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="426" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88961840-F8F1-4515-92E4-6C709074325A}"/>
+  <xr:revisionPtr revIDLastSave="447" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC68E81F-31EB-42BC-9AD9-830E843F50B2}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="489">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -1799,15 +1799,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メモリ不足のため処理が失敗しました。\n割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Processing failed due to insufficient memory.\nPlease increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</t>
+    <t>メモリ不足のため処理が失敗しました。\n割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Processing failed due to insufficient memory.\nPlease increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CompareDirsTask.080</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to compare folders.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工作表比较失败。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文件夹比较失败。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CompareTreesTask.110</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダツリーの比較に失敗しました。</t>
+    <rPh sb="11" eb="13">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダの比較に失敗しました。</t>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to compare folder trees.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1898,7 +1947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1919,9 +1968,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1979,6 +2025,10 @@
 </file>
 
 <file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2245,7 +2295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I152"/>
+  <dimension ref="B1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2258,7 +2308,7 @@
     <col min="2" max="2" width="34.6875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5625" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.5625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.5625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="30.5625" style="6" customWidth="1"/>
     <col min="6" max="6" width="2.5625" style="1"/>
     <col min="7" max="7" width="2.5625" style="4"/>
     <col min="8" max="8" width="2.5625" style="5"/>
@@ -2276,7 +2326,7 @@
       <c r="D1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>190</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -2296,7 +2346,7 @@
       <c r="D2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>385</v>
       </c>
       <c r="G2" s="4" t="str">
@@ -2322,7 +2372,7 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="4" t="str">
@@ -2348,7 +2398,7 @@
       <c r="D4" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>295</v>
       </c>
       <c r="G4" s="4" t="str">
@@ -2374,7 +2424,7 @@
       <c r="D5" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>296</v>
       </c>
       <c r="G5" s="4" t="str">
@@ -2400,7 +2450,7 @@
       <c r="D6" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>297</v>
       </c>
       <c r="G6" s="4" t="str">
@@ -2426,7 +2476,7 @@
       <c r="D7" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>386</v>
       </c>
       <c r="G7" s="4" t="str">
@@ -2452,7 +2502,7 @@
       <c r="D8" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>294</v>
       </c>
       <c r="G8" s="4" t="str">
@@ -2478,7 +2528,7 @@
       <c r="D9" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>387</v>
       </c>
       <c r="G9" s="4" t="str">
@@ -2504,7 +2554,7 @@
       <c r="D10" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>388</v>
       </c>
       <c r="G10" s="4" t="str">
@@ -2530,7 +2580,7 @@
       <c r="D11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>389</v>
       </c>
       <c r="G11" s="4" t="str">
@@ -2556,7 +2606,7 @@
       <c r="D12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>390</v>
       </c>
       <c r="G12" s="4" t="str">
@@ -2582,7 +2632,7 @@
       <c r="D13" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>391</v>
       </c>
       <c r="G13" s="4" t="str">
@@ -2608,7 +2658,7 @@
       <c r="D14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>392</v>
       </c>
       <c r="G14" s="4" t="str">
@@ -2634,7 +2684,7 @@
       <c r="D15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>393</v>
       </c>
       <c r="G15" s="4" t="str">
@@ -2660,7 +2710,7 @@
       <c r="D16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>394</v>
       </c>
       <c r="G16" s="4" t="str">
@@ -2686,7 +2736,7 @@
       <c r="D17" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>469</v>
       </c>
       <c r="G17" s="4" t="str">
@@ -2712,7 +2762,7 @@
       <c r="D18" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>470</v>
       </c>
       <c r="G18" s="4" t="str">
@@ -2738,7 +2788,7 @@
       <c r="D19" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>395</v>
       </c>
       <c r="G19" s="4" t="str">
@@ -2764,7 +2814,7 @@
       <c r="D20" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>396</v>
       </c>
       <c r="G20" s="4" t="str">
@@ -2790,7 +2840,7 @@
       <c r="D21" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>465</v>
       </c>
       <c r="G21" s="4" t="str">
@@ -2816,7 +2866,7 @@
       <c r="D22" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>466</v>
       </c>
       <c r="G22" s="4" t="str">
@@ -2842,7 +2892,7 @@
       <c r="D23" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>397</v>
       </c>
       <c r="G23" s="4" t="str">
@@ -2868,7 +2918,7 @@
       <c r="D24" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>398</v>
       </c>
       <c r="G24" s="4" t="str">
@@ -2894,7 +2944,7 @@
       <c r="D25" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G25" s="4" t="str">
@@ -2920,7 +2970,7 @@
       <c r="D26" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>399</v>
       </c>
       <c r="G26" s="4" t="str">
@@ -2946,7 +2996,7 @@
       <c r="D27" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>400</v>
       </c>
       <c r="G27" s="4" t="str">
@@ -2972,7 +3022,7 @@
       <c r="D28" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>360</v>
       </c>
       <c r="G28" s="4" t="str">
@@ -2998,7 +3048,7 @@
       <c r="D29" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>362</v>
       </c>
       <c r="G29" s="4" t="str">
@@ -3024,7 +3074,7 @@
       <c r="D30" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>401</v>
       </c>
       <c r="G30" s="4" t="str">
@@ -3064,7 +3114,7 @@
       <c r="D32" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="6" t="s">
         <v>402</v>
       </c>
       <c r="G32" s="4" t="str">
@@ -3090,7 +3140,7 @@
       <c r="D33" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="6" t="s">
         <v>365</v>
       </c>
       <c r="G33" s="4" t="str">
@@ -3130,7 +3180,7 @@
       <c r="D35" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>403</v>
       </c>
       <c r="G35" s="4" t="str">
@@ -3156,7 +3206,7 @@
       <c r="D36" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="6" t="s">
         <v>404</v>
       </c>
       <c r="G36" s="4" t="str">
@@ -3182,7 +3232,7 @@
       <c r="D37" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="6" t="s">
         <v>184</v>
       </c>
       <c r="G37" s="4" t="str">
@@ -3208,7 +3258,7 @@
       <c r="D38" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="6" t="s">
         <v>381</v>
       </c>
       <c r="G38" s="4" t="str">
@@ -3234,7 +3284,7 @@
       <c r="D39" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="6" t="s">
         <v>379</v>
       </c>
       <c r="G39" s="4" t="str">
@@ -3260,7 +3310,7 @@
       <c r="D40" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="6" t="s">
         <v>405</v>
       </c>
       <c r="G40" s="4" t="str">
@@ -3286,7 +3336,7 @@
       <c r="D41" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="6" t="s">
         <v>383</v>
       </c>
       <c r="G41" s="4" t="str">
@@ -3312,7 +3362,7 @@
       <c r="D42" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="6" t="s">
         <v>406</v>
       </c>
       <c r="G42" s="4" t="str">
@@ -3338,7 +3388,7 @@
       <c r="D43" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="6" t="s">
         <v>407</v>
       </c>
       <c r="G43" s="4" t="str">
@@ -3380,7 +3430,7 @@
       <c r="D45" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="6" t="s">
         <v>408</v>
       </c>
       <c r="G45" s="4" t="str">
@@ -3406,7 +3456,7 @@
       <c r="D46" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="6" t="s">
         <v>409</v>
       </c>
       <c r="G46" s="4" t="str">
@@ -3432,7 +3482,7 @@
       <c r="D47" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="6" t="s">
         <v>410</v>
       </c>
       <c r="G47" s="4" t="str">
@@ -3458,7 +3508,7 @@
       <c r="D48" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="6" t="s">
         <v>405</v>
       </c>
       <c r="G48" s="4" t="str">
@@ -3484,7 +3534,7 @@
       <c r="D49" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="6" t="s">
         <v>411</v>
       </c>
       <c r="G49" s="4" t="str">
@@ -3510,7 +3560,7 @@
       <c r="D50" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="6" t="s">
         <v>412</v>
       </c>
       <c r="G50" s="4" t="str">
@@ -3536,7 +3586,7 @@
       <c r="D51" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G51" s="4" t="str">
@@ -3562,7 +3612,7 @@
       <c r="D52" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="6" t="s">
         <v>51</v>
       </c>
       <c r="G52" s="4" t="str">
@@ -3588,7 +3638,7 @@
       <c r="D53" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G53" s="4" t="str">
@@ -3614,7 +3664,7 @@
       <c r="D54" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="6" t="s">
         <v>413</v>
       </c>
       <c r="G54" s="4" t="str">
@@ -3640,7 +3690,7 @@
       <c r="D55" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="6" t="s">
         <v>414</v>
       </c>
       <c r="G55" s="4" t="str">
@@ -3666,7 +3716,7 @@
       <c r="D56" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="6" t="s">
         <v>183</v>
       </c>
       <c r="G56" s="4" t="str">
@@ -3692,7 +3742,7 @@
       <c r="D57" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="6" t="s">
         <v>415</v>
       </c>
       <c r="G57" s="4" t="str">
@@ -3718,7 +3768,7 @@
       <c r="D58" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="6" t="s">
         <v>368</v>
       </c>
       <c r="G58" s="4" t="str">
@@ -3758,7 +3808,7 @@
       <c r="D60" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G60" s="4" t="str">
@@ -3784,7 +3834,7 @@
       <c r="D61" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="6" t="s">
         <v>416</v>
       </c>
       <c r="G61" s="4" t="str">
@@ -3826,7 +3876,7 @@
       <c r="D63" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="6" t="s">
         <v>266</v>
       </c>
       <c r="G63" s="4" t="str">
@@ -3852,7 +3902,7 @@
       <c r="D64" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="6" t="s">
         <v>380</v>
       </c>
       <c r="G64" s="4" t="str">
@@ -3878,7 +3928,7 @@
       <c r="D65" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="6" t="s">
         <v>417</v>
       </c>
       <c r="G65" s="4" t="str">
@@ -3904,7 +3954,7 @@
       <c r="D66" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="6" t="s">
         <v>418</v>
       </c>
       <c r="G66" s="4" t="str">
@@ -3930,7 +3980,7 @@
       <c r="D67" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="6" t="s">
         <v>419</v>
       </c>
       <c r="G67" s="4" t="str">
@@ -3956,7 +4006,7 @@
       <c r="D68" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="6" t="s">
         <v>420</v>
       </c>
       <c r="G68" s="4" t="str">
@@ -3982,7 +4032,7 @@
       <c r="D69" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="6" t="s">
         <v>421</v>
       </c>
       <c r="G69" s="4" t="str">
@@ -4008,7 +4058,7 @@
       <c r="D70" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="6" t="s">
         <v>422</v>
       </c>
       <c r="G70" s="4" t="str">
@@ -4034,7 +4084,7 @@
       <c r="D71" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="6" t="s">
         <v>423</v>
       </c>
       <c r="G71" s="4" t="str">
@@ -4060,19 +4110,19 @@
       <c r="D72" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="6" t="s">
         <v>424</v>
       </c>
       <c r="G72" s="4" t="str">
-        <f t="shared" ref="G72:G138" si="6" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; C72)</f>
+        <f t="shared" ref="G72:G140" si="6" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; C72)</f>
         <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
       </c>
       <c r="H72" s="5" t="str">
-        <f t="shared" ref="H72:H138" si="7" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; D72)</f>
+        <f t="shared" ref="H72:H140" si="7" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; D72)</f>
         <v>AppTaskBase.100=Failed to paint or save result book A.</v>
       </c>
       <c r="I72" s="6" t="str">
-        <f t="shared" ref="I72:I138" si="8" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; E72)</f>
+        <f t="shared" ref="I72:I140" si="8" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; E72)</f>
         <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
       </c>
     </row>
@@ -4086,7 +4136,7 @@
       <c r="D73" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="6" t="s">
         <v>425</v>
       </c>
       <c r="G73" s="4" t="str">
@@ -4112,7 +4162,7 @@
       <c r="D74" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="6" t="s">
         <v>426</v>
       </c>
       <c r="G74" s="4" t="str">
@@ -4138,7 +4188,7 @@
       <c r="D75" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="6" t="s">
         <v>268</v>
       </c>
       <c r="G75" s="4" t="str">
@@ -4164,7 +4214,7 @@
       <c r="D76" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="6" t="s">
         <v>270</v>
       </c>
       <c r="G76" s="4" t="str">
@@ -4190,7 +4240,7 @@
       <c r="D77" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="6" t="s">
         <v>427</v>
       </c>
       <c r="G77" s="4" t="str">
@@ -4216,7 +4266,7 @@
       <c r="D78" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="6" t="s">
         <v>338</v>
       </c>
       <c r="G78" s="4" t="str">
@@ -4242,20 +4292,20 @@
       <c r="D79" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="6" t="s">
         <v>480</v>
       </c>
       <c r="G79" s="4" t="str">
         <f t="shared" ref="G79:G83" si="9" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; C79)</f>
-        <v>AppTaskBase.170=メモリ不足のため処理が失敗しました。\n割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
+        <v>AppTaskBase.170=メモリ不足のため処理が失敗しました。\n割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
       </c>
       <c r="H79" s="5" t="str">
         <f t="shared" ref="H79:H83" si="10" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; D79)</f>
-        <v>AppTaskBase.170=Processing failed due to insufficient memory.\nPlease increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
+        <v>AppTaskBase.170=Processing failed due to insufficient memory.\nPlease increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
       </c>
       <c r="I79" s="6" t="str">
         <f t="shared" ref="I79:I83" si="11" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; E79)</f>
-        <v>AppTaskBase.170=由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc2</v>
+        <v>AppTaskBase.170=由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -4268,7 +4318,7 @@
       <c r="D80" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="6" t="s">
         <v>184</v>
       </c>
       <c r="G80" s="4" t="str">
@@ -4294,7 +4344,7 @@
       <c r="D81" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="6" t="s">
         <v>477</v>
       </c>
       <c r="G81" s="4" t="str">
@@ -4336,7 +4386,7 @@
       <c r="D83" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="6" t="s">
         <v>428</v>
       </c>
       <c r="G83" s="4" t="str">
@@ -4362,7 +4412,7 @@
       <c r="D84" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="6" t="s">
         <v>429</v>
       </c>
       <c r="G84" s="4" t="str">
@@ -4388,7 +4438,7 @@
       <c r="D85" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="6" t="s">
         <v>430</v>
       </c>
       <c r="G85" s="4" t="str">
@@ -4414,7 +4464,7 @@
       <c r="D86" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="6" t="s">
         <v>431</v>
       </c>
       <c r="G86" s="4" t="str">
@@ -4440,7 +4490,7 @@
       <c r="D87" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="6" t="s">
         <v>432</v>
       </c>
       <c r="G87" s="4" t="str">
@@ -4482,7 +4532,7 @@
       <c r="D89" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="6" t="s">
         <v>433</v>
       </c>
       <c r="G89" s="4" t="str">
@@ -4508,7 +4558,7 @@
       <c r="D90" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="6" t="s">
         <v>267</v>
       </c>
       <c r="G90" s="4" t="str">
@@ -4534,7 +4584,7 @@
       <c r="D91" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="6" t="s">
         <v>434</v>
       </c>
       <c r="G91" s="4" t="str">
@@ -4560,7 +4610,7 @@
       <c r="D92" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="6" t="s">
         <v>435</v>
       </c>
       <c r="G92" s="4" t="str">
@@ -4586,7 +4636,7 @@
       <c r="D93" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="6" t="s">
         <v>436</v>
       </c>
       <c r="G93" s="4" t="str">
@@ -4612,7 +4662,7 @@
       <c r="D94" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="6" t="s">
         <v>427</v>
       </c>
       <c r="G94" s="4" t="str">
@@ -4638,7 +4688,7 @@
       <c r="D95" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="6" t="s">
         <v>338</v>
       </c>
       <c r="G95" s="4" t="str">
@@ -4655,611 +4705,623 @@
       </c>
     </row>
     <row r="96" spans="2:9">
-      <c r="B96" s="2"/>
-      <c r="C96" s="3"/>
+      <c r="B96" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="G96" s="4" t="str">
+        <f t="shared" ref="G96" si="15" xml:space="preserve"> IF($B96="", "", $B96 &amp; "=" &amp; C96)</f>
+        <v>CompareDirsTask.080=フォルダの比較に失敗しました。</v>
+      </c>
+      <c r="H96" s="5" t="str">
+        <f t="shared" ref="H96" si="16" xml:space="preserve"> IF($B96="", "", $B96 &amp; "=" &amp; D96)</f>
+        <v>CompareDirsTask.080=Failed to compare folders.</v>
+      </c>
+      <c r="I96" s="6" t="str">
+        <f t="shared" ref="I96" si="17" xml:space="preserve"> IF($B96="", "", $B96 &amp; "=" &amp; E96)</f>
+        <v>CompareDirsTask.080=文件夹比较失败。</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="G97" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H96" s="5" t="str">
+      <c r="H97" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I96" s="6" t="str">
+      <c r="I97" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="7" t="s">
+    <row r="98" spans="2:9">
+      <c r="B98" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E98" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="G97" s="4" t="str">
+      <c r="G98" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
       </c>
-      <c r="H97" s="5" t="str">
+      <c r="H98" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareSheetsTask.010=Starting comparing sheets.</v>
       </c>
-      <c r="I97" s="6" t="str">
+      <c r="I98" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="7" t="s">
+    <row r="99" spans="2:9">
+      <c r="B99" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E99" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="G98" s="4" t="str">
+      <c r="G99" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareSheetsTask.020=シートを比較しています...</v>
       </c>
-      <c r="H98" s="5" t="str">
+      <c r="H99" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareSheetsTask.020=Comparing sheets...</v>
       </c>
-      <c r="I98" s="6" t="str">
+      <c r="I99" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareSheetsTask.020=比较工作表...</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="7" t="s">
+    <row r="100" spans="2:9">
+      <c r="B100" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E99" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="G99" s="4" t="str">
+      <c r="E100" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="G100" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
       </c>
-      <c r="H99" s="5" t="str">
+      <c r="H100" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareSheetsTask.030=Failed to compare sheets.</v>
       </c>
-      <c r="I99" s="6" t="str">
+      <c r="I100" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareSheetsTask.030=工作表比较失败。</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="2"/>
-      <c r="C100" s="3"/>
-      <c r="G100" s="4" t="str">
+    <row r="101" spans="2:9">
+      <c r="B101" s="2"/>
+      <c r="C101" s="3"/>
+      <c r="G101" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H100" s="5" t="str">
+      <c r="H101" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I100" s="6" t="str">
+      <c r="I101" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="1" t="s">
+    <row r="102" spans="2:9">
+      <c r="B102" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E102" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="G101" s="4" t="str">
+      <c r="G102" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
       </c>
-      <c r="H101" s="5" t="str">
+      <c r="H102" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.010=Starting comparing folder trees.</v>
       </c>
-      <c r="I101" s="6" t="str">
+      <c r="I102" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="1" t="s">
+    <row r="103" spans="2:9">
+      <c r="B103" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E103" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="G102" s="4" t="str">
+      <c r="G103" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
       </c>
-      <c r="H102" s="5" t="str">
+      <c r="H103" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.020=Pairing folders...</v>
       </c>
-      <c r="I102" s="6" t="str">
+      <c r="I103" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="1" t="s">
+    <row r="104" spans="2:9">
+      <c r="B104" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E104" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="G103" s="4" t="str">
+      <c r="G104" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H103" s="5" t="str">
+      <c r="H104" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.030=Failed to pair folders.</v>
       </c>
-      <c r="I103" s="6" t="str">
+      <c r="I104" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.030=确定文件夹组合失败。</v>
       </c>
     </row>
-    <row r="104" spans="2:9">
-      <c r="B104" s="1" t="s">
+    <row r="105" spans="2:9">
+      <c r="B105" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E105" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G104" s="4" t="str">
+      <c r="G105" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
       </c>
-      <c r="H104" s="5" t="str">
+      <c r="H105" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.040=Comparing folders...</v>
       </c>
-      <c r="I104" s="6" t="str">
+      <c r="I105" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.040=比较文件夹...</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="1" t="s">
+    <row r="106" spans="2:9">
+      <c r="B106" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E106" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G105" s="4" t="str">
+      <c r="G106" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.050=★失敗しました</v>
       </c>
-      <c r="H105" s="5" t="str">
+      <c r="H106" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.050=★Failed</v>
       </c>
-      <c r="I105" s="6" t="str">
+      <c r="I106" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.050=★失败</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
-      <c r="B106" s="1" t="s">
+    <row r="107" spans="2:9">
+      <c r="B107" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E107" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G106" s="4" t="str">
+      <c r="G107" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.060=(比較対象ファイルなし)</v>
       </c>
-      <c r="H106" s="5" t="str">
+      <c r="H107" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.060=(No files to compare)</v>
       </c>
-      <c r="I106" s="6" t="str">
+      <c r="I107" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.060=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
-      <c r="B107" s="2" t="s">
+    <row r="108" spans="2:9">
+      <c r="B108" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E108" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="G107" s="4" t="str">
+      <c r="G108" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.070=比較結果Excelブックを保存しています...</v>
       </c>
-      <c r="H107" s="5" t="str">
+      <c r="H108" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.070=Saving result book...</v>
       </c>
-      <c r="I107" s="6" t="str">
+      <c r="I108" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.070=存储比较结果工作簿...</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="2" t="s">
+    <row r="109" spans="2:9">
+      <c r="B109" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E109" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="G108" s="4" t="str">
+      <c r="G109" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
       </c>
-      <c r="H108" s="5" t="str">
+      <c r="H109" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.080=Failed to save result book.</v>
       </c>
-      <c r="I108" s="6" t="str">
+      <c r="I109" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
-      <c r="B109" s="2" t="s">
+    <row r="110" spans="2:9">
+      <c r="B110" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E110" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="G109" s="4" t="str">
+      <c r="G110" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
       </c>
-      <c r="H109" s="5" t="str">
+      <c r="H110" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.090=Opening result book...</v>
       </c>
-      <c r="I109" s="6" t="str">
+      <c r="I110" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.090=显示比较结果工作簿...</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="2" t="s">
+    <row r="111" spans="2:9">
+      <c r="B111" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E111" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="G110" s="4" t="str">
+      <c r="G111" s="4" t="str">
         <f t="shared" si="6"/>
         <v>CompareTreesTask.100=比較結果Excelブックの表示に失敗しました。</v>
       </c>
-      <c r="H110" s="5" t="str">
+      <c r="H111" s="5" t="str">
         <f t="shared" si="7"/>
         <v>CompareTreesTask.100=Failed to open result book.</v>
       </c>
-      <c r="I110" s="6" t="str">
+      <c r="I111" s="6" t="str">
         <f t="shared" si="8"/>
         <v>CompareTreesTask.100=显示比较结果工作簿失败。</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="2"/>
-      <c r="C111" s="3"/>
-      <c r="G111" s="4" t="str">
+    <row r="112" spans="2:9">
+      <c r="B112" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CompareTreesTask.110=フォルダツリーの比較に失敗しました。</v>
+      </c>
+      <c r="H112" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CompareTreesTask.110=Failed to compare folder trees.</v>
+      </c>
+      <c r="I112" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>CompareTreesTask.110=文件夹比较失败。</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="B113" s="2"/>
+      <c r="C113" s="3"/>
+      <c r="G113" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H111" s="5" t="str">
+      <c r="H113" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I111" s="6" t="str">
+      <c r="I113" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:9">
-      <c r="B112" s="2" t="s">
+    <row r="114" spans="2:9">
+      <c r="B114" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E114" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="G112" s="4" t="str">
+      <c r="G114" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.BResult.010=(比較相手なし)</v>
       </c>
-      <c r="H112" s="5" t="str">
+      <c r="H114" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.BResult.010=(no opponent)</v>
       </c>
-      <c r="I112" s="6" t="str">
+      <c r="I114" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
-      <c r="B113" s="2" t="s">
+    <row r="115" spans="2:9">
+      <c r="B115" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E115" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="G113" s="4" t="str">
+      <c r="G115" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.BResult.020=(差分なし)</v>
       </c>
-      <c r="H113" s="5" t="str">
+      <c r="H115" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.BResult.020=(no diffs)</v>
       </c>
-      <c r="I113" s="6" t="str">
+      <c r="I115" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.020=(没有区别)</v>
       </c>
     </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="7" t="s">
+    <row r="116" spans="2:9">
+      <c r="B116" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E116" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="G114" s="4" t="str">
+      <c r="G116" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.BResult.030=差異発生%dシート</v>
       </c>
-      <c r="H114" s="5" t="str">
+      <c r="H116" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.BResult.030=diff sheets:%d</v>
       </c>
-      <c r="I114" s="6" t="str">
+      <c r="I116" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
-    <row r="115" spans="2:9">
-      <c r="B115" s="7" t="s">
+    <row r="117" spans="2:9">
+      <c r="B117" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E117" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G115" s="4" t="str">
+      <c r="G117" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.BResult.040=余剰%dシート</v>
       </c>
-      <c r="H115" s="5" t="str">
+      <c r="H117" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.BResult.040=redundant sheets:%d</v>
       </c>
-      <c r="I115" s="6" t="str">
+      <c r="I117" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.040=冗余工作表%d</v>
       </c>
     </row>
-    <row r="116" spans="2:9">
-      <c r="B116" s="7" t="s">
+    <row r="118" spans="2:9">
+      <c r="B118" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E118" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="G116" s="4" t="str">
+      <c r="G118" s="4" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
       </c>
-      <c r="H116" s="5" t="str">
+      <c r="H118" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">excel.BResult.050=Book %s : </v>
       </c>
-      <c r="I116" s="6" t="str">
+      <c r="I118" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.050=工作簿%s：</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
-      <c r="B117" s="7" t="s">
+    <row r="119" spans="2:9">
+      <c r="B119" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E119" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G117" s="4" t="str">
+      <c r="G119" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H117" s="5" t="str">
+      <c r="H119" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I117" s="6" t="str">
+      <c r="I119" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="118" spans="2:9">
-      <c r="B118" s="7" t="s">
+    <row r="120" spans="2:9">
+      <c r="B120" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E120" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G118" s="4" t="str">
+      <c r="G120" s="4" t="str">
         <f t="shared" si="6"/>
         <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H118" s="5" t="str">
+      <c r="H120" s="5" t="str">
         <f t="shared" si="7"/>
         <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I118" s="6" t="str">
+      <c r="I120" s="6" t="str">
         <f t="shared" si="8"/>
         <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9">
-      <c r="G119" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H119" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I119" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="2:9">
-      <c r="B120" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="G120" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
-      </c>
-      <c r="H120" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
-      </c>
-      <c r="I120" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
       </c>
     </row>
     <row r="121" spans="2:9">
@@ -5277,774 +5339,814 @@
       </c>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="7" t="s">
-        <v>243</v>
+      <c r="B122" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>446</v>
+        <v>169</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>450</v>
       </c>
       <c r="G122" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.010=(比較相手なし)</v>
+        <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
       </c>
       <c r="H122" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.010=(no opponent)</v>
+        <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
       </c>
       <c r="I122" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.010=(没有对比)</v>
+        <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
       </c>
     </row>
     <row r="123" spans="2:9">
-      <c r="B123" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>451</v>
-      </c>
       <c r="G123" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
+        <v/>
       </c>
       <c r="H123" s="5" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
+        <v/>
       </c>
       <c r="I123" s="6" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
+        <v/>
       </c>
     </row>
     <row r="124" spans="2:9">
       <c r="B124" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>185</v>
+        <v>165</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>446</v>
       </c>
       <c r="G124" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
+        <v>excel.DResult.010=(比較相手なし)</v>
       </c>
       <c r="H124" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
+        <v>excel.DResult.010=(no opponent)</v>
       </c>
       <c r="I124" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
+        <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="125" spans="2:9">
       <c r="B125" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>98</v>
+        <v>244</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>449</v>
+        <v>276</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>451</v>
       </c>
       <c r="G125" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
+        <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
       </c>
       <c r="H125" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
+        <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
       </c>
       <c r="I125" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
+        <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
       </c>
     </row>
     <row r="126" spans="2:9">
       <c r="B126" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>233</v>
+        <v>245</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>427</v>
+        <v>167</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="G126" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.050=★失敗しました</v>
+        <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
       <c r="H126" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.050=★Failed</v>
+        <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
       <c r="I126" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.050=★失败</v>
+        <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>447</v>
+        <v>168</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>449</v>
       </c>
       <c r="G127" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.060=(差分なし)</v>
+        <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
       <c r="H127" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.060=(no diffs)</v>
+        <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
       <c r="I127" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.060=(没有区别)</v>
+        <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="128" spans="2:9">
-      <c r="B128" s="1" t="s">
-        <v>312</v>
+      <c r="B128" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>452</v>
+        <v>264</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>427</v>
       </c>
       <c r="G128" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.070=差異発生%dブック</v>
+        <v>excel.DResult.050=★失敗しました</v>
       </c>
       <c r="H128" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.070=diff books:%d</v>
+        <v>excel.DResult.050=★Failed</v>
       </c>
       <c r="I128" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.070=差异工作簿%d</v>
+        <v>excel.DResult.050=★失败</v>
       </c>
     </row>
     <row r="129" spans="2:9">
-      <c r="B129" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>315</v>
+      <c r="B129" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>332</v>
+        <v>166</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>447</v>
       </c>
       <c r="G129" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.080=余剰%dブック</v>
+        <v>excel.DResult.060=(差分なし)</v>
       </c>
       <c r="H129" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.080=redundant books:%d</v>
+        <v>excel.DResult.060=(no diffs)</v>
       </c>
       <c r="I129" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.080=冗余工作簿%d</v>
+        <v>excel.DResult.060=(没有区别)</v>
       </c>
     </row>
     <row r="130" spans="2:9">
       <c r="B130" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>452</v>
       </c>
       <c r="G130" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.090=比較失敗%dブック</v>
+        <v>excel.DResult.070=差異発生%dブック</v>
       </c>
       <c r="H130" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.090=failed books:%d</v>
+        <v>excel.DResult.070=diff books:%d</v>
       </c>
       <c r="I130" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.090=失败工作簿%d</v>
+        <v>excel.DResult.070=差异工作簿%d</v>
       </c>
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>338</v>
+        <v>331</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="G131" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.DResult.100=(比較対象ファイルなし)</v>
+        <v>excel.DResult.080=余剰%dブック</v>
       </c>
       <c r="H131" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.DResult.100=(No files to compare)</v>
+        <v>excel.DResult.080=redundant books:%d</v>
       </c>
       <c r="I131" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.DResult.100=(没有可比较的文件)</v>
+        <v>excel.DResult.080=冗余工作簿%d</v>
       </c>
     </row>
     <row r="132" spans="2:9">
+      <c r="B132" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="G132" s="4" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>excel.DResult.090=比較失敗%dブック</v>
       </c>
       <c r="H132" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>excel.DResult.090=failed books:%d</v>
       </c>
       <c r="I132" s="6" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>excel.DResult.090=失败工作簿%d</v>
       </c>
     </row>
     <row r="133" spans="2:9">
-      <c r="B133" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>102</v>
+      <c r="B133" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>186</v>
+        <v>337</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>338</v>
       </c>
       <c r="G133" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SheetType.010=ワークシート</v>
+        <v>excel.DResult.100=(比較対象ファイルなし)</v>
       </c>
       <c r="H133" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SheetType.010=Worksheet</v>
+        <v>excel.DResult.100=(No files to compare)</v>
       </c>
       <c r="I133" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SheetType.010=工作表</v>
+        <v>excel.DResult.100=(没有可比较的文件)</v>
       </c>
     </row>
     <row r="134" spans="2:9">
-      <c r="B134" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>453</v>
-      </c>
       <c r="G134" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SheetType.020=グラフシート</v>
+        <v/>
       </c>
       <c r="H134" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SheetType.020=Chart</v>
+        <v/>
       </c>
       <c r="I134" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SheetType.020=图表表</v>
+        <v/>
       </c>
     </row>
     <row r="135" spans="2:9">
       <c r="B135" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>454</v>
+        <v>170</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="G135" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
+        <v>excel.SheetType.010=ワークシート</v>
       </c>
       <c r="H135" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
+        <v>excel.SheetType.010=Worksheet</v>
       </c>
       <c r="I135" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
+        <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
     <row r="136" spans="2:9">
       <c r="B136" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>187</v>
+        <v>171</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="G136" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
+        <v>excel.SheetType.020=グラフシート</v>
       </c>
       <c r="H136" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SheetType.040=Excel 4.0 Macro</v>
+        <v>excel.SheetType.020=Chart</v>
       </c>
       <c r="I136" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SheetType.040=Excel 4.0 宏表</v>
+        <v>excel.SheetType.020=图表表</v>
       </c>
     </row>
     <row r="137" spans="2:9">
-      <c r="B137" s="2"/>
-      <c r="C137" s="3"/>
+      <c r="B137" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>454</v>
+      </c>
       <c r="G137" s="4" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
       </c>
       <c r="H137" s="5" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
       </c>
       <c r="I137" s="6" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
       </c>
     </row>
     <row r="138" spans="2:9">
       <c r="B138" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>447</v>
+        <v>173</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="G138" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>excel.SResult.010=(差分なし)</v>
+        <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
       </c>
       <c r="H138" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>excel.SResult.010=(no diffs)</v>
+        <v>excel.SheetType.040=Excel 4.0 Macro</v>
       </c>
       <c r="I138" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>excel.SResult.010=(没有区别)</v>
+        <v>excel.SheetType.040=Excel 4.0 宏表</v>
       </c>
     </row>
     <row r="139" spans="2:9">
-      <c r="B139" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>188</v>
-      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="3"/>
       <c r="G139" s="4" t="str">
-        <f t="shared" ref="G139:G152" si="15" xml:space="preserve"> IF($B139="", "", $B139 &amp; "=" &amp; C139)</f>
-        <v>excel.SResult.020=余剰行%d</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="H139" s="5" t="str">
-        <f t="shared" ref="H139:H152" si="16" xml:space="preserve"> IF($B139="", "", $B139 &amp; "=" &amp; D139)</f>
-        <v>excel.SResult.020=redundant rows:%d</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="I139" s="6" t="str">
-        <f t="shared" ref="I139:I152" si="17" xml:space="preserve"> IF($B139="", "", $B139 &amp; "=" &amp; E139)</f>
-        <v>excel.SResult.020=冗余行%d</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
     </row>
     <row r="140" spans="2:9">
       <c r="B140" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>189</v>
+        <v>166</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>447</v>
       </c>
       <c r="G140" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>excel.SResult.030=余剰列%d</v>
+        <f t="shared" si="6"/>
+        <v>excel.SResult.010=(差分なし)</v>
       </c>
       <c r="H140" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>excel.SResult.030=redundant columns:%d</v>
+        <f t="shared" si="7"/>
+        <v>excel.SResult.010=(no diffs)</v>
       </c>
       <c r="I140" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>excel.SResult.030=冗余列%d</v>
+        <f t="shared" si="8"/>
+        <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
     <row r="141" spans="2:9">
       <c r="B141" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>455</v>
+        <v>174</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="G141" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>excel.SResult.040=差分セル%d</v>
+        <f t="shared" ref="G141:G154" si="18" xml:space="preserve"> IF($B141="", "", $B141 &amp; "=" &amp; C141)</f>
+        <v>excel.SResult.020=余剰行%d</v>
       </c>
       <c r="H141" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>excel.SResult.040=diff cells:%d</v>
+        <f t="shared" ref="H141:H154" si="19" xml:space="preserve"> IF($B141="", "", $B141 &amp; "=" &amp; D141)</f>
+        <v>excel.SResult.020=redundant rows:%d</v>
       </c>
       <c r="I141" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>excel.SResult.040=差异单元格%d</v>
+        <f t="shared" ref="I141:I154" si="20" xml:space="preserve"> IF($B141="", "", $B141 &amp; "=" &amp; E141)</f>
+        <v>excel.SResult.020=冗余行%d</v>
       </c>
     </row>
     <row r="142" spans="2:9">
       <c r="B142" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>370</v>
+        <v>113</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>280</v>
+        <v>175</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="G142" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
+        <f t="shared" si="18"/>
+        <v>excel.SResult.030=余剰列%d</v>
       </c>
       <c r="H142" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
+        <f t="shared" si="19"/>
+        <v>excel.SResult.030=redundant columns:%d</v>
       </c>
       <c r="I142" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
+        <f t="shared" si="20"/>
+        <v>excel.SResult.030=冗余列%d</v>
       </c>
     </row>
     <row r="143" spans="2:9">
       <c r="B143" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>118</v>
+        <v>176</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="G143" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>excel.SResult.060=行%d</v>
+        <f t="shared" si="18"/>
+        <v>excel.SResult.040=差分セル%d</v>
       </c>
       <c r="H143" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>excel.SResult.060=Row %d</v>
+        <f t="shared" si="19"/>
+        <v>excel.SResult.040=diff cells:%d</v>
       </c>
       <c r="I143" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>excel.SResult.060=行%d</v>
+        <f t="shared" si="20"/>
+        <v>excel.SResult.040=差异单元格%d</v>
       </c>
     </row>
     <row r="144" spans="2:9">
       <c r="B144" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>281</v>
+        <v>277</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="G144" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
       </c>
       <c r="H144" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
       </c>
       <c r="I144" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
       </c>
     </row>
     <row r="145" spans="2:9">
       <c r="B145" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>121</v>
+        <v>177</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="G145" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>excel.SResult.080=%s列</v>
+        <f t="shared" si="18"/>
+        <v>excel.SResult.060=行%d</v>
       </c>
       <c r="H145" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>excel.SResult.080=Column %s</v>
+        <f t="shared" si="19"/>
+        <v>excel.SResult.060=Row %d</v>
       </c>
       <c r="I145" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>excel.SResult.080=%s列</v>
+        <f t="shared" si="20"/>
+        <v>excel.SResult.060=行%d</v>
       </c>
     </row>
     <row r="146" spans="2:9">
       <c r="B146" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G146" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
+      </c>
+      <c r="H146" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
+      </c>
+      <c r="I146" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
+      </c>
+    </row>
+    <row r="147" spans="2:9">
+      <c r="B147" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G147" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>excel.SResult.080=%s列</v>
+      </c>
+      <c r="H147" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>excel.SResult.080=Column %s</v>
+      </c>
+      <c r="I147" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>excel.SResult.080=%s列</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9">
+      <c r="B148" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E148" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G146" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="G148" s="4" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve">excel.SResult.090=差分セル : </v>
       </c>
-      <c r="H146" s="5" t="str">
-        <f t="shared" si="16"/>
+      <c r="H148" s="5" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">excel.SResult.090=Diff cells : </v>
       </c>
-      <c r="I146" s="6" t="str">
-        <f t="shared" si="17"/>
+      <c r="I148" s="6" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">excel.SResult.090=差异单元格 : </v>
       </c>
     </row>
-    <row r="147" spans="2:9">
-      <c r="G147" s="4" t="str">
-        <f t="shared" si="15"/>
+    <row r="149" spans="2:9">
+      <c r="G149" s="4" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H147" s="5" t="str">
-        <f t="shared" si="16"/>
+      <c r="H149" s="5" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I147" s="6" t="str">
-        <f t="shared" si="17"/>
+      <c r="I149" s="6" t="str">
+        <f t="shared" si="20"/>
         <v/>
-      </c>
-    </row>
-    <row r="148" spans="2:9">
-      <c r="B148" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="G148" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>excel.TreeResult.010=(比較相手なし)</v>
-      </c>
-      <c r="H148" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>excel.TreeResult.010=(no opponent)</v>
-      </c>
-      <c r="I148" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>excel.TreeResult.010=(没有对比)</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9">
-      <c r="B149" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="G149" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
-      </c>
-      <c r="H149" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
-      </c>
-      <c r="I149" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
       </c>
     </row>
     <row r="150" spans="2:9">
       <c r="B150" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>185</v>
+        <v>165</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>446</v>
       </c>
       <c r="G150" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
+        <f t="shared" si="18"/>
+        <v>excel.TreeResult.010=(比較相手なし)</v>
       </c>
       <c r="H150" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
+        <f t="shared" si="19"/>
+        <v>excel.TreeResult.010=(no opponent)</v>
       </c>
       <c r="I150" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
+        <f t="shared" si="20"/>
+        <v>excel.TreeResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="151" spans="2:9">
       <c r="B151" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>98</v>
+        <v>320</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>449</v>
+        <v>336</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="G151" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
       </c>
       <c r="H151" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
       </c>
       <c r="I151" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
       </c>
     </row>
     <row r="152" spans="2:9">
       <c r="B152" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G152" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
+      </c>
+      <c r="H152" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
+      </c>
+      <c r="I152" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9">
+      <c r="B153" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="G153" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
+      </c>
+      <c r="H153" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
+      </c>
+      <c r="I153" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9">
+      <c r="B154" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C154" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E152" s="8" t="s">
+      <c r="E154" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G152" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="G154" s="4" t="str">
+        <f t="shared" si="18"/>
         <v>excel.TreeResult.050=★失敗しました</v>
       </c>
-      <c r="H152" s="5" t="str">
-        <f t="shared" si="16"/>
+      <c r="H154" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>excel.TreeResult.050=★Failed</v>
       </c>
-      <c r="I152" s="6" t="str">
-        <f t="shared" si="17"/>
+      <c r="I154" s="6" t="str">
+        <f t="shared" si="20"/>
         <v>excel.TreeResult.050=★失败</v>
       </c>
     </row>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202403/hogandiff4/xyz.hotchpotch.hogandiff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="447" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC68E81F-31EB-42BC-9AD9-830E843F50B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E63FCF-8295-4723-ACAB-0F0431AC2D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="493">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -1857,6 +1857,22 @@
   </si>
   <si>
     <t>Failed to compare folder trees.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gui.component.TargetSelectionPane.060</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダを読み込めません：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed to open folder : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>无法读取文件夹：</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2295,7 +2311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I154"/>
+  <dimension ref="B1:I155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2376,15 +2392,15 @@
         <v>3</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G71" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
+        <f t="shared" ref="G3:G72" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H71" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
+        <f t="shared" ref="H3:H72" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I71" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
+        <f t="shared" ref="I3:I72" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
     </row>
@@ -3785,2368 +3801,2394 @@
       </c>
     </row>
     <row r="59" spans="2:9">
+      <c r="B59" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>492</v>
+      </c>
       <c r="G59" s="4" t="str">
+        <f t="shared" ref="G59" si="6" xml:space="preserve"> IF($B59="", "", $B59 &amp; "=" &amp; C59)</f>
+        <v>gui.component.TargetSelectionPane.060=フォルダを読み込めません：</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f t="shared" ref="H59" si="7" xml:space="preserve"> IF($B59="", "", $B59 &amp; "=" &amp; D59)</f>
+        <v xml:space="preserve">gui.component.TargetSelectionPane.060=Failed to open folder : </v>
+      </c>
+      <c r="I59" s="6" t="str">
+        <f t="shared" ref="I59" si="8" xml:space="preserve"> IF($B59="", "", $B59 &amp; "=" &amp; E59)</f>
+        <v>gui.component.TargetSelectionPane.060=无法读取文件夹：</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="G60" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H59" s="5" t="str">
+      <c r="H60" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I59" s="6" t="str">
+      <c r="I60" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="2" t="s">
+    <row r="61" spans="2:9">
+      <c r="B61" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="4" t="str">
+      <c r="G61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppMain.010=方眼Diff</v>
       </c>
-      <c r="H60" s="5" t="str">
+      <c r="H61" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppMain.010=HoganDiff (方眼Diff)</v>
       </c>
-      <c r="I60" s="6" t="str">
+      <c r="I61" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppMain.010=方眼Diff</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="2" t="s">
+    <row r="62" spans="2:9">
+      <c r="B62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="G61" s="4" t="str">
+      <c r="G62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppResource.010=設定の保存に失敗しました。</v>
       </c>
-      <c r="H61" s="5" t="str">
+      <c r="H62" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppResource.010=Failed to save settings.</v>
       </c>
-      <c r="I61" s="6" t="str">
+      <c r="I62" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppResource.010=保存设置失败。</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="G62" s="4" t="str">
+    <row r="63" spans="2:9">
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="G63" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H62" s="5" t="str">
+      <c r="H63" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I62" s="6" t="str">
+      <c r="I63" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="7" t="s">
+    <row r="64" spans="2:9">
+      <c r="B64" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="G63" s="4" t="str">
+      <c r="G64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
       </c>
-      <c r="H63" s="5" t="str">
+      <c r="H64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.010=Creating working directory...</v>
       </c>
-      <c r="I63" s="6" t="str">
+      <c r="I64" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.010=创建工作文件夹...</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="7" t="s">
+    <row r="65" spans="2:9">
+      <c r="B65" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="G64" s="4" t="str">
+      <c r="G65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
       </c>
-      <c r="H64" s="5" t="str">
+      <c r="H65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.020=Failed to create working directory.</v>
       </c>
-      <c r="I64" s="6" t="str">
+      <c r="I65" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.020=创建工作文件夹失败。</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="7" t="s">
+    <row r="66" spans="2:9">
+      <c r="B66" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="G65" s="4" t="str">
+      <c r="G66" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
       </c>
-      <c r="H65" s="5" t="str">
+      <c r="H66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.030=Saving result text...</v>
       </c>
-      <c r="I65" s="6" t="str">
+      <c r="I66" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.030=存储比较结果文本...</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="7" t="s">
+    <row r="67" spans="2:9">
+      <c r="B67" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="G66" s="4" t="str">
+      <c r="G67" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
       </c>
-      <c r="H66" s="5" t="str">
+      <c r="H67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.040=Opening result text...</v>
       </c>
-      <c r="I66" s="6" t="str">
+      <c r="I67" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.040=显示比较结果文本...</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="7" t="s">
+    <row r="68" spans="2:9">
+      <c r="B68" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="G67" s="4" t="str">
+      <c r="G68" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
       </c>
-      <c r="H67" s="5" t="str">
+      <c r="H68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.050=Failed to save or open result text.</v>
       </c>
-      <c r="I67" s="6" t="str">
+      <c r="I68" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="7" t="s">
+    <row r="69" spans="2:9">
+      <c r="B69" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="G68" s="4" t="str">
+      <c r="G69" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
       </c>
-      <c r="H68" s="5" t="str">
+      <c r="H69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.060=Painting and saving result book(s)...</v>
       </c>
-      <c r="I68" s="6" t="str">
+      <c r="I69" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.060=着色和存储在工作簿...</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="7" t="s">
+    <row r="70" spans="2:9">
+      <c r="B70" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E70" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="G69" s="4" t="str">
+      <c r="G70" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
       </c>
-      <c r="H69" s="5" t="str">
+      <c r="H70" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
       </c>
-      <c r="I69" s="6" t="str">
+      <c r="I70" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.070=着色和保存工作簿失败。</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="7" t="s">
+    <row r="71" spans="2:9">
+      <c r="B71" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G70" s="4" t="str">
+      <c r="G71" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
       </c>
-      <c r="H70" s="5" t="str">
+      <c r="H71" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.080=Opening result book(s)...</v>
       </c>
-      <c r="I70" s="6" t="str">
+      <c r="I71" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.080=显示比较结果的工作簿...</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="7" t="s">
+    <row r="72" spans="2:9">
+      <c r="B72" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="G71" s="4" t="str">
+      <c r="G72" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
       </c>
-      <c r="H71" s="5" t="str">
+      <c r="H72" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.090=Failed to open result book(s).</v>
       </c>
-      <c r="I71" s="6" t="str">
+      <c r="I72" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.090=显示工作簿失败。</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="G72" s="4" t="str">
-        <f t="shared" ref="G72:G140" si="6" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; C72)</f>
-        <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
-      </c>
-      <c r="H72" s="5" t="str">
-        <f t="shared" ref="H72:H140" si="7" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; D72)</f>
-        <v>AppTaskBase.100=Failed to paint or save result book A.</v>
-      </c>
-      <c r="I72" s="6" t="str">
-        <f t="shared" ref="I72:I140" si="8" xml:space="preserve"> IF($B72="", "", $B72 &amp; "=" &amp; E72)</f>
-        <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
-      </c>
-    </row>
     <row r="73" spans="2:9">
       <c r="B73" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G73" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
+        <f t="shared" ref="G73:G141" si="9" xml:space="preserve"> IF($B73="", "", $B73 &amp; "=" &amp; C73)</f>
+        <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
       </c>
       <c r="H73" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>AppTaskBase.110=Failed to paint or save result book B.</v>
+        <f t="shared" ref="H73:H141" si="10" xml:space="preserve"> IF($B73="", "", $B73 &amp; "=" &amp; D73)</f>
+        <v>AppTaskBase.100=Failed to paint or save result book A.</v>
       </c>
       <c r="I73" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
+        <f t="shared" ref="I73:I141" si="11" xml:space="preserve"> IF($B73="", "", $B73 &amp; "=" &amp; E73)</f>
+        <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>AppTaskBase.110=Failed to paint or save result book B.</v>
+      </c>
+      <c r="I74" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="G74" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>AppTaskBase.120=処理が完了しました。</v>
       </c>
-      <c r="H74" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H75" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>AppTaskBase.120=Process completed.</v>
       </c>
-      <c r="I74" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I75" s="6" t="str">
+        <f t="shared" si="11"/>
         <v>AppTaskBase.120=过程完成。</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G75" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>AppTaskBase.130=比較結果フォルダを表示しています...</v>
-      </c>
-      <c r="H75" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>AppTaskBase.130=Opening result folder...</v>
-      </c>
-      <c r="I75" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>AppTaskBase.130=显示比较结果文件夹...</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G76" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>AppTaskBase.140=比較結果フォルダの表示に失敗しました。</v>
+        <f t="shared" si="9"/>
+        <v>AppTaskBase.130=比較結果フォルダを表示しています...</v>
       </c>
       <c r="H76" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>AppTaskBase.140=Failed to open result folder(s).</v>
+        <f t="shared" si="10"/>
+        <v>AppTaskBase.130=Opening result folder...</v>
       </c>
       <c r="I76" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>AppTaskBase.140=显示文件夹失败。</v>
+        <f t="shared" si="11"/>
+        <v>AppTaskBase.130=显示比较结果文件夹...</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>427</v>
+        <v>270</v>
       </c>
       <c r="G77" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>AppTaskBase.150=★失敗しました</v>
+        <f t="shared" si="9"/>
+        <v>AppTaskBase.140=比較結果フォルダの表示に失敗しました。</v>
       </c>
       <c r="H77" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>AppTaskBase.150=★Failed</v>
+        <f t="shared" si="10"/>
+        <v>AppTaskBase.140=Failed to open result folder(s).</v>
       </c>
       <c r="I77" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>AppTaskBase.150=★失败</v>
+        <f t="shared" si="11"/>
+        <v>AppTaskBase.140=显示文件夹失败。</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>338</v>
+        <v>427</v>
       </c>
       <c r="G78" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>AppTaskBase.160=(比較対象ファイルなし)</v>
+        <f t="shared" si="9"/>
+        <v>AppTaskBase.150=★失敗しました</v>
       </c>
       <c r="H78" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>AppTaskBase.160=(No files to compare)</v>
+        <f t="shared" si="10"/>
+        <v>AppTaskBase.150=★Failed</v>
       </c>
       <c r="I78" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>AppTaskBase.160=(没有可比较的文件)</v>
+        <f t="shared" si="11"/>
+        <v>AppTaskBase.150=★失败</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" s="1" t="s">
-        <v>458</v>
+        <v>301</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>478</v>
+        <v>302</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>479</v>
+        <v>337</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>480</v>
+        <v>338</v>
       </c>
       <c r="G79" s="4" t="str">
-        <f t="shared" ref="G79:G83" si="9" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; C79)</f>
-        <v>AppTaskBase.170=メモリ不足のため処理が失敗しました。\n割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
+        <f t="shared" si="9"/>
+        <v>AppTaskBase.160=(比較対象ファイルなし)</v>
       </c>
       <c r="H79" s="5" t="str">
-        <f t="shared" ref="H79:H83" si="10" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; D79)</f>
-        <v>AppTaskBase.170=Processing failed due to insufficient memory.\nPlease increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
+        <f t="shared" si="10"/>
+        <v>AppTaskBase.160=(No files to compare)</v>
       </c>
       <c r="I79" s="6" t="str">
-        <f t="shared" ref="I79:I83" si="11" xml:space="preserve"> IF($B79="", "", $B79 &amp; "=" &amp; E79)</f>
-        <v>AppTaskBase.170=由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
+        <f t="shared" si="11"/>
+        <v>AppTaskBase.160=(没有可比较的文件)</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>63</v>
+        <v>458</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>144</v>
+        <v>479</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>184</v>
+        <v>480</v>
       </c>
       <c r="G80" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>AppTaskBase.180=予期せぬ例外が発生しました。</v>
+        <f t="shared" ref="G80:G84" si="12" xml:space="preserve"> IF($B80="", "", $B80 &amp; "=" &amp; C80)</f>
+        <v>AppTaskBase.170=メモリ不足のため処理が失敗しました。\n割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
       </c>
       <c r="H80" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>AppTaskBase.180=Unexpected exception occurred.</v>
+        <f t="shared" ref="H80:H84" si="13" xml:space="preserve"> IF($B80="", "", $B80 &amp; "=" &amp; D80)</f>
+        <v>AppTaskBase.170=Processing failed due to insufficient memory.\nPlease increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
       </c>
       <c r="I80" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>AppTaskBase.180=意外的例外。</v>
+        <f t="shared" ref="I80:I84" si="14" xml:space="preserve"> IF($B80="", "", $B80 &amp; "=" &amp; E80)</f>
+        <v>AppTaskBase.170=由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>AppTaskBase.180=予期せぬ例外が発生しました。</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>AppTaskBase.180=Unexpected exception occurred.</v>
+      </c>
+      <c r="I81" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>AppTaskBase.180=意外的例外。</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="G81" s="4" t="str">
-        <f t="shared" ref="G81" si="12" xml:space="preserve"> IF($B81="", "", $B81 &amp; "=" &amp; C81)</f>
+      <c r="G82" s="4" t="str">
+        <f t="shared" ref="G82" si="15" xml:space="preserve"> IF($B82="", "", $B82 &amp; "=" &amp; C82)</f>
         <v>AppTaskBase.190=フォルダのロードに失敗しました。</v>
       </c>
-      <c r="H81" s="5" t="str">
-        <f t="shared" ref="H81" si="13" xml:space="preserve"> IF($B81="", "", $B81 &amp; "=" &amp; D81)</f>
+      <c r="H82" s="5" t="str">
+        <f t="shared" ref="H82" si="16" xml:space="preserve"> IF($B82="", "", $B82 &amp; "=" &amp; D82)</f>
         <v>AppTaskBase.190=Failed to load directories.</v>
       </c>
-      <c r="I81" s="6" t="str">
-        <f t="shared" ref="I81" si="14" xml:space="preserve"> IF($B81="", "", $B81 &amp; "=" &amp; E81)</f>
+      <c r="I82" s="6" t="str">
+        <f t="shared" ref="I82" si="17" xml:space="preserve"> IF($B82="", "", $B82 &amp; "=" &amp; E82)</f>
         <v>AppTaskBase.190=无法加载文件夹。</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="2"/>
-      <c r="C82" s="3"/>
-      <c r="G82" s="4" t="str">
+    <row r="83" spans="2:9">
+      <c r="B83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H83" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I83" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
+      </c>
+      <c r="H84" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareBooksTask.010=Starting comparing books.</v>
+      </c>
+      <c r="I84" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareBooksTask.010=开始互相比较工作簿。</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>CompareBooksTask.020=Pairing sheets...</v>
+      </c>
+      <c r="I85" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
+      </c>
+      <c r="H86" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>CompareBooksTask.030=Failed to pair sheets.</v>
+      </c>
+      <c r="I86" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>CompareBooksTask.030=确定工作表组合失败。</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="G87" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>CompareBooksTask.040=シートを比較しています...</v>
+      </c>
+      <c r="H87" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>CompareBooksTask.040=Comparing sheets...</v>
+      </c>
+      <c r="I87" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>CompareBooksTask.040=比较工作表...</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
+      </c>
+      <c r="H88" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>CompareBooksTask.050=Failed to compare sheets.</v>
+      </c>
+      <c r="I88" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>CompareBooksTask.050=工作表比较失败。</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="G89" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H82" s="5" t="str">
+      <c r="H89" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I82" s="6" t="str">
+      <c r="I89" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="G83" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
-      </c>
-      <c r="H83" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareBooksTask.010=Starting comparing books.</v>
-      </c>
-      <c r="I83" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareBooksTask.010=开始互相比较工作簿。</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="G84" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
-      </c>
-      <c r="H84" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareBooksTask.020=Pairing sheets...</v>
-      </c>
-      <c r="I84" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="G85" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
-      </c>
-      <c r="H85" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareBooksTask.030=Failed to pair sheets.</v>
-      </c>
-      <c r="I85" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareBooksTask.030=确定工作表组合失败。</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="G86" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareBooksTask.040=シートを比較しています...</v>
-      </c>
-      <c r="H86" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareBooksTask.040=Comparing sheets...</v>
-      </c>
-      <c r="I86" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareBooksTask.040=比较工作表...</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="G87" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
-      </c>
-      <c r="H87" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareBooksTask.050=Failed to compare sheets.</v>
-      </c>
-      <c r="I87" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareBooksTask.050=工作表比较失败。</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="2"/>
-      <c r="C88" s="3"/>
-      <c r="G88" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H88" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I88" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="G89" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
-      </c>
-      <c r="H89" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareDirsTask.010=Starting comparing folders.</v>
-      </c>
-      <c r="I89" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareDirsTask.010=开始互相比较文件夹。</v>
-      </c>
-    </row>
     <row r="90" spans="2:9">
       <c r="B90" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>267</v>
+        <v>433</v>
       </c>
       <c r="G90" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
+        <f t="shared" si="9"/>
+        <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
       </c>
       <c r="H90" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareDirsTask.020=Failed to create output directory.</v>
+        <f t="shared" si="10"/>
+        <v>CompareDirsTask.010=Starting comparing folders.</v>
       </c>
       <c r="I90" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
+        <f t="shared" si="11"/>
+        <v>CompareDirsTask.010=开始互相比较文件夹。</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>434</v>
+        <v>267</v>
       </c>
       <c r="G91" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
+        <f t="shared" si="9"/>
+        <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
       </c>
       <c r="H91" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareDirsTask.030=Pairing books...</v>
+        <f t="shared" si="10"/>
+        <v>CompareDirsTask.020=Failed to create output directory.</v>
       </c>
       <c r="I91" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
+        <f t="shared" si="11"/>
+        <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G92" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
+        <f t="shared" si="9"/>
+        <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
       </c>
       <c r="H92" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareDirsTask.040=Failed to pair books.</v>
+        <f t="shared" si="10"/>
+        <v>CompareDirsTask.030=Pairing books...</v>
       </c>
       <c r="I92" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareDirsTask.040=确定工作簿组合失败。</v>
+        <f t="shared" si="11"/>
+        <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G93" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareDirsTask.050=Excelブックを比較しています...</v>
+        <f t="shared" si="9"/>
+        <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
       </c>
       <c r="H93" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareDirsTask.050=Comparing books...</v>
+        <f t="shared" si="10"/>
+        <v>CompareDirsTask.040=Failed to pair books.</v>
       </c>
       <c r="I93" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareDirsTask.050=比较工作簿...</v>
+        <f t="shared" si="11"/>
+        <v>CompareDirsTask.040=确定工作簿组合失败。</v>
       </c>
     </row>
     <row r="94" spans="2:9">
       <c r="B94" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="G94" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareDirsTask.060=★失敗しました</v>
+        <f t="shared" si="9"/>
+        <v>CompareDirsTask.050=Excelブックを比較しています...</v>
       </c>
       <c r="H94" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareDirsTask.060=★Failed</v>
+        <f t="shared" si="10"/>
+        <v>CompareDirsTask.050=Comparing books...</v>
       </c>
       <c r="I94" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareDirsTask.060=★失败</v>
+        <f t="shared" si="11"/>
+        <v>CompareDirsTask.050=比较工作簿...</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="7" t="s">
-        <v>329</v>
+        <v>232</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>338</v>
+        <v>427</v>
       </c>
       <c r="G95" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareDirsTask.070=(比較対象ファイルなし)</v>
+        <f t="shared" si="9"/>
+        <v>CompareDirsTask.060=★失敗しました</v>
       </c>
       <c r="H95" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareDirsTask.070=(No files to compare)</v>
+        <f t="shared" si="10"/>
+        <v>CompareDirsTask.060=★Failed</v>
       </c>
       <c r="I95" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareDirsTask.070=(没有可比较的文件)</v>
+        <f t="shared" si="11"/>
+        <v>CompareDirsTask.060=★失败</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G96" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>CompareDirsTask.070=(比較対象ファイルなし)</v>
+      </c>
+      <c r="H96" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>CompareDirsTask.070=(No files to compare)</v>
+      </c>
+      <c r="I96" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>CompareDirsTask.070=(没有可比较的文件)</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E97" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="G96" s="4" t="str">
-        <f t="shared" ref="G96" si="15" xml:space="preserve"> IF($B96="", "", $B96 &amp; "=" &amp; C96)</f>
+      <c r="G97" s="4" t="str">
+        <f t="shared" ref="G97" si="18" xml:space="preserve"> IF($B97="", "", $B97 &amp; "=" &amp; C97)</f>
         <v>CompareDirsTask.080=フォルダの比較に失敗しました。</v>
       </c>
-      <c r="H96" s="5" t="str">
-        <f t="shared" ref="H96" si="16" xml:space="preserve"> IF($B96="", "", $B96 &amp; "=" &amp; D96)</f>
+      <c r="H97" s="5" t="str">
+        <f t="shared" ref="H97" si="19" xml:space="preserve"> IF($B97="", "", $B97 &amp; "=" &amp; D97)</f>
         <v>CompareDirsTask.080=Failed to compare folders.</v>
       </c>
-      <c r="I96" s="6" t="str">
-        <f t="shared" ref="I96" si="17" xml:space="preserve"> IF($B96="", "", $B96 &amp; "=" &amp; E96)</f>
+      <c r="I97" s="6" t="str">
+        <f t="shared" ref="I97" si="20" xml:space="preserve"> IF($B97="", "", $B97 &amp; "=" &amp; E97)</f>
         <v>CompareDirsTask.080=文件夹比较失败。</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="2"/>
-      <c r="C97" s="3"/>
-      <c r="G97" s="4" t="str">
-        <f t="shared" si="6"/>
+    <row r="98" spans="2:9">
+      <c r="B98" s="2"/>
+      <c r="C98" s="3"/>
+      <c r="G98" s="4" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H97" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H98" s="5" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I97" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I98" s="6" t="str">
+        <f t="shared" si="11"/>
         <v/>
-      </c>
-    </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="G98" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
-      </c>
-      <c r="H98" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareSheetsTask.010=Starting comparing sheets.</v>
-      </c>
-      <c r="I98" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>153</v>
+        <v>258</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G99" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareSheetsTask.020=シートを比較しています...</v>
+        <f t="shared" si="9"/>
+        <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
       </c>
       <c r="H99" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareSheetsTask.020=Comparing sheets...</v>
+        <f t="shared" si="10"/>
+        <v>CompareSheetsTask.010=Starting comparing sheets.</v>
       </c>
       <c r="I99" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareSheetsTask.020=比较工作表...</v>
+        <f t="shared" si="11"/>
+        <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>CompareSheetsTask.020=シートを比較しています...</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>CompareSheetsTask.020=Comparing sheets...</v>
+      </c>
+      <c r="I100" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>CompareSheetsTask.020=比较工作表...</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="B101" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="G100" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="G101" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
       </c>
-      <c r="H100" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H101" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>CompareSheetsTask.030=Failed to compare sheets.</v>
       </c>
-      <c r="I100" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I101" s="6" t="str">
+        <f t="shared" si="11"/>
         <v>CompareSheetsTask.030=工作表比较失败。</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="2"/>
-      <c r="C101" s="3"/>
-      <c r="G101" s="4" t="str">
-        <f t="shared" si="6"/>
+    <row r="102" spans="2:9">
+      <c r="B102" s="2"/>
+      <c r="C102" s="3"/>
+      <c r="G102" s="4" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H101" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I101" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I102" s="6" t="str">
+        <f t="shared" si="11"/>
         <v/>
-      </c>
-    </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="G102" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
-      </c>
-      <c r="H102" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareTreesTask.010=Starting comparing folder trees.</v>
-      </c>
-      <c r="I102" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
       </c>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G103" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
+        <f t="shared" si="9"/>
+        <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
       </c>
       <c r="H103" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareTreesTask.020=Pairing folders...</v>
+        <f t="shared" si="10"/>
+        <v>CompareTreesTask.010=Starting comparing folder trees.</v>
       </c>
       <c r="I103" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
+        <f t="shared" si="11"/>
+        <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
       </c>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G104" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
+        <f t="shared" si="9"/>
+        <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
       </c>
       <c r="H104" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareTreesTask.030=Failed to pair folders.</v>
+        <f t="shared" si="10"/>
+        <v>CompareTreesTask.020=Pairing folders...</v>
       </c>
       <c r="I104" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareTreesTask.030=确定文件夹组合失败。</v>
+        <f t="shared" si="11"/>
+        <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G105" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
+        <f t="shared" si="9"/>
+        <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
       </c>
       <c r="H105" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareTreesTask.040=Comparing folders...</v>
+        <f t="shared" si="10"/>
+        <v>CompareTreesTask.030=Failed to pair folders.</v>
       </c>
       <c r="I105" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareTreesTask.040=比较文件夹...</v>
+        <f t="shared" si="11"/>
+        <v>CompareTreesTask.030=确定文件夹组合失败。</v>
       </c>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>264</v>
+        <v>328</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="G106" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareTreesTask.050=★失敗しました</v>
+        <f t="shared" si="9"/>
+        <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
       </c>
       <c r="H106" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareTreesTask.050=★Failed</v>
+        <f t="shared" si="10"/>
+        <v>CompareTreesTask.040=Comparing folders...</v>
       </c>
       <c r="I106" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareTreesTask.050=★失败</v>
+        <f t="shared" si="11"/>
+        <v>CompareTreesTask.040=比较文件夹...</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G107" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>CompareTreesTask.050=★失敗しました</v>
+      </c>
+      <c r="H107" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>CompareTreesTask.050=★Failed</v>
+      </c>
+      <c r="I107" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>CompareTreesTask.050=★失败</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="B108" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E108" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G107" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="G108" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>CompareTreesTask.060=(比較対象ファイルなし)</v>
       </c>
-      <c r="H107" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H108" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>CompareTreesTask.060=(No files to compare)</v>
       </c>
-      <c r="I107" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I108" s="6" t="str">
+        <f t="shared" si="11"/>
         <v>CompareTreesTask.060=(没有可比较的文件)</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="G108" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareTreesTask.070=比較結果Excelブックを保存しています...</v>
-      </c>
-      <c r="H108" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareTreesTask.070=Saving result book...</v>
-      </c>
-      <c r="I108" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareTreesTask.070=存储比较结果工作簿...</v>
       </c>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G109" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
+        <f t="shared" si="9"/>
+        <v>CompareTreesTask.070=比較結果Excelブックを保存しています...</v>
       </c>
       <c r="H109" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareTreesTask.080=Failed to save result book.</v>
+        <f t="shared" si="10"/>
+        <v>CompareTreesTask.070=Saving result book...</v>
       </c>
       <c r="I109" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
+        <f t="shared" si="11"/>
+        <v>CompareTreesTask.070=存储比较结果工作簿...</v>
       </c>
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="G110" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
+        <f t="shared" si="9"/>
+        <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
       </c>
       <c r="H110" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareTreesTask.090=Opening result book...</v>
+        <f t="shared" si="10"/>
+        <v>CompareTreesTask.080=Failed to save result book.</v>
       </c>
       <c r="I110" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareTreesTask.090=显示比较结果工作簿...</v>
+        <f t="shared" si="11"/>
+        <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
       </c>
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>445</v>
+        <v>352</v>
       </c>
       <c r="G111" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>CompareTreesTask.100=比較結果Excelブックの表示に失敗しました。</v>
+        <f t="shared" si="9"/>
+        <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
       </c>
       <c r="H111" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>CompareTreesTask.100=Failed to open result book.</v>
+        <f t="shared" si="10"/>
+        <v>CompareTreesTask.090=Opening result book...</v>
       </c>
       <c r="I111" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>CompareTreesTask.100=显示比较结果工作簿失败。</v>
+        <f t="shared" si="11"/>
+        <v>CompareTreesTask.090=显示比较结果工作簿...</v>
       </c>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>CompareTreesTask.100=比較結果Excelブックの表示に失敗しました。</v>
+      </c>
+      <c r="H112" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>CompareTreesTask.100=Failed to open result book.</v>
+      </c>
+      <c r="I112" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>CompareTreesTask.100=显示比较结果工作簿失败。</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="B113" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E113" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="G112" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="G113" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>CompareTreesTask.110=フォルダツリーの比較に失敗しました。</v>
       </c>
-      <c r="H112" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H113" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>CompareTreesTask.110=Failed to compare folder trees.</v>
       </c>
-      <c r="I112" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I113" s="6" t="str">
+        <f t="shared" si="11"/>
         <v>CompareTreesTask.110=文件夹比较失败。</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
-      <c r="B113" s="2"/>
-      <c r="C113" s="3"/>
-      <c r="G113" s="4" t="str">
-        <f t="shared" si="6"/>
+    <row r="114" spans="2:9">
+      <c r="B114" s="2"/>
+      <c r="C114" s="3"/>
+      <c r="G114" s="4" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H113" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H114" s="5" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I113" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I114" s="6" t="str">
+        <f t="shared" si="11"/>
         <v/>
-      </c>
-    </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="G114" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.BResult.010=(比較相手なし)</v>
-      </c>
-      <c r="H114" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.BResult.010=(no opponent)</v>
-      </c>
-      <c r="I114" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.BResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="115" spans="2:9">
       <c r="B115" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G115" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>excel.BResult.010=(比較相手なし)</v>
+      </c>
+      <c r="H115" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>excel.BResult.010=(no opponent)</v>
+      </c>
+      <c r="I115" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>excel.BResult.010=(没有对比)</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E116" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="G115" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="G116" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>excel.BResult.020=(差分なし)</v>
       </c>
-      <c r="H115" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H116" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>excel.BResult.020=(no diffs)</v>
       </c>
-      <c r="I115" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I116" s="6" t="str">
+        <f t="shared" si="11"/>
         <v>excel.BResult.020=(没有区别)</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9">
-      <c r="B116" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="G116" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.BResult.030=差異発生%dシート</v>
-      </c>
-      <c r="H116" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.BResult.030=diff sheets:%d</v>
-      </c>
-      <c r="I116" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
     <row r="117" spans="2:9">
       <c r="B117" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>274</v>
+        <v>448</v>
       </c>
       <c r="G117" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.BResult.040=余剰%dシート</v>
+        <f t="shared" si="9"/>
+        <v>excel.BResult.030=差異発生%dシート</v>
       </c>
       <c r="H117" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.BResult.040=redundant sheets:%d</v>
+        <f t="shared" si="10"/>
+        <v>excel.BResult.030=diff sheets:%d</v>
       </c>
       <c r="I117" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.BResult.040=冗余工作表%d</v>
+        <f t="shared" si="11"/>
+        <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
     <row r="118" spans="2:9">
       <c r="B118" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>252</v>
+        <v>95</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>369</v>
+        <v>274</v>
       </c>
       <c r="G118" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
+        <f t="shared" si="9"/>
+        <v>excel.BResult.040=余剰%dシート</v>
       </c>
       <c r="H118" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">excel.BResult.050=Book %s : </v>
+        <f t="shared" si="10"/>
+        <v>excel.BResult.040=redundant sheets:%d</v>
       </c>
       <c r="I118" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.BResult.050=工作簿%s：</v>
+        <f t="shared" si="11"/>
+        <v>excel.BResult.040=冗余工作表%d</v>
       </c>
     </row>
     <row r="119" spans="2:9">
       <c r="B119" s="7" t="s">
-        <v>241</v>
+        <v>97</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>96</v>
+        <v>252</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>185</v>
+        <v>369</v>
       </c>
       <c r="G119" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
       </c>
       <c r="H119" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">excel.BResult.050=Book %s : </v>
       </c>
       <c r="I119" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
+        <f t="shared" si="11"/>
+        <v>excel.BResult.050=工作簿%s：</v>
       </c>
     </row>
     <row r="120" spans="2:9">
       <c r="B120" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
+      </c>
+      <c r="H120" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
+      </c>
+      <c r="I120" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E121" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G120" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="G121" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H120" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H121" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I120" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I121" s="6" t="str">
+        <f t="shared" si="11"/>
         <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="121" spans="2:9">
-      <c r="G121" s="4" t="str">
-        <f t="shared" si="6"/>
+    <row r="122" spans="2:9">
+      <c r="G122" s="4" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H121" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H122" s="5" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I121" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I122" s="6" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:9">
-      <c r="B122" s="2" t="s">
+    <row r="123" spans="2:9">
+      <c r="B123" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E123" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="G122" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="G123" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
       </c>
-      <c r="H122" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H123" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
       </c>
-      <c r="I122" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I123" s="6" t="str">
+        <f t="shared" si="11"/>
         <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
       </c>
     </row>
-    <row r="123" spans="2:9">
-      <c r="G123" s="4" t="str">
-        <f t="shared" si="6"/>
+    <row r="124" spans="2:9">
+      <c r="G124" s="4" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H123" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H124" s="5" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I123" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I124" s="6" t="str">
+        <f t="shared" si="11"/>
         <v/>
-      </c>
-    </row>
-    <row r="124" spans="2:9">
-      <c r="B124" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="G124" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.DResult.010=(比較相手なし)</v>
-      </c>
-      <c r="H124" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.DResult.010=(no opponent)</v>
-      </c>
-      <c r="I124" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="125" spans="2:9">
       <c r="B125" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>275</v>
+        <v>243</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G125" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
+        <f t="shared" si="9"/>
+        <v>excel.DResult.010=(比較相手なし)</v>
       </c>
       <c r="H125" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
+        <f t="shared" si="10"/>
+        <v>excel.DResult.010=(no opponent)</v>
       </c>
       <c r="I125" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
+        <f t="shared" si="11"/>
+        <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="126" spans="2:9">
       <c r="B126" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>96</v>
+        <v>244</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>185</v>
+        <v>451</v>
       </c>
       <c r="G126" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
       </c>
       <c r="H126" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
       </c>
       <c r="I126" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
       </c>
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>449</v>
+        <v>185</v>
       </c>
       <c r="G127" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
+        <f t="shared" si="9"/>
+        <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
       <c r="H127" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
+        <f t="shared" si="10"/>
+        <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
       <c r="I127" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
+        <f t="shared" si="11"/>
+        <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="128" spans="2:9">
       <c r="B128" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="G128" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.DResult.050=★失敗しました</v>
+        <f t="shared" si="9"/>
+        <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
       <c r="H128" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.DResult.050=★Failed</v>
+        <f t="shared" si="10"/>
+        <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
       <c r="I128" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.DResult.050=★失败</v>
+        <f t="shared" si="11"/>
+        <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="129" spans="2:9">
       <c r="B129" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G129" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>excel.DResult.050=★失敗しました</v>
+      </c>
+      <c r="H129" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>excel.DResult.050=★Failed</v>
+      </c>
+      <c r="I129" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>excel.DResult.050=★失败</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9">
+      <c r="B130" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E130" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="G129" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="G130" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>excel.DResult.060=(差分なし)</v>
       </c>
-      <c r="H129" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H130" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>excel.DResult.060=(no diffs)</v>
       </c>
-      <c r="I129" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I130" s="6" t="str">
+        <f t="shared" si="11"/>
         <v>excel.DResult.060=(没有区别)</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9">
-      <c r="B130" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="G130" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.DResult.070=差異発生%dブック</v>
-      </c>
-      <c r="H130" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.DResult.070=diff books:%d</v>
-      </c>
-      <c r="I130" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.DResult.070=差异工作簿%d</v>
       </c>
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>332</v>
+        <v>452</v>
       </c>
       <c r="G131" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.DResult.080=余剰%dブック</v>
+        <f t="shared" si="9"/>
+        <v>excel.DResult.070=差異発生%dブック</v>
       </c>
       <c r="H131" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.DResult.080=redundant books:%d</v>
+        <f t="shared" si="10"/>
+        <v>excel.DResult.070=diff books:%d</v>
       </c>
       <c r="I131" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.DResult.080=冗余工作簿%d</v>
+        <f t="shared" si="11"/>
+        <v>excel.DResult.070=差异工作簿%d</v>
       </c>
     </row>
     <row r="132" spans="2:9">
       <c r="B132" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G132" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.DResult.090=比較失敗%dブック</v>
+        <f t="shared" si="9"/>
+        <v>excel.DResult.080=余剰%dブック</v>
       </c>
       <c r="H132" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.DResult.090=failed books:%d</v>
+        <f t="shared" si="10"/>
+        <v>excel.DResult.080=redundant books:%d</v>
       </c>
       <c r="I132" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.DResult.090=失败工作簿%d</v>
+        <f t="shared" si="11"/>
+        <v>excel.DResult.080=冗余工作簿%d</v>
       </c>
     </row>
     <row r="133" spans="2:9">
       <c r="B133" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G133" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>excel.DResult.090=比較失敗%dブック</v>
+      </c>
+      <c r="H133" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>excel.DResult.090=failed books:%d</v>
+      </c>
+      <c r="I133" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>excel.DResult.090=失败工作簿%d</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="B134" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D134" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E134" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G133" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="G134" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>excel.DResult.100=(比較対象ファイルなし)</v>
       </c>
-      <c r="H133" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H134" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>excel.DResult.100=(No files to compare)</v>
       </c>
-      <c r="I133" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I134" s="6" t="str">
+        <f t="shared" si="11"/>
         <v>excel.DResult.100=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="134" spans="2:9">
-      <c r="G134" s="4" t="str">
-        <f t="shared" si="6"/>
+    <row r="135" spans="2:9">
+      <c r="G135" s="4" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H134" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H135" s="5" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I134" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I135" s="6" t="str">
+        <f t="shared" si="11"/>
         <v/>
-      </c>
-    </row>
-    <row r="135" spans="2:9">
-      <c r="B135" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G135" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.SheetType.010=ワークシート</v>
-      </c>
-      <c r="H135" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.SheetType.010=Worksheet</v>
-      </c>
-      <c r="I135" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
     <row r="136" spans="2:9">
       <c r="B136" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>453</v>
+        <v>186</v>
       </c>
       <c r="G136" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.SheetType.020=グラフシート</v>
+        <f t="shared" si="9"/>
+        <v>excel.SheetType.010=ワークシート</v>
       </c>
       <c r="H136" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.SheetType.020=Chart</v>
+        <f t="shared" si="10"/>
+        <v>excel.SheetType.010=Worksheet</v>
       </c>
       <c r="I136" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.SheetType.020=图表表</v>
+        <f t="shared" si="11"/>
+        <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G137" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
+        <f t="shared" si="9"/>
+        <v>excel.SheetType.020=グラフシート</v>
       </c>
       <c r="H137" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
+        <f t="shared" si="10"/>
+        <v>excel.SheetType.020=Chart</v>
       </c>
       <c r="I137" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
+        <f t="shared" si="11"/>
+        <v>excel.SheetType.020=图表表</v>
       </c>
     </row>
     <row r="138" spans="2:9">
       <c r="B138" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G138" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
+      </c>
+      <c r="H138" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
+      </c>
+      <c r="I138" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="B139" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C139" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D139" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E139" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G138" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="G139" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
       </c>
-      <c r="H138" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H139" s="5" t="str">
+        <f t="shared" si="10"/>
         <v>excel.SheetType.040=Excel 4.0 Macro</v>
       </c>
-      <c r="I138" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I139" s="6" t="str">
+        <f t="shared" si="11"/>
         <v>excel.SheetType.040=Excel 4.0 宏表</v>
       </c>
     </row>
-    <row r="139" spans="2:9">
-      <c r="B139" s="2"/>
-      <c r="C139" s="3"/>
-      <c r="G139" s="4" t="str">
-        <f t="shared" si="6"/>
+    <row r="140" spans="2:9">
+      <c r="B140" s="2"/>
+      <c r="C140" s="3"/>
+      <c r="G140" s="4" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H139" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H140" s="5" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I139" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="I140" s="6" t="str">
+        <f t="shared" si="11"/>
         <v/>
-      </c>
-    </row>
-    <row r="140" spans="2:9">
-      <c r="B140" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="G140" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>excel.SResult.010=(差分なし)</v>
-      </c>
-      <c r="H140" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>excel.SResult.010=(no diffs)</v>
-      </c>
-      <c r="I140" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
     <row r="141" spans="2:9">
       <c r="B141" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>188</v>
+        <v>447</v>
       </c>
       <c r="G141" s="4" t="str">
-        <f t="shared" ref="G141:G154" si="18" xml:space="preserve"> IF($B141="", "", $B141 &amp; "=" &amp; C141)</f>
-        <v>excel.SResult.020=余剰行%d</v>
+        <f t="shared" si="9"/>
+        <v>excel.SResult.010=(差分なし)</v>
       </c>
       <c r="H141" s="5" t="str">
-        <f t="shared" ref="H141:H154" si="19" xml:space="preserve"> IF($B141="", "", $B141 &amp; "=" &amp; D141)</f>
-        <v>excel.SResult.020=redundant rows:%d</v>
+        <f t="shared" si="10"/>
+        <v>excel.SResult.010=(no diffs)</v>
       </c>
       <c r="I141" s="6" t="str">
-        <f t="shared" ref="I141:I154" si="20" xml:space="preserve"> IF($B141="", "", $B141 &amp; "=" &amp; E141)</f>
-        <v>excel.SResult.020=冗余行%d</v>
+        <f t="shared" si="11"/>
+        <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
     <row r="142" spans="2:9">
       <c r="B142" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G142" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>excel.SResult.030=余剰列%d</v>
+        <f t="shared" ref="G142:G155" si="21" xml:space="preserve"> IF($B142="", "", $B142 &amp; "=" &amp; C142)</f>
+        <v>excel.SResult.020=余剰行%d</v>
       </c>
       <c r="H142" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>excel.SResult.030=redundant columns:%d</v>
+        <f t="shared" ref="H142:H155" si="22" xml:space="preserve"> IF($B142="", "", $B142 &amp; "=" &amp; D142)</f>
+        <v>excel.SResult.020=redundant rows:%d</v>
       </c>
       <c r="I142" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>excel.SResult.030=冗余列%d</v>
+        <f t="shared" ref="I142:I155" si="23" xml:space="preserve"> IF($B142="", "", $B142 &amp; "=" &amp; E142)</f>
+        <v>excel.SResult.020=冗余行%d</v>
       </c>
     </row>
     <row r="143" spans="2:9">
       <c r="B143" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>455</v>
+        <v>189</v>
       </c>
       <c r="G143" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>excel.SResult.040=差分セル%d</v>
+        <f t="shared" si="21"/>
+        <v>excel.SResult.030=余剰列%d</v>
       </c>
       <c r="H143" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>excel.SResult.040=diff cells:%d</v>
+        <f t="shared" si="22"/>
+        <v>excel.SResult.030=redundant columns:%d</v>
       </c>
       <c r="I143" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>excel.SResult.040=差异单元格%d</v>
+        <f t="shared" si="23"/>
+        <v>excel.SResult.030=冗余列%d</v>
       </c>
     </row>
     <row r="144" spans="2:9">
       <c r="B144" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>370</v>
+        <v>115</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>277</v>
+        <v>176</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>280</v>
+        <v>455</v>
       </c>
       <c r="G144" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
+        <f t="shared" si="21"/>
+        <v>excel.SResult.040=差分セル%d</v>
       </c>
       <c r="H144" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
+        <f t="shared" si="22"/>
+        <v>excel.SResult.040=diff cells:%d</v>
       </c>
       <c r="I144" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
+        <f t="shared" si="23"/>
+        <v>excel.SResult.040=差异单元格%d</v>
       </c>
     </row>
     <row r="145" spans="2:9">
       <c r="B145" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>118</v>
+        <v>370</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="G145" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>excel.SResult.060=行%d</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
       </c>
       <c r="H145" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>excel.SResult.060=Row %d</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
       </c>
       <c r="I145" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>excel.SResult.060=行%d</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
       </c>
     </row>
     <row r="146" spans="2:9">
       <c r="B146" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>371</v>
+        <v>118</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>281</v>
+        <v>118</v>
       </c>
       <c r="G146" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
+        <f t="shared" si="21"/>
+        <v>excel.SResult.060=行%d</v>
       </c>
       <c r="H146" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
+        <f t="shared" si="22"/>
+        <v>excel.SResult.060=Row %d</v>
       </c>
       <c r="I146" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
+        <f t="shared" si="23"/>
+        <v>excel.SResult.060=行%d</v>
       </c>
     </row>
     <row r="147" spans="2:9">
       <c r="B147" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>121</v>
+        <v>371</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c r="G147" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>excel.SResult.080=%s列</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
       </c>
       <c r="H147" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>excel.SResult.080=Column %s</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
       </c>
       <c r="I147" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>excel.SResult.080=%s列</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
       </c>
     </row>
     <row r="148" spans="2:9">
       <c r="B148" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G148" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>excel.SResult.080=%s列</v>
+      </c>
+      <c r="H148" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>excel.SResult.080=Column %s</v>
+      </c>
+      <c r="I148" s="6" t="str">
+        <f t="shared" si="23"/>
+        <v>excel.SResult.080=%s列</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="B149" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E149" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G148" s="4" t="str">
-        <f t="shared" si="18"/>
+      <c r="G149" s="4" t="str">
+        <f t="shared" si="21"/>
         <v xml:space="preserve">excel.SResult.090=差分セル : </v>
       </c>
-      <c r="H148" s="5" t="str">
-        <f t="shared" si="19"/>
+      <c r="H149" s="5" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve">excel.SResult.090=Diff cells : </v>
       </c>
-      <c r="I148" s="6" t="str">
-        <f t="shared" si="20"/>
+      <c r="I149" s="6" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">excel.SResult.090=差异单元格 : </v>
       </c>
     </row>
-    <row r="149" spans="2:9">
-      <c r="G149" s="4" t="str">
-        <f t="shared" si="18"/>
+    <row r="150" spans="2:9">
+      <c r="G150" s="4" t="str">
+        <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="H149" s="5" t="str">
-        <f t="shared" si="19"/>
+      <c r="H150" s="5" t="str">
+        <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="I149" s="6" t="str">
-        <f t="shared" si="20"/>
+      <c r="I150" s="6" t="str">
+        <f t="shared" si="23"/>
         <v/>
-      </c>
-    </row>
-    <row r="150" spans="2:9">
-      <c r="B150" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="G150" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>excel.TreeResult.010=(比較相手なし)</v>
-      </c>
-      <c r="H150" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>excel.TreeResult.010=(no opponent)</v>
-      </c>
-      <c r="I150" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>excel.TreeResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="151" spans="2:9">
       <c r="B151" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>336</v>
+        <v>165</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G151" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
+        <f t="shared" si="21"/>
+        <v>excel.TreeResult.010=(比較相手なし)</v>
       </c>
       <c r="H151" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
+        <f t="shared" si="22"/>
+        <v>excel.TreeResult.010=(no opponent)</v>
       </c>
       <c r="I151" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
+        <f t="shared" si="23"/>
+        <v>excel.TreeResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="152" spans="2:9">
       <c r="B152" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>96</v>
+        <v>320</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>167</v>
+        <v>336</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>185</v>
+        <v>457</v>
       </c>
       <c r="G152" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
       </c>
       <c r="H152" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
       </c>
       <c r="I152" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
       </c>
     </row>
     <row r="153" spans="2:9">
       <c r="B153" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>449</v>
+        <v>185</v>
       </c>
       <c r="G153" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
+        <f t="shared" si="21"/>
+        <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
       <c r="H153" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
+        <f t="shared" si="22"/>
+        <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
       <c r="I153" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
+        <f t="shared" si="23"/>
+        <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="154" spans="2:9">
       <c r="B154" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="G154" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
+      </c>
+      <c r="H154" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
+      </c>
+      <c r="I154" s="6" t="str">
+        <f t="shared" si="23"/>
+        <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9">
+      <c r="B155" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C155" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="E155" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G154" s="4" t="str">
-        <f t="shared" si="18"/>
+      <c r="G155" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>excel.TreeResult.050=★失敗しました</v>
       </c>
-      <c r="H154" s="5" t="str">
-        <f t="shared" si="19"/>
+      <c r="H155" s="5" t="str">
+        <f t="shared" si="22"/>
         <v>excel.TreeResult.050=★Failed</v>
       </c>
-      <c r="I154" s="6" t="str">
-        <f t="shared" si="20"/>
+      <c r="I155" s="6" t="str">
+        <f t="shared" si="23"/>
         <v>excel.TreeResult.050=★失败</v>
       </c>
     </row>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E63FCF-8295-4723-ACAB-0F0431AC2D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009FE7A4-142F-4DBE-8C6B-D190CF27E0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="497">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -1873,6 +1873,31 @@
   </si>
   <si>
     <t>无法读取文件夹：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.EditPairingPane.010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組み合わせ編集</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Edit Pairing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>组合编辑</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2311,7 +2336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I155"/>
+  <dimension ref="B1:I156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2392,15 +2417,15 @@
         <v>3</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G72" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
+        <f t="shared" ref="G3:G73" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H72" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
+        <f t="shared" ref="H3:H73" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I72" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
+        <f t="shared" ref="I3:I73" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
     </row>
@@ -3107,3087 +3132,3113 @@
       </c>
     </row>
     <row r="31" spans="2:9">
+      <c r="B31" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>496</v>
+      </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>fx.EditPairingPane.010=組み合わせ編集</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>fx.EditPairingPane.010=Edit Pairing</v>
+      </c>
+      <c r="I31" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>fx.EditPairingPane.010=组合编辑</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="G32" s="4" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="5" t="str">
+      <c r="H32" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I31" s="6" t="str">
+      <c r="I32" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="G32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.010=比較フォルダ%s：</v>
-      </c>
-      <c r="H32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.010=Folder %s : </v>
-      </c>
-      <c r="I32" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.010=文件夹%s：</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.010=比較フォルダ%s：</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.010=Folder %s : </v>
+      </c>
+      <c r="I33" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.010=文件夹%s：</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="G33" s="4" t="str">
+      <c r="G34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>excel.poi.usermodel.TreeResultBookCreator.020=作業用フォルダ：</v>
       </c>
-      <c r="H33" s="5" t="str">
+      <c r="H34" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.020=working dir : </v>
       </c>
-      <c r="I33" s="6" t="str">
+      <c r="I34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>excel.poi.usermodel.TreeResultBookCreator.020=工作文件夹：</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
-      <c r="G34" s="4" t="str">
+    <row r="35" spans="2:9">
+      <c r="G35" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H34" s="5" t="str">
+      <c r="H35" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I34" s="6" t="str">
+      <c r="I35" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="G35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.MainController.010=同じフォルダ同士／ブック同士／シート同士を比較することはできません。</v>
-      </c>
-      <c r="H35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.MainController.010=Please specify different folders/books/sheets.</v>
-      </c>
-      <c r="I35" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.MainController.010=指定非相同的文件夹／工作簿／工作表。</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>194</v>
+        <v>60</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
+        <v>gui.MainController.010=同じフォルダ同士／ブック同士／シート同士を比較することはできません。</v>
       </c>
       <c r="H36" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
+        <v>gui.MainController.010=Please specify different folders/books/sheets.</v>
       </c>
       <c r="I36" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
+        <v>gui.MainController.010=指定非相同的文件夹／工作簿／工作表。</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>184</v>
+        <v>404</v>
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.MainController.030=予期せぬ例外が発生しました。</v>
+        <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
       </c>
       <c r="H37" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.MainController.030=Unexpected exception occurred.</v>
+        <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
       </c>
       <c r="I37" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.MainController.030=意外的例外。</v>
+        <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="2" t="s">
-        <v>373</v>
+        <v>62</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>381</v>
+        <v>184</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f t="shared" ref="G38:G42" si="3" xml:space="preserve"> IF($B38="", "", $B38 &amp; "=" &amp; C38)</f>
-        <v>gui.MainController.040=作業用フォルダの作成に失敗しました。</v>
+        <f t="shared" si="0"/>
+        <v>gui.MainController.030=予期せぬ例外が発生しました。</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f t="shared" ref="H38:H42" si="4" xml:space="preserve"> IF($B38="", "", $B38 &amp; "=" &amp; D38)</f>
-        <v>gui.MainController.040=Failed to create working directory.</v>
+        <f t="shared" si="1"/>
+        <v>gui.MainController.030=Unexpected exception occurred.</v>
       </c>
       <c r="I38" s="6" t="str">
-        <f t="shared" ref="I38:I42" si="5" xml:space="preserve"> IF($B38="", "", $B38 &amp; "=" &amp; E38)</f>
-        <v>gui.MainController.040=创建工作文件夹失败。</v>
+        <f t="shared" si="2"/>
+        <v>gui.MainController.030=意外的例外。</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" ref="G39:G43" si="3" xml:space="preserve"> IF($B39="", "", $B39 &amp; "=" &amp; C39)</f>
+        <v>gui.MainController.040=作業用フォルダの作成に失敗しました。</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f t="shared" ref="H39:H43" si="4" xml:space="preserve"> IF($B39="", "", $B39 &amp; "=" &amp; D39)</f>
+        <v>gui.MainController.040=Failed to create working directory.</v>
+      </c>
+      <c r="I39" s="6" t="str">
+        <f t="shared" ref="I39:I43" si="5" xml:space="preserve"> IF($B39="", "", $B39 &amp; "=" &amp; E39)</f>
+        <v>gui.MainController.040=创建工作文件夹失败。</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="G39" s="4" t="str">
+      <c r="G40" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.050=別の場所を指定してください。</v>
       </c>
-      <c r="H39" s="5" t="str">
+      <c r="H40" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.050=Please specify another location.</v>
       </c>
-      <c r="I39" s="6" t="str">
+      <c r="I40" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.050=请指定其他位置。</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="2" t="s">
+    <row r="41" spans="2:9">
+      <c r="B41" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="G40" s="4" t="str">
+      <c r="G41" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.060=作業用フォルダの変更</v>
       </c>
-      <c r="H40" s="5" t="str">
+      <c r="H41" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.060=Change working directory</v>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="I41" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.060=改变工作文件夹</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="2" t="s">
+    <row r="42" spans="2:9">
+      <c r="B42" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="G41" s="4" t="str">
+      <c r="G42" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.070=処理を中止しました。</v>
       </c>
-      <c r="H41" s="5" t="str">
+      <c r="H42" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.070=Processing has been canceled.</v>
       </c>
-      <c r="I41" s="6" t="str">
+      <c r="I42" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.070=处理已被取消。</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="2" t="s">
+    <row r="43" spans="2:9">
+      <c r="B43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G42" s="4" t="str">
+      <c r="G43" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.PasswordDialog.010=パスワード指定</v>
       </c>
-      <c r="H42" s="5" t="str">
+      <c r="H43" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.PasswordDialog.010=Enter Password</v>
       </c>
-      <c r="I42" s="6" t="str">
+      <c r="I43" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.PasswordDialog.010=输入密码</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="2" t="s">
+    <row r="44" spans="2:9">
+      <c r="B44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="G43" s="4" t="str">
+      <c r="G44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.PasswordDialogPane.010=%s はパスワードで保護されています。</v>
       </c>
-      <c r="H43" s="5" t="str">
+      <c r="H44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.PasswordDialogPane.010=The book [%s] is password protected.</v>
       </c>
-      <c r="I43" s="6" t="str">
+      <c r="I44" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.PasswordDialogPane.010=%s 是受密码保护的。</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="G44" s="4" t="str">
+    <row r="45" spans="2:9">
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="G45" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H44" s="5" t="str">
+      <c r="H45" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I44" s="6" t="str">
+      <c r="I45" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="2" t="s">
+    <row r="46" spans="2:9">
+      <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="G45" s="4" t="str">
+      <c r="G46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.LinkPane.010=Webページの表示に失敗しました。ご利用のブラウザでお試しください。</v>
       </c>
-      <c r="H45" s="5" t="str">
+      <c r="H46" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.LinkPane.010=Failed to open the website. Please try using your browser.</v>
       </c>
-      <c r="I45" s="6" t="str">
+      <c r="I46" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.LinkPane.010=网页未能显示。 请尝试使用你的浏览器。</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G46" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
-      </c>
-      <c r="H46" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
-      </c>
-      <c r="I46" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>54</v>
+        <v>198</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
+        <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
       </c>
       <c r="H47" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
+        <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
       </c>
       <c r="I47" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
+        <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="7" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
+        <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
       </c>
       <c r="H48" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.020=Change working directory</v>
+        <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
+        <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G49" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
+        <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
       </c>
       <c r="H49" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
+        <v>gui.component.SettingsPane2.020=Change working directory</v>
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
+        <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
+        <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
       </c>
       <c r="H50" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
+        <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
       </c>
       <c r="I50" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
+        <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="7" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>50</v>
+        <v>412</v>
       </c>
       <c r="G51" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+        <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
       </c>
       <c r="H51" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+        <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+        <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
       <c r="H52" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
       <c r="I52" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>256</v>
+        <v>51</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
       <c r="H53" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>413</v>
+        <v>52</v>
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
       <c r="H54" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
+        <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
       </c>
       <c r="H55" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
+        <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
+        <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>183</v>
+        <v>414</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
+        <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
       </c>
       <c r="H56" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.030=Excel book</v>
+        <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
       </c>
       <c r="I56" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
+        <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>366</v>
+        <v>49</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>356</v>
+        <v>139</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>415</v>
+        <v>183</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
+        <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
       </c>
       <c r="H57" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
+        <v>gui.component.TargetSelectionPane.030=Excel book</v>
       </c>
       <c r="I57" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
+        <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="7" t="s">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.050=シートが見つかりません：</v>
+        <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
       </c>
       <c r="H58" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">gui.component.TargetSelectionPane.050=No such sheet : </v>
+        <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
       </c>
       <c r="I58" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.050=没有找到工作表：</v>
+        <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.component.TargetSelectionPane.050=シートが見つかりません：</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">gui.component.TargetSelectionPane.050=No such sheet : </v>
+      </c>
+      <c r="I59" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.component.TargetSelectionPane.050=没有找到工作表：</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="G59" s="4" t="str">
-        <f t="shared" ref="G59" si="6" xml:space="preserve"> IF($B59="", "", $B59 &amp; "=" &amp; C59)</f>
+      <c r="G60" s="4" t="str">
+        <f t="shared" ref="G60" si="6" xml:space="preserve"> IF($B60="", "", $B60 &amp; "=" &amp; C60)</f>
         <v>gui.component.TargetSelectionPane.060=フォルダを読み込めません：</v>
       </c>
-      <c r="H59" s="5" t="str">
-        <f t="shared" ref="H59" si="7" xml:space="preserve"> IF($B59="", "", $B59 &amp; "=" &amp; D59)</f>
+      <c r="H60" s="5" t="str">
+        <f t="shared" ref="H60" si="7" xml:space="preserve"> IF($B60="", "", $B60 &amp; "=" &amp; D60)</f>
         <v xml:space="preserve">gui.component.TargetSelectionPane.060=Failed to open folder : </v>
       </c>
-      <c r="I59" s="6" t="str">
-        <f t="shared" ref="I59" si="8" xml:space="preserve"> IF($B59="", "", $B59 &amp; "=" &amp; E59)</f>
+      <c r="I60" s="6" t="str">
+        <f t="shared" ref="I60" si="8" xml:space="preserve"> IF($B60="", "", $B60 &amp; "=" &amp; E60)</f>
         <v>gui.component.TargetSelectionPane.060=无法读取文件夹：</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
-      <c r="G60" s="4" t="str">
+    <row r="61" spans="2:9">
+      <c r="G61" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H60" s="5" t="str">
+      <c r="H61" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I60" s="6" t="str">
+      <c r="I61" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppMain.010=方眼Diff</v>
-      </c>
-      <c r="H61" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppMain.010=HoganDiff (方眼Diff)</v>
-      </c>
-      <c r="I61" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppMain.010=方眼Diff</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AppMain.010=方眼Diff</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AppMain.010=HoganDiff (方眼Diff)</v>
+      </c>
+      <c r="I62" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>AppMain.010=方眼Diff</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E63" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="G62" s="4" t="str">
+      <c r="G63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppResource.010=設定の保存に失敗しました。</v>
       </c>
-      <c r="H62" s="5" t="str">
+      <c r="H63" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppResource.010=Failed to save settings.</v>
       </c>
-      <c r="I62" s="6" t="str">
+      <c r="I63" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppResource.010=保存设置失败。</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-      <c r="G63" s="4" t="str">
+    <row r="64" spans="2:9">
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="G64" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H63" s="5" t="str">
+      <c r="H64" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I63" s="6" t="str">
+      <c r="I64" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="G64" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
-      </c>
-      <c r="H64" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.010=Creating working directory...</v>
-      </c>
-      <c r="I64" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.010=创建工作文件夹...</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>380</v>
+        <v>266</v>
       </c>
       <c r="G65" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
+        <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
       </c>
       <c r="H65" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.020=Failed to create working directory.</v>
+        <v>AppTaskBase.010=Creating working directory...</v>
       </c>
       <c r="I65" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.020=创建工作文件夹失败。</v>
+        <v>AppTaskBase.010=创建工作文件夹...</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="G66" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
+        <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
       </c>
       <c r="H66" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.030=Saving result text...</v>
+        <v>AppTaskBase.020=Failed to create working directory.</v>
       </c>
       <c r="I66" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.030=存储比较结果文本...</v>
+        <v>AppTaskBase.020=创建工作文件夹失败。</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G67" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
+        <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
       </c>
       <c r="H67" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.040=Opening result text...</v>
+        <v>AppTaskBase.030=Saving result text...</v>
       </c>
       <c r="I67" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.040=显示比较结果文本...</v>
+        <v>AppTaskBase.030=存储比较结果文本...</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G68" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
+        <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
       </c>
       <c r="H68" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.050=Failed to save or open result text.</v>
+        <v>AppTaskBase.040=Opening result text...</v>
       </c>
       <c r="I68" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
+        <v>AppTaskBase.040=显示比较结果文本...</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G69" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
+        <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
       </c>
       <c r="H69" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.060=Painting and saving result book(s)...</v>
+        <v>AppTaskBase.050=Failed to save or open result text.</v>
       </c>
       <c r="I69" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.060=着色和存储在工作簿...</v>
+        <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G70" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
+        <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
       </c>
       <c r="H70" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
+        <v>AppTaskBase.060=Painting and saving result book(s)...</v>
       </c>
       <c r="I70" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.070=着色和保存工作簿失败。</v>
+        <v>AppTaskBase.060=着色和存储在工作簿...</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G71" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
+        <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
       </c>
       <c r="H71" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.080=Opening result book(s)...</v>
+        <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
       </c>
       <c r="I71" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.080=显示比较结果的工作簿...</v>
+        <v>AppTaskBase.070=着色和保存工作簿失败。</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G72" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
+        <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
       </c>
       <c r="H72" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.090=Failed to open result book(s).</v>
+        <v>AppTaskBase.080=Opening result book(s)...</v>
       </c>
       <c r="I72" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.090=显示工作簿失败。</v>
+        <v>AppTaskBase.080=显示比较结果的工作簿...</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G73" s="4" t="str">
-        <f t="shared" ref="G73:G141" si="9" xml:space="preserve"> IF($B73="", "", $B73 &amp; "=" &amp; C73)</f>
-        <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
+        <f t="shared" si="0"/>
+        <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
       </c>
       <c r="H73" s="5" t="str">
-        <f t="shared" ref="H73:H141" si="10" xml:space="preserve"> IF($B73="", "", $B73 &amp; "=" &amp; D73)</f>
-        <v>AppTaskBase.100=Failed to paint or save result book A.</v>
+        <f t="shared" si="1"/>
+        <v>AppTaskBase.090=Failed to open result book(s).</v>
       </c>
       <c r="I73" s="6" t="str">
-        <f t="shared" ref="I73:I141" si="11" xml:space="preserve"> IF($B73="", "", $B73 &amp; "=" &amp; E73)</f>
-        <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
+        <f t="shared" si="2"/>
+        <v>AppTaskBase.090=显示工作簿失败。</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" ref="G74:G142" si="9" xml:space="preserve"> IF($B74="", "", $B74 &amp; "=" &amp; C74)</f>
+        <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f t="shared" ref="H74:H142" si="10" xml:space="preserve"> IF($B74="", "", $B74 &amp; "=" &amp; D74)</f>
+        <v>AppTaskBase.100=Failed to paint or save result book A.</v>
+      </c>
+      <c r="I74" s="6" t="str">
+        <f t="shared" ref="I74:I142" si="11" xml:space="preserve"> IF($B74="", "", $B74 &amp; "=" &amp; E74)</f>
+        <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="G74" s="4" t="str">
+      <c r="G75" s="4" t="str">
         <f t="shared" si="9"/>
         <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
       </c>
-      <c r="H74" s="5" t="str">
+      <c r="H75" s="5" t="str">
         <f t="shared" si="10"/>
         <v>AppTaskBase.110=Failed to paint or save result book B.</v>
       </c>
-      <c r="I74" s="6" t="str">
+      <c r="I75" s="6" t="str">
         <f t="shared" si="11"/>
         <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="7" t="s">
+    <row r="76" spans="2:9">
+      <c r="B76" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="G75" s="4" t="str">
+      <c r="G76" s="4" t="str">
         <f t="shared" si="9"/>
         <v>AppTaskBase.120=処理が完了しました。</v>
       </c>
-      <c r="H75" s="5" t="str">
+      <c r="H76" s="5" t="str">
         <f t="shared" si="10"/>
         <v>AppTaskBase.120=Process completed.</v>
       </c>
-      <c r="I75" s="6" t="str">
+      <c r="I76" s="6" t="str">
         <f t="shared" si="11"/>
         <v>AppTaskBase.120=过程完成。</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="1" t="s">
+    <row r="77" spans="2:9">
+      <c r="B77" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G76" s="4" t="str">
+      <c r="G77" s="4" t="str">
         <f t="shared" si="9"/>
         <v>AppTaskBase.130=比較結果フォルダを表示しています...</v>
       </c>
-      <c r="H76" s="5" t="str">
+      <c r="H77" s="5" t="str">
         <f t="shared" si="10"/>
         <v>AppTaskBase.130=Opening result folder...</v>
       </c>
-      <c r="I76" s="6" t="str">
+      <c r="I77" s="6" t="str">
         <f t="shared" si="11"/>
         <v>AppTaskBase.130=显示比较结果文件夹...</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="1" t="s">
+    <row r="78" spans="2:9">
+      <c r="B78" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="G77" s="4" t="str">
+      <c r="G78" s="4" t="str">
         <f t="shared" si="9"/>
         <v>AppTaskBase.140=比較結果フォルダの表示に失敗しました。</v>
       </c>
-      <c r="H77" s="5" t="str">
+      <c r="H78" s="5" t="str">
         <f t="shared" si="10"/>
         <v>AppTaskBase.140=Failed to open result folder(s).</v>
       </c>
-      <c r="I77" s="6" t="str">
+      <c r="I78" s="6" t="str">
         <f t="shared" si="11"/>
         <v>AppTaskBase.140=显示文件夹失败。</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="1" t="s">
+    <row r="79" spans="2:9">
+      <c r="B79" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G78" s="4" t="str">
+      <c r="G79" s="4" t="str">
         <f t="shared" si="9"/>
         <v>AppTaskBase.150=★失敗しました</v>
       </c>
-      <c r="H78" s="5" t="str">
+      <c r="H79" s="5" t="str">
         <f t="shared" si="10"/>
         <v>AppTaskBase.150=★Failed</v>
       </c>
-      <c r="I78" s="6" t="str">
+      <c r="I79" s="6" t="str">
         <f t="shared" si="11"/>
         <v>AppTaskBase.150=★失败</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="2:9">
+      <c r="B80" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E80" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G79" s="4" t="str">
+      <c r="G80" s="4" t="str">
         <f t="shared" si="9"/>
         <v>AppTaskBase.160=(比較対象ファイルなし)</v>
       </c>
-      <c r="H79" s="5" t="str">
+      <c r="H80" s="5" t="str">
         <f t="shared" si="10"/>
         <v>AppTaskBase.160=(No files to compare)</v>
       </c>
-      <c r="I79" s="6" t="str">
+      <c r="I80" s="6" t="str">
         <f t="shared" si="11"/>
         <v>AppTaskBase.160=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="G80" s="4" t="str">
-        <f t="shared" ref="G80:G84" si="12" xml:space="preserve"> IF($B80="", "", $B80 &amp; "=" &amp; C80)</f>
-        <v>AppTaskBase.170=メモリ不足のため処理が失敗しました。\n割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
-      </c>
-      <c r="H80" s="5" t="str">
-        <f t="shared" ref="H80:H84" si="13" xml:space="preserve"> IF($B80="", "", $B80 &amp; "=" &amp; D80)</f>
-        <v>AppTaskBase.170=Processing failed due to insufficient memory.\nPlease increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
-      </c>
-      <c r="I80" s="6" t="str">
-        <f t="shared" ref="I80:I84" si="14" xml:space="preserve"> IF($B80="", "", $B80 &amp; "=" &amp; E80)</f>
-        <v>AppTaskBase.170=由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
-      </c>
-    </row>
     <row r="81" spans="2:9">
       <c r="B81" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" ref="G81:G85" si="12" xml:space="preserve"> IF($B81="", "", $B81 &amp; "=" &amp; C81)</f>
+        <v>AppTaskBase.170=メモリ不足のため処理が失敗しました。\n割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" ref="H81:H85" si="13" xml:space="preserve"> IF($B81="", "", $B81 &amp; "=" &amp; D81)</f>
+        <v>AppTaskBase.170=Processing failed due to insufficient memory.\nPlease increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
+      </c>
+      <c r="I81" s="6" t="str">
+        <f t="shared" ref="I81:I85" si="14" xml:space="preserve"> IF($B81="", "", $B81 &amp; "=" &amp; E81)</f>
+        <v>AppTaskBase.170=由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G81" s="4" t="str">
+      <c r="G82" s="4" t="str">
         <f t="shared" si="12"/>
         <v>AppTaskBase.180=予期せぬ例外が発生しました。</v>
       </c>
-      <c r="H81" s="5" t="str">
+      <c r="H82" s="5" t="str">
         <f t="shared" si="13"/>
         <v>AppTaskBase.180=Unexpected exception occurred.</v>
       </c>
-      <c r="I81" s="6" t="str">
+      <c r="I82" s="6" t="str">
         <f t="shared" si="14"/>
         <v>AppTaskBase.180=意外的例外。</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="1" t="s">
+    <row r="83" spans="2:9">
+      <c r="B83" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="G82" s="4" t="str">
-        <f t="shared" ref="G82" si="15" xml:space="preserve"> IF($B82="", "", $B82 &amp; "=" &amp; C82)</f>
+      <c r="G83" s="4" t="str">
+        <f t="shared" ref="G83" si="15" xml:space="preserve"> IF($B83="", "", $B83 &amp; "=" &amp; C83)</f>
         <v>AppTaskBase.190=フォルダのロードに失敗しました。</v>
       </c>
-      <c r="H82" s="5" t="str">
-        <f t="shared" ref="H82" si="16" xml:space="preserve"> IF($B82="", "", $B82 &amp; "=" &amp; D82)</f>
+      <c r="H83" s="5" t="str">
+        <f t="shared" ref="H83" si="16" xml:space="preserve"> IF($B83="", "", $B83 &amp; "=" &amp; D83)</f>
         <v>AppTaskBase.190=Failed to load directories.</v>
       </c>
-      <c r="I82" s="6" t="str">
-        <f t="shared" ref="I82" si="17" xml:space="preserve"> IF($B82="", "", $B82 &amp; "=" &amp; E82)</f>
+      <c r="I83" s="6" t="str">
+        <f t="shared" ref="I83" si="17" xml:space="preserve"> IF($B83="", "", $B83 &amp; "=" &amp; E83)</f>
         <v>AppTaskBase.190=无法加载文件夹。</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="2"/>
-      <c r="C83" s="3"/>
-      <c r="G83" s="4" t="str">
+    <row r="84" spans="2:9">
+      <c r="B84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="G84" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H83" s="5" t="str">
+      <c r="H84" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I83" s="6" t="str">
+      <c r="I84" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="7" t="s">
+    <row r="85" spans="2:9">
+      <c r="B85" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="G84" s="4" t="str">
+      <c r="G85" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
       </c>
-      <c r="H84" s="5" t="str">
+      <c r="H85" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareBooksTask.010=Starting comparing books.</v>
       </c>
-      <c r="I84" s="6" t="str">
+      <c r="I85" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareBooksTask.010=开始互相比较工作簿。</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="7" t="s">
+    <row r="86" spans="2:9">
+      <c r="B86" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="G85" s="4" t="str">
+      <c r="G86" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
       </c>
-      <c r="H85" s="5" t="str">
+      <c r="H86" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareBooksTask.020=Pairing sheets...</v>
       </c>
-      <c r="I85" s="6" t="str">
+      <c r="I86" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="7" t="s">
+    <row r="87" spans="2:9">
+      <c r="B87" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E87" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="G86" s="4" t="str">
+      <c r="G87" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H86" s="5" t="str">
+      <c r="H87" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareBooksTask.030=Failed to pair sheets.</v>
       </c>
-      <c r="I86" s="6" t="str">
+      <c r="I87" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareBooksTask.030=确定工作表组合失败。</v>
       </c>
     </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="7" t="s">
+    <row r="88" spans="2:9">
+      <c r="B88" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="G87" s="4" t="str">
+      <c r="G88" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareBooksTask.040=シートを比較しています...</v>
       </c>
-      <c r="H87" s="5" t="str">
+      <c r="H88" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareBooksTask.040=Comparing sheets...</v>
       </c>
-      <c r="I87" s="6" t="str">
+      <c r="I88" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareBooksTask.040=比较工作表...</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="7" t="s">
+    <row r="89" spans="2:9">
+      <c r="B89" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="G88" s="4" t="str">
+      <c r="G89" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
       </c>
-      <c r="H88" s="5" t="str">
+      <c r="H89" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareBooksTask.050=Failed to compare sheets.</v>
       </c>
-      <c r="I88" s="6" t="str">
+      <c r="I89" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareBooksTask.050=工作表比较失败。</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="2"/>
-      <c r="C89" s="3"/>
-      <c r="G89" s="4" t="str">
+    <row r="90" spans="2:9">
+      <c r="B90" s="2"/>
+      <c r="C90" s="3"/>
+      <c r="G90" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H89" s="5" t="str">
+      <c r="H90" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I89" s="6" t="str">
+      <c r="I90" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="7" t="s">
+    <row r="91" spans="2:9">
+      <c r="B91" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="G90" s="4" t="str">
+      <c r="G91" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
       </c>
-      <c r="H90" s="5" t="str">
+      <c r="H91" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareDirsTask.010=Starting comparing folders.</v>
       </c>
-      <c r="I90" s="6" t="str">
+      <c r="I91" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareDirsTask.010=开始互相比较文件夹。</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
-      <c r="B91" s="7" t="s">
+    <row r="92" spans="2:9">
+      <c r="B92" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="G91" s="4" t="str">
+      <c r="G92" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
       </c>
-      <c r="H91" s="5" t="str">
+      <c r="H92" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareDirsTask.020=Failed to create output directory.</v>
       </c>
-      <c r="I91" s="6" t="str">
+      <c r="I92" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="7" t="s">
+    <row r="93" spans="2:9">
+      <c r="B93" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="G92" s="4" t="str">
+      <c r="G93" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
       </c>
-      <c r="H92" s="5" t="str">
+      <c r="H93" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareDirsTask.030=Pairing books...</v>
       </c>
-      <c r="I92" s="6" t="str">
+      <c r="I93" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="7" t="s">
+    <row r="94" spans="2:9">
+      <c r="B94" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E94" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="G93" s="4" t="str">
+      <c r="G94" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H93" s="5" t="str">
+      <c r="H94" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareDirsTask.040=Failed to pair books.</v>
       </c>
-      <c r="I93" s="6" t="str">
+      <c r="I94" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareDirsTask.040=确定工作簿组合失败。</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
-      <c r="B94" s="7" t="s">
+    <row r="95" spans="2:9">
+      <c r="B95" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="G94" s="4" t="str">
+      <c r="G95" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareDirsTask.050=Excelブックを比較しています...</v>
       </c>
-      <c r="H94" s="5" t="str">
+      <c r="H95" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareDirsTask.050=Comparing books...</v>
       </c>
-      <c r="I94" s="6" t="str">
+      <c r="I95" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareDirsTask.050=比较工作簿...</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="7" t="s">
+    <row r="96" spans="2:9">
+      <c r="B96" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G95" s="4" t="str">
+      <c r="G96" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareDirsTask.060=★失敗しました</v>
       </c>
-      <c r="H95" s="5" t="str">
+      <c r="H96" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareDirsTask.060=★Failed</v>
       </c>
-      <c r="I95" s="6" t="str">
+      <c r="I96" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareDirsTask.060=★失败</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="7" t="s">
+    <row r="97" spans="2:9">
+      <c r="B97" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E97" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G96" s="4" t="str">
+      <c r="G97" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareDirsTask.070=(比較対象ファイルなし)</v>
       </c>
-      <c r="H96" s="5" t="str">
+      <c r="H97" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareDirsTask.070=(No files to compare)</v>
       </c>
-      <c r="I96" s="6" t="str">
+      <c r="I97" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareDirsTask.070=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="7" t="s">
+    <row r="98" spans="2:9">
+      <c r="B98" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="G97" s="4" t="str">
-        <f t="shared" ref="G97" si="18" xml:space="preserve"> IF($B97="", "", $B97 &amp; "=" &amp; C97)</f>
+      <c r="G98" s="4" t="str">
+        <f t="shared" ref="G98" si="18" xml:space="preserve"> IF($B98="", "", $B98 &amp; "=" &amp; C98)</f>
         <v>CompareDirsTask.080=フォルダの比較に失敗しました。</v>
       </c>
-      <c r="H97" s="5" t="str">
-        <f t="shared" ref="H97" si="19" xml:space="preserve"> IF($B97="", "", $B97 &amp; "=" &amp; D97)</f>
+      <c r="H98" s="5" t="str">
+        <f t="shared" ref="H98" si="19" xml:space="preserve"> IF($B98="", "", $B98 &amp; "=" &amp; D98)</f>
         <v>CompareDirsTask.080=Failed to compare folders.</v>
       </c>
-      <c r="I97" s="6" t="str">
-        <f t="shared" ref="I97" si="20" xml:space="preserve"> IF($B97="", "", $B97 &amp; "=" &amp; E97)</f>
+      <c r="I98" s="6" t="str">
+        <f t="shared" ref="I98" si="20" xml:space="preserve"> IF($B98="", "", $B98 &amp; "=" &amp; E98)</f>
         <v>CompareDirsTask.080=文件夹比较失败。</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="2"/>
-      <c r="C98" s="3"/>
-      <c r="G98" s="4" t="str">
+    <row r="99" spans="2:9">
+      <c r="B99" s="2"/>
+      <c r="C99" s="3"/>
+      <c r="G99" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H98" s="5" t="str">
+      <c r="H99" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I98" s="6" t="str">
+      <c r="I99" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="7" t="s">
+    <row r="100" spans="2:9">
+      <c r="B100" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E100" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="G99" s="4" t="str">
+      <c r="G100" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
       </c>
-      <c r="H99" s="5" t="str">
+      <c r="H100" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareSheetsTask.010=Starting comparing sheets.</v>
       </c>
-      <c r="I99" s="6" t="str">
+      <c r="I100" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="7" t="s">
+    <row r="101" spans="2:9">
+      <c r="B101" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="G100" s="4" t="str">
+      <c r="G101" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareSheetsTask.020=シートを比較しています...</v>
       </c>
-      <c r="H100" s="5" t="str">
+      <c r="H101" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareSheetsTask.020=Comparing sheets...</v>
       </c>
-      <c r="I100" s="6" t="str">
+      <c r="I101" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareSheetsTask.020=比较工作表...</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="7" t="s">
+    <row r="102" spans="2:9">
+      <c r="B102" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E102" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="G101" s="4" t="str">
+      <c r="G102" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
       </c>
-      <c r="H101" s="5" t="str">
+      <c r="H102" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareSheetsTask.030=Failed to compare sheets.</v>
       </c>
-      <c r="I101" s="6" t="str">
+      <c r="I102" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareSheetsTask.030=工作表比较失败。</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="2"/>
-      <c r="C102" s="3"/>
-      <c r="G102" s="4" t="str">
+    <row r="103" spans="2:9">
+      <c r="B103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="G103" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H102" s="5" t="str">
+      <c r="H103" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I102" s="6" t="str">
+      <c r="I103" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="1" t="s">
+    <row r="104" spans="2:9">
+      <c r="B104" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E104" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="G103" s="4" t="str">
+      <c r="G104" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
       </c>
-      <c r="H103" s="5" t="str">
+      <c r="H104" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.010=Starting comparing folder trees.</v>
       </c>
-      <c r="I103" s="6" t="str">
+      <c r="I104" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
       </c>
     </row>
-    <row r="104" spans="2:9">
-      <c r="B104" s="1" t="s">
+    <row r="105" spans="2:9">
+      <c r="B105" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E105" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="G104" s="4" t="str">
+      <c r="G105" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
       </c>
-      <c r="H104" s="5" t="str">
+      <c r="H105" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.020=Pairing folders...</v>
       </c>
-      <c r="I104" s="6" t="str">
+      <c r="I105" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="1" t="s">
+    <row r="106" spans="2:9">
+      <c r="B106" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E106" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="G105" s="4" t="str">
+      <c r="G106" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H105" s="5" t="str">
+      <c r="H106" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.030=Failed to pair folders.</v>
       </c>
-      <c r="I105" s="6" t="str">
+      <c r="I106" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.030=确定文件夹组合失败。</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
-      <c r="B106" s="1" t="s">
+    <row r="107" spans="2:9">
+      <c r="B107" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E107" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G106" s="4" t="str">
+      <c r="G107" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
       </c>
-      <c r="H106" s="5" t="str">
+      <c r="H107" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.040=Comparing folders...</v>
       </c>
-      <c r="I106" s="6" t="str">
+      <c r="I107" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.040=比较文件夹...</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
-      <c r="B107" s="1" t="s">
+    <row r="108" spans="2:9">
+      <c r="B108" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E108" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G107" s="4" t="str">
+      <c r="G108" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.050=★失敗しました</v>
       </c>
-      <c r="H107" s="5" t="str">
+      <c r="H108" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.050=★Failed</v>
       </c>
-      <c r="I107" s="6" t="str">
+      <c r="I108" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.050=★失败</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="1" t="s">
+    <row r="109" spans="2:9">
+      <c r="B109" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E109" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G108" s="4" t="str">
+      <c r="G109" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.060=(比較対象ファイルなし)</v>
       </c>
-      <c r="H108" s="5" t="str">
+      <c r="H109" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.060=(No files to compare)</v>
       </c>
-      <c r="I108" s="6" t="str">
+      <c r="I109" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.060=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
-      <c r="B109" s="2" t="s">
+    <row r="110" spans="2:9">
+      <c r="B110" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E110" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="G109" s="4" t="str">
+      <c r="G110" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.070=比較結果Excelブックを保存しています...</v>
       </c>
-      <c r="H109" s="5" t="str">
+      <c r="H110" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.070=Saving result book...</v>
       </c>
-      <c r="I109" s="6" t="str">
+      <c r="I110" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.070=存储比较结果工作簿...</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="2" t="s">
+    <row r="111" spans="2:9">
+      <c r="B111" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E111" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="G110" s="4" t="str">
+      <c r="G111" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
       </c>
-      <c r="H110" s="5" t="str">
+      <c r="H111" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.080=Failed to save result book.</v>
       </c>
-      <c r="I110" s="6" t="str">
+      <c r="I111" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="2" t="s">
+    <row r="112" spans="2:9">
+      <c r="B112" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E112" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="G111" s="4" t="str">
+      <c r="G112" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
       </c>
-      <c r="H111" s="5" t="str">
+      <c r="H112" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.090=Opening result book...</v>
       </c>
-      <c r="I111" s="6" t="str">
+      <c r="I112" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.090=显示比较结果工作簿...</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
-      <c r="B112" s="2" t="s">
+    <row r="113" spans="2:9">
+      <c r="B113" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E113" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="G112" s="4" t="str">
+      <c r="G113" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.100=比較結果Excelブックの表示に失敗しました。</v>
       </c>
-      <c r="H112" s="5" t="str">
+      <c r="H113" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.100=Failed to open result book.</v>
       </c>
-      <c r="I112" s="6" t="str">
+      <c r="I113" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.100=显示比较结果工作簿失败。</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
-      <c r="B113" s="2" t="s">
+    <row r="114" spans="2:9">
+      <c r="B114" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E114" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="G113" s="4" t="str">
+      <c r="G114" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.110=フォルダツリーの比較に失敗しました。</v>
       </c>
-      <c r="H113" s="5" t="str">
+      <c r="H114" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.110=Failed to compare folder trees.</v>
       </c>
-      <c r="I113" s="6" t="str">
+      <c r="I114" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.110=文件夹比较失败。</v>
       </c>
     </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="2"/>
-      <c r="C114" s="3"/>
-      <c r="G114" s="4" t="str">
+    <row r="115" spans="2:9">
+      <c r="B115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="G115" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H114" s="5" t="str">
+      <c r="H115" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I114" s="6" t="str">
+      <c r="I115" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:9">
-      <c r="B115" s="2" t="s">
+    <row r="116" spans="2:9">
+      <c r="B116" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E116" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="G115" s="4" t="str">
+      <c r="G116" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.BResult.010=(比較相手なし)</v>
       </c>
-      <c r="H115" s="5" t="str">
+      <c r="H116" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.BResult.010=(no opponent)</v>
       </c>
-      <c r="I115" s="6" t="str">
+      <c r="I116" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.BResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="116" spans="2:9">
-      <c r="B116" s="2" t="s">
+    <row r="117" spans="2:9">
+      <c r="B117" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E117" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="G116" s="4" t="str">
+      <c r="G117" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.BResult.020=(差分なし)</v>
       </c>
-      <c r="H116" s="5" t="str">
+      <c r="H117" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.BResult.020=(no diffs)</v>
       </c>
-      <c r="I116" s="6" t="str">
+      <c r="I117" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.BResult.020=(没有区别)</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
-      <c r="B117" s="7" t="s">
+    <row r="118" spans="2:9">
+      <c r="B118" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E118" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="G117" s="4" t="str">
+      <c r="G118" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.BResult.030=差異発生%dシート</v>
       </c>
-      <c r="H117" s="5" t="str">
+      <c r="H118" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.BResult.030=diff sheets:%d</v>
       </c>
-      <c r="I117" s="6" t="str">
+      <c r="I118" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
-    <row r="118" spans="2:9">
-      <c r="B118" s="7" t="s">
+    <row r="119" spans="2:9">
+      <c r="B119" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E119" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G118" s="4" t="str">
+      <c r="G119" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.BResult.040=余剰%dシート</v>
       </c>
-      <c r="H118" s="5" t="str">
+      <c r="H119" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.BResult.040=redundant sheets:%d</v>
       </c>
-      <c r="I118" s="6" t="str">
+      <c r="I119" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.BResult.040=冗余工作表%d</v>
       </c>
     </row>
-    <row r="119" spans="2:9">
-      <c r="B119" s="7" t="s">
+    <row r="120" spans="2:9">
+      <c r="B120" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E120" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="G119" s="4" t="str">
+      <c r="G120" s="4" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
       </c>
-      <c r="H119" s="5" t="str">
+      <c r="H120" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">excel.BResult.050=Book %s : </v>
       </c>
-      <c r="I119" s="6" t="str">
+      <c r="I120" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.BResult.050=工作簿%s：</v>
       </c>
     </row>
-    <row r="120" spans="2:9">
-      <c r="B120" s="7" t="s">
+    <row r="121" spans="2:9">
+      <c r="B121" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E121" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G120" s="4" t="str">
+      <c r="G121" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H120" s="5" t="str">
+      <c r="H121" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I120" s="6" t="str">
+      <c r="I121" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="121" spans="2:9">
-      <c r="B121" s="7" t="s">
+    <row r="122" spans="2:9">
+      <c r="B122" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E122" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G121" s="4" t="str">
+      <c r="G122" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H121" s="5" t="str">
+      <c r="H122" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I121" s="6" t="str">
+      <c r="I122" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
-      <c r="G122" s="4" t="str">
+    <row r="123" spans="2:9">
+      <c r="G123" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H122" s="5" t="str">
+      <c r="H123" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I122" s="6" t="str">
+      <c r="I123" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="2:9">
-      <c r="B123" s="2" t="s">
+    <row r="124" spans="2:9">
+      <c r="B124" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E124" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="G123" s="4" t="str">
+      <c r="G124" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
       </c>
-      <c r="H123" s="5" t="str">
+      <c r="H124" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
       </c>
-      <c r="I123" s="6" t="str">
+      <c r="I124" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
-      <c r="G124" s="4" t="str">
+    <row r="125" spans="2:9">
+      <c r="G125" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H124" s="5" t="str">
+      <c r="H125" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I124" s="6" t="str">
+      <c r="I125" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:9">
-      <c r="B125" s="7" t="s">
+    <row r="126" spans="2:9">
+      <c r="B126" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D126" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="E126" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="G125" s="4" t="str">
+      <c r="G126" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.010=(比較相手なし)</v>
       </c>
-      <c r="H125" s="5" t="str">
+      <c r="H126" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.010=(no opponent)</v>
       </c>
-      <c r="I125" s="6" t="str">
+      <c r="I126" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="126" spans="2:9">
-      <c r="B126" s="7" t="s">
+    <row r="127" spans="2:9">
+      <c r="B127" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C127" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="E127" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="G126" s="4" t="str">
+      <c r="G127" s="4" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
       </c>
-      <c r="H126" s="5" t="str">
+      <c r="H127" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
       </c>
-      <c r="I126" s="6" t="str">
+      <c r="I127" s="6" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
       </c>
     </row>
-    <row r="127" spans="2:9">
-      <c r="B127" s="7" t="s">
+    <row r="128" spans="2:9">
+      <c r="B128" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="E128" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G127" s="4" t="str">
+      <c r="G128" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H127" s="5" t="str">
+      <c r="H128" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I127" s="6" t="str">
+      <c r="I128" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="128" spans="2:9">
-      <c r="B128" s="7" t="s">
+    <row r="129" spans="2:9">
+      <c r="B129" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="E129" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G128" s="4" t="str">
+      <c r="G129" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H128" s="5" t="str">
+      <c r="H129" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I128" s="6" t="str">
+      <c r="I129" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="129" spans="2:9">
-      <c r="B129" s="7" t="s">
+    <row r="130" spans="2:9">
+      <c r="B130" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E130" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G129" s="4" t="str">
+      <c r="G130" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.050=★失敗しました</v>
       </c>
-      <c r="H129" s="5" t="str">
+      <c r="H130" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.050=★Failed</v>
       </c>
-      <c r="I129" s="6" t="str">
+      <c r="I130" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.050=★失败</v>
       </c>
     </row>
-    <row r="130" spans="2:9">
-      <c r="B130" s="7" t="s">
+    <row r="131" spans="2:9">
+      <c r="B131" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="E131" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="G130" s="4" t="str">
+      <c r="G131" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.060=(差分なし)</v>
       </c>
-      <c r="H130" s="5" t="str">
+      <c r="H131" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.060=(no diffs)</v>
       </c>
-      <c r="I130" s="6" t="str">
+      <c r="I131" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.060=(没有区别)</v>
       </c>
     </row>
-    <row r="131" spans="2:9">
-      <c r="B131" s="1" t="s">
+    <row r="132" spans="2:9">
+      <c r="B132" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E132" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="G131" s="4" t="str">
+      <c r="G132" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.070=差異発生%dブック</v>
       </c>
-      <c r="H131" s="5" t="str">
+      <c r="H132" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.070=diff books:%d</v>
       </c>
-      <c r="I131" s="6" t="str">
+      <c r="I132" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.070=差异工作簿%d</v>
       </c>
     </row>
-    <row r="132" spans="2:9">
-      <c r="B132" s="1" t="s">
+    <row r="133" spans="2:9">
+      <c r="B133" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E133" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="G132" s="4" t="str">
+      <c r="G133" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.080=余剰%dブック</v>
       </c>
-      <c r="H132" s="5" t="str">
+      <c r="H133" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.080=redundant books:%d</v>
       </c>
-      <c r="I132" s="6" t="str">
+      <c r="I133" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.080=冗余工作簿%d</v>
       </c>
     </row>
-    <row r="133" spans="2:9">
-      <c r="B133" s="1" t="s">
+    <row r="134" spans="2:9">
+      <c r="B134" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D134" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E134" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="G133" s="4" t="str">
+      <c r="G134" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.090=比較失敗%dブック</v>
       </c>
-      <c r="H133" s="5" t="str">
+      <c r="H134" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.090=failed books:%d</v>
       </c>
-      <c r="I133" s="6" t="str">
+      <c r="I134" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.090=失败工作簿%d</v>
       </c>
     </row>
-    <row r="134" spans="2:9">
-      <c r="B134" s="1" t="s">
+    <row r="135" spans="2:9">
+      <c r="B135" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="E135" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G134" s="4" t="str">
+      <c r="G135" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.100=(比較対象ファイルなし)</v>
       </c>
-      <c r="H134" s="5" t="str">
+      <c r="H135" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.100=(No files to compare)</v>
       </c>
-      <c r="I134" s="6" t="str">
+      <c r="I135" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.100=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="135" spans="2:9">
-      <c r="G135" s="4" t="str">
+    <row r="136" spans="2:9">
+      <c r="G136" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H135" s="5" t="str">
+      <c r="H136" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I135" s="6" t="str">
+      <c r="I136" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="2:9">
-      <c r="B136" s="2" t="s">
+    <row r="137" spans="2:9">
+      <c r="B137" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C137" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D137" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E137" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G136" s="4" t="str">
+      <c r="G137" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.SheetType.010=ワークシート</v>
       </c>
-      <c r="H136" s="5" t="str">
+      <c r="H137" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.SheetType.010=Worksheet</v>
       </c>
-      <c r="I136" s="6" t="str">
+      <c r="I137" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
-    <row r="137" spans="2:9">
-      <c r="B137" s="2" t="s">
+    <row r="138" spans="2:9">
+      <c r="B138" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D138" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E138" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="G137" s="4" t="str">
+      <c r="G138" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.SheetType.020=グラフシート</v>
       </c>
-      <c r="H137" s="5" t="str">
+      <c r="H138" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.SheetType.020=Chart</v>
       </c>
-      <c r="I137" s="6" t="str">
+      <c r="I138" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.SheetType.020=图表表</v>
       </c>
     </row>
-    <row r="138" spans="2:9">
-      <c r="B138" s="2" t="s">
+    <row r="139" spans="2:9">
+      <c r="B139" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C139" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D139" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E139" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="G138" s="4" t="str">
+      <c r="G139" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
       </c>
-      <c r="H138" s="5" t="str">
+      <c r="H139" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
       </c>
-      <c r="I138" s="6" t="str">
+      <c r="I139" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
       </c>
     </row>
-    <row r="139" spans="2:9">
-      <c r="B139" s="2" t="s">
+    <row r="140" spans="2:9">
+      <c r="B140" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E140" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G139" s="4" t="str">
+      <c r="G140" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
       </c>
-      <c r="H139" s="5" t="str">
+      <c r="H140" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.SheetType.040=Excel 4.0 Macro</v>
       </c>
-      <c r="I139" s="6" t="str">
+      <c r="I140" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.SheetType.040=Excel 4.0 宏表</v>
       </c>
     </row>
-    <row r="140" spans="2:9">
-      <c r="B140" s="2"/>
-      <c r="C140" s="3"/>
-      <c r="G140" s="4" t="str">
+    <row r="141" spans="2:9">
+      <c r="B141" s="2"/>
+      <c r="C141" s="3"/>
+      <c r="G141" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H140" s="5" t="str">
+      <c r="H141" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I140" s="6" t="str">
+      <c r="I141" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:9">
-      <c r="B141" s="2" t="s">
+    <row r="142" spans="2:9">
+      <c r="B142" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D142" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E142" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="G141" s="4" t="str">
+      <c r="G142" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.SResult.010=(差分なし)</v>
       </c>
-      <c r="H141" s="5" t="str">
+      <c r="H142" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.SResult.010=(no diffs)</v>
       </c>
-      <c r="I141" s="6" t="str">
+      <c r="I142" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
-    <row r="142" spans="2:9">
-      <c r="B142" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G142" s="4" t="str">
-        <f t="shared" ref="G142:G155" si="21" xml:space="preserve"> IF($B142="", "", $B142 &amp; "=" &amp; C142)</f>
-        <v>excel.SResult.020=余剰行%d</v>
-      </c>
-      <c r="H142" s="5" t="str">
-        <f t="shared" ref="H142:H155" si="22" xml:space="preserve"> IF($B142="", "", $B142 &amp; "=" &amp; D142)</f>
-        <v>excel.SResult.020=redundant rows:%d</v>
-      </c>
-      <c r="I142" s="6" t="str">
-        <f t="shared" ref="I142:I155" si="23" xml:space="preserve"> IF($B142="", "", $B142 &amp; "=" &amp; E142)</f>
-        <v>excel.SResult.020=冗余行%d</v>
-      </c>
-    </row>
     <row r="143" spans="2:9">
       <c r="B143" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G143" s="4" t="str">
+        <f t="shared" ref="G143:G156" si="21" xml:space="preserve"> IF($B143="", "", $B143 &amp; "=" &amp; C143)</f>
+        <v>excel.SResult.020=余剰行%d</v>
+      </c>
+      <c r="H143" s="5" t="str">
+        <f t="shared" ref="H143:H156" si="22" xml:space="preserve"> IF($B143="", "", $B143 &amp; "=" &amp; D143)</f>
+        <v>excel.SResult.020=redundant rows:%d</v>
+      </c>
+      <c r="I143" s="6" t="str">
+        <f t="shared" ref="I143:I156" si="23" xml:space="preserve"> IF($B143="", "", $B143 &amp; "=" &amp; E143)</f>
+        <v>excel.SResult.020=冗余行%d</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9">
+      <c r="B144" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C144" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D144" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="E144" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G143" s="4" t="str">
+      <c r="G144" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.SResult.030=余剰列%d</v>
       </c>
-      <c r="H143" s="5" t="str">
+      <c r="H144" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.SResult.030=redundant columns:%d</v>
       </c>
-      <c r="I143" s="6" t="str">
+      <c r="I144" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.SResult.030=冗余列%d</v>
       </c>
     </row>
-    <row r="144" spans="2:9">
-      <c r="B144" s="2" t="s">
+    <row r="145" spans="2:9">
+      <c r="B145" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C145" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D145" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E145" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="G144" s="4" t="str">
+      <c r="G145" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.SResult.040=差分セル%d</v>
       </c>
-      <c r="H144" s="5" t="str">
+      <c r="H145" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.SResult.040=diff cells:%d</v>
       </c>
-      <c r="I144" s="6" t="str">
+      <c r="I145" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.SResult.040=差异单元格%d</v>
       </c>
     </row>
-    <row r="145" spans="2:9">
-      <c r="B145" s="2" t="s">
+    <row r="146" spans="2:9">
+      <c r="B146" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D146" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E146" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="G145" s="4" t="str">
+      <c r="G146" s="4" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
       </c>
-      <c r="H145" s="5" t="str">
+      <c r="H146" s="5" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
       </c>
-      <c r="I145" s="6" t="str">
+      <c r="I146" s="6" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
       </c>
     </row>
-    <row r="146" spans="2:9">
-      <c r="B146" s="2" t="s">
+    <row r="147" spans="2:9">
+      <c r="B147" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E146" s="6" t="s">
+      <c r="E147" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G146" s="4" t="str">
+      <c r="G147" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.SResult.060=行%d</v>
       </c>
-      <c r="H146" s="5" t="str">
+      <c r="H147" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.SResult.060=Row %d</v>
       </c>
-      <c r="I146" s="6" t="str">
+      <c r="I147" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.SResult.060=行%d</v>
       </c>
     </row>
-    <row r="147" spans="2:9">
-      <c r="B147" s="2" t="s">
+    <row r="148" spans="2:9">
+      <c r="B148" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="E148" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="G147" s="4" t="str">
+      <c r="G148" s="4" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
       </c>
-      <c r="H147" s="5" t="str">
+      <c r="H148" s="5" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
       </c>
-      <c r="I147" s="6" t="str">
+      <c r="I148" s="6" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
       </c>
     </row>
-    <row r="148" spans="2:9">
-      <c r="B148" s="2" t="s">
+    <row r="149" spans="2:9">
+      <c r="B149" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E149" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G148" s="4" t="str">
+      <c r="G149" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.SResult.080=%s列</v>
       </c>
-      <c r="H148" s="5" t="str">
+      <c r="H149" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.SResult.080=Column %s</v>
       </c>
-      <c r="I148" s="6" t="str">
+      <c r="I149" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.SResult.080=%s列</v>
       </c>
     </row>
-    <row r="149" spans="2:9">
-      <c r="B149" s="2" t="s">
+    <row r="150" spans="2:9">
+      <c r="B150" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C150" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D150" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E150" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G149" s="4" t="str">
+      <c r="G150" s="4" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">excel.SResult.090=差分セル : </v>
       </c>
-      <c r="H149" s="5" t="str">
+      <c r="H150" s="5" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">excel.SResult.090=Diff cells : </v>
       </c>
-      <c r="I149" s="6" t="str">
+      <c r="I150" s="6" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">excel.SResult.090=差异单元格 : </v>
       </c>
     </row>
-    <row r="150" spans="2:9">
-      <c r="G150" s="4" t="str">
+    <row r="151" spans="2:9">
+      <c r="G151" s="4" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="H150" s="5" t="str">
+      <c r="H151" s="5" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="I150" s="6" t="str">
+      <c r="I151" s="6" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:9">
-      <c r="B151" s="1" t="s">
+    <row r="152" spans="2:9">
+      <c r="B152" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C152" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D152" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E151" s="6" t="s">
+      <c r="E152" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="G151" s="4" t="str">
+      <c r="G152" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.TreeResult.010=(比較相手なし)</v>
       </c>
-      <c r="H151" s="5" t="str">
+      <c r="H152" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.TreeResult.010=(no opponent)</v>
       </c>
-      <c r="I151" s="6" t="str">
+      <c r="I152" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.TreeResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="152" spans="2:9">
-      <c r="B152" s="1" t="s">
+    <row r="153" spans="2:9">
+      <c r="B153" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C153" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E152" s="6" t="s">
+      <c r="E153" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="G152" s="4" t="str">
+      <c r="G153" s="4" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
       </c>
-      <c r="H152" s="5" t="str">
+      <c r="H153" s="5" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
       </c>
-      <c r="I152" s="6" t="str">
+      <c r="I153" s="6" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
       </c>
     </row>
-    <row r="153" spans="2:9">
-      <c r="B153" s="1" t="s">
+    <row r="154" spans="2:9">
+      <c r="B154" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E153" s="6" t="s">
+      <c r="E154" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G153" s="4" t="str">
+      <c r="G154" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H153" s="5" t="str">
+      <c r="H154" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I153" s="6" t="str">
+      <c r="I154" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="154" spans="2:9">
-      <c r="B154" s="1" t="s">
+    <row r="155" spans="2:9">
+      <c r="B155" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="E155" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G154" s="4" t="str">
+      <c r="G155" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H154" s="5" t="str">
+      <c r="H155" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I154" s="6" t="str">
+      <c r="I155" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="155" spans="2:9">
-      <c r="B155" s="1" t="s">
+    <row r="156" spans="2:9">
+      <c r="B156" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C156" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D156" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E156" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G155" s="4" t="str">
+      <c r="G156" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.TreeResult.050=★失敗しました</v>
       </c>
-      <c r="H155" s="5" t="str">
+      <c r="H156" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.TreeResult.050=★Failed</v>
       </c>
-      <c r="I155" s="6" t="str">
+      <c r="I156" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.TreeResult.050=★失败</v>
       </c>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009FE7A4-142F-4DBE-8C6B-D190CF27E0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB2D98B-1195-47CC-B06C-2B4A48D4E885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1876,10 +1876,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fx.EditPairingPane.010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>組み合わせ編集</t>
     <rPh sb="0" eb="1">
       <t>ク</t>
@@ -1898,6 +1894,10 @@
   </si>
   <si>
     <t>组合编辑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.EditCompareInfoPane.010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3133,28 +3133,28 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>496</v>
-      </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.EditPairingPane.010=組み合わせ編集</v>
+        <v>fx.EditCompareInfoPane.010=組み合わせ編集</v>
       </c>
       <c r="H31" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.EditPairingPane.010=Edit Pairing</v>
+        <v>fx.EditCompareInfoPane.010=Edit Pairing</v>
       </c>
       <c r="I31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.EditPairingPane.010=组合编辑</v>
+        <v>fx.EditCompareInfoPane.010=组合编辑</v>
       </c>
     </row>
     <row r="32" spans="2:9">

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB2D98B-1195-47CC-B06C-2B4A48D4E885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC57292-6BAC-426F-BE5B-F76E6669D042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1897,7 +1897,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fx.EditCompareInfoPane.010</t>
+    <t>fx.EditComparisonPane.010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3146,15 +3146,15 @@
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.EditCompareInfoPane.010=組み合わせ編集</v>
+        <v>fx.EditComparisonPane.010=組み合わせ編集</v>
       </c>
       <c r="H31" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.EditCompareInfoPane.010=Edit Pairing</v>
+        <v>fx.EditComparisonPane.010=Edit Pairing</v>
       </c>
       <c r="I31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.EditCompareInfoPane.010=组合编辑</v>
+        <v>fx.EditComparisonPane.010=组合编辑</v>
       </c>
     </row>
     <row r="32" spans="2:9">

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC57292-6BAC-426F-BE5B-F76E6669D042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46928293-1C90-4254-BD38-BED44101C352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="501">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -1898,6 +1898,25 @@
   </si>
   <si>
     <t>fx.EditComparisonPane.010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.SettingsPane2.030</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統計情報の収集に同意する</t>
+    <rPh sb="8" eb="10">
+      <t>ドウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同意收集使用统计信息</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Allow usage data collection</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2336,7 +2355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I156"/>
+  <dimension ref="B1:I157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2417,15 +2436,15 @@
         <v>3</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G73" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
+        <f t="shared" ref="G3:G74" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H73" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
+        <f t="shared" ref="H3:H74" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I73" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
+        <f t="shared" ref="I3:I74" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
     </row>
@@ -2977,3268 +2996,3294 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>497</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>32</v>
+        <v>498</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>133</v>
+        <v>500</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>182</v>
+        <v>499</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.workDir.010=開く</v>
+        <v>fx.SettingsPane2.030=統計情報の収集に同意する</v>
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.workDir.010=Open</v>
+        <v>fx.SettingsPane2.030=Allow usage data collection</v>
       </c>
       <c r="I25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.workDir.010=打开</v>
+        <v>fx.SettingsPane2.030=同意收集使用统计信息</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>399</v>
+        <v>182</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.workDir.020=変更...</v>
+        <v>fx.SettingsPane2.workDir.010=開く</v>
       </c>
       <c r="H26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.workDir.020=Change...</v>
+        <v>fx.SettingsPane2.workDir.010=Open</v>
       </c>
       <c r="I26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.workDir.020=改变...</v>
+        <v>fx.SettingsPane2.workDir.010=打开</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.workDir.030=削除...</v>
+        <v>fx.SettingsPane2.workDir.020=変更...</v>
       </c>
       <c r="H27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.workDir.030=Delete...</v>
+        <v>fx.SettingsPane2.workDir.020=Change...</v>
       </c>
       <c r="I27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.workDir.030=删除...</v>
+        <v>fx.SettingsPane2.workDir.020=改变...</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>361</v>
+        <v>36</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>357</v>
+        <v>135</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.TargetSelectionPane.010=ブックパス：</v>
+        <v>fx.SettingsPane2.workDir.030=削除...</v>
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">fx.TargetSelectionPane.010=Book Path : </v>
+        <v>fx.SettingsPane2.workDir.030=Delete...</v>
       </c>
       <c r="I28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.TargetSelectionPane.010=工作簿路径：</v>
+        <v>fx.SettingsPane2.workDir.030=删除...</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>6</v>
+        <v>361</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.TargetSelectionPane.020=シート名：</v>
+        <v>fx.TargetSelectionPane.010=ブックパス：</v>
       </c>
       <c r="H29" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">fx.TargetSelectionPane.020=Sheet Name : </v>
+        <v xml:space="preserve">fx.TargetSelectionPane.010=Book Path : </v>
       </c>
       <c r="I29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.TargetSelectionPane.020=工作表名称：</v>
+        <v>fx.TargetSelectionPane.010=工作簿路径：</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>282</v>
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="G30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.TargetSelectionPane.030=フォルダパス：</v>
+        <v>fx.TargetSelectionPane.020=シート名：</v>
       </c>
       <c r="H30" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">fx.TargetSelectionPane.030=Folder Path : </v>
+        <v xml:space="preserve">fx.TargetSelectionPane.020=Sheet Name : </v>
       </c>
       <c r="I30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.TargetSelectionPane.030=文件夹路径：</v>
+        <v>fx.TargetSelectionPane.020=工作表名称：</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>fx.TargetSelectionPane.030=フォルダパス：</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fx.TargetSelectionPane.030=Folder Path : </v>
+      </c>
+      <c r="I31" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>fx.TargetSelectionPane.030=文件夹路径：</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="G31" s="4" t="str">
+      <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fx.EditComparisonPane.010=組み合わせ編集</v>
       </c>
-      <c r="H31" s="5" t="str">
+      <c r="H32" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.EditComparisonPane.010=Edit Pairing</v>
       </c>
-      <c r="I31" s="6" t="str">
+      <c r="I32" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.EditComparisonPane.010=组合编辑</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
-      <c r="G32" s="4" t="str">
+    <row r="33" spans="2:9">
+      <c r="G33" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="5" t="str">
+      <c r="H33" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I32" s="6" t="str">
+      <c r="I33" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="G33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.010=比較フォルダ%s：</v>
-      </c>
-      <c r="H33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.010=Folder %s : </v>
-      </c>
-      <c r="I33" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.010=文件夹%s：</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.010=比較フォルダ%s：</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.010=Folder %s : </v>
+      </c>
+      <c r="I34" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.010=文件夹%s：</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="G34" s="4" t="str">
+      <c r="G35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>excel.poi.usermodel.TreeResultBookCreator.020=作業用フォルダ：</v>
       </c>
-      <c r="H34" s="5" t="str">
+      <c r="H35" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.020=working dir : </v>
       </c>
-      <c r="I34" s="6" t="str">
+      <c r="I35" s="6" t="str">
         <f t="shared" si="2"/>
         <v>excel.poi.usermodel.TreeResultBookCreator.020=工作文件夹：</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
-      <c r="G35" s="4" t="str">
+    <row r="36" spans="2:9">
+      <c r="G36" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="5" t="str">
+      <c r="H36" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I35" s="6" t="str">
+      <c r="I36" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="G36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.MainController.010=同じフォルダ同士／ブック同士／シート同士を比較することはできません。</v>
-      </c>
-      <c r="H36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.MainController.010=Please specify different folders/books/sheets.</v>
-      </c>
-      <c r="I36" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.MainController.010=指定非相同的文件夹／工作簿／工作表。</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>194</v>
+        <v>60</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
+        <v>gui.MainController.010=同じフォルダ同士／ブック同士／シート同士を比較することはできません。</v>
       </c>
       <c r="H37" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
+        <v>gui.MainController.010=Please specify different folders/books/sheets.</v>
       </c>
       <c r="I37" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
+        <v>gui.MainController.010=指定非相同的文件夹／工作簿／工作表。</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>184</v>
+        <v>404</v>
       </c>
       <c r="G38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.MainController.030=予期せぬ例外が発生しました。</v>
+        <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
       </c>
       <c r="H38" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.MainController.030=Unexpected exception occurred.</v>
+        <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
       </c>
       <c r="I38" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.MainController.030=意外的例外。</v>
+        <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="2" t="s">
-        <v>373</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>381</v>
+        <v>184</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f t="shared" ref="G39:G43" si="3" xml:space="preserve"> IF($B39="", "", $B39 &amp; "=" &amp; C39)</f>
-        <v>gui.MainController.040=作業用フォルダの作成に失敗しました。</v>
+        <f t="shared" si="0"/>
+        <v>gui.MainController.030=予期せぬ例外が発生しました。</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f t="shared" ref="H39:H43" si="4" xml:space="preserve"> IF($B39="", "", $B39 &amp; "=" &amp; D39)</f>
-        <v>gui.MainController.040=Failed to create working directory.</v>
+        <f t="shared" si="1"/>
+        <v>gui.MainController.030=Unexpected exception occurred.</v>
       </c>
       <c r="I39" s="6" t="str">
-        <f t="shared" ref="I39:I43" si="5" xml:space="preserve"> IF($B39="", "", $B39 &amp; "=" &amp; E39)</f>
-        <v>gui.MainController.040=创建工作文件夹失败。</v>
+        <f t="shared" si="2"/>
+        <v>gui.MainController.030=意外的例外。</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" ref="G40:G44" si="3" xml:space="preserve"> IF($B40="", "", $B40 &amp; "=" &amp; C40)</f>
+        <v>gui.MainController.040=作業用フォルダの作成に失敗しました。</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f t="shared" ref="H40:H44" si="4" xml:space="preserve"> IF($B40="", "", $B40 &amp; "=" &amp; D40)</f>
+        <v>gui.MainController.040=Failed to create working directory.</v>
+      </c>
+      <c r="I40" s="6" t="str">
+        <f t="shared" ref="I40:I44" si="5" xml:space="preserve"> IF($B40="", "", $B40 &amp; "=" &amp; E40)</f>
+        <v>gui.MainController.040=创建工作文件夹失败。</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="G40" s="4" t="str">
+      <c r="G41" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.050=別の場所を指定してください。</v>
       </c>
-      <c r="H40" s="5" t="str">
+      <c r="H41" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.050=Please specify another location.</v>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="I41" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.050=请指定其他位置。</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="2" t="s">
+    <row r="42" spans="2:9">
+      <c r="B42" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="G41" s="4" t="str">
+      <c r="G42" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.060=作業用フォルダの変更</v>
       </c>
-      <c r="H41" s="5" t="str">
+      <c r="H42" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.060=Change working directory</v>
       </c>
-      <c r="I41" s="6" t="str">
+      <c r="I42" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.060=改变工作文件夹</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="2" t="s">
+    <row r="43" spans="2:9">
+      <c r="B43" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="G42" s="4" t="str">
+      <c r="G43" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.070=処理を中止しました。</v>
       </c>
-      <c r="H42" s="5" t="str">
+      <c r="H43" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.070=Processing has been canceled.</v>
       </c>
-      <c r="I42" s="6" t="str">
+      <c r="I43" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.070=处理已被取消。</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="2" t="s">
+    <row r="44" spans="2:9">
+      <c r="B44" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G43" s="4" t="str">
+      <c r="G44" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.PasswordDialog.010=パスワード指定</v>
       </c>
-      <c r="H43" s="5" t="str">
+      <c r="H44" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.PasswordDialog.010=Enter Password</v>
       </c>
-      <c r="I43" s="6" t="str">
+      <c r="I44" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.PasswordDialog.010=输入密码</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="2" t="s">
+    <row r="45" spans="2:9">
+      <c r="B45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="G44" s="4" t="str">
+      <c r="G45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.PasswordDialogPane.010=%s はパスワードで保護されています。</v>
       </c>
-      <c r="H44" s="5" t="str">
+      <c r="H45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.PasswordDialogPane.010=The book [%s] is password protected.</v>
       </c>
-      <c r="I44" s="6" t="str">
+      <c r="I45" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.PasswordDialogPane.010=%s 是受密码保护的。</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="G45" s="4" t="str">
+    <row r="46" spans="2:9">
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="G46" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H45" s="5" t="str">
+      <c r="H46" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I45" s="6" t="str">
+      <c r="I46" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="2" t="s">
+    <row r="47" spans="2:9">
+      <c r="B47" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="G46" s="4" t="str">
+      <c r="G47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.LinkPane.010=Webページの表示に失敗しました。ご利用のブラウザでお試しください。</v>
       </c>
-      <c r="H46" s="5" t="str">
+      <c r="H47" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.LinkPane.010=Failed to open the website. Please try using your browser.</v>
       </c>
-      <c r="I46" s="6" t="str">
+      <c r="I47" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.LinkPane.010=网页未能显示。 请尝试使用你的浏览器。</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G47" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
-      </c>
-      <c r="H47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
-      </c>
-      <c r="I47" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>54</v>
+        <v>198</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
+        <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
       </c>
       <c r="H48" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
+        <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
+        <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="7" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G49" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
+        <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
       </c>
       <c r="H49" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.020=Change working directory</v>
+        <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
+        <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
+        <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
       </c>
       <c r="H50" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
+        <v>gui.component.SettingsPane2.020=Change working directory</v>
       </c>
       <c r="I50" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
+        <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G51" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
+        <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
       </c>
       <c r="H51" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
+        <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
+        <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="7" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>50</v>
+        <v>412</v>
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+        <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
       </c>
       <c r="H52" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+        <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
       </c>
       <c r="I52" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+        <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
       <c r="H53" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>256</v>
+        <v>51</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
       <c r="H54" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>413</v>
+        <v>52</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
       <c r="H55" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
+        <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
       </c>
       <c r="H56" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
+        <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
       </c>
       <c r="I56" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
+        <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>183</v>
+        <v>414</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
+        <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
       </c>
       <c r="H57" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.030=Excel book</v>
+        <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
       </c>
       <c r="I57" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
+        <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>366</v>
+        <v>49</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>356</v>
+        <v>139</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>415</v>
+        <v>183</v>
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
+        <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
       </c>
       <c r="H58" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
+        <v>gui.component.TargetSelectionPane.030=Excel book</v>
       </c>
       <c r="I58" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
+        <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="7" t="s">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="G59" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.050=シートが見つかりません：</v>
+        <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
       </c>
       <c r="H59" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">gui.component.TargetSelectionPane.050=No such sheet : </v>
+        <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
       </c>
       <c r="I59" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.050=没有找到工作表：</v>
+        <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.component.TargetSelectionPane.050=シートが見つかりません：</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">gui.component.TargetSelectionPane.050=No such sheet : </v>
+      </c>
+      <c r="I60" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.component.TargetSelectionPane.050=没有找到工作表：</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="G60" s="4" t="str">
-        <f t="shared" ref="G60" si="6" xml:space="preserve"> IF($B60="", "", $B60 &amp; "=" &amp; C60)</f>
+      <c r="G61" s="4" t="str">
+        <f t="shared" ref="G61" si="6" xml:space="preserve"> IF($B61="", "", $B61 &amp; "=" &amp; C61)</f>
         <v>gui.component.TargetSelectionPane.060=フォルダを読み込めません：</v>
       </c>
-      <c r="H60" s="5" t="str">
-        <f t="shared" ref="H60" si="7" xml:space="preserve"> IF($B60="", "", $B60 &amp; "=" &amp; D60)</f>
+      <c r="H61" s="5" t="str">
+        <f t="shared" ref="H61" si="7" xml:space="preserve"> IF($B61="", "", $B61 &amp; "=" &amp; D61)</f>
         <v xml:space="preserve">gui.component.TargetSelectionPane.060=Failed to open folder : </v>
       </c>
-      <c r="I60" s="6" t="str">
-        <f t="shared" ref="I60" si="8" xml:space="preserve"> IF($B60="", "", $B60 &amp; "=" &amp; E60)</f>
+      <c r="I61" s="6" t="str">
+        <f t="shared" ref="I61" si="8" xml:space="preserve"> IF($B61="", "", $B61 &amp; "=" &amp; E61)</f>
         <v>gui.component.TargetSelectionPane.060=无法读取文件夹：</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
-      <c r="G61" s="4" t="str">
+    <row r="62" spans="2:9">
+      <c r="G62" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H61" s="5" t="str">
+      <c r="H62" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I61" s="6" t="str">
+      <c r="I62" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppMain.010=方眼Diff</v>
-      </c>
-      <c r="H62" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppMain.010=HoganDiff (方眼Diff)</v>
-      </c>
-      <c r="I62" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppMain.010=方眼Diff</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AppMain.010=方眼Diff</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AppMain.010=HoganDiff (方眼Diff)</v>
+      </c>
+      <c r="I63" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>AppMain.010=方眼Diff</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="G63" s="4" t="str">
+      <c r="G64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppResource.010=設定の保存に失敗しました。</v>
       </c>
-      <c r="H63" s="5" t="str">
+      <c r="H64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppResource.010=Failed to save settings.</v>
       </c>
-      <c r="I63" s="6" t="str">
+      <c r="I64" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppResource.010=保存设置失败。</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-      <c r="G64" s="4" t="str">
+    <row r="65" spans="2:9">
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="G65" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H64" s="5" t="str">
+      <c r="H65" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I64" s="6" t="str">
+      <c r="I65" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="G65" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
-      </c>
-      <c r="H65" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.010=Creating working directory...</v>
-      </c>
-      <c r="I65" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.010=创建工作文件夹...</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>380</v>
+        <v>266</v>
       </c>
       <c r="G66" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
+        <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
       </c>
       <c r="H66" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.020=Failed to create working directory.</v>
+        <v>AppTaskBase.010=Creating working directory...</v>
       </c>
       <c r="I66" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.020=创建工作文件夹失败。</v>
+        <v>AppTaskBase.010=创建工作文件夹...</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="G67" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
+        <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
       </c>
       <c r="H67" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.030=Saving result text...</v>
+        <v>AppTaskBase.020=Failed to create working directory.</v>
       </c>
       <c r="I67" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.030=存储比较结果文本...</v>
+        <v>AppTaskBase.020=创建工作文件夹失败。</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G68" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
+        <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
       </c>
       <c r="H68" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.040=Opening result text...</v>
+        <v>AppTaskBase.030=Saving result text...</v>
       </c>
       <c r="I68" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.040=显示比较结果文本...</v>
+        <v>AppTaskBase.030=存储比较结果文本...</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G69" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
+        <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
       </c>
       <c r="H69" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.050=Failed to save or open result text.</v>
+        <v>AppTaskBase.040=Opening result text...</v>
       </c>
       <c r="I69" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
+        <v>AppTaskBase.040=显示比较结果文本...</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G70" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
+        <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
       </c>
       <c r="H70" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.060=Painting and saving result book(s)...</v>
+        <v>AppTaskBase.050=Failed to save or open result text.</v>
       </c>
       <c r="I70" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.060=着色和存储在工作簿...</v>
+        <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G71" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
+        <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
       </c>
       <c r="H71" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
+        <v>AppTaskBase.060=Painting and saving result book(s)...</v>
       </c>
       <c r="I71" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.070=着色和保存工作簿失败。</v>
+        <v>AppTaskBase.060=着色和存储在工作簿...</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G72" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
+        <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
       </c>
       <c r="H72" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.080=Opening result book(s)...</v>
+        <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
       </c>
       <c r="I72" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.080=显示比较结果的工作簿...</v>
+        <v>AppTaskBase.070=着色和保存工作簿失败。</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G73" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
+        <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
       </c>
       <c r="H73" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.090=Failed to open result book(s).</v>
+        <v>AppTaskBase.080=Opening result book(s)...</v>
       </c>
       <c r="I73" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.090=显示工作簿失败。</v>
+        <v>AppTaskBase.080=显示比较结果的工作簿...</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G74" s="4" t="str">
-        <f t="shared" ref="G74:G142" si="9" xml:space="preserve"> IF($B74="", "", $B74 &amp; "=" &amp; C74)</f>
-        <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
+        <f t="shared" si="0"/>
+        <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
       </c>
       <c r="H74" s="5" t="str">
-        <f t="shared" ref="H74:H142" si="10" xml:space="preserve"> IF($B74="", "", $B74 &amp; "=" &amp; D74)</f>
-        <v>AppTaskBase.100=Failed to paint or save result book A.</v>
+        <f t="shared" si="1"/>
+        <v>AppTaskBase.090=Failed to open result book(s).</v>
       </c>
       <c r="I74" s="6" t="str">
-        <f t="shared" ref="I74:I142" si="11" xml:space="preserve"> IF($B74="", "", $B74 &amp; "=" &amp; E74)</f>
-        <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
+        <f t="shared" si="2"/>
+        <v>AppTaskBase.090=显示工作簿失败。</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" ref="G75:G143" si="9" xml:space="preserve"> IF($B75="", "", $B75 &amp; "=" &amp; C75)</f>
+        <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <f t="shared" ref="H75:H143" si="10" xml:space="preserve"> IF($B75="", "", $B75 &amp; "=" &amp; D75)</f>
+        <v>AppTaskBase.100=Failed to paint or save result book A.</v>
+      </c>
+      <c r="I75" s="6" t="str">
+        <f t="shared" ref="I75:I143" si="11" xml:space="preserve"> IF($B75="", "", $B75 &amp; "=" &amp; E75)</f>
+        <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="G75" s="4" t="str">
+      <c r="G76" s="4" t="str">
         <f t="shared" si="9"/>
         <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
       </c>
-      <c r="H75" s="5" t="str">
+      <c r="H76" s="5" t="str">
         <f t="shared" si="10"/>
         <v>AppTaskBase.110=Failed to paint or save result book B.</v>
       </c>
-      <c r="I75" s="6" t="str">
+      <c r="I76" s="6" t="str">
         <f t="shared" si="11"/>
         <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="7" t="s">
+    <row r="77" spans="2:9">
+      <c r="B77" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="G76" s="4" t="str">
+      <c r="G77" s="4" t="str">
         <f t="shared" si="9"/>
         <v>AppTaskBase.120=処理が完了しました。</v>
       </c>
-      <c r="H76" s="5" t="str">
+      <c r="H77" s="5" t="str">
         <f t="shared" si="10"/>
         <v>AppTaskBase.120=Process completed.</v>
       </c>
-      <c r="I76" s="6" t="str">
+      <c r="I77" s="6" t="str">
         <f t="shared" si="11"/>
         <v>AppTaskBase.120=过程完成。</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="1" t="s">
+    <row r="78" spans="2:9">
+      <c r="B78" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G77" s="4" t="str">
+      <c r="G78" s="4" t="str">
         <f t="shared" si="9"/>
         <v>AppTaskBase.130=比較結果フォルダを表示しています...</v>
       </c>
-      <c r="H77" s="5" t="str">
+      <c r="H78" s="5" t="str">
         <f t="shared" si="10"/>
         <v>AppTaskBase.130=Opening result folder...</v>
       </c>
-      <c r="I77" s="6" t="str">
+      <c r="I78" s="6" t="str">
         <f t="shared" si="11"/>
         <v>AppTaskBase.130=显示比较结果文件夹...</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="1" t="s">
+    <row r="79" spans="2:9">
+      <c r="B79" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="G78" s="4" t="str">
+      <c r="G79" s="4" t="str">
         <f t="shared" si="9"/>
         <v>AppTaskBase.140=比較結果フォルダの表示に失敗しました。</v>
       </c>
-      <c r="H78" s="5" t="str">
+      <c r="H79" s="5" t="str">
         <f t="shared" si="10"/>
         <v>AppTaskBase.140=Failed to open result folder(s).</v>
       </c>
-      <c r="I78" s="6" t="str">
+      <c r="I79" s="6" t="str">
         <f t="shared" si="11"/>
         <v>AppTaskBase.140=显示文件夹失败。</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="2:9">
+      <c r="B80" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E80" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G79" s="4" t="str">
+      <c r="G80" s="4" t="str">
         <f t="shared" si="9"/>
         <v>AppTaskBase.150=★失敗しました</v>
       </c>
-      <c r="H79" s="5" t="str">
+      <c r="H80" s="5" t="str">
         <f t="shared" si="10"/>
         <v>AppTaskBase.150=★Failed</v>
       </c>
-      <c r="I79" s="6" t="str">
+      <c r="I80" s="6" t="str">
         <f t="shared" si="11"/>
         <v>AppTaskBase.150=★失败</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="1" t="s">
+    <row r="81" spans="2:9">
+      <c r="B81" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G80" s="4" t="str">
+      <c r="G81" s="4" t="str">
         <f t="shared" si="9"/>
         <v>AppTaskBase.160=(比較対象ファイルなし)</v>
       </c>
-      <c r="H80" s="5" t="str">
+      <c r="H81" s="5" t="str">
         <f t="shared" si="10"/>
         <v>AppTaskBase.160=(No files to compare)</v>
       </c>
-      <c r="I80" s="6" t="str">
+      <c r="I81" s="6" t="str">
         <f t="shared" si="11"/>
         <v>AppTaskBase.160=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="G81" s="4" t="str">
-        <f t="shared" ref="G81:G85" si="12" xml:space="preserve"> IF($B81="", "", $B81 &amp; "=" &amp; C81)</f>
-        <v>AppTaskBase.170=メモリ不足のため処理が失敗しました。\n割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
-      </c>
-      <c r="H81" s="5" t="str">
-        <f t="shared" ref="H81:H85" si="13" xml:space="preserve"> IF($B81="", "", $B81 &amp; "=" &amp; D81)</f>
-        <v>AppTaskBase.170=Processing failed due to insufficient memory.\nPlease increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
-      </c>
-      <c r="I81" s="6" t="str">
-        <f t="shared" ref="I81:I85" si="14" xml:space="preserve"> IF($B81="", "", $B81 &amp; "=" &amp; E81)</f>
-        <v>AppTaskBase.170=由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
-      </c>
-    </row>
     <row r="82" spans="2:9">
       <c r="B82" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" ref="G82:G86" si="12" xml:space="preserve"> IF($B82="", "", $B82 &amp; "=" &amp; C82)</f>
+        <v>AppTaskBase.170=メモリ不足のため処理が失敗しました。\n割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
+      </c>
+      <c r="H82" s="5" t="str">
+        <f t="shared" ref="H82:H86" si="13" xml:space="preserve"> IF($B82="", "", $B82 &amp; "=" &amp; D82)</f>
+        <v>AppTaskBase.170=Processing failed due to insufficient memory.\nPlease increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
+      </c>
+      <c r="I82" s="6" t="str">
+        <f t="shared" ref="I82:I86" si="14" xml:space="preserve"> IF($B82="", "", $B82 &amp; "=" &amp; E82)</f>
+        <v>AppTaskBase.170=由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G82" s="4" t="str">
+      <c r="G83" s="4" t="str">
         <f t="shared" si="12"/>
         <v>AppTaskBase.180=予期せぬ例外が発生しました。</v>
       </c>
-      <c r="H82" s="5" t="str">
+      <c r="H83" s="5" t="str">
         <f t="shared" si="13"/>
         <v>AppTaskBase.180=Unexpected exception occurred.</v>
       </c>
-      <c r="I82" s="6" t="str">
+      <c r="I83" s="6" t="str">
         <f t="shared" si="14"/>
         <v>AppTaskBase.180=意外的例外。</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="1" t="s">
+    <row r="84" spans="2:9">
+      <c r="B84" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="G83" s="4" t="str">
-        <f t="shared" ref="G83" si="15" xml:space="preserve"> IF($B83="", "", $B83 &amp; "=" &amp; C83)</f>
+      <c r="G84" s="4" t="str">
+        <f t="shared" ref="G84" si="15" xml:space="preserve"> IF($B84="", "", $B84 &amp; "=" &amp; C84)</f>
         <v>AppTaskBase.190=フォルダのロードに失敗しました。</v>
       </c>
-      <c r="H83" s="5" t="str">
-        <f t="shared" ref="H83" si="16" xml:space="preserve"> IF($B83="", "", $B83 &amp; "=" &amp; D83)</f>
+      <c r="H84" s="5" t="str">
+        <f t="shared" ref="H84" si="16" xml:space="preserve"> IF($B84="", "", $B84 &amp; "=" &amp; D84)</f>
         <v>AppTaskBase.190=Failed to load directories.</v>
       </c>
-      <c r="I83" s="6" t="str">
-        <f t="shared" ref="I83" si="17" xml:space="preserve"> IF($B83="", "", $B83 &amp; "=" &amp; E83)</f>
+      <c r="I84" s="6" t="str">
+        <f t="shared" ref="I84" si="17" xml:space="preserve"> IF($B84="", "", $B84 &amp; "=" &amp; E84)</f>
         <v>AppTaskBase.190=无法加载文件夹。</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="2"/>
-      <c r="C84" s="3"/>
-      <c r="G84" s="4" t="str">
+    <row r="85" spans="2:9">
+      <c r="B85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="G85" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H84" s="5" t="str">
+      <c r="H85" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I84" s="6" t="str">
+      <c r="I85" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="7" t="s">
+    <row r="86" spans="2:9">
+      <c r="B86" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="G85" s="4" t="str">
+      <c r="G86" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
       </c>
-      <c r="H85" s="5" t="str">
+      <c r="H86" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareBooksTask.010=Starting comparing books.</v>
       </c>
-      <c r="I85" s="6" t="str">
+      <c r="I86" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareBooksTask.010=开始互相比较工作簿。</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="7" t="s">
+    <row r="87" spans="2:9">
+      <c r="B87" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E87" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="G86" s="4" t="str">
+      <c r="G87" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
       </c>
-      <c r="H86" s="5" t="str">
+      <c r="H87" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareBooksTask.020=Pairing sheets...</v>
       </c>
-      <c r="I86" s="6" t="str">
+      <c r="I87" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
       </c>
     </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="7" t="s">
+    <row r="88" spans="2:9">
+      <c r="B88" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="G87" s="4" t="str">
+      <c r="G88" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H87" s="5" t="str">
+      <c r="H88" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareBooksTask.030=Failed to pair sheets.</v>
       </c>
-      <c r="I87" s="6" t="str">
+      <c r="I88" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareBooksTask.030=确定工作表组合失败。</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="7" t="s">
+    <row r="89" spans="2:9">
+      <c r="B89" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="G88" s="4" t="str">
+      <c r="G89" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareBooksTask.040=シートを比較しています...</v>
       </c>
-      <c r="H88" s="5" t="str">
+      <c r="H89" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareBooksTask.040=Comparing sheets...</v>
       </c>
-      <c r="I88" s="6" t="str">
+      <c r="I89" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareBooksTask.040=比较工作表...</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="7" t="s">
+    <row r="90" spans="2:9">
+      <c r="B90" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="G89" s="4" t="str">
+      <c r="G90" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
       </c>
-      <c r="H89" s="5" t="str">
+      <c r="H90" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareBooksTask.050=Failed to compare sheets.</v>
       </c>
-      <c r="I89" s="6" t="str">
+      <c r="I90" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareBooksTask.050=工作表比较失败。</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="2"/>
-      <c r="C90" s="3"/>
-      <c r="G90" s="4" t="str">
+    <row r="91" spans="2:9">
+      <c r="B91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="G91" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H90" s="5" t="str">
+      <c r="H91" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I90" s="6" t="str">
+      <c r="I91" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:9">
-      <c r="B91" s="7" t="s">
+    <row r="92" spans="2:9">
+      <c r="B92" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="G91" s="4" t="str">
+      <c r="G92" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
       </c>
-      <c r="H91" s="5" t="str">
+      <c r="H92" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareDirsTask.010=Starting comparing folders.</v>
       </c>
-      <c r="I91" s="6" t="str">
+      <c r="I92" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareDirsTask.010=开始互相比较文件夹。</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="7" t="s">
+    <row r="93" spans="2:9">
+      <c r="B93" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="G92" s="4" t="str">
+      <c r="G93" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
       </c>
-      <c r="H92" s="5" t="str">
+      <c r="H93" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareDirsTask.020=Failed to create output directory.</v>
       </c>
-      <c r="I92" s="6" t="str">
+      <c r="I93" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="7" t="s">
+    <row r="94" spans="2:9">
+      <c r="B94" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E94" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="G93" s="4" t="str">
+      <c r="G94" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
       </c>
-      <c r="H93" s="5" t="str">
+      <c r="H94" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareDirsTask.030=Pairing books...</v>
       </c>
-      <c r="I93" s="6" t="str">
+      <c r="I94" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
-      <c r="B94" s="7" t="s">
+    <row r="95" spans="2:9">
+      <c r="B95" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="G94" s="4" t="str">
+      <c r="G95" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H94" s="5" t="str">
+      <c r="H95" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareDirsTask.040=Failed to pair books.</v>
       </c>
-      <c r="I94" s="6" t="str">
+      <c r="I95" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareDirsTask.040=确定工作簿组合失败。</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="7" t="s">
+    <row r="96" spans="2:9">
+      <c r="B96" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="G95" s="4" t="str">
+      <c r="G96" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareDirsTask.050=Excelブックを比較しています...</v>
       </c>
-      <c r="H95" s="5" t="str">
+      <c r="H96" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareDirsTask.050=Comparing books...</v>
       </c>
-      <c r="I95" s="6" t="str">
+      <c r="I96" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareDirsTask.050=比较工作簿...</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="7" t="s">
+    <row r="97" spans="2:9">
+      <c r="B97" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E97" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G96" s="4" t="str">
+      <c r="G97" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareDirsTask.060=★失敗しました</v>
       </c>
-      <c r="H96" s="5" t="str">
+      <c r="H97" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareDirsTask.060=★Failed</v>
       </c>
-      <c r="I96" s="6" t="str">
+      <c r="I97" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareDirsTask.060=★失败</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="7" t="s">
+    <row r="98" spans="2:9">
+      <c r="B98" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G97" s="4" t="str">
+      <c r="G98" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareDirsTask.070=(比較対象ファイルなし)</v>
       </c>
-      <c r="H97" s="5" t="str">
+      <c r="H98" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareDirsTask.070=(No files to compare)</v>
       </c>
-      <c r="I97" s="6" t="str">
+      <c r="I98" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareDirsTask.070=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="7" t="s">
+    <row r="99" spans="2:9">
+      <c r="B99" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E99" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="G98" s="4" t="str">
-        <f t="shared" ref="G98" si="18" xml:space="preserve"> IF($B98="", "", $B98 &amp; "=" &amp; C98)</f>
+      <c r="G99" s="4" t="str">
+        <f t="shared" ref="G99" si="18" xml:space="preserve"> IF($B99="", "", $B99 &amp; "=" &amp; C99)</f>
         <v>CompareDirsTask.080=フォルダの比較に失敗しました。</v>
       </c>
-      <c r="H98" s="5" t="str">
-        <f t="shared" ref="H98" si="19" xml:space="preserve"> IF($B98="", "", $B98 &amp; "=" &amp; D98)</f>
+      <c r="H99" s="5" t="str">
+        <f t="shared" ref="H99" si="19" xml:space="preserve"> IF($B99="", "", $B99 &amp; "=" &amp; D99)</f>
         <v>CompareDirsTask.080=Failed to compare folders.</v>
       </c>
-      <c r="I98" s="6" t="str">
-        <f t="shared" ref="I98" si="20" xml:space="preserve"> IF($B98="", "", $B98 &amp; "=" &amp; E98)</f>
+      <c r="I99" s="6" t="str">
+        <f t="shared" ref="I99" si="20" xml:space="preserve"> IF($B99="", "", $B99 &amp; "=" &amp; E99)</f>
         <v>CompareDirsTask.080=文件夹比较失败。</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="2"/>
-      <c r="C99" s="3"/>
-      <c r="G99" s="4" t="str">
+    <row r="100" spans="2:9">
+      <c r="B100" s="2"/>
+      <c r="C100" s="3"/>
+      <c r="G100" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H99" s="5" t="str">
+      <c r="H100" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I99" s="6" t="str">
+      <c r="I100" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="7" t="s">
+    <row r="101" spans="2:9">
+      <c r="B101" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="G100" s="4" t="str">
+      <c r="G101" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
       </c>
-      <c r="H100" s="5" t="str">
+      <c r="H101" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareSheetsTask.010=Starting comparing sheets.</v>
       </c>
-      <c r="I100" s="6" t="str">
+      <c r="I101" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="7" t="s">
+    <row r="102" spans="2:9">
+      <c r="B102" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E102" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="G101" s="4" t="str">
+      <c r="G102" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareSheetsTask.020=シートを比較しています...</v>
       </c>
-      <c r="H101" s="5" t="str">
+      <c r="H102" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareSheetsTask.020=Comparing sheets...</v>
       </c>
-      <c r="I101" s="6" t="str">
+      <c r="I102" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareSheetsTask.020=比较工作表...</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="7" t="s">
+    <row r="103" spans="2:9">
+      <c r="B103" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E103" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="G102" s="4" t="str">
+      <c r="G103" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
       </c>
-      <c r="H102" s="5" t="str">
+      <c r="H103" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareSheetsTask.030=Failed to compare sheets.</v>
       </c>
-      <c r="I102" s="6" t="str">
+      <c r="I103" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareSheetsTask.030=工作表比较失败。</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="2"/>
-      <c r="C103" s="3"/>
-      <c r="G103" s="4" t="str">
+    <row r="104" spans="2:9">
+      <c r="B104" s="2"/>
+      <c r="C104" s="3"/>
+      <c r="G104" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H103" s="5" t="str">
+      <c r="H104" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I103" s="6" t="str">
+      <c r="I104" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:9">
-      <c r="B104" s="1" t="s">
+    <row r="105" spans="2:9">
+      <c r="B105" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E105" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="G104" s="4" t="str">
+      <c r="G105" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
       </c>
-      <c r="H104" s="5" t="str">
+      <c r="H105" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.010=Starting comparing folder trees.</v>
       </c>
-      <c r="I104" s="6" t="str">
+      <c r="I105" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="1" t="s">
+    <row r="106" spans="2:9">
+      <c r="B106" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E106" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="G105" s="4" t="str">
+      <c r="G106" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
       </c>
-      <c r="H105" s="5" t="str">
+      <c r="H106" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.020=Pairing folders...</v>
       </c>
-      <c r="I105" s="6" t="str">
+      <c r="I106" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
-      <c r="B106" s="1" t="s">
+    <row r="107" spans="2:9">
+      <c r="B107" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E107" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="G106" s="4" t="str">
+      <c r="G107" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H106" s="5" t="str">
+      <c r="H107" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.030=Failed to pair folders.</v>
       </c>
-      <c r="I106" s="6" t="str">
+      <c r="I107" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.030=确定文件夹组合失败。</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
-      <c r="B107" s="1" t="s">
+    <row r="108" spans="2:9">
+      <c r="B108" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E108" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G107" s="4" t="str">
+      <c r="G108" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
       </c>
-      <c r="H107" s="5" t="str">
+      <c r="H108" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.040=Comparing folders...</v>
       </c>
-      <c r="I107" s="6" t="str">
+      <c r="I108" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.040=比较文件夹...</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="1" t="s">
+    <row r="109" spans="2:9">
+      <c r="B109" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E109" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G108" s="4" t="str">
+      <c r="G109" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.050=★失敗しました</v>
       </c>
-      <c r="H108" s="5" t="str">
+      <c r="H109" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.050=★Failed</v>
       </c>
-      <c r="I108" s="6" t="str">
+      <c r="I109" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.050=★失败</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
-      <c r="B109" s="1" t="s">
+    <row r="110" spans="2:9">
+      <c r="B110" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E110" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G109" s="4" t="str">
+      <c r="G110" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.060=(比較対象ファイルなし)</v>
       </c>
-      <c r="H109" s="5" t="str">
+      <c r="H110" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.060=(No files to compare)</v>
       </c>
-      <c r="I109" s="6" t="str">
+      <c r="I110" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.060=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="2" t="s">
+    <row r="111" spans="2:9">
+      <c r="B111" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E111" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="G110" s="4" t="str">
+      <c r="G111" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.070=比較結果Excelブックを保存しています...</v>
       </c>
-      <c r="H110" s="5" t="str">
+      <c r="H111" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.070=Saving result book...</v>
       </c>
-      <c r="I110" s="6" t="str">
+      <c r="I111" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.070=存储比较结果工作簿...</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="2" t="s">
+    <row r="112" spans="2:9">
+      <c r="B112" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E112" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="G111" s="4" t="str">
+      <c r="G112" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
       </c>
-      <c r="H111" s="5" t="str">
+      <c r="H112" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.080=Failed to save result book.</v>
       </c>
-      <c r="I111" s="6" t="str">
+      <c r="I112" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
-      <c r="B112" s="2" t="s">
+    <row r="113" spans="2:9">
+      <c r="B113" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E113" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="G112" s="4" t="str">
+      <c r="G113" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
       </c>
-      <c r="H112" s="5" t="str">
+      <c r="H113" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.090=Opening result book...</v>
       </c>
-      <c r="I112" s="6" t="str">
+      <c r="I113" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.090=显示比较结果工作簿...</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
-      <c r="B113" s="2" t="s">
+    <row r="114" spans="2:9">
+      <c r="B114" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E114" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="G113" s="4" t="str">
+      <c r="G114" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.100=比較結果Excelブックの表示に失敗しました。</v>
       </c>
-      <c r="H113" s="5" t="str">
+      <c r="H114" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.100=Failed to open result book.</v>
       </c>
-      <c r="I113" s="6" t="str">
+      <c r="I114" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.100=显示比较结果工作簿失败。</v>
       </c>
     </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="2" t="s">
+    <row r="115" spans="2:9">
+      <c r="B115" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E115" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="G114" s="4" t="str">
+      <c r="G115" s="4" t="str">
         <f t="shared" si="9"/>
         <v>CompareTreesTask.110=フォルダツリーの比較に失敗しました。</v>
       </c>
-      <c r="H114" s="5" t="str">
+      <c r="H115" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CompareTreesTask.110=Failed to compare folder trees.</v>
       </c>
-      <c r="I114" s="6" t="str">
+      <c r="I115" s="6" t="str">
         <f t="shared" si="11"/>
         <v>CompareTreesTask.110=文件夹比较失败。</v>
       </c>
     </row>
-    <row r="115" spans="2:9">
-      <c r="B115" s="2"/>
-      <c r="C115" s="3"/>
-      <c r="G115" s="4" t="str">
+    <row r="116" spans="2:9">
+      <c r="B116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="G116" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H115" s="5" t="str">
+      <c r="H116" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I115" s="6" t="str">
+      <c r="I116" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:9">
-      <c r="B116" s="2" t="s">
+    <row r="117" spans="2:9">
+      <c r="B117" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E117" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="G116" s="4" t="str">
+      <c r="G117" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.BResult.010=(比較相手なし)</v>
       </c>
-      <c r="H116" s="5" t="str">
+      <c r="H117" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.BResult.010=(no opponent)</v>
       </c>
-      <c r="I116" s="6" t="str">
+      <c r="I117" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.BResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
-      <c r="B117" s="2" t="s">
+    <row r="118" spans="2:9">
+      <c r="B118" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E118" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="G117" s="4" t="str">
+      <c r="G118" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.BResult.020=(差分なし)</v>
       </c>
-      <c r="H117" s="5" t="str">
+      <c r="H118" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.BResult.020=(no diffs)</v>
       </c>
-      <c r="I117" s="6" t="str">
+      <c r="I118" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.BResult.020=(没有区别)</v>
       </c>
     </row>
-    <row r="118" spans="2:9">
-      <c r="B118" s="7" t="s">
+    <row r="119" spans="2:9">
+      <c r="B119" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E119" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="G118" s="4" t="str">
+      <c r="G119" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.BResult.030=差異発生%dシート</v>
       </c>
-      <c r="H118" s="5" t="str">
+      <c r="H119" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.BResult.030=diff sheets:%d</v>
       </c>
-      <c r="I118" s="6" t="str">
+      <c r="I119" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
-    <row r="119" spans="2:9">
-      <c r="B119" s="7" t="s">
+    <row r="120" spans="2:9">
+      <c r="B120" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E120" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G119" s="4" t="str">
+      <c r="G120" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.BResult.040=余剰%dシート</v>
       </c>
-      <c r="H119" s="5" t="str">
+      <c r="H120" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.BResult.040=redundant sheets:%d</v>
       </c>
-      <c r="I119" s="6" t="str">
+      <c r="I120" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.BResult.040=冗余工作表%d</v>
       </c>
     </row>
-    <row r="120" spans="2:9">
-      <c r="B120" s="7" t="s">
+    <row r="121" spans="2:9">
+      <c r="B121" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E121" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="G120" s="4" t="str">
+      <c r="G121" s="4" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
       </c>
-      <c r="H120" s="5" t="str">
+      <c r="H121" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">excel.BResult.050=Book %s : </v>
       </c>
-      <c r="I120" s="6" t="str">
+      <c r="I121" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.BResult.050=工作簿%s：</v>
       </c>
     </row>
-    <row r="121" spans="2:9">
-      <c r="B121" s="7" t="s">
+    <row r="122" spans="2:9">
+      <c r="B122" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E122" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G121" s="4" t="str">
+      <c r="G122" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H121" s="5" t="str">
+      <c r="H122" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I121" s="6" t="str">
+      <c r="I122" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
-      <c r="B122" s="7" t="s">
+    <row r="123" spans="2:9">
+      <c r="B123" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E123" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G122" s="4" t="str">
+      <c r="G123" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H122" s="5" t="str">
+      <c r="H123" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I122" s="6" t="str">
+      <c r="I123" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="123" spans="2:9">
-      <c r="G123" s="4" t="str">
+    <row r="124" spans="2:9">
+      <c r="G124" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H123" s="5" t="str">
+      <c r="H124" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I123" s="6" t="str">
+      <c r="I124" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:9">
-      <c r="B124" s="2" t="s">
+    <row r="125" spans="2:9">
+      <c r="B125" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E125" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="G124" s="4" t="str">
+      <c r="G125" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
       </c>
-      <c r="H124" s="5" t="str">
+      <c r="H125" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
       </c>
-      <c r="I124" s="6" t="str">
+      <c r="I125" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
-      <c r="G125" s="4" t="str">
+    <row r="126" spans="2:9">
+      <c r="G126" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H125" s="5" t="str">
+      <c r="H126" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I125" s="6" t="str">
+      <c r="I126" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="2:9">
-      <c r="B126" s="7" t="s">
+    <row r="127" spans="2:9">
+      <c r="B127" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="E127" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="G126" s="4" t="str">
+      <c r="G127" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.010=(比較相手なし)</v>
       </c>
-      <c r="H126" s="5" t="str">
+      <c r="H127" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.010=(no opponent)</v>
       </c>
-      <c r="I126" s="6" t="str">
+      <c r="I127" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="127" spans="2:9">
-      <c r="B127" s="7" t="s">
+    <row r="128" spans="2:9">
+      <c r="B128" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="E128" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="G127" s="4" t="str">
+      <c r="G128" s="4" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
       </c>
-      <c r="H127" s="5" t="str">
+      <c r="H128" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
       </c>
-      <c r="I127" s="6" t="str">
+      <c r="I128" s="6" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
       </c>
     </row>
-    <row r="128" spans="2:9">
-      <c r="B128" s="7" t="s">
+    <row r="129" spans="2:9">
+      <c r="B129" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="E129" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G128" s="4" t="str">
+      <c r="G129" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H128" s="5" t="str">
+      <c r="H129" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I128" s="6" t="str">
+      <c r="I129" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="129" spans="2:9">
-      <c r="B129" s="7" t="s">
+    <row r="130" spans="2:9">
+      <c r="B130" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E130" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G129" s="4" t="str">
+      <c r="G130" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H129" s="5" t="str">
+      <c r="H130" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I129" s="6" t="str">
+      <c r="I130" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="130" spans="2:9">
-      <c r="B130" s="7" t="s">
+    <row r="131" spans="2:9">
+      <c r="B131" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="E131" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G130" s="4" t="str">
+      <c r="G131" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.050=★失敗しました</v>
       </c>
-      <c r="H130" s="5" t="str">
+      <c r="H131" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.050=★Failed</v>
       </c>
-      <c r="I130" s="6" t="str">
+      <c r="I131" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.050=★失败</v>
       </c>
     </row>
-    <row r="131" spans="2:9">
-      <c r="B131" s="7" t="s">
+    <row r="132" spans="2:9">
+      <c r="B132" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E132" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="G131" s="4" t="str">
+      <c r="G132" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.060=(差分なし)</v>
       </c>
-      <c r="H131" s="5" t="str">
+      <c r="H132" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.060=(no diffs)</v>
       </c>
-      <c r="I131" s="6" t="str">
+      <c r="I132" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.060=(没有区别)</v>
       </c>
     </row>
-    <row r="132" spans="2:9">
-      <c r="B132" s="1" t="s">
+    <row r="133" spans="2:9">
+      <c r="B133" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E133" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="G132" s="4" t="str">
+      <c r="G133" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.070=差異発生%dブック</v>
       </c>
-      <c r="H132" s="5" t="str">
+      <c r="H133" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.070=diff books:%d</v>
       </c>
-      <c r="I132" s="6" t="str">
+      <c r="I133" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.070=差异工作簿%d</v>
       </c>
     </row>
-    <row r="133" spans="2:9">
-      <c r="B133" s="1" t="s">
+    <row r="134" spans="2:9">
+      <c r="B134" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D134" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E134" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="G133" s="4" t="str">
+      <c r="G134" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.080=余剰%dブック</v>
       </c>
-      <c r="H133" s="5" t="str">
+      <c r="H134" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.080=redundant books:%d</v>
       </c>
-      <c r="I133" s="6" t="str">
+      <c r="I134" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.080=冗余工作簿%d</v>
       </c>
     </row>
-    <row r="134" spans="2:9">
-      <c r="B134" s="1" t="s">
+    <row r="135" spans="2:9">
+      <c r="B135" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="E135" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="G134" s="4" t="str">
+      <c r="G135" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.090=比較失敗%dブック</v>
       </c>
-      <c r="H134" s="5" t="str">
+      <c r="H135" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.090=failed books:%d</v>
       </c>
-      <c r="I134" s="6" t="str">
+      <c r="I135" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.090=失败工作簿%d</v>
       </c>
     </row>
-    <row r="135" spans="2:9">
-      <c r="B135" s="1" t="s">
+    <row r="136" spans="2:9">
+      <c r="B136" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="E136" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G135" s="4" t="str">
+      <c r="G136" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.DResult.100=(比較対象ファイルなし)</v>
       </c>
-      <c r="H135" s="5" t="str">
+      <c r="H136" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.DResult.100=(No files to compare)</v>
       </c>
-      <c r="I135" s="6" t="str">
+      <c r="I136" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.DResult.100=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="136" spans="2:9">
-      <c r="G136" s="4" t="str">
+    <row r="137" spans="2:9">
+      <c r="G137" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H136" s="5" t="str">
+      <c r="H137" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I136" s="6" t="str">
+      <c r="I137" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:9">
-      <c r="B137" s="2" t="s">
+    <row r="138" spans="2:9">
+      <c r="B138" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D138" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E138" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G137" s="4" t="str">
+      <c r="G138" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.SheetType.010=ワークシート</v>
       </c>
-      <c r="H137" s="5" t="str">
+      <c r="H138" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.SheetType.010=Worksheet</v>
       </c>
-      <c r="I137" s="6" t="str">
+      <c r="I138" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
-    <row r="138" spans="2:9">
-      <c r="B138" s="2" t="s">
+    <row r="139" spans="2:9">
+      <c r="B139" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C139" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D139" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E139" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="G138" s="4" t="str">
+      <c r="G139" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.SheetType.020=グラフシート</v>
       </c>
-      <c r="H138" s="5" t="str">
+      <c r="H139" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.SheetType.020=Chart</v>
       </c>
-      <c r="I138" s="6" t="str">
+      <c r="I139" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.SheetType.020=图表表</v>
       </c>
     </row>
-    <row r="139" spans="2:9">
-      <c r="B139" s="2" t="s">
+    <row r="140" spans="2:9">
+      <c r="B140" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E140" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="G139" s="4" t="str">
+      <c r="G140" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
       </c>
-      <c r="H139" s="5" t="str">
+      <c r="H140" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
       </c>
-      <c r="I139" s="6" t="str">
+      <c r="I140" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
       </c>
     </row>
-    <row r="140" spans="2:9">
-      <c r="B140" s="2" t="s">
+    <row r="141" spans="2:9">
+      <c r="B141" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C141" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D141" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="E141" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G140" s="4" t="str">
+      <c r="G141" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
       </c>
-      <c r="H140" s="5" t="str">
+      <c r="H141" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.SheetType.040=Excel 4.0 Macro</v>
       </c>
-      <c r="I140" s="6" t="str">
+      <c r="I141" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.SheetType.040=Excel 4.0 宏表</v>
       </c>
     </row>
-    <row r="141" spans="2:9">
-      <c r="B141" s="2"/>
-      <c r="C141" s="3"/>
-      <c r="G141" s="4" t="str">
+    <row r="142" spans="2:9">
+      <c r="B142" s="2"/>
+      <c r="C142" s="3"/>
+      <c r="G142" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H141" s="5" t="str">
+      <c r="H142" s="5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I141" s="6" t="str">
+      <c r="I142" s="6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:9">
-      <c r="B142" s="2" t="s">
+    <row r="143" spans="2:9">
+      <c r="B143" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D143" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="E143" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="G142" s="4" t="str">
+      <c r="G143" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.SResult.010=(差分なし)</v>
       </c>
-      <c r="H142" s="5" t="str">
+      <c r="H143" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.SResult.010=(no diffs)</v>
       </c>
-      <c r="I142" s="6" t="str">
+      <c r="I143" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
-    <row r="143" spans="2:9">
-      <c r="B143" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G143" s="4" t="str">
-        <f t="shared" ref="G143:G156" si="21" xml:space="preserve"> IF($B143="", "", $B143 &amp; "=" &amp; C143)</f>
-        <v>excel.SResult.020=余剰行%d</v>
-      </c>
-      <c r="H143" s="5" t="str">
-        <f t="shared" ref="H143:H156" si="22" xml:space="preserve"> IF($B143="", "", $B143 &amp; "=" &amp; D143)</f>
-        <v>excel.SResult.020=redundant rows:%d</v>
-      </c>
-      <c r="I143" s="6" t="str">
-        <f t="shared" ref="I143:I156" si="23" xml:space="preserve"> IF($B143="", "", $B143 &amp; "=" &amp; E143)</f>
-        <v>excel.SResult.020=冗余行%d</v>
-      </c>
-    </row>
     <row r="144" spans="2:9">
       <c r="B144" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G144" s="4" t="str">
+        <f t="shared" ref="G144:G157" si="21" xml:space="preserve"> IF($B144="", "", $B144 &amp; "=" &amp; C144)</f>
+        <v>excel.SResult.020=余剰行%d</v>
+      </c>
+      <c r="H144" s="5" t="str">
+        <f t="shared" ref="H144:H157" si="22" xml:space="preserve"> IF($B144="", "", $B144 &amp; "=" &amp; D144)</f>
+        <v>excel.SResult.020=redundant rows:%d</v>
+      </c>
+      <c r="I144" s="6" t="str">
+        <f t="shared" ref="I144:I157" si="23" xml:space="preserve"> IF($B144="", "", $B144 &amp; "=" &amp; E144)</f>
+        <v>excel.SResult.020=冗余行%d</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
+      <c r="B145" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C145" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D145" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E145" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G144" s="4" t="str">
+      <c r="G145" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.SResult.030=余剰列%d</v>
       </c>
-      <c r="H144" s="5" t="str">
+      <c r="H145" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.SResult.030=redundant columns:%d</v>
       </c>
-      <c r="I144" s="6" t="str">
+      <c r="I145" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.SResult.030=冗余列%d</v>
       </c>
     </row>
-    <row r="145" spans="2:9">
-      <c r="B145" s="2" t="s">
+    <row r="146" spans="2:9">
+      <c r="B146" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D146" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E146" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="G145" s="4" t="str">
+      <c r="G146" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.SResult.040=差分セル%d</v>
       </c>
-      <c r="H145" s="5" t="str">
+      <c r="H146" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.SResult.040=diff cells:%d</v>
       </c>
-      <c r="I145" s="6" t="str">
+      <c r="I146" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.SResult.040=差异单元格%d</v>
       </c>
     </row>
-    <row r="146" spans="2:9">
-      <c r="B146" s="2" t="s">
+    <row r="147" spans="2:9">
+      <c r="B147" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E146" s="6" t="s">
+      <c r="E147" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="G146" s="4" t="str">
+      <c r="G147" s="4" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
       </c>
-      <c r="H146" s="5" t="str">
+      <c r="H147" s="5" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
       </c>
-      <c r="I146" s="6" t="str">
+      <c r="I147" s="6" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
       </c>
     </row>
-    <row r="147" spans="2:9">
-      <c r="B147" s="2" t="s">
+    <row r="148" spans="2:9">
+      <c r="B148" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="E148" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G147" s="4" t="str">
+      <c r="G148" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.SResult.060=行%d</v>
       </c>
-      <c r="H147" s="5" t="str">
+      <c r="H148" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.SResult.060=Row %d</v>
       </c>
-      <c r="I147" s="6" t="str">
+      <c r="I148" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.SResult.060=行%d</v>
       </c>
     </row>
-    <row r="148" spans="2:9">
-      <c r="B148" s="2" t="s">
+    <row r="149" spans="2:9">
+      <c r="B149" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E149" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="G148" s="4" t="str">
+      <c r="G149" s="4" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
       </c>
-      <c r="H148" s="5" t="str">
+      <c r="H149" s="5" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
       </c>
-      <c r="I148" s="6" t="str">
+      <c r="I149" s="6" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
       </c>
     </row>
-    <row r="149" spans="2:9">
-      <c r="B149" s="2" t="s">
+    <row r="150" spans="2:9">
+      <c r="B150" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C150" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D150" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E150" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G149" s="4" t="str">
+      <c r="G150" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.SResult.080=%s列</v>
       </c>
-      <c r="H149" s="5" t="str">
+      <c r="H150" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.SResult.080=Column %s</v>
       </c>
-      <c r="I149" s="6" t="str">
+      <c r="I150" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.SResult.080=%s列</v>
       </c>
     </row>
-    <row r="150" spans="2:9">
-      <c r="B150" s="2" t="s">
+    <row r="151" spans="2:9">
+      <c r="B151" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C151" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D151" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E151" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G150" s="4" t="str">
+      <c r="G151" s="4" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">excel.SResult.090=差分セル : </v>
       </c>
-      <c r="H150" s="5" t="str">
+      <c r="H151" s="5" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">excel.SResult.090=Diff cells : </v>
       </c>
-      <c r="I150" s="6" t="str">
+      <c r="I151" s="6" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">excel.SResult.090=差异单元格 : </v>
       </c>
     </row>
-    <row r="151" spans="2:9">
-      <c r="G151" s="4" t="str">
+    <row r="152" spans="2:9">
+      <c r="G152" s="4" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="H151" s="5" t="str">
+      <c r="H152" s="5" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="I151" s="6" t="str">
+      <c r="I152" s="6" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:9">
-      <c r="B152" s="1" t="s">
+    <row r="153" spans="2:9">
+      <c r="B153" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C153" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E152" s="6" t="s">
+      <c r="E153" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="G152" s="4" t="str">
+      <c r="G153" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.TreeResult.010=(比較相手なし)</v>
       </c>
-      <c r="H152" s="5" t="str">
+      <c r="H153" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.TreeResult.010=(no opponent)</v>
       </c>
-      <c r="I152" s="6" t="str">
+      <c r="I153" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.TreeResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="153" spans="2:9">
-      <c r="B153" s="1" t="s">
+    <row r="154" spans="2:9">
+      <c r="B154" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C154" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E153" s="6" t="s">
+      <c r="E154" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="G153" s="4" t="str">
+      <c r="G154" s="4" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
       </c>
-      <c r="H153" s="5" t="str">
+      <c r="H154" s="5" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
       </c>
-      <c r="I153" s="6" t="str">
+      <c r="I154" s="6" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
       </c>
     </row>
-    <row r="154" spans="2:9">
-      <c r="B154" s="1" t="s">
+    <row r="155" spans="2:9">
+      <c r="B155" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="E155" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G154" s="4" t="str">
+      <c r="G155" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H154" s="5" t="str">
+      <c r="H155" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I154" s="6" t="str">
+      <c r="I155" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="155" spans="2:9">
-      <c r="B155" s="1" t="s">
+    <row r="156" spans="2:9">
+      <c r="B156" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C156" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D156" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E156" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G155" s="4" t="str">
+      <c r="G156" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H155" s="5" t="str">
+      <c r="H156" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I155" s="6" t="str">
+      <c r="I156" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="156" spans="2:9">
-      <c r="B156" s="1" t="s">
+    <row r="157" spans="2:9">
+      <c r="B157" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C157" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D157" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="E157" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G156" s="4" t="str">
+      <c r="G157" s="4" t="str">
         <f t="shared" si="21"/>
         <v>excel.TreeResult.050=★失敗しました</v>
       </c>
-      <c r="H156" s="5" t="str">
+      <c r="H157" s="5" t="str">
         <f t="shared" si="22"/>
         <v>excel.TreeResult.050=★Failed</v>
       </c>
-      <c r="I156" s="6" t="str">
+      <c r="I157" s="6" t="str">
         <f t="shared" si="23"/>
         <v>excel.TreeResult.050=★失败</v>
       </c>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46928293-1C90-4254-BD38-BED44101C352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FA7464-8B9B-45AA-A225-102D57E46D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1905,18 +1905,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>統計情報の収集に同意する</t>
+    <t>同意收集使用统计信息</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Allow usage data collection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統計情報の収集に協力する</t>
     <rPh sb="8" eb="10">
-      <t>ドウイ</t>
+      <t>キョウリョク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同意收集使用统计信息</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Allow usage data collection</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2999,17 +2999,17 @@
         <v>497</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>499</v>
-      </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.030=統計情報の収集に同意する</v>
+        <v>fx.SettingsPane2.030=統計情報の収集に協力する</v>
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="1"/>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FA7464-8B9B-45AA-A225-102D57E46D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD15BE9-CA5F-4A27-BCF1-794A9A27A7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,27 +403,12 @@
     <t>Comparison options</t>
   </si>
   <si>
-    <t>consider row insertions/deletions</t>
-  </si>
-  <si>
-    <t>consider column insertions/deletions</t>
-  </si>
-  <si>
-    <t>compare values</t>
-  </si>
-  <si>
-    <t>compare formulas</t>
-  </si>
-  <si>
     <t>Reporting options</t>
   </si>
   <si>
     <t>Execution options</t>
   </si>
   <si>
-    <t>exit this app upon completion</t>
-  </si>
-  <si>
     <t>Language</t>
   </si>
   <si>
@@ -434,9 +419,6 @@
   </si>
   <si>
     <t>Delete...</t>
-  </si>
-  <si>
-    <t>incorrect password</t>
   </si>
   <si>
     <t>Failed to open the website. Please try using your browser.</t>
@@ -1360,14 +1342,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">password : </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">working dir : </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>工作文件夹：</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1727,52 +1701,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>prioritize speed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>prioritize accuracy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>优先考虑速度</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>优先考虑准确性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>比較結果をExcelで表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>比較結果をテキストで表示する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在Excel中显示比较结果</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以文本形式显示比较结果</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>show results in Excel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>show results in text</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1917,6 +1850,88 @@
     <rPh sb="8" eb="10">
       <t>キョウリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差分箇所に色を着けて表示する</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用颜色标记差异</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Consider row insertions/deletions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Consider column insertions/deletions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Compare values</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Compare formulas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exit this app upon completion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prioritize speed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prioritize accuracy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Incorrect password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Password : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Working dir : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較結果レポートを表示する</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Display comparison result report</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Display differences in colors</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>显示比较结果报告</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2378,22 +2393,22 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="2:9">
@@ -2407,7 +2422,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G2" s="4" t="str">
         <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; C2)</f>
@@ -2453,13 +2468,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2479,13 +2494,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2502,16 +2517,16 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2528,16 +2543,16 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2554,16 +2569,16 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2586,10 +2601,10 @@
         <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>363</v>
+        <v>495</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2597,7 +2612,7 @@
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">fx.PasswordDialogPane.010=password : </v>
+        <v xml:space="preserve">fx.PasswordDialogPane.010=Password : </v>
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2612,10 +2627,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>136</v>
+        <v>494</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2623,7 +2638,7 @@
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.PasswordDialogPane.020=incorrect password</v>
+        <v>fx.PasswordDialogPane.020=Incorrect password</v>
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2641,7 +2656,7 @@
         <v>124</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2664,10 +2679,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>125</v>
+        <v>487</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2675,7 +2690,7 @@
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.compare.010=consider row insertions/deletions</v>
+        <v>fx.SettingsPane1.compare.010=Consider row insertions/deletions</v>
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2690,10 +2705,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>126</v>
+        <v>488</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2701,7 +2716,7 @@
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.compare.020=consider column insertions/deletions</v>
+        <v>fx.SettingsPane1.compare.020=Consider column insertions/deletions</v>
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2716,10 +2731,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>127</v>
+        <v>489</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2727,7 +2742,7 @@
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.compare.030=compare values</v>
+        <v>fx.SettingsPane1.compare.030=Compare values</v>
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2742,10 +2757,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>128</v>
+        <v>490</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2753,7 +2768,7 @@
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.compare.040=compare formulas</v>
+        <v>fx.SettingsPane1.compare.040=Compare formulas</v>
       </c>
       <c r="I15" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2768,10 +2783,10 @@
         <v>20</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2791,25 +2806,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.report.010=比較結果をExcelで表示する</v>
+        <v>fx.SettingsPane1.report.010=差分箇所に色を着けて表示する</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.report.010=show results in Excel</v>
+        <v>fx.SettingsPane1.report.010=Display differences in colors</v>
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.report.010=在Excel中显示比较结果</v>
+        <v>fx.SettingsPane1.report.010=用颜色标记差异</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -2817,25 +2832,25 @@
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.report.020=比較結果をテキストで表示する</v>
+        <v>fx.SettingsPane1.report.020=比較結果レポートを表示する</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.report.020=show results in text</v>
+        <v>fx.SettingsPane1.report.020=Display comparison result report</v>
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.report.020=以文本形式显示比较结果</v>
+        <v>fx.SettingsPane1.report.020=显示比较结果报告</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -2846,10 +2861,10 @@
         <v>24</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2872,10 +2887,10 @@
         <v>26</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>131</v>
+        <v>491</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2883,7 +2898,7 @@
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.execute.010=exit this app upon completion</v>
+        <v>fx.SettingsPane1.execute.010=Exit this app upon completion</v>
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2892,16 +2907,16 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="2" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2909,7 +2924,7 @@
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.execute.030=prioritize speed</v>
+        <v>fx.SettingsPane1.execute.030=Prioritize speed</v>
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2918,16 +2933,16 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2935,7 +2950,7 @@
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.execute.040=prioritize accuracy</v>
+        <v>fx.SettingsPane1.execute.040=Prioritize accuracy</v>
       </c>
       <c r="I22" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2950,10 +2965,10 @@
         <v>28</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2976,10 +2991,10 @@
         <v>30</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2996,16 +3011,16 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="2" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3028,10 +3043,10 @@
         <v>32</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3054,10 +3069,10 @@
         <v>34</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3080,10 +3095,10 @@
         <v>36</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3103,13 +3118,13 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3132,10 +3147,10 @@
         <v>6</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3152,16 +3167,16 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3178,16 +3193,16 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="2" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3218,16 +3233,16 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G34" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3244,16 +3259,16 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>364</v>
+        <v>496</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G35" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3261,7 +3276,7 @@
       </c>
       <c r="H35" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.020=working dir : </v>
+        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.020=Working dir : </v>
       </c>
       <c r="I35" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3287,13 +3302,13 @@
         <v>60</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3313,13 +3328,13 @@
         <v>61</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G38" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3342,10 +3357,10 @@
         <v>63</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G39" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3362,16 +3377,16 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" ref="G40:G44" si="3" xml:space="preserve"> IF($B40="", "", $B40 &amp; "=" &amp; C40)</f>
@@ -3388,16 +3403,16 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3414,16 +3429,16 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3440,16 +3455,16 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>384</v>
-      </c>
       <c r="E43" s="6" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3472,10 +3487,10 @@
         <v>65</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3498,10 +3513,10 @@
         <v>67</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3540,10 +3555,10 @@
         <v>42</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3560,16 +3575,16 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3586,16 +3601,16 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G49" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3618,10 +3633,10 @@
         <v>56</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G50" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3644,10 +3659,10 @@
         <v>58</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G51" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3670,10 +3685,10 @@
         <v>59</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3690,7 +3705,7 @@
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>50</v>
@@ -3716,7 +3731,7 @@
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>51</v>
@@ -3742,13 +3757,13 @@
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>52</v>
@@ -3771,13 +3786,13 @@
         <v>43</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3800,10 +3815,10 @@
         <v>47</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3826,10 +3841,10 @@
         <v>49</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3849,13 +3864,13 @@
         <v>48</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G59" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3872,16 +3887,16 @@
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3898,16 +3913,16 @@
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="G61" s="4" t="str">
         <f t="shared" ref="G61" si="6" xml:space="preserve"> IF($B61="", "", $B61 &amp; "=" &amp; C61)</f>
@@ -3944,7 +3959,7 @@
         <v>69</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>69</v>
@@ -3970,10 +3985,10 @@
         <v>71</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G64" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4006,16 +4021,16 @@
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G66" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4032,16 +4047,16 @@
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G67" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4058,16 +4073,16 @@
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G68" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4084,16 +4099,16 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G69" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4110,16 +4125,16 @@
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G70" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4136,16 +4151,16 @@
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G71" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4162,16 +4177,16 @@
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G72" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4188,16 +4203,16 @@
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G73" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4214,16 +4229,16 @@
     </row>
     <row r="74" spans="2:9">
       <c r="B74" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G74" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4240,16 +4255,16 @@
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G75" s="4" t="str">
         <f t="shared" ref="G75:G143" si="9" xml:space="preserve"> IF($B75="", "", $B75 &amp; "=" &amp; C75)</f>
@@ -4266,16 +4281,16 @@
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G76" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4292,16 +4307,16 @@
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G77" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4318,16 +4333,16 @@
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G78" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4344,16 +4359,16 @@
     </row>
     <row r="79" spans="2:9">
       <c r="B79" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G79" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4370,16 +4385,16 @@
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G80" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4396,16 +4411,16 @@
     </row>
     <row r="81" spans="2:9">
       <c r="B81" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G81" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4422,16 +4437,16 @@
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="G82" s="4" t="str">
         <f t="shared" ref="G82:G86" si="12" xml:space="preserve"> IF($B82="", "", $B82 &amp; "=" &amp; C82)</f>
@@ -4448,16 +4463,16 @@
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="1" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G83" s="4" t="str">
         <f t="shared" si="12"/>
@@ -4474,16 +4489,16 @@
     </row>
     <row r="84" spans="2:9">
       <c r="B84" s="1" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="G84" s="4" t="str">
         <f t="shared" ref="G84" si="15" xml:space="preserve"> IF($B84="", "", $B84 &amp; "=" &amp; C84)</f>
@@ -4516,16 +4531,16 @@
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G86" s="4" t="str">
         <f t="shared" si="12"/>
@@ -4542,16 +4557,16 @@
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G87" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4568,16 +4583,16 @@
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G88" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4594,16 +4609,16 @@
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G89" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4620,16 +4635,16 @@
     </row>
     <row r="90" spans="2:9">
       <c r="B90" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G90" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4662,16 +4677,16 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G92" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4688,16 +4703,16 @@
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G93" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4714,16 +4729,16 @@
     </row>
     <row r="94" spans="2:9">
       <c r="B94" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G94" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4740,16 +4755,16 @@
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G95" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4766,16 +4781,16 @@
     </row>
     <row r="96" spans="2:9">
       <c r="B96" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G96" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4792,16 +4807,16 @@
     </row>
     <row r="97" spans="2:9">
       <c r="B97" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G97" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4818,16 +4833,16 @@
     </row>
     <row r="98" spans="2:9">
       <c r="B98" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G98" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4844,16 +4859,16 @@
     </row>
     <row r="99" spans="2:9">
       <c r="B99" s="7" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="G99" s="4" t="str">
         <f t="shared" ref="G99" si="18" xml:space="preserve"> IF($B99="", "", $B99 &amp; "=" &amp; C99)</f>
@@ -4886,16 +4901,16 @@
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G101" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4912,16 +4927,16 @@
     </row>
     <row r="102" spans="2:9">
       <c r="B102" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G102" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4938,16 +4953,16 @@
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="G103" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4980,16 +4995,16 @@
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G105" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5006,16 +5021,16 @@
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G106" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5032,16 +5047,16 @@
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G107" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5058,16 +5073,16 @@
     </row>
     <row r="108" spans="2:9">
       <c r="B108" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G108" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5084,16 +5099,16 @@
     </row>
     <row r="109" spans="2:9">
       <c r="B109" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G109" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5110,16 +5125,16 @@
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G110" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5136,16 +5151,16 @@
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G111" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5162,16 +5177,16 @@
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="E112" s="6" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G112" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5188,16 +5203,16 @@
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="E113" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="G113" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5214,16 +5229,16 @@
     </row>
     <row r="114" spans="2:9">
       <c r="B114" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="E114" s="6" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="G114" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5240,16 +5255,16 @@
     </row>
     <row r="115" spans="2:9">
       <c r="B115" s="2" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="G115" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5288,10 +5303,10 @@
         <v>91</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G117" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5314,10 +5329,10 @@
         <v>93</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G118" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5337,13 +5352,13 @@
         <v>94</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G119" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5363,13 +5378,13 @@
         <v>95</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G120" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5389,13 +5404,13 @@
         <v>97</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G121" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5412,16 +5427,16 @@
     </row>
     <row r="122" spans="2:9">
       <c r="B122" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G122" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5438,16 +5453,16 @@
     </row>
     <row r="123" spans="2:9">
       <c r="B123" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G123" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5484,10 +5499,10 @@
         <v>100</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G125" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5518,16 +5533,16 @@
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G127" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5544,16 +5559,16 @@
     </row>
     <row r="128" spans="2:9">
       <c r="B128" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G128" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5570,16 +5585,16 @@
     </row>
     <row r="129" spans="2:9">
       <c r="B129" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G129" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5596,16 +5611,16 @@
     </row>
     <row r="130" spans="2:9">
       <c r="B130" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G130" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5622,16 +5637,16 @@
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G131" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5648,16 +5663,16 @@
     </row>
     <row r="132" spans="2:9">
       <c r="B132" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G132" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5674,16 +5689,16 @@
     </row>
     <row r="133" spans="2:9">
       <c r="B133" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G133" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5700,16 +5715,16 @@
     </row>
     <row r="134" spans="2:9">
       <c r="B134" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G134" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5726,16 +5741,16 @@
     </row>
     <row r="135" spans="2:9">
       <c r="B135" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G135" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5752,16 +5767,16 @@
     </row>
     <row r="136" spans="2:9">
       <c r="B136" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G136" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5798,10 +5813,10 @@
         <v>102</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G138" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5824,10 +5839,10 @@
         <v>104</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G139" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5850,10 +5865,10 @@
         <v>106</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G140" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5876,10 +5891,10 @@
         <v>108</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G141" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5918,10 +5933,10 @@
         <v>93</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G143" s="4" t="str">
         <f t="shared" si="9"/>
@@ -5944,10 +5959,10 @@
         <v>111</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G144" s="4" t="str">
         <f t="shared" ref="G144:G157" si="21" xml:space="preserve"> IF($B144="", "", $B144 &amp; "=" &amp; C144)</f>
@@ -5970,10 +5985,10 @@
         <v>113</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G145" s="4" t="str">
         <f t="shared" si="21"/>
@@ -5996,10 +6011,10 @@
         <v>115</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G146" s="4" t="str">
         <f t="shared" si="21"/>
@@ -6019,13 +6034,13 @@
         <v>116</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G147" s="4" t="str">
         <f t="shared" si="21"/>
@@ -6048,7 +6063,7 @@
         <v>118</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>118</v>
@@ -6071,13 +6086,13 @@
         <v>119</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G149" s="4" t="str">
         <f t="shared" si="21"/>
@@ -6100,7 +6115,7 @@
         <v>121</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>121</v>
@@ -6123,13 +6138,13 @@
         <v>122</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G151" s="4" t="str">
         <f t="shared" si="21"/>
@@ -6160,16 +6175,16 @@
     </row>
     <row r="153" spans="2:9">
       <c r="B153" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G153" s="4" t="str">
         <f t="shared" si="21"/>
@@ -6186,16 +6201,16 @@
     </row>
     <row r="154" spans="2:9">
       <c r="B154" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G154" s="4" t="str">
         <f t="shared" si="21"/>
@@ -6212,16 +6227,16 @@
     </row>
     <row r="155" spans="2:9">
       <c r="B155" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G155" s="4" t="str">
         <f t="shared" si="21"/>
@@ -6238,16 +6253,16 @@
     </row>
     <row r="156" spans="2:9">
       <c r="B156" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G156" s="4" t="str">
         <f t="shared" si="21"/>
@@ -6264,16 +6279,16 @@
     </row>
     <row r="157" spans="2:9">
       <c r="B157" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G157" s="4" t="str">
         <f t="shared" si="21"/>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD15BE9-CA5F-4A27-BCF1-794A9A27A7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF98F92-6E8E-4E55-9BF3-EE81F5904F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="534">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -1934,12 +1934,196 @@
     <t>显示比较结果报告</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>excel.poi.usermodel.BookResultBookCreator.010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel.poi.usermodel.BookResultBookCreator.020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブック%s：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>工作簿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>%s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CompareBooksTask.060</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CompareBooksTask.070</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CompareBooksTask.080</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CompareBooksTask.090</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel.poi.usermodel.BookResultBookCreator.030</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較実行日時：</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>执行日期和时间：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel.poi.usermodel.BookResultBookCreator.040</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel.poi.usermodel.BookResultBookCreator.050</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel.poi.usermodel.BookResultBookCreator.060</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余剰行</t>
+    <rPh sb="0" eb="3">
+      <t>ヨジョウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余剰列</t>
+    <rPh sb="0" eb="2">
+      <t>ヨジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差分セル</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Redundant Rows</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Redundant Columns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Diff Cells</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冗余行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冗余列</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差异单元格</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel.poi.usermodel.BookResultBookCreator.070</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel.poi.usermodel.BookResultBookCreator.080</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差分なし</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較失敗</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No Diffs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>没有区别</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比较失败</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comparison Failed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel.poi.usermodel.BookResultBookCreator.090</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Exec datetime : </t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2000,6 +2184,13 @@
       <color rgb="FF00B050"/>
       <name val="NSimSun"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2370,7 +2561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I157"/>
+  <dimension ref="B1:I171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2380,7 +2571,7 @@
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5625" style="1"/>
-    <col min="2" max="2" width="34.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5625" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.5625" style="5" customWidth="1"/>
     <col min="5" max="5" width="30.5625" style="6" customWidth="1"/>
@@ -2451,15 +2642,15 @@
         <v>3</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G74" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
+        <f t="shared" ref="G3:G35" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H74" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
+        <f t="shared" ref="H3:H35" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I74" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
+        <f t="shared" ref="I3:I35" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
     </row>
@@ -3285,2385 +3476,2397 @@
     </row>
     <row r="36" spans="2:9">
       <c r="G36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G36:G105" si="3" xml:space="preserve"> IF($B36="", "", $B36 &amp; "=" &amp; C36)</f>
         <v/>
       </c>
       <c r="H36" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H36:H105" si="4" xml:space="preserve"> IF($B36="", "", $B36 &amp; "=" &amp; D36)</f>
         <v/>
       </c>
       <c r="I36" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I36:I105" si="5" xml:space="preserve"> IF($B36="", "", $B36 &amp; "=" &amp; E36)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="2" t="s">
-        <v>60</v>
+      <c r="B37" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>191</v>
+        <v>510</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>247</v>
+        <v>533</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>395</v>
+        <v>511</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.MainController.010=同じフォルダ同士／ブック同士／シート同士を比較することはできません。</v>
+        <f t="shared" ref="G37" si="6" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; C37)</f>
+        <v>excel.poi.usermodel.BookResultBookCreator.010=比較実行日時：</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.MainController.010=Please specify different folders/books/sheets.</v>
+        <f t="shared" ref="H37" si="7" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; D37)</f>
+        <v xml:space="preserve">excel.poi.usermodel.BookResultBookCreator.010=Exec datetime : </v>
       </c>
       <c r="I37" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.MainController.010=指定非相同的文件夹／工作簿／工作表。</v>
+        <f t="shared" ref="I37" si="8" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; E37)</f>
+        <v>excel.poi.usermodel.BookResultBookCreator.010=执行日期和时间：</v>
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>188</v>
+      <c r="B38" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>189</v>
+        <v>496</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
+        <f t="shared" si="3"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.020=作業用フォルダ：</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">excel.poi.usermodel.BookResultBookCreator.020=Working dir : </v>
       </c>
       <c r="I38" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
+        <f t="shared" si="5"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.020=工作文件夹：</v>
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>63</v>
+      <c r="B39" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>138</v>
+        <v>267</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>178</v>
+        <v>504</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.MainController.030=予期せぬ例外が発生しました。</v>
+        <f t="shared" si="3"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.030=ブック%s：</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.MainController.030=Unexpected exception occurred.</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">excel.poi.usermodel.BookResultBookCreator.030=Book %s : </v>
       </c>
       <c r="I39" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.MainController.030=意外的例外。</v>
+        <f t="shared" si="5"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.030=工作簿%s：</v>
       </c>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>75</v>
+      <c r="B40" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>526</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>144</v>
+        <v>528</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>373</v>
+        <v>529</v>
       </c>
       <c r="G40" s="4" t="str">
-        <f t="shared" ref="G40:G44" si="3" xml:space="preserve"> IF($B40="", "", $B40 &amp; "=" &amp; C40)</f>
-        <v>gui.MainController.040=作業用フォルダの作成に失敗しました。</v>
+        <f t="shared" si="3"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.040=差分なし</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f t="shared" ref="H40:H44" si="4" xml:space="preserve"> IF($B40="", "", $B40 &amp; "=" &amp; D40)</f>
-        <v>gui.MainController.040=Failed to create working directory.</v>
+        <f t="shared" si="4"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.040=No Diffs</v>
       </c>
       <c r="I40" s="6" t="str">
-        <f t="shared" ref="I40:I44" si="5" xml:space="preserve"> IF($B40="", "", $B40 &amp; "=" &amp; E40)</f>
-        <v>gui.MainController.040=创建工作文件夹失败。</v>
+        <f t="shared" si="5"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.040=没有区别</v>
       </c>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>369</v>
+      <c r="B41" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>527</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>370</v>
+        <v>531</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>371</v>
+        <v>530</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>gui.MainController.050=別の場所を指定してください。</v>
+        <v>excel.poi.usermodel.BookResultBookCreator.050=比較失敗</v>
       </c>
       <c r="H41" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>gui.MainController.050=Please specify another location.</v>
+        <v>excel.poi.usermodel.BookResultBookCreator.050=Comparison Failed</v>
       </c>
       <c r="I41" s="6" t="str">
         <f t="shared" si="5"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.050=比较失败</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" ref="G42:G45" si="9" xml:space="preserve"> IF($B42="", "", $B42 &amp; "=" &amp; C42)</f>
+        <v>excel.poi.usermodel.BookResultBookCreator.060=余剰行</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f t="shared" ref="H42:H45" si="10" xml:space="preserve"> IF($B42="", "", $B42 &amp; "=" &amp; D42)</f>
+        <v>excel.poi.usermodel.BookResultBookCreator.060=Redundant Rows</v>
+      </c>
+      <c r="I42" s="6" t="str">
+        <f t="shared" ref="I42:I45" si="11" xml:space="preserve"> IF($B42="", "", $B42 &amp; "=" &amp; E42)</f>
+        <v>excel.poi.usermodel.BookResultBookCreator.060=冗余行</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.070=余剰列</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.070=Redundant Columns</v>
+      </c>
+      <c r="I43" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.070=冗余列</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.080=差分セル</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.080=Diff Cells</v>
+      </c>
+      <c r="I44" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.080=差异单元格</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.090=(比較相手なし)</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.090=(no opponent)</v>
+      </c>
+      <c r="I45" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.090=(没有对比)</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I46" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.MainController.010=同じフォルダ同士／ブック同士／シート同士を比較することはできません。</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.MainController.010=Please specify different folders/books/sheets.</v>
+      </c>
+      <c r="I47" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.MainController.010=指定非相同的文件夹／工作簿／工作表。</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
+      </c>
+      <c r="I48" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.MainController.030=予期せぬ例外が発生しました。</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.MainController.030=Unexpected exception occurred.</v>
+      </c>
+      <c r="I49" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.MainController.030=意外的例外。</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.MainController.040=作業用フォルダの作成に失敗しました。</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.MainController.040=Failed to create working directory.</v>
+      </c>
+      <c r="I50" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.MainController.040=创建工作文件夹失败。</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.MainController.050=別の場所を指定してください。</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.MainController.050=Please specify another location.</v>
+      </c>
+      <c r="I51" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>gui.MainController.050=请指定其他位置。</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="2" t="s">
+    <row r="52" spans="2:9">
+      <c r="B52" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="G42" s="4" t="str">
+      <c r="G52" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.060=作業用フォルダの変更</v>
       </c>
-      <c r="H42" s="5" t="str">
+      <c r="H52" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.060=Change working directory</v>
       </c>
-      <c r="I42" s="6" t="str">
+      <c r="I52" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.060=改变工作文件夹</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="2" t="s">
+    <row r="53" spans="2:9">
+      <c r="B53" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="G43" s="4" t="str">
+      <c r="G53" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.070=処理を中止しました。</v>
       </c>
-      <c r="H43" s="5" t="str">
+      <c r="H53" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.070=Processing has been canceled.</v>
       </c>
-      <c r="I43" s="6" t="str">
+      <c r="I53" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.070=处理已被取消。</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="2" t="s">
+    <row r="54" spans="2:9">
+      <c r="B54" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="G44" s="4" t="str">
+      <c r="G54" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.PasswordDialog.010=パスワード指定</v>
       </c>
-      <c r="H44" s="5" t="str">
+      <c r="H54" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.PasswordDialog.010=Enter Password</v>
       </c>
-      <c r="I44" s="6" t="str">
+      <c r="I54" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.PasswordDialog.010=输入密码</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="2" t="s">
+    <row r="55" spans="2:9">
+      <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="G45" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>gui.PasswordDialogPane.010=%s はパスワードで保護されています。</v>
       </c>
-      <c r="H45" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="H55" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>gui.PasswordDialogPane.010=The book [%s] is password protected.</v>
       </c>
-      <c r="I45" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="I55" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>gui.PasswordDialogPane.010=%s 是受密码保护的。</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="G46" s="4" t="str">
-        <f t="shared" si="0"/>
+    <row r="56" spans="2:9">
+      <c r="B56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H46" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="H56" s="5" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I46" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="I56" s="6" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="2" t="s">
+    <row r="57" spans="2:9">
+      <c r="B57" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="G47" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>gui.component.LinkPane.010=Webページの表示に失敗しました。ご利用のブラウザでお試しください。</v>
       </c>
-      <c r="H47" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="H57" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>gui.component.LinkPane.010=Failed to open the website. Please try using your browser.</v>
       </c>
-      <c r="I47" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="I57" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>gui.component.LinkPane.010=网页未能显示。 请尝试使用你的浏览器。</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G48" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
-      </c>
-      <c r="H48" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
-      </c>
-      <c r="I48" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="G49" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
-      </c>
-      <c r="H49" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
-      </c>
-      <c r="I49" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="G50" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
-      </c>
-      <c r="H50" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.020=Change working directory</v>
-      </c>
-      <c r="I50" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="G51" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
-      </c>
-      <c r="H51" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
-      </c>
-      <c r="I51" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="G52" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
-      </c>
-      <c r="H52" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
-      </c>
-      <c r="I52" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G53" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
-      </c>
-      <c r="H53" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
-      </c>
-      <c r="I53" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G54" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
-      </c>
-      <c r="H54" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
-      </c>
-      <c r="I54" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
-      </c>
-      <c r="H55" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
-      </c>
-      <c r="I55" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G56" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
-      </c>
-      <c r="H56" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
-      </c>
-      <c r="I56" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="G57" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
-      </c>
-      <c r="H57" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
-      </c>
-      <c r="I57" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>49</v>
+        <v>192</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>177</v>
+        <v>401</v>
       </c>
       <c r="G58" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
+        <f t="shared" si="3"/>
+        <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
       </c>
       <c r="H58" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.030=Excel book</v>
+        <f t="shared" si="4"/>
+        <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
       </c>
       <c r="I58" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
+        <f t="shared" si="5"/>
+        <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="7" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>358</v>
+        <v>54</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>350</v>
+        <v>134</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G59" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
+        <f t="shared" si="3"/>
+        <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
       </c>
       <c r="H59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
+        <f t="shared" si="4"/>
+        <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
       </c>
       <c r="I59" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
+        <f t="shared" si="5"/>
+        <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="7" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>359</v>
+        <v>135</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="G60" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.050=シートが見つかりません：</v>
+        <f t="shared" si="3"/>
+        <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
       </c>
       <c r="H60" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">gui.component.TargetSelectionPane.050=No such sheet : </v>
+        <f t="shared" si="4"/>
+        <v>gui.component.SettingsPane2.020=Change working directory</v>
       </c>
       <c r="I60" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.050=没有找到工作表：</v>
+        <f t="shared" si="5"/>
+        <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="7" t="s">
-        <v>473</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>474</v>
+        <v>58</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>475</v>
+        <v>136</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>476</v>
+        <v>403</v>
       </c>
       <c r="G61" s="4" t="str">
-        <f t="shared" ref="G61" si="6" xml:space="preserve"> IF($B61="", "", $B61 &amp; "=" &amp; C61)</f>
-        <v>gui.component.TargetSelectionPane.060=フォルダを読み込めません：</v>
+        <f t="shared" si="3"/>
+        <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
       </c>
       <c r="H61" s="5" t="str">
-        <f t="shared" ref="H61" si="7" xml:space="preserve"> IF($B61="", "", $B61 &amp; "=" &amp; D61)</f>
-        <v xml:space="preserve">gui.component.TargetSelectionPane.060=Failed to open folder : </v>
+        <f t="shared" si="4"/>
+        <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
       </c>
       <c r="I61" s="6" t="str">
-        <f t="shared" ref="I61" si="8" xml:space="preserve"> IF($B61="", "", $B61 &amp; "=" &amp; E61)</f>
-        <v>gui.component.TargetSelectionPane.060=无法读取文件夹：</v>
+        <f t="shared" si="5"/>
+        <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
       </c>
     </row>
     <row r="62" spans="2:9">
+      <c r="B62" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>404</v>
+      </c>
       <c r="G62" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
       </c>
       <c r="H62" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
       </c>
       <c r="I62" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
       </c>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="2" t="s">
-        <v>68</v>
+      <c r="B63" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G63" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppMain.010=方眼Diff</v>
+        <f t="shared" si="3"/>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
       <c r="H63" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppMain.010=HoganDiff (方眼Diff)</v>
+        <f t="shared" si="4"/>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
       <c r="I63" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppMain.010=方眼Diff</v>
+        <f t="shared" si="5"/>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="2" t="s">
-        <v>70</v>
+      <c r="B64" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>408</v>
+        <v>51</v>
       </c>
       <c r="G64" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppResource.010=設定の保存に失敗しました。</v>
+        <f t="shared" si="3"/>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
       <c r="H64" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppResource.010=Failed to save settings.</v>
+        <f t="shared" si="4"/>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
       <c r="I64" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppResource.010=保存设置失败。</v>
+        <f t="shared" si="5"/>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
     </row>
     <row r="65" spans="2:9">
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
+      <c r="B65" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G65" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
       <c r="H65" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
       <c r="I65" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>74</v>
+        <v>43</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>260</v>
+        <v>405</v>
       </c>
       <c r="G66" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
+        <f t="shared" si="3"/>
+        <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
       </c>
       <c r="H66" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.010=Creating working directory...</v>
+        <f t="shared" si="4"/>
+        <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
       </c>
       <c r="I66" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.010=创建工作文件夹...</v>
+        <f t="shared" si="5"/>
+        <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="7" t="s">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="G67" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
+        <f t="shared" si="3"/>
+        <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
       </c>
       <c r="H67" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.020=Failed to create working directory.</v>
+        <f t="shared" si="4"/>
+        <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
       </c>
       <c r="I67" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.020=创建工作文件夹失败。</v>
+        <f t="shared" si="5"/>
+        <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="7" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>409</v>
+        <v>177</v>
       </c>
       <c r="G68" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
+        <f t="shared" si="3"/>
+        <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
       </c>
       <c r="H68" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.030=Saving result text...</v>
+        <f t="shared" si="4"/>
+        <v>gui.component.TargetSelectionPane.030=Excel book</v>
       </c>
       <c r="I68" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.030=存储比较结果文本...</v>
+        <f t="shared" si="5"/>
+        <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="7" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G69" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
+        <f t="shared" si="3"/>
+        <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
       </c>
       <c r="H69" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.040=Opening result text...</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
       </c>
       <c r="I69" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.040=显示比较结果文本...</v>
+        <f t="shared" si="5"/>
+        <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>151</v>
+        <v>359</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="G70" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
+        <f t="shared" si="3"/>
+        <v>gui.component.TargetSelectionPane.050=シートが見つかりません：</v>
       </c>
       <c r="H70" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.050=Failed to save or open result text.</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">gui.component.TargetSelectionPane.050=No such sheet : </v>
       </c>
       <c r="I70" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
+        <f t="shared" si="5"/>
+        <v>gui.component.TargetSelectionPane.050=没有找到工作表：</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="7" t="s">
-        <v>204</v>
+        <v>473</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>83</v>
+        <v>474</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>152</v>
+        <v>475</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>412</v>
+        <v>476</v>
       </c>
       <c r="G71" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
+        <f t="shared" si="3"/>
+        <v>gui.component.TargetSelectionPane.060=フォルダを読み込めません：</v>
       </c>
       <c r="H71" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.060=Painting and saving result book(s)...</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">gui.component.TargetSelectionPane.060=Failed to open folder : </v>
       </c>
       <c r="I71" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.060=着色和存储在工作簿...</v>
+        <f t="shared" si="5"/>
+        <v>gui.component.TargetSelectionPane.060=无法读取文件夹：</v>
       </c>
     </row>
     <row r="72" spans="2:9">
-      <c r="B72" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>413</v>
-      </c>
       <c r="G72" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="H72" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="I72" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.070=着色和保存工作簿失败。</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="7" t="s">
-        <v>206</v>
+      <c r="B73" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>414</v>
+        <v>69</v>
       </c>
       <c r="G73" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
+        <f t="shared" si="3"/>
+        <v>AppMain.010=方眼Diff</v>
       </c>
       <c r="H73" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.080=Opening result book(s)...</v>
+        <f t="shared" si="4"/>
+        <v>AppMain.010=HoganDiff (方眼Diff)</v>
       </c>
       <c r="I73" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.080=显示比较结果的工作簿...</v>
+        <f t="shared" si="5"/>
+        <v>AppMain.010=方眼Diff</v>
       </c>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="7" t="s">
-        <v>207</v>
+      <c r="B74" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G74" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
+        <f t="shared" si="3"/>
+        <v>AppResource.010=設定の保存に失敗しました。</v>
       </c>
       <c r="H74" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.090=Failed to open result book(s).</v>
+        <f t="shared" si="4"/>
+        <v>AppResource.010=Failed to save settings.</v>
       </c>
       <c r="I74" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.090=显示工作簿失败。</v>
+        <f t="shared" si="5"/>
+        <v>AppResource.010=保存设置失败。</v>
       </c>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>416</v>
-      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="3"/>
       <c r="G75" s="4" t="str">
-        <f t="shared" ref="G75:G143" si="9" xml:space="preserve"> IF($B75="", "", $B75 &amp; "=" &amp; C75)</f>
-        <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="H75" s="5" t="str">
-        <f t="shared" ref="H75:H143" si="10" xml:space="preserve"> IF($B75="", "", $B75 &amp; "=" &amp; D75)</f>
-        <v>AppTaskBase.100=Failed to paint or save result book A.</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="I75" s="6" t="str">
-        <f t="shared" ref="I75:I143" si="11" xml:space="preserve"> IF($B75="", "", $B75 &amp; "=" &amp; E75)</f>
-        <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>417</v>
+        <v>260</v>
       </c>
       <c r="G76" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
       </c>
       <c r="H76" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>AppTaskBase.110=Failed to paint or save result book B.</v>
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.010=Creating working directory...</v>
       </c>
       <c r="I76" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.010=创建工作文件夹...</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.020=Failed to create working directory.</v>
+      </c>
+      <c r="I77" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.020=创建工作文件夹失败。</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.030=Saving result text...</v>
+      </c>
+      <c r="I78" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.030=存储比较结果文本...</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.040=Opening result text...</v>
+      </c>
+      <c r="I79" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.040=显示比较结果文本...</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.050=Failed to save or open result text.</v>
+      </c>
+      <c r="I80" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.060=Painting and saving result book(s)...</v>
+      </c>
+      <c r="I81" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.060=着色和存储在工作簿...</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
+      </c>
+      <c r="H82" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
+      </c>
+      <c r="I82" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.070=着色和保存工作簿失败。</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.080=Opening result book(s)...</v>
+      </c>
+      <c r="I83" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.080=显示比较结果的工作簿...</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
+      </c>
+      <c r="H84" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.090=Failed to open result book(s).</v>
+      </c>
+      <c r="I84" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.090=显示工作簿失败。</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.100=Failed to paint or save result book A.</v>
+      </c>
+      <c r="I85" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
+      </c>
+      <c r="H86" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.110=Failed to paint or save result book B.</v>
+      </c>
+      <c r="I86" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E87" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="G77" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="G87" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>AppTaskBase.120=処理が完了しました。</v>
       </c>
-      <c r="H77" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H87" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>AppTaskBase.120=Process completed.</v>
       </c>
-      <c r="I77" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I87" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>AppTaskBase.120=过程完成。</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="1" t="s">
+    <row r="88" spans="2:9">
+      <c r="B88" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G78" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="G88" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>AppTaskBase.130=比較結果フォルダを表示しています...</v>
       </c>
-      <c r="H78" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H88" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>AppTaskBase.130=Opening result folder...</v>
       </c>
-      <c r="I78" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I88" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>AppTaskBase.130=显示比较结果文件夹...</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="1" t="s">
+    <row r="89" spans="2:9">
+      <c r="B89" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="G79" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="G89" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>AppTaskBase.140=比較結果フォルダの表示に失敗しました。</v>
       </c>
-      <c r="H79" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H89" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>AppTaskBase.140=Failed to open result folder(s).</v>
       </c>
-      <c r="I79" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I89" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>AppTaskBase.140=显示文件夹失败。</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="1" t="s">
+    <row r="90" spans="2:9">
+      <c r="B90" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="G80" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="G90" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>AppTaskBase.150=★失敗しました</v>
       </c>
-      <c r="H80" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H90" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>AppTaskBase.150=★Failed</v>
       </c>
-      <c r="I80" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I90" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>AppTaskBase.150=★失败</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="1" t="s">
+    <row r="91" spans="2:9">
+      <c r="B91" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="G81" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="G91" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>AppTaskBase.160=(比較対象ファイルなし)</v>
       </c>
-      <c r="H81" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H91" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>AppTaskBase.160=(No files to compare)</v>
       </c>
-      <c r="I81" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I91" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>AppTaskBase.160=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="1" t="s">
+    <row r="92" spans="2:9">
+      <c r="B92" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="G82" s="4" t="str">
-        <f t="shared" ref="G82:G86" si="12" xml:space="preserve"> IF($B82="", "", $B82 &amp; "=" &amp; C82)</f>
+      <c r="G92" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>AppTaskBase.170=メモリ不足のため処理が失敗しました。\n割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
       </c>
-      <c r="H82" s="5" t="str">
-        <f t="shared" ref="H82:H86" si="13" xml:space="preserve"> IF($B82="", "", $B82 &amp; "=" &amp; D82)</f>
+      <c r="H92" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>AppTaskBase.170=Processing failed due to insufficient memory.\nPlease increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
       </c>
-      <c r="I82" s="6" t="str">
-        <f t="shared" ref="I82:I86" si="14" xml:space="preserve"> IF($B82="", "", $B82 &amp; "=" &amp; E82)</f>
+      <c r="I92" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>AppTaskBase.170=由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="1" t="s">
+    <row r="93" spans="2:9">
+      <c r="B93" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G83" s="4" t="str">
+      <c r="G93" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.180=予期せぬ例外が発生しました。</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.180=Unexpected exception occurred.</v>
+      </c>
+      <c r="I93" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.180=意外的例外。</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="G94" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>AppTaskBase.190=フォルダのロードに失敗しました。</v>
+      </c>
+      <c r="H94" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>AppTaskBase.190=Failed to load directories.</v>
+      </c>
+      <c r="I94" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>AppTaskBase.190=无法加载文件夹。</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="2"/>
+      <c r="C95" s="3"/>
+      <c r="G95" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H95" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I95" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="G96" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
+      </c>
+      <c r="H96" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareBooksTask.010=Starting comparing books.</v>
+      </c>
+      <c r="I96" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareBooksTask.010=开始互相比较工作簿。</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G97" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
+      </c>
+      <c r="H97" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareBooksTask.020=Pairing sheets...</v>
+      </c>
+      <c r="I97" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="G98" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
+      </c>
+      <c r="H98" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareBooksTask.030=Failed to pair sheets.</v>
+      </c>
+      <c r="I98" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareBooksTask.030=确定工作表组合失败。</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareBooksTask.040=シートを比較しています...</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareBooksTask.040=Comparing sheets...</v>
+      </c>
+      <c r="I99" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareBooksTask.040=比较工作表...</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareBooksTask.050=Failed to compare sheets.</v>
+      </c>
+      <c r="I100" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareBooksTask.050=工作表比较失败。</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="B101" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G101" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareBooksTask.060=比較結果Excelブックを保存しています...</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareBooksTask.060=Saving result book...</v>
+      </c>
+      <c r="I101" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareBooksTask.060=存储比较结果工作簿...</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="B102" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareBooksTask.070=比較結果Excelブックの保存に失敗しました。</v>
+      </c>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareBooksTask.070=Failed to save result book.</v>
+      </c>
+      <c r="I102" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareBooksTask.070=保存比较结果工作簿失败。</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G103" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareBooksTask.080=比較結果Excelブックを表示しています...</v>
+      </c>
+      <c r="H103" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareBooksTask.080=Opening result book...</v>
+      </c>
+      <c r="I103" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareBooksTask.080=显示比较结果工作簿...</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="B104" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G104" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CompareBooksTask.090=比較結果Excelブックの表示に失敗しました。</v>
+      </c>
+      <c r="H104" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CompareBooksTask.090=Failed to open result book.</v>
+      </c>
+      <c r="I104" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>CompareBooksTask.090=显示比较结果工作簿失败。</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="2"/>
+      <c r="C105" s="3"/>
+      <c r="G105" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H105" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I105" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="B106" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="G106" s="4" t="str">
+        <f t="shared" ref="G106:G169" si="12" xml:space="preserve"> IF($B106="", "", $B106 &amp; "=" &amp; C106)</f>
+        <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
+      </c>
+      <c r="H106" s="5" t="str">
+        <f t="shared" ref="H106:H169" si="13" xml:space="preserve"> IF($B106="", "", $B106 &amp; "=" &amp; D106)</f>
+        <v>CompareDirsTask.010=Starting comparing folders.</v>
+      </c>
+      <c r="I106" s="6" t="str">
+        <f t="shared" ref="I106:I169" si="14" xml:space="preserve"> IF($B106="", "", $B106 &amp; "=" &amp; E106)</f>
+        <v>CompareDirsTask.010=开始互相比较文件夹。</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="B107" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G107" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>AppTaskBase.180=予期せぬ例外が発生しました。</v>
-      </c>
-      <c r="H83" s="5" t="str">
+        <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
+      </c>
+      <c r="H107" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>AppTaskBase.180=Unexpected exception occurred.</v>
-      </c>
-      <c r="I83" s="6" t="str">
+        <v>CompareDirsTask.020=Failed to create output directory.</v>
+      </c>
+      <c r="I107" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>AppTaskBase.180=意外的例外。</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="G84" s="4" t="str">
-        <f t="shared" ref="G84" si="15" xml:space="preserve"> IF($B84="", "", $B84 &amp; "=" &amp; C84)</f>
-        <v>AppTaskBase.190=フォルダのロードに失敗しました。</v>
-      </c>
-      <c r="H84" s="5" t="str">
-        <f t="shared" ref="H84" si="16" xml:space="preserve"> IF($B84="", "", $B84 &amp; "=" &amp; D84)</f>
-        <v>AppTaskBase.190=Failed to load directories.</v>
-      </c>
-      <c r="I84" s="6" t="str">
-        <f t="shared" ref="I84" si="17" xml:space="preserve"> IF($B84="", "", $B84 &amp; "=" &amp; E84)</f>
-        <v>AppTaskBase.190=无法加载文件夹。</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="2"/>
-      <c r="C85" s="3"/>
-      <c r="G85" s="4" t="str">
+        <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="B108" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
+      </c>
+      <c r="H108" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareDirsTask.030=Pairing books...</v>
+      </c>
+      <c r="I108" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="B109" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G109" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
+      </c>
+      <c r="H109" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareDirsTask.040=Failed to pair books.</v>
+      </c>
+      <c r="I109" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareDirsTask.040=确定工作簿组合失败。</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="B110" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="G110" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareDirsTask.050=Excelブックを比較しています...</v>
+      </c>
+      <c r="H110" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareDirsTask.050=Comparing books...</v>
+      </c>
+      <c r="I110" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareDirsTask.050=比较工作簿...</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G111" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareDirsTask.060=★失敗しました</v>
+      </c>
+      <c r="H111" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareDirsTask.060=★Failed</v>
+      </c>
+      <c r="I111" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareDirsTask.060=★失败</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareDirsTask.070=(比較対象ファイルなし)</v>
+      </c>
+      <c r="H112" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareDirsTask.070=(No files to compare)</v>
+      </c>
+      <c r="I112" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareDirsTask.070=(没有可比较的文件)</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="B113" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="G113" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareDirsTask.080=フォルダの比較に失敗しました。</v>
+      </c>
+      <c r="H113" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareDirsTask.080=Failed to compare folders.</v>
+      </c>
+      <c r="I113" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareDirsTask.080=文件夹比较失败。</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="2"/>
+      <c r="C114" s="3"/>
+      <c r="G114" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H85" s="5" t="str">
+      <c r="H114" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I85" s="6" t="str">
+      <c r="I114" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="G86" s="4" t="str">
+    <row r="115" spans="2:9">
+      <c r="B115" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="G115" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
-      </c>
-      <c r="H86" s="5" t="str">
+        <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
+      </c>
+      <c r="H115" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>CompareBooksTask.010=Starting comparing books.</v>
-      </c>
-      <c r="I86" s="6" t="str">
+        <v>CompareSheetsTask.010=Starting comparing sheets.</v>
+      </c>
+      <c r="I115" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>CompareBooksTask.010=开始互相比较工作簿。</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="G87" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
-      </c>
-      <c r="H87" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareBooksTask.020=Pairing sheets...</v>
-      </c>
-      <c r="I87" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="G88" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
-      </c>
-      <c r="H88" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareBooksTask.030=Failed to pair sheets.</v>
-      </c>
-      <c r="I88" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareBooksTask.030=确定工作表组合失败。</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C89" s="3" t="s">
+        <v>CompareSheetsTask.010=开始相互比较工作表。</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="G89" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareBooksTask.040=シートを比較しています...</v>
-      </c>
-      <c r="H89" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareBooksTask.040=Comparing sheets...</v>
-      </c>
-      <c r="I89" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareBooksTask.040=比较工作表...</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="E116" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G116" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareSheetsTask.020=シートを比較しています...</v>
+      </c>
+      <c r="H116" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareSheetsTask.020=Comparing sheets...</v>
+      </c>
+      <c r="I116" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareSheetsTask.020=比较工作表...</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="G90" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
-      </c>
-      <c r="H90" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareBooksTask.050=Failed to compare sheets.</v>
-      </c>
-      <c r="I90" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareBooksTask.050=工作表比较失败。</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9">
-      <c r="B91" s="2"/>
-      <c r="C91" s="3"/>
-      <c r="G91" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="E117" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G117" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
+      </c>
+      <c r="H117" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareSheetsTask.030=Failed to compare sheets.</v>
+      </c>
+      <c r="I117" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareSheetsTask.030=工作表比较失败。</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="2"/>
+      <c r="C118" s="3"/>
+      <c r="G118" s="4" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H91" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H118" s="5" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I91" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I118" s="6" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="G92" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
-      </c>
-      <c r="H92" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareDirsTask.010=Starting comparing folders.</v>
-      </c>
-      <c r="I92" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareDirsTask.010=开始互相比较文件夹。</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G93" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
-      </c>
-      <c r="H93" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareDirsTask.020=Failed to create output directory.</v>
-      </c>
-      <c r="I93" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9">
-      <c r="B94" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="G94" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
-      </c>
-      <c r="H94" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareDirsTask.030=Pairing books...</v>
-      </c>
-      <c r="I94" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="G95" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
-      </c>
-      <c r="H95" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareDirsTask.040=Failed to pair books.</v>
-      </c>
-      <c r="I95" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareDirsTask.040=确定工作簿组合失败。</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="G96" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareDirsTask.050=Excelブックを比較しています...</v>
-      </c>
-      <c r="H96" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareDirsTask.050=Comparing books...</v>
-      </c>
-      <c r="I96" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareDirsTask.050=比较工作簿...</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C97" s="4" t="s">
+    <row r="119" spans="2:9">
+      <c r="B119" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="G119" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
+      </c>
+      <c r="H119" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareTreesTask.010=Starting comparing folder trees.</v>
+      </c>
+      <c r="I119" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9">
+      <c r="B120" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
+      </c>
+      <c r="H120" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareTreesTask.020=Pairing folders...</v>
+      </c>
+      <c r="I120" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="G121" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
+      </c>
+      <c r="H121" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareTreesTask.030=Failed to pair folders.</v>
+      </c>
+      <c r="I121" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareTreesTask.030=确定文件夹组合失败。</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9">
+      <c r="B122" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="G122" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
+      </c>
+      <c r="H122" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareTreesTask.040=Comparing folders...</v>
+      </c>
+      <c r="I122" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareTreesTask.040=比较文件夹...</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E123" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="G97" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareDirsTask.060=★失敗しました</v>
-      </c>
-      <c r="H97" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareDirsTask.060=★Failed</v>
-      </c>
-      <c r="I97" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareDirsTask.060=★失败</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C98" s="4" t="s">
+      <c r="G123" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareTreesTask.050=★失敗しました</v>
+      </c>
+      <c r="H123" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareTreesTask.050=★Failed</v>
+      </c>
+      <c r="I123" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareTreesTask.050=★失败</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="B124" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E124" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="G98" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareDirsTask.070=(比較対象ファイルなし)</v>
-      </c>
-      <c r="H98" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareDirsTask.070=(No files to compare)</v>
-      </c>
-      <c r="I98" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareDirsTask.070=(没有可比较的文件)</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="G99" s="4" t="str">
-        <f t="shared" ref="G99" si="18" xml:space="preserve"> IF($B99="", "", $B99 &amp; "=" &amp; C99)</f>
-        <v>CompareDirsTask.080=フォルダの比較に失敗しました。</v>
-      </c>
-      <c r="H99" s="5" t="str">
-        <f t="shared" ref="H99" si="19" xml:space="preserve"> IF($B99="", "", $B99 &amp; "=" &amp; D99)</f>
-        <v>CompareDirsTask.080=Failed to compare folders.</v>
-      </c>
-      <c r="I99" s="6" t="str">
-        <f t="shared" ref="I99" si="20" xml:space="preserve"> IF($B99="", "", $B99 &amp; "=" &amp; E99)</f>
-        <v>CompareDirsTask.080=文件夹比较失败。</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="2"/>
-      <c r="C100" s="3"/>
-      <c r="G100" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H100" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I100" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="G101" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
-      </c>
-      <c r="H101" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareSheetsTask.010=Starting comparing sheets.</v>
-      </c>
-      <c r="I101" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareSheetsTask.010=开始相互比较工作表。</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="G102" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareSheetsTask.020=シートを比較しています...</v>
-      </c>
-      <c r="H102" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareSheetsTask.020=Comparing sheets...</v>
-      </c>
-      <c r="I102" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareSheetsTask.020=比较工作表...</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="G103" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
-      </c>
-      <c r="H103" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareSheetsTask.030=Failed to compare sheets.</v>
-      </c>
-      <c r="I103" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareSheetsTask.030=工作表比较失败。</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9">
-      <c r="B104" s="2"/>
-      <c r="C104" s="3"/>
-      <c r="G104" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H104" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I104" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="G105" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
-      </c>
-      <c r="H105" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareTreesTask.010=Starting comparing folder trees.</v>
-      </c>
-      <c r="I105" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9">
-      <c r="B106" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="G106" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
-      </c>
-      <c r="H106" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareTreesTask.020=Pairing folders...</v>
-      </c>
-      <c r="I106" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9">
-      <c r="B107" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="G107" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
-      </c>
-      <c r="H107" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareTreesTask.030=Failed to pair folders.</v>
-      </c>
-      <c r="I107" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareTreesTask.030=确定文件夹组合失败。</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="G108" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
-      </c>
-      <c r="H108" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareTreesTask.040=Comparing folders...</v>
-      </c>
-      <c r="I108" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareTreesTask.040=比较文件夹...</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9">
-      <c r="B109" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="G109" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareTreesTask.050=★失敗しました</v>
-      </c>
-      <c r="H109" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareTreesTask.050=★Failed</v>
-      </c>
-      <c r="I109" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareTreesTask.050=★失败</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="G110" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="G124" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>CompareTreesTask.060=(比較対象ファイルなし)</v>
       </c>
-      <c r="H110" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H124" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>CompareTreesTask.060=(No files to compare)</v>
       </c>
-      <c r="I110" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I124" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>CompareTreesTask.060=(没有可比较的文件)</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="G111" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareTreesTask.070=比較結果Excelブックを保存しています...</v>
-      </c>
-      <c r="H111" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareTreesTask.070=Saving result book...</v>
-      </c>
-      <c r="I111" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareTreesTask.070=存储比较结果工作簿...</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9">
-      <c r="B112" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="G112" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
-      </c>
-      <c r="H112" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareTreesTask.080=Failed to save result book.</v>
-      </c>
-      <c r="I112" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9">
-      <c r="B113" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="G113" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
-      </c>
-      <c r="H113" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareTreesTask.090=Opening result book...</v>
-      </c>
-      <c r="I113" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareTreesTask.090=显示比较结果工作簿...</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="G114" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareTreesTask.100=比較結果Excelブックの表示に失敗しました。</v>
-      </c>
-      <c r="H114" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareTreesTask.100=Failed to open result book.</v>
-      </c>
-      <c r="I114" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareTreesTask.100=显示比较结果工作簿失败。</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9">
-      <c r="B115" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="G115" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>CompareTreesTask.110=フォルダツリーの比較に失敗しました。</v>
-      </c>
-      <c r="H115" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CompareTreesTask.110=Failed to compare folder trees.</v>
-      </c>
-      <c r="I115" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>CompareTreesTask.110=文件夹比较失败。</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9">
-      <c r="B116" s="2"/>
-      <c r="C116" s="3"/>
-      <c r="G116" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H116" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I116" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="2:9">
-      <c r="B117" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="G117" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.BResult.010=(比較相手なし)</v>
-      </c>
-      <c r="H117" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.BResult.010=(no opponent)</v>
-      </c>
-      <c r="I117" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.BResult.010=(没有对比)</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9">
-      <c r="B118" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="G118" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.BResult.020=(差分なし)</v>
-      </c>
-      <c r="H118" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.BResult.020=(no diffs)</v>
-      </c>
-      <c r="I118" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.BResult.020=(没有区别)</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9">
-      <c r="B119" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="G119" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.BResult.030=差異発生%dシート</v>
-      </c>
-      <c r="H119" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.BResult.030=diff sheets:%d</v>
-      </c>
-      <c r="I119" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.BResult.030=差异工作表%d</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9">
-      <c r="B120" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G120" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.BResult.040=余剰%dシート</v>
-      </c>
-      <c r="H120" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.BResult.040=redundant sheets:%d</v>
-      </c>
-      <c r="I120" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.BResult.040=冗余工作表%d</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9">
-      <c r="B121" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="G121" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
-      </c>
-      <c r="H121" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">excel.BResult.050=Book %s : </v>
-      </c>
-      <c r="I121" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.BResult.050=工作簿%s：</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9">
-      <c r="B122" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G122" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
-      </c>
-      <c r="H122" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
-      </c>
-      <c r="I122" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9">
-      <c r="B123" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="G123" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
-      </c>
-      <c r="H123" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
-      </c>
-      <c r="I123" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9">
-      <c r="G124" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H124" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I124" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
       </c>
     </row>
     <row r="125" spans="2:9">
       <c r="B125" s="2" t="s">
-        <v>99</v>
+        <v>335</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>100</v>
+        <v>336</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>163</v>
+        <v>343</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G125" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
+        <f t="shared" si="12"/>
+        <v>CompareTreesTask.070=比較結果Excelブックを保存しています...</v>
       </c>
       <c r="H125" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
+        <f t="shared" si="13"/>
+        <v>CompareTreesTask.070=Saving result book...</v>
       </c>
       <c r="I125" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
+        <f t="shared" si="14"/>
+        <v>CompareTreesTask.070=存储比较结果工作簿...</v>
       </c>
     </row>
     <row r="126" spans="2:9">
+      <c r="B126" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>436</v>
+      </c>
       <c r="G126" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
+        <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
+      </c>
+      <c r="H126" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareTreesTask.080=Failed to save result book.</v>
+      </c>
+      <c r="I126" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9">
+      <c r="B127" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G127" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
+      </c>
+      <c r="H127" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareTreesTask.090=Opening result book...</v>
+      </c>
+      <c r="I127" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareTreesTask.090=显示比较结果工作簿...</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9">
+      <c r="B128" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G128" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareTreesTask.100=比較結果Excelブックの表示に失敗しました。</v>
+      </c>
+      <c r="H128" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareTreesTask.100=Failed to open result book.</v>
+      </c>
+      <c r="I128" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareTreesTask.100=显示比较结果工作簿失败。</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9">
+      <c r="B129" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="G129" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>CompareTreesTask.110=フォルダツリーの比較に失敗しました。</v>
+      </c>
+      <c r="H129" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>CompareTreesTask.110=Failed to compare folder trees.</v>
+      </c>
+      <c r="I129" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CompareTreesTask.110=文件夹比较失败。</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9">
+      <c r="B130" s="2"/>
+      <c r="C130" s="3"/>
+      <c r="G130" s="4" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H126" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H130" s="5" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I126" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I130" s="6" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:9">
-      <c r="B127" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C127" s="3" t="s">
+    <row r="131" spans="2:9">
+      <c r="B131" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="E131" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="G127" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.DResult.010=(比較相手なし)</v>
-      </c>
-      <c r="H127" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.DResult.010=(no opponent)</v>
-      </c>
-      <c r="I127" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.DResult.010=(没有对比)</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9">
-      <c r="B128" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="G128" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
-      </c>
-      <c r="H128" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
-      </c>
-      <c r="I128" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
-      </c>
-    </row>
-    <row r="129" spans="2:9">
-      <c r="B129" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G129" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
-      </c>
-      <c r="H129" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
-      </c>
-      <c r="I129" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9">
-      <c r="B130" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="G130" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
-      </c>
-      <c r="H130" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
-      </c>
-      <c r="I130" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9">
-      <c r="B131" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>419</v>
-      </c>
       <c r="G131" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.DResult.050=★失敗しました</v>
+        <f t="shared" si="12"/>
+        <v>excel.BResult.010=(比較相手なし)</v>
       </c>
       <c r="H131" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.DResult.050=★Failed</v>
+        <f t="shared" si="13"/>
+        <v>excel.BResult.010=(no opponent)</v>
       </c>
       <c r="I131" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.DResult.050=★失败</v>
+        <f t="shared" si="14"/>
+        <v>excel.BResult.010=(没有对比)</v>
       </c>
     </row>
     <row r="132" spans="2:9">
-      <c r="B132" s="7" t="s">
-        <v>242</v>
+      <c r="B132" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>93</v>
@@ -5675,631 +5878,971 @@
         <v>439</v>
       </c>
       <c r="G132" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.DResult.060=(差分なし)</v>
+        <f t="shared" si="12"/>
+        <v>excel.BResult.020=(差分なし)</v>
       </c>
       <c r="H132" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.DResult.060=(no diffs)</v>
+        <f t="shared" si="13"/>
+        <v>excel.BResult.020=(no diffs)</v>
       </c>
       <c r="I132" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.DResult.060=(没有区别)</v>
+        <f t="shared" si="14"/>
+        <v>excel.BResult.020=(没有区别)</v>
       </c>
     </row>
     <row r="133" spans="2:9">
-      <c r="B133" s="1" t="s">
-        <v>306</v>
+      <c r="B133" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G133" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.DResult.070=差異発生%dブック</v>
+        <f t="shared" si="12"/>
+        <v>excel.BResult.030=差異発生%dシート</v>
       </c>
       <c r="H133" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.DResult.070=diff books:%d</v>
+        <f t="shared" si="13"/>
+        <v>excel.BResult.030=diff sheets:%d</v>
       </c>
       <c r="I133" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.DResult.070=差异工作簿%d</v>
+        <f t="shared" si="14"/>
+        <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
     <row r="134" spans="2:9">
-      <c r="B134" s="1" t="s">
-        <v>308</v>
+      <c r="B134" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="G134" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.DResult.080=余剰%dブック</v>
+        <f t="shared" si="12"/>
+        <v>excel.BResult.040=余剰%dシート</v>
       </c>
       <c r="H134" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.DResult.080=redundant books:%d</v>
+        <f t="shared" si="13"/>
+        <v>excel.BResult.040=redundant sheets:%d</v>
       </c>
       <c r="I134" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.DResult.080=冗余工作簿%d</v>
+        <f t="shared" si="14"/>
+        <v>excel.BResult.040=冗余工作表%d</v>
       </c>
     </row>
     <row r="135" spans="2:9">
-      <c r="B135" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>311</v>
+      <c r="B135" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="G135" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.DResult.090=比較失敗%dブック</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
       </c>
       <c r="H135" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.DResult.090=failed books:%d</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">excel.BResult.050=Book %s : </v>
       </c>
       <c r="I135" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.DResult.090=失败工作簿%d</v>
+        <f t="shared" si="14"/>
+        <v>excel.BResult.050=工作簿%s：</v>
       </c>
     </row>
     <row r="136" spans="2:9">
-      <c r="B136" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>296</v>
+      <c r="B136" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>331</v>
+        <v>161</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>332</v>
+        <v>179</v>
       </c>
       <c r="G136" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.DResult.100=(比較対象ファイルなし)</v>
+        <f t="shared" si="12"/>
+        <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
       </c>
       <c r="H136" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.DResult.100=(No files to compare)</v>
+        <f t="shared" si="13"/>
+        <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
       </c>
       <c r="I136" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.DResult.100=(没有可比较的文件)</v>
+        <f t="shared" si="14"/>
+        <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
     <row r="137" spans="2:9">
+      <c r="B137" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>441</v>
+      </c>
       <c r="G137" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
+        <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
+      </c>
+      <c r="H137" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
+      </c>
+      <c r="I137" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="G138" s="4" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H137" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H138" s="5" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I137" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I138" s="6" t="str">
+        <f t="shared" si="14"/>
         <v/>
-      </c>
-    </row>
-    <row r="138" spans="2:9">
-      <c r="B138" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G138" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.SheetType.010=ワークシート</v>
-      </c>
-      <c r="H138" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.SheetType.010=Worksheet</v>
-      </c>
-      <c r="I138" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
     <row r="139" spans="2:9">
       <c r="B139" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="G139" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
+      </c>
+      <c r="H139" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
+      </c>
+      <c r="I139" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9">
+      <c r="G140" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H140" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I140" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="2:9">
+      <c r="B141" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G141" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>excel.DResult.010=(比較相手なし)</v>
+      </c>
+      <c r="H141" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>excel.DResult.010=(no opponent)</v>
+      </c>
+      <c r="I141" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>excel.DResult.010=(没有对比)</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9">
+      <c r="B142" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="G142" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
+      </c>
+      <c r="H142" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
+      </c>
+      <c r="I142" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
+      </c>
+    </row>
+    <row r="143" spans="2:9">
+      <c r="B143" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G143" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
+      </c>
+      <c r="H143" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
+      </c>
+      <c r="I143" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9">
+      <c r="B144" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G144" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
+      </c>
+      <c r="H144" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
+      </c>
+      <c r="I144" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
+      <c r="B145" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G145" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>excel.DResult.050=★失敗しました</v>
+      </c>
+      <c r="H145" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>excel.DResult.050=★Failed</v>
+      </c>
+      <c r="I145" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>excel.DResult.050=★失败</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="G146" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>excel.DResult.060=(差分なし)</v>
+      </c>
+      <c r="H146" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>excel.DResult.060=(no diffs)</v>
+      </c>
+      <c r="I146" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>excel.DResult.060=(没有区别)</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9">
+      <c r="B147" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="G147" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>excel.DResult.070=差異発生%dブック</v>
+      </c>
+      <c r="H147" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>excel.DResult.070=diff books:%d</v>
+      </c>
+      <c r="I147" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>excel.DResult.070=差异工作簿%d</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9">
+      <c r="B148" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G148" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>excel.DResult.080=余剰%dブック</v>
+      </c>
+      <c r="H148" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>excel.DResult.080=redundant books:%d</v>
+      </c>
+      <c r="I148" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>excel.DResult.080=冗余工作簿%d</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="B149" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G149" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>excel.DResult.090=比較失敗%dブック</v>
+      </c>
+      <c r="H149" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>excel.DResult.090=failed books:%d</v>
+      </c>
+      <c r="I149" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>excel.DResult.090=失败工作簿%d</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9">
+      <c r="B150" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G150" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>excel.DResult.100=(比較対象ファイルなし)</v>
+      </c>
+      <c r="H150" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>excel.DResult.100=(No files to compare)</v>
+      </c>
+      <c r="I150" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>excel.DResult.100=(没有可比较的文件)</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9">
+      <c r="G151" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H151" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I151" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G152" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>excel.SheetType.010=ワークシート</v>
+      </c>
+      <c r="H152" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>excel.SheetType.010=Worksheet</v>
+      </c>
+      <c r="I152" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>excel.SheetType.010=工作表</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9">
+      <c r="B153" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C153" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E153" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="G139" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="G153" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>excel.SheetType.020=グラフシート</v>
       </c>
-      <c r="H139" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H153" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>excel.SheetType.020=Chart</v>
       </c>
-      <c r="I139" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I153" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>excel.SheetType.020=图表表</v>
       </c>
     </row>
-    <row r="140" spans="2:9">
-      <c r="B140" s="2" t="s">
+    <row r="154" spans="2:9">
+      <c r="B154" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="E154" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="G140" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="G154" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
       </c>
-      <c r="H140" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H154" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
       </c>
-      <c r="I140" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I154" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
       </c>
     </row>
-    <row r="141" spans="2:9">
-      <c r="B141" s="2" t="s">
+    <row r="155" spans="2:9">
+      <c r="B155" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E155" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G141" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="G155" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
       </c>
-      <c r="H141" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H155" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>excel.SheetType.040=Excel 4.0 Macro</v>
       </c>
-      <c r="I141" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I155" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>excel.SheetType.040=Excel 4.0 宏表</v>
       </c>
     </row>
-    <row r="142" spans="2:9">
-      <c r="B142" s="2"/>
-      <c r="C142" s="3"/>
-      <c r="G142" s="4" t="str">
-        <f t="shared" si="9"/>
+    <row r="156" spans="2:9">
+      <c r="B156" s="2"/>
+      <c r="C156" s="3"/>
+      <c r="G156" s="4" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H142" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H156" s="5" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I142" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I156" s="6" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:9">
-      <c r="B143" s="2" t="s">
+    <row r="157" spans="2:9">
+      <c r="B157" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C157" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D157" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="E157" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="G143" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="G157" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>excel.SResult.010=(差分なし)</v>
       </c>
-      <c r="H143" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H157" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>excel.SResult.010=(no diffs)</v>
       </c>
-      <c r="I143" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I157" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
-    <row r="144" spans="2:9">
-      <c r="B144" s="2" t="s">
+    <row r="158" spans="2:9">
+      <c r="B158" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D158" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E158" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G144" s="4" t="str">
-        <f t="shared" ref="G144:G157" si="21" xml:space="preserve"> IF($B144="", "", $B144 &amp; "=" &amp; C144)</f>
+      <c r="G158" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>excel.SResult.020=余剰行%d</v>
       </c>
-      <c r="H144" s="5" t="str">
-        <f t="shared" ref="H144:H157" si="22" xml:space="preserve"> IF($B144="", "", $B144 &amp; "=" &amp; D144)</f>
+      <c r="H158" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>excel.SResult.020=redundant rows:%d</v>
       </c>
-      <c r="I144" s="6" t="str">
-        <f t="shared" ref="I144:I157" si="23" xml:space="preserve"> IF($B144="", "", $B144 &amp; "=" &amp; E144)</f>
+      <c r="I158" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>excel.SResult.020=冗余行%d</v>
       </c>
     </row>
-    <row r="145" spans="2:9">
-      <c r="B145" s="2" t="s">
+    <row r="159" spans="2:9">
+      <c r="B159" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D159" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E159" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G145" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="G159" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>excel.SResult.030=余剰列%d</v>
       </c>
-      <c r="H145" s="5" t="str">
-        <f t="shared" si="22"/>
+      <c r="H159" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>excel.SResult.030=redundant columns:%d</v>
       </c>
-      <c r="I145" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="I159" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>excel.SResult.030=冗余列%d</v>
       </c>
     </row>
-    <row r="146" spans="2:9">
-      <c r="B146" s="2" t="s">
+    <row r="160" spans="2:9">
+      <c r="B160" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D160" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E146" s="6" t="s">
+      <c r="E160" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="G146" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="G160" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>excel.SResult.040=差分セル%d</v>
       </c>
-      <c r="H146" s="5" t="str">
-        <f t="shared" si="22"/>
+      <c r="H160" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>excel.SResult.040=diff cells:%d</v>
       </c>
-      <c r="I146" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="I160" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>excel.SResult.040=差异单元格%d</v>
       </c>
     </row>
-    <row r="147" spans="2:9">
-      <c r="B147" s="2" t="s">
+    <row r="161" spans="2:9">
+      <c r="B161" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C161" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D161" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="E161" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G147" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="G161" s="4" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
       </c>
-      <c r="H147" s="5" t="str">
-        <f t="shared" si="22"/>
+      <c r="H161" s="5" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
       </c>
-      <c r="I147" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="I161" s="6" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
       </c>
     </row>
-    <row r="148" spans="2:9">
-      <c r="B148" s="2" t="s">
+    <row r="162" spans="2:9">
+      <c r="B162" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C162" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D162" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E162" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G148" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="G162" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>excel.SResult.060=行%d</v>
       </c>
-      <c r="H148" s="5" t="str">
-        <f t="shared" si="22"/>
+      <c r="H162" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>excel.SResult.060=Row %d</v>
       </c>
-      <c r="I148" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="I162" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>excel.SResult.060=行%d</v>
       </c>
     </row>
-    <row r="149" spans="2:9">
-      <c r="B149" s="2" t="s">
+    <row r="163" spans="2:9">
+      <c r="B163" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C163" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D163" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E163" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="G149" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="G163" s="4" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
       </c>
-      <c r="H149" s="5" t="str">
-        <f t="shared" si="22"/>
+      <c r="H163" s="5" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
       </c>
-      <c r="I149" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="I163" s="6" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
       </c>
     </row>
-    <row r="150" spans="2:9">
-      <c r="B150" s="2" t="s">
+    <row r="164" spans="2:9">
+      <c r="B164" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C164" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D164" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E164" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G150" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="G164" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>excel.SResult.080=%s列</v>
       </c>
-      <c r="H150" s="5" t="str">
-        <f t="shared" si="22"/>
+      <c r="H164" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>excel.SResult.080=Column %s</v>
       </c>
-      <c r="I150" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="I164" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>excel.SResult.080=%s列</v>
       </c>
     </row>
-    <row r="151" spans="2:9">
-      <c r="B151" s="2" t="s">
+    <row r="165" spans="2:9">
+      <c r="B165" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C165" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E151" s="6" t="s">
+      <c r="E165" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="G151" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="G165" s="4" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">excel.SResult.090=差分セル : </v>
       </c>
-      <c r="H151" s="5" t="str">
-        <f t="shared" si="22"/>
+      <c r="H165" s="5" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">excel.SResult.090=Diff cells : </v>
       </c>
-      <c r="I151" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="I165" s="6" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">excel.SResult.090=差异单元格 : </v>
       </c>
     </row>
-    <row r="152" spans="2:9">
-      <c r="G152" s="4" t="str">
-        <f t="shared" si="21"/>
+    <row r="166" spans="2:9">
+      <c r="G166" s="4" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H152" s="5" t="str">
-        <f t="shared" si="22"/>
+      <c r="H166" s="5" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I152" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="I166" s="6" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="2:9">
-      <c r="B153" s="1" t="s">
+    <row r="167" spans="2:9">
+      <c r="B167" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C167" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D167" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E153" s="6" t="s">
+      <c r="E167" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="G153" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="G167" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>excel.TreeResult.010=(比較相手なし)</v>
       </c>
-      <c r="H153" s="5" t="str">
-        <f t="shared" si="22"/>
+      <c r="H167" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>excel.TreeResult.010=(no opponent)</v>
       </c>
-      <c r="I153" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="I167" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>excel.TreeResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="154" spans="2:9">
-      <c r="B154" s="1" t="s">
+    <row r="168" spans="2:9">
+      <c r="B168" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C168" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D168" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="E168" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G154" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="G168" s="4" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
       </c>
-      <c r="H154" s="5" t="str">
-        <f t="shared" si="22"/>
+      <c r="H168" s="5" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
       </c>
-      <c r="I154" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="I168" s="6" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
       </c>
     </row>
-    <row r="155" spans="2:9">
-      <c r="B155" s="1" t="s">
+    <row r="169" spans="2:9">
+      <c r="B169" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C169" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D169" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E169" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G155" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="G169" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H155" s="5" t="str">
-        <f t="shared" si="22"/>
+      <c r="H169" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I155" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="I169" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="156" spans="2:9">
-      <c r="B156" s="1" t="s">
+    <row r="170" spans="2:9">
+      <c r="B170" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C170" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D170" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="E170" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="G156" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="G170" s="4" t="str">
+        <f t="shared" ref="G170:G171" si="15" xml:space="preserve"> IF($B170="", "", $B170 &amp; "=" &amp; C170)</f>
         <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H156" s="5" t="str">
-        <f t="shared" si="22"/>
+      <c r="H170" s="5" t="str">
+        <f t="shared" ref="H170:H171" si="16" xml:space="preserve"> IF($B170="", "", $B170 &amp; "=" &amp; D170)</f>
         <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I156" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="I170" s="6" t="str">
+        <f t="shared" ref="I170:I171" si="17" xml:space="preserve"> IF($B170="", "", $B170 &amp; "=" &amp; E170)</f>
         <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="157" spans="2:9">
-      <c r="B157" s="1" t="s">
+    <row r="171" spans="2:9">
+      <c r="B171" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C171" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D171" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E157" s="6" t="s">
+      <c r="E171" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="G157" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="G171" s="4" t="str">
+        <f t="shared" si="15"/>
         <v>excel.TreeResult.050=★失敗しました</v>
       </c>
-      <c r="H157" s="5" t="str">
-        <f t="shared" si="22"/>
+      <c r="H171" s="5" t="str">
+        <f t="shared" si="16"/>
         <v>excel.TreeResult.050=★Failed</v>
       </c>
-      <c r="I157" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="I171" s="6" t="str">
+        <f t="shared" si="17"/>
         <v>excel.TreeResult.050=★失败</v>
       </c>
     </row>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF98F92-6E8E-4E55-9BF3-EE81F5904F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5721C754-1FEE-443F-A7B1-28088EA76C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="546">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -2116,6 +2116,54 @@
   </si>
   <si>
     <t xml:space="preserve">Exec datetime : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較結果レポートを保存しています...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saving result report...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存比较结果报告...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較結果レポートの保存に失敗しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to save result report.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存比较结果报告失败。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較結果レポートを表示しています...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Opening result report...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>显示比较结果报告...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>显示比较结果报告失败。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to open result report.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較結果レポートの表示に失敗しました。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5103,25 +5151,25 @@
         <v>505</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>336</v>
+        <v>534</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>343</v>
+        <v>535</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>435</v>
+        <v>536</v>
       </c>
       <c r="G101" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CompareBooksTask.060=比較結果Excelブックを保存しています...</v>
+        <v>CompareBooksTask.060=比較結果レポートを保存しています...</v>
       </c>
       <c r="H101" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>CompareBooksTask.060=Saving result book...</v>
+        <v>CompareBooksTask.060=Saving result report...</v>
       </c>
       <c r="I101" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>CompareBooksTask.060=存储比较结果工作簿...</v>
+        <v>CompareBooksTask.060=保存比较结果报告...</v>
       </c>
     </row>
     <row r="102" spans="2:9">
@@ -5129,25 +5177,25 @@
         <v>506</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>338</v>
+        <v>537</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>344</v>
+        <v>538</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>436</v>
+        <v>539</v>
       </c>
       <c r="G102" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CompareBooksTask.070=比較結果Excelブックの保存に失敗しました。</v>
+        <v>CompareBooksTask.070=比較結果レポートの保存に失敗しました。</v>
       </c>
       <c r="H102" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>CompareBooksTask.070=Failed to save result book.</v>
+        <v>CompareBooksTask.070=Failed to save result report.</v>
       </c>
       <c r="I102" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>CompareBooksTask.070=保存比较结果工作簿失败。</v>
+        <v>CompareBooksTask.070=保存比较结果报告失败。</v>
       </c>
     </row>
     <row r="103" spans="2:9">
@@ -5155,25 +5203,25 @@
         <v>507</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>345</v>
+        <v>541</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>346</v>
+        <v>542</v>
       </c>
       <c r="G103" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CompareBooksTask.080=比較結果Excelブックを表示しています...</v>
+        <v>CompareBooksTask.080=比較結果レポートを表示しています...</v>
       </c>
       <c r="H103" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>CompareBooksTask.080=Opening result book...</v>
+        <v>CompareBooksTask.080=Opening result report...</v>
       </c>
       <c r="I103" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>CompareBooksTask.080=显示比较结果工作簿...</v>
+        <v>CompareBooksTask.080=显示比较结果报告...</v>
       </c>
     </row>
     <row r="104" spans="2:9">
@@ -5181,25 +5229,25 @@
         <v>508</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>342</v>
+        <v>545</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>347</v>
+        <v>544</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>437</v>
+        <v>543</v>
       </c>
       <c r="G104" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CompareBooksTask.090=比較結果Excelブックの表示に失敗しました。</v>
+        <v>CompareBooksTask.090=比較結果レポートの表示に失敗しました。</v>
       </c>
       <c r="H104" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>CompareBooksTask.090=Failed to open result book.</v>
+        <v>CompareBooksTask.090=Failed to open result report.</v>
       </c>
       <c r="I104" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>CompareBooksTask.090=显示比较结果工作簿失败。</v>
+        <v>CompareBooksTask.090=显示比较结果报告失败。</v>
       </c>
     </row>
     <row r="105" spans="2:9">

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5721C754-1FEE-443F-A7B1-28088EA76C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CD0C71-2253-4B18-B622-89CFF73D8DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="534">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -1265,45 +1265,13 @@
     <t>CompareTreesTask.070</t>
   </si>
   <si>
-    <t>比較結果Excelブックを保存しています...</t>
-  </si>
-  <si>
     <t>CompareTreesTask.080</t>
   </si>
   <si>
-    <t>比較結果Excelブックの保存に失敗しました。</t>
-  </si>
-  <si>
     <t>CompareTreesTask.090</t>
   </si>
   <si>
-    <t>比較結果Excelブックを表示しています...</t>
-  </si>
-  <si>
     <t>CompareTreesTask.100</t>
-  </si>
-  <si>
-    <t>比較結果Excelブックの表示に失敗しました。</t>
-  </si>
-  <si>
-    <t>Saving result book...</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Failed to save result book.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Opening result book...</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>显示比较结果工作簿...</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Failed to open result book.</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>比較フォルダ%s：</t>
@@ -1613,18 +1581,6 @@
   </si>
   <si>
     <t>比较文件夹...</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>存储比较结果工作簿...</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保存比较结果工作簿失败。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>显示比较结果工作簿失败。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2620,7 +2576,7 @@
   <cols>
     <col min="1" max="1" width="2.5625" style="1"/>
     <col min="2" max="2" width="42.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.3125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.5625" style="5" customWidth="1"/>
     <col min="5" max="5" width="30.5625" style="6" customWidth="1"/>
     <col min="6" max="6" width="2.5625" style="1"/>
@@ -2661,7 +2617,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G2" s="4" t="str">
         <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; C2)</f>
@@ -2791,7 +2747,7 @@
         <v>248</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2840,10 +2796,10 @@
         <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2866,10 +2822,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2895,7 +2851,7 @@
         <v>124</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2918,10 +2874,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2944,10 +2900,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2970,10 +2926,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2996,10 +2952,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3025,7 +2981,7 @@
         <v>125</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3045,13 +3001,13 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3071,13 +3027,13 @@
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3103,7 +3059,7 @@
         <v>126</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3126,10 +3082,10 @@
         <v>26</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3146,16 +3102,16 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3172,16 +3128,16 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="2" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3207,7 +3163,7 @@
         <v>127</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3233,7 +3189,7 @@
         <v>187</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3250,16 +3206,16 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="2" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3311,7 +3267,7 @@
         <v>129</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3337,7 +3293,7 @@
         <v>130</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3357,13 +3313,13 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3386,10 +3342,10 @@
         <v>6</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3412,10 +3368,10 @@
         <v>276</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3432,16 +3388,16 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="2" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3475,13 +3431,13 @@
         <v>333</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>270</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G34" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3501,13 +3457,13 @@
         <v>334</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="G35" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3538,16 +3494,16 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" ref="G37" si="6" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; C37)</f>
@@ -3564,16 +3520,16 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="1" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="G38" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3590,16 +3546,16 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="1" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>267</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G39" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3616,16 +3572,16 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3642,16 +3598,16 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="1" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3668,16 +3624,16 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" ref="G42:G45" si="9" xml:space="preserve"> IF($B42="", "", $B42 &amp; "=" &amp; C42)</f>
@@ -3694,16 +3650,16 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="1" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3720,16 +3676,16 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="1" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3746,7 +3702,7 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="1" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>91</v>
@@ -3755,7 +3711,7 @@
         <v>159</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3795,7 +3751,7 @@
         <v>247</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3821,7 +3777,7 @@
         <v>189</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3864,7 +3820,7 @@
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>75</v>
@@ -3873,7 +3829,7 @@
         <v>144</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G50" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3890,16 +3846,16 @@
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G51" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3916,7 +3872,7 @@
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="2" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>56</v>
@@ -3925,7 +3881,7 @@
         <v>135</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3942,16 +3898,16 @@
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3977,7 +3933,7 @@
         <v>139</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4003,7 +3959,7 @@
         <v>140</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4045,7 +4001,7 @@
         <v>131</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4071,7 +4027,7 @@
         <v>278</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4097,7 +4053,7 @@
         <v>134</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G59" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4123,7 +4079,7 @@
         <v>135</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4149,7 +4105,7 @@
         <v>136</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G61" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4175,7 +4131,7 @@
         <v>137</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G62" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4279,7 +4235,7 @@
         <v>249</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G66" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4305,7 +4261,7 @@
         <v>132</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G67" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4351,13 +4307,13 @@
         <v>48</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G69" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4380,10 +4336,10 @@
         <v>45</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G70" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4400,16 +4356,16 @@
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G71" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4475,7 +4431,7 @@
         <v>142</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G74" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4543,7 +4499,7 @@
         <v>144</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G77" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4569,7 +4525,7 @@
         <v>149</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="G78" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4595,7 +4551,7 @@
         <v>150</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G79" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4621,7 +4577,7 @@
         <v>151</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="G80" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4647,7 +4603,7 @@
         <v>152</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G81" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4673,7 +4629,7 @@
         <v>153</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G82" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4699,7 +4655,7 @@
         <v>154</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G83" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4725,7 +4681,7 @@
         <v>155</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G84" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4751,7 +4707,7 @@
         <v>156</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G85" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4777,7 +4733,7 @@
         <v>157</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G86" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4803,7 +4759,7 @@
         <v>158</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G87" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4881,7 +4837,7 @@
         <v>258</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G90" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4924,16 +4880,16 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>462</v>
-      </c>
       <c r="D92" s="5" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G92" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4950,7 +4906,7 @@
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>63</v>
@@ -4976,16 +4932,16 @@
     </row>
     <row r="94" spans="2:9">
       <c r="B94" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="G94" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5027,7 +4983,7 @@
         <v>251</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G96" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5053,7 +5009,7 @@
         <v>145</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G97" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5079,7 +5035,7 @@
         <v>146</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G98" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5105,7 +5061,7 @@
         <v>147</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="G99" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5131,7 +5087,7 @@
         <v>148</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G100" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5148,16 +5104,16 @@
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G101" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5174,16 +5130,16 @@
     </row>
     <row r="102" spans="2:9">
       <c r="B102" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="G102" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5200,16 +5156,16 @@
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="G103" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5226,16 +5182,16 @@
     </row>
     <row r="104" spans="2:9">
       <c r="B104" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G104" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5277,7 +5233,7 @@
         <v>253</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="G106" s="4" t="str">
         <f t="shared" ref="G106:G169" si="12" xml:space="preserve"> IF($B106="", "", $B106 &amp; "=" &amp; C106)</f>
@@ -5329,7 +5285,7 @@
         <v>255</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G108" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5355,7 +5311,7 @@
         <v>256</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="G109" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5381,7 +5337,7 @@
         <v>257</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G110" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5407,7 +5363,7 @@
         <v>258</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G111" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5450,16 +5406,16 @@
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G113" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5501,7 +5457,7 @@
         <v>252</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="G115" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5527,7 +5483,7 @@
         <v>147</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G116" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5553,7 +5509,7 @@
         <v>148</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="G117" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5595,7 +5551,7 @@
         <v>318</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="G119" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5621,7 +5577,7 @@
         <v>320</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G120" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5647,7 +5603,7 @@
         <v>321</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="G121" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5673,7 +5629,7 @@
         <v>322</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G122" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5699,7 +5655,7 @@
         <v>258</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G123" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5745,117 +5701,117 @@
         <v>335</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>336</v>
+        <v>522</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>343</v>
+        <v>523</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>435</v>
+        <v>524</v>
       </c>
       <c r="G125" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>CompareTreesTask.070=比較結果Excelブックを保存しています...</v>
+        <v>CompareTreesTask.070=比較結果レポートを保存しています...</v>
       </c>
       <c r="H125" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>CompareTreesTask.070=Saving result book...</v>
+        <v>CompareTreesTask.070=Saving result report...</v>
       </c>
       <c r="I125" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>CompareTreesTask.070=存储比较结果工作簿...</v>
+        <v>CompareTreesTask.070=保存比较结果报告...</v>
       </c>
     </row>
     <row r="126" spans="2:9">
       <c r="B126" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>338</v>
+        <v>525</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>344</v>
+        <v>526</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>436</v>
+        <v>527</v>
       </c>
       <c r="G126" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>CompareTreesTask.080=比較結果Excelブックの保存に失敗しました。</v>
+        <v>CompareTreesTask.080=比較結果レポートの保存に失敗しました。</v>
       </c>
       <c r="H126" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>CompareTreesTask.080=Failed to save result book.</v>
+        <v>CompareTreesTask.080=Failed to save result report.</v>
       </c>
       <c r="I126" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>CompareTreesTask.080=保存比较结果工作簿失败。</v>
+        <v>CompareTreesTask.080=保存比较结果报告失败。</v>
       </c>
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>340</v>
+        <v>528</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>345</v>
+        <v>529</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>346</v>
+        <v>530</v>
       </c>
       <c r="G127" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>CompareTreesTask.090=比較結果Excelブックを表示しています...</v>
+        <v>CompareTreesTask.090=比較結果レポートを表示しています...</v>
       </c>
       <c r="H127" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>CompareTreesTask.090=Opening result book...</v>
+        <v>CompareTreesTask.090=Opening result report...</v>
       </c>
       <c r="I127" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>CompareTreesTask.090=显示比较结果工作簿...</v>
+        <v>CompareTreesTask.090=显示比较结果报告...</v>
       </c>
     </row>
     <row r="128" spans="2:9">
       <c r="B128" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>342</v>
+        <v>533</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>347</v>
+        <v>532</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>437</v>
+        <v>531</v>
       </c>
       <c r="G128" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>CompareTreesTask.100=比較結果Excelブックの表示に失敗しました。</v>
+        <v>CompareTreesTask.100=比較結果レポートの表示に失敗しました。</v>
       </c>
       <c r="H128" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>CompareTreesTask.100=Failed to open result book.</v>
+        <v>CompareTreesTask.100=Failed to open result report.</v>
       </c>
       <c r="I128" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>CompareTreesTask.100=显示比较结果工作簿失败。</v>
+        <v>CompareTreesTask.100=显示比较结果报告失败。</v>
       </c>
     </row>
     <row r="129" spans="2:9">
       <c r="B129" s="2" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G129" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5897,7 +5853,7 @@
         <v>159</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G131" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5923,7 +5879,7 @@
         <v>160</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="G132" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5949,7 +5905,7 @@
         <v>265</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G133" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6001,7 +5957,7 @@
         <v>267</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="G135" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6053,7 +6009,7 @@
         <v>162</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G137" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6093,7 +6049,7 @@
         <v>163</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G139" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6133,7 +6089,7 @@
         <v>159</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G141" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6159,7 +6115,7 @@
         <v>270</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G142" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6211,7 +6167,7 @@
         <v>162</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G144" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6237,7 +6193,7 @@
         <v>258</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G145" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6263,7 +6219,7 @@
         <v>160</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="G146" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6289,7 +6245,7 @@
         <v>324</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G147" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6433,7 +6389,7 @@
         <v>165</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="G153" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6459,7 +6415,7 @@
         <v>166</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G154" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6527,7 +6483,7 @@
         <v>160</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="G157" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6605,7 +6561,7 @@
         <v>170</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="G160" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6625,7 +6581,7 @@
         <v>116</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>271</v>
@@ -6677,7 +6633,7 @@
         <v>119</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>272</v>
@@ -6729,13 +6685,13 @@
         <v>122</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>273</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G165" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6775,7 +6731,7 @@
         <v>159</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G167" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6801,7 +6757,7 @@
         <v>330</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G168" s="4" t="str">
         <f t="shared" si="12"/>
@@ -6853,7 +6809,7 @@
         <v>162</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G170" s="4" t="str">
         <f t="shared" ref="G170:G171" si="15" xml:space="preserve"> IF($B170="", "", $B170 &amp; "=" &amp; C170)</f>
@@ -6879,7 +6835,7 @@
         <v>258</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G171" s="4" t="str">
         <f t="shared" si="15"/>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CD0C71-2253-4B18-B622-89CFF73D8DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4EB6F9-3205-4810-AF69-B18AAB7FE7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1978,54 +1978,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>余剰行</t>
-    <rPh sb="0" eb="3">
-      <t>ヨジョウギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>余剰列</t>
-    <rPh sb="0" eb="2">
-      <t>ヨジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>レツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>差分セル</t>
-    <rPh sb="0" eb="2">
-      <t>サブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Redundant Rows</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Redundant Columns</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Diff Cells</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>冗余行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>冗余列</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>差异单元格</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>excel.poi.usermodel.BookResultBookCreator.070</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2120,6 +2072,54 @@
   </si>
   <si>
     <t>比較結果レポートの表示に失敗しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余剰行（A: %d, B: %d）</t>
+    <rPh sb="0" eb="3">
+      <t>ヨジョウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Redundant Rows (A: %d, B: %d)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余剰列（A: %d, B: %d）</t>
+    <rPh sb="0" eb="2">
+      <t>ヨジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差分セル（%d）</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Redundant Columns (A: %d, B: %d)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Diff Cells (%d)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冗余列（A: %d, B: %d）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差异单元格（%d）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冗余行（A: %d, B: %d）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3500,7 +3500,7 @@
         <v>498</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>499</v>
@@ -3575,13 +3575,13 @@
         <v>500</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3601,13 +3601,13 @@
         <v>501</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3627,82 +3627,82 @@
         <v>502</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" ref="G42:G45" si="9" xml:space="preserve"> IF($B42="", "", $B42 &amp; "=" &amp; C42)</f>
-        <v>excel.poi.usermodel.BookResultBookCreator.060=余剰行</v>
+        <v>excel.poi.usermodel.BookResultBookCreator.060=余剰行（A: %d, B: %d）</v>
       </c>
       <c r="H42" s="5" t="str">
         <f t="shared" ref="H42:H45" si="10" xml:space="preserve"> IF($B42="", "", $B42 &amp; "=" &amp; D42)</f>
-        <v>excel.poi.usermodel.BookResultBookCreator.060=Redundant Rows</v>
+        <v>excel.poi.usermodel.BookResultBookCreator.060=Redundant Rows (A: %d, B: %d)</v>
       </c>
       <c r="I42" s="6" t="str">
         <f t="shared" ref="I42:I45" si="11" xml:space="preserve"> IF($B42="", "", $B42 &amp; "=" &amp; E42)</f>
-        <v>excel.poi.usermodel.BookResultBookCreator.060=冗余行</v>
+        <v>excel.poi.usermodel.BookResultBookCreator.060=冗余行（A: %d, B: %d）</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.070=余剰列</v>
+        <v>excel.poi.usermodel.BookResultBookCreator.070=余剰列（A: %d, B: %d）</v>
       </c>
       <c r="H43" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.070=Redundant Columns</v>
+        <v>excel.poi.usermodel.BookResultBookCreator.070=Redundant Columns (A: %d, B: %d)</v>
       </c>
       <c r="I43" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.070=冗余列</v>
+        <v>excel.poi.usermodel.BookResultBookCreator.070=冗余列（A: %d, B: %d）</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="1" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.080=差分セル</v>
+        <v>excel.poi.usermodel.BookResultBookCreator.080=差分セル（%d）</v>
       </c>
       <c r="H44" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.080=Diff Cells</v>
+        <v>excel.poi.usermodel.BookResultBookCreator.080=Diff Cells (%d)</v>
       </c>
       <c r="I44" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.080=差异单元格</v>
+        <v>excel.poi.usermodel.BookResultBookCreator.080=差异单元格（%d）</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>91</v>
@@ -5107,13 +5107,13 @@
         <v>493</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G101" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5133,13 +5133,13 @@
         <v>494</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="G102" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5159,13 +5159,13 @@
         <v>495</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G103" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5185,13 +5185,13 @@
         <v>496</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="G104" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5701,13 +5701,13 @@
         <v>335</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G125" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5727,13 +5727,13 @@
         <v>336</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="G126" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5753,13 +5753,13 @@
         <v>337</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G127" s="4" t="str">
         <f t="shared" si="12"/>
@@ -5779,13 +5779,13 @@
         <v>338</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="G128" s="4" t="str">
         <f t="shared" si="12"/>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4EB6F9-3205-4810-AF69-B18AAB7FE7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B19F0C5-BFDB-4F01-9E4D-6F1D8EEDF954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="537">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -1903,32 +1903,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>工作簿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>%s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CompareBooksTask.060</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2122,12 +2096,59 @@
     <t>冗余行（A: %d, B: %d）</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>AppTaskBase.200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">比較実行日時 : </t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>工作簿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>%s：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>执行日期和时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2188,13 +2209,6 @@
       <color rgb="FF00B050"/>
       <name val="NSimSun"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2565,7 +2579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I171"/>
+  <dimension ref="B1:I172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3480,15 +3494,15 @@
     </row>
     <row r="36" spans="2:9">
       <c r="G36" s="4" t="str">
-        <f t="shared" ref="G36:G105" si="3" xml:space="preserve"> IF($B36="", "", $B36 &amp; "=" &amp; C36)</f>
+        <f t="shared" ref="G36:G106" si="3" xml:space="preserve"> IF($B36="", "", $B36 &amp; "=" &amp; C36)</f>
         <v/>
       </c>
       <c r="H36" s="5" t="str">
-        <f t="shared" ref="H36:H105" si="4" xml:space="preserve"> IF($B36="", "", $B36 &amp; "=" &amp; D36)</f>
+        <f t="shared" ref="H36:H106" si="4" xml:space="preserve"> IF($B36="", "", $B36 &amp; "=" &amp; D36)</f>
         <v/>
       </c>
       <c r="I36" s="6" t="str">
-        <f t="shared" ref="I36:I105" si="5" xml:space="preserve"> IF($B36="", "", $B36 &amp; "=" &amp; E36)</f>
+        <f t="shared" ref="I36:I106" si="5" xml:space="preserve"> IF($B36="", "", $B36 &amp; "=" &amp; E36)</f>
         <v/>
       </c>
     </row>
@@ -3497,13 +3511,13 @@
         <v>489</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>499</v>
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" ref="G37" si="6" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; C37)</f>
@@ -3546,7 +3560,7 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>491</v>
@@ -3555,7 +3569,7 @@
         <v>267</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="G39" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3572,16 +3586,16 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3598,16 +3612,16 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3624,16 +3638,16 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>526</v>
-      </c>
       <c r="E42" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" ref="G42:G45" si="9" xml:space="preserve"> IF($B42="", "", $B42 &amp; "=" &amp; C42)</f>
@@ -3650,16 +3664,16 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3676,16 +3690,16 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3702,7 +3716,7 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>91</v>
@@ -4957,1895 +4971,1921 @@
       </c>
     </row>
     <row r="95" spans="2:9">
-      <c r="B95" s="2"/>
-      <c r="C95" s="3"/>
+      <c r="B95" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>536</v>
+      </c>
       <c r="G95" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">AppTaskBase.200=比較実行日時 : </v>
       </c>
       <c r="H95" s="5" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">AppTaskBase.200=Exec datetime : </v>
       </c>
       <c r="I95" s="6" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v xml:space="preserve">AppTaskBase.200=执行日期和时间 : </v>
       </c>
     </row>
     <row r="96" spans="2:9">
-      <c r="B96" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>411</v>
-      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
       <c r="G96" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
+        <v/>
       </c>
       <c r="H96" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>CompareBooksTask.010=Starting comparing books.</v>
+        <v/>
       </c>
       <c r="I96" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>CompareBooksTask.010=开始互相比较工作簿。</v>
+        <v/>
       </c>
     </row>
     <row r="97" spans="2:9">
       <c r="B97" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G97" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
+        <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
       </c>
       <c r="H97" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>CompareBooksTask.020=Pairing sheets...</v>
+        <v>CompareBooksTask.010=Starting comparing books.</v>
       </c>
       <c r="I97" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
+        <v>CompareBooksTask.010=开始互相比较工作簿。</v>
       </c>
     </row>
     <row r="98" spans="2:9">
       <c r="B98" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G98" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
+        <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
       </c>
       <c r="H98" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>CompareBooksTask.030=Failed to pair sheets.</v>
+        <v>CompareBooksTask.020=Pairing sheets...</v>
       </c>
       <c r="I98" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>CompareBooksTask.030=确定工作表组合失败。</v>
+        <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
       </c>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G99" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CompareBooksTask.040=シートを比較しています...</v>
+        <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
       </c>
       <c r="H99" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>CompareBooksTask.040=Comparing sheets...</v>
+        <v>CompareBooksTask.030=Failed to pair sheets.</v>
       </c>
       <c r="I99" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>CompareBooksTask.040=比较工作表...</v>
+        <v>CompareBooksTask.030=确定工作表组合失败。</v>
       </c>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G100" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
+        <v>CompareBooksTask.040=シートを比較しています...</v>
       </c>
       <c r="H100" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>CompareBooksTask.050=Failed to compare sheets.</v>
+        <v>CompareBooksTask.040=Comparing sheets...</v>
       </c>
       <c r="I100" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>CompareBooksTask.050=工作表比较失败。</v>
+        <v>CompareBooksTask.040=比较工作表...</v>
       </c>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="7" t="s">
-        <v>493</v>
+        <v>215</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>514</v>
+        <v>148</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>515</v>
+        <v>415</v>
       </c>
       <c r="G101" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CompareBooksTask.060=比較結果レポートを保存しています...</v>
+        <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
       </c>
       <c r="H101" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>CompareBooksTask.060=Saving result report...</v>
+        <v>CompareBooksTask.050=Failed to compare sheets.</v>
       </c>
       <c r="I101" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>CompareBooksTask.060=保存比较结果报告...</v>
+        <v>CompareBooksTask.050=工作表比较失败。</v>
       </c>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G102" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CompareBooksTask.070=比較結果レポートの保存に失敗しました。</v>
+        <v>CompareBooksTask.060=比較結果レポートを保存しています...</v>
       </c>
       <c r="H102" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>CompareBooksTask.070=Failed to save result report.</v>
+        <v>CompareBooksTask.060=Saving result report...</v>
       </c>
       <c r="I102" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>CompareBooksTask.070=保存比较结果报告失败。</v>
+        <v>CompareBooksTask.060=保存比较结果报告...</v>
       </c>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G103" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CompareBooksTask.080=比較結果レポートを表示しています...</v>
+        <v>CompareBooksTask.070=比較結果レポートの保存に失敗しました。</v>
       </c>
       <c r="H103" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>CompareBooksTask.080=Opening result report...</v>
+        <v>CompareBooksTask.070=Failed to save result report.</v>
       </c>
       <c r="I103" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>CompareBooksTask.080=显示比较结果报告...</v>
+        <v>CompareBooksTask.070=保存比较结果报告失败。</v>
       </c>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G104" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CompareBooksTask.090=比較結果レポートの表示に失敗しました。</v>
+        <v>CompareBooksTask.080=比較結果レポートを表示しています...</v>
       </c>
       <c r="H104" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>CompareBooksTask.090=Failed to open result report.</v>
+        <v>CompareBooksTask.080=Opening result report...</v>
       </c>
       <c r="I104" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>CompareBooksTask.090=显示比较结果报告失败。</v>
+        <v>CompareBooksTask.080=显示比较结果报告...</v>
       </c>
     </row>
     <row r="105" spans="2:9">
-      <c r="B105" s="2"/>
-      <c r="C105" s="3"/>
+      <c r="B105" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>521</v>
+      </c>
       <c r="G105" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>CompareBooksTask.090=比較結果レポートの表示に失敗しました。</v>
       </c>
       <c r="H105" s="5" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>CompareBooksTask.090=Failed to open result report.</v>
       </c>
       <c r="I105" s="6" t="str">
         <f t="shared" si="5"/>
+        <v>CompareBooksTask.090=显示比较结果报告失败。</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="B106" s="2"/>
+      <c r="C106" s="3"/>
+      <c r="G106" s="4" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="106" spans="2:9">
-      <c r="B106" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="G106" s="4" t="str">
-        <f t="shared" ref="G106:G169" si="12" xml:space="preserve"> IF($B106="", "", $B106 &amp; "=" &amp; C106)</f>
-        <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
-      </c>
       <c r="H106" s="5" t="str">
-        <f t="shared" ref="H106:H169" si="13" xml:space="preserve"> IF($B106="", "", $B106 &amp; "=" &amp; D106)</f>
-        <v>CompareDirsTask.010=Starting comparing folders.</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="I106" s="6" t="str">
-        <f t="shared" ref="I106:I169" si="14" xml:space="preserve"> IF($B106="", "", $B106 &amp; "=" &amp; E106)</f>
-        <v>CompareDirsTask.010=开始互相比较文件夹。</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G107" s="4" t="str">
+        <f t="shared" ref="G107:G170" si="12" xml:space="preserve"> IF($B107="", "", $B107 &amp; "=" &amp; C107)</f>
+        <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
+      </c>
+      <c r="H107" s="5" t="str">
+        <f t="shared" ref="H107:H170" si="13" xml:space="preserve"> IF($B107="", "", $B107 &amp; "=" &amp; D107)</f>
+        <v>CompareDirsTask.010=Starting comparing folders.</v>
+      </c>
+      <c r="I107" s="6" t="str">
+        <f t="shared" ref="I107:I170" si="14" xml:space="preserve"> IF($B107="", "", $B107 &amp; "=" &amp; E107)</f>
+        <v>CompareDirsTask.010=开始互相比较文件夹。</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="B108" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E108" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="G107" s="4" t="str">
+      <c r="G108" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
       </c>
-      <c r="H107" s="5" t="str">
+      <c r="H108" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareDirsTask.020=Failed to create output directory.</v>
       </c>
-      <c r="I107" s="6" t="str">
+      <c r="I108" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="7" t="s">
+    <row r="109" spans="2:9">
+      <c r="B109" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E109" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="G108" s="4" t="str">
+      <c r="G109" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
       </c>
-      <c r="H108" s="5" t="str">
+      <c r="H109" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareDirsTask.030=Pairing books...</v>
       </c>
-      <c r="I108" s="6" t="str">
+      <c r="I109" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
-      <c r="B109" s="7" t="s">
+    <row r="110" spans="2:9">
+      <c r="B110" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E110" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="G109" s="4" t="str">
+      <c r="G110" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H109" s="5" t="str">
+      <c r="H110" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareDirsTask.040=Failed to pair books.</v>
       </c>
-      <c r="I109" s="6" t="str">
+      <c r="I110" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareDirsTask.040=确定工作簿组合失败。</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="7" t="s">
+    <row r="111" spans="2:9">
+      <c r="B111" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E111" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="G110" s="4" t="str">
+      <c r="G111" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareDirsTask.050=Excelブックを比較しています...</v>
       </c>
-      <c r="H110" s="5" t="str">
+      <c r="H111" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareDirsTask.050=Comparing books...</v>
       </c>
-      <c r="I110" s="6" t="str">
+      <c r="I111" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareDirsTask.050=比较工作簿...</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="7" t="s">
+    <row r="112" spans="2:9">
+      <c r="B112" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E112" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G111" s="4" t="str">
+      <c r="G112" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareDirsTask.060=★失敗しました</v>
       </c>
-      <c r="H111" s="5" t="str">
+      <c r="H112" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareDirsTask.060=★Failed</v>
       </c>
-      <c r="I111" s="6" t="str">
+      <c r="I112" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareDirsTask.060=★失败</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
-      <c r="B112" s="7" t="s">
+    <row r="113" spans="2:9">
+      <c r="B113" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E113" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="G112" s="4" t="str">
+      <c r="G113" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareDirsTask.070=(比較対象ファイルなし)</v>
       </c>
-      <c r="H112" s="5" t="str">
+      <c r="H113" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareDirsTask.070=(No files to compare)</v>
       </c>
-      <c r="I112" s="6" t="str">
+      <c r="I113" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareDirsTask.070=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
-      <c r="B113" s="7" t="s">
+    <row r="114" spans="2:9">
+      <c r="B114" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E114" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G113" s="4" t="str">
+      <c r="G114" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareDirsTask.080=フォルダの比較に失敗しました。</v>
       </c>
-      <c r="H113" s="5" t="str">
+      <c r="H114" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareDirsTask.080=Failed to compare folders.</v>
       </c>
-      <c r="I113" s="6" t="str">
+      <c r="I114" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareDirsTask.080=文件夹比较失败。</v>
       </c>
     </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="2"/>
-      <c r="C114" s="3"/>
-      <c r="G114" s="4" t="str">
+    <row r="115" spans="2:9">
+      <c r="B115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="G115" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H114" s="5" t="str">
+      <c r="H115" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I114" s="6" t="str">
+      <c r="I115" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:9">
-      <c r="B115" s="7" t="s">
+    <row r="116" spans="2:9">
+      <c r="B116" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E116" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="G115" s="4" t="str">
+      <c r="G116" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
       </c>
-      <c r="H115" s="5" t="str">
+      <c r="H116" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareSheetsTask.010=Starting comparing sheets.</v>
       </c>
-      <c r="I115" s="6" t="str">
+      <c r="I116" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
-    <row r="116" spans="2:9">
-      <c r="B116" s="7" t="s">
+    <row r="117" spans="2:9">
+      <c r="B117" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E117" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="G116" s="4" t="str">
+      <c r="G117" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareSheetsTask.020=シートを比較しています...</v>
       </c>
-      <c r="H116" s="5" t="str">
+      <c r="H117" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareSheetsTask.020=Comparing sheets...</v>
       </c>
-      <c r="I116" s="6" t="str">
+      <c r="I117" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareSheetsTask.020=比较工作表...</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
-      <c r="B117" s="7" t="s">
+    <row r="118" spans="2:9">
+      <c r="B118" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E118" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="G117" s="4" t="str">
+      <c r="G118" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
       </c>
-      <c r="H117" s="5" t="str">
+      <c r="H118" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareSheetsTask.030=Failed to compare sheets.</v>
       </c>
-      <c r="I117" s="6" t="str">
+      <c r="I118" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareSheetsTask.030=工作表比较失败。</v>
       </c>
     </row>
-    <row r="118" spans="2:9">
-      <c r="B118" s="2"/>
-      <c r="C118" s="3"/>
-      <c r="G118" s="4" t="str">
+    <row r="119" spans="2:9">
+      <c r="B119" s="2"/>
+      <c r="C119" s="3"/>
+      <c r="G119" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H118" s="5" t="str">
+      <c r="H119" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I118" s="6" t="str">
+      <c r="I119" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:9">
-      <c r="B119" s="1" t="s">
+    <row r="120" spans="2:9">
+      <c r="B120" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E120" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G119" s="4" t="str">
+      <c r="G120" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
       </c>
-      <c r="H119" s="5" t="str">
+      <c r="H120" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.010=Starting comparing folder trees.</v>
       </c>
-      <c r="I119" s="6" t="str">
+      <c r="I120" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
       </c>
     </row>
-    <row r="120" spans="2:9">
-      <c r="B120" s="1" t="s">
+    <row r="121" spans="2:9">
+      <c r="B121" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E121" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="G120" s="4" t="str">
+      <c r="G121" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
       </c>
-      <c r="H120" s="5" t="str">
+      <c r="H121" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.020=Pairing folders...</v>
       </c>
-      <c r="I120" s="6" t="str">
+      <c r="I121" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
       </c>
     </row>
-    <row r="121" spans="2:9">
-      <c r="B121" s="1" t="s">
+    <row r="122" spans="2:9">
+      <c r="B122" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E122" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="G121" s="4" t="str">
+      <c r="G122" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H121" s="5" t="str">
+      <c r="H122" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.030=Failed to pair folders.</v>
       </c>
-      <c r="I121" s="6" t="str">
+      <c r="I122" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.030=确定文件夹组合失败。</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
-      <c r="B122" s="1" t="s">
+    <row r="123" spans="2:9">
+      <c r="B123" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C123" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E123" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="G122" s="4" t="str">
+      <c r="G123" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
       </c>
-      <c r="H122" s="5" t="str">
+      <c r="H123" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.040=Comparing folders...</v>
       </c>
-      <c r="I122" s="6" t="str">
+      <c r="I123" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.040=比较文件夹...</v>
       </c>
     </row>
-    <row r="123" spans="2:9">
-      <c r="B123" s="1" t="s">
+    <row r="124" spans="2:9">
+      <c r="B124" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E124" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G123" s="4" t="str">
+      <c r="G124" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.050=★失敗しました</v>
       </c>
-      <c r="H123" s="5" t="str">
+      <c r="H124" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.050=★Failed</v>
       </c>
-      <c r="I123" s="6" t="str">
+      <c r="I124" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.050=★失败</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
-      <c r="B124" s="1" t="s">
+    <row r="125" spans="2:9">
+      <c r="B125" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E125" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="G124" s="4" t="str">
+      <c r="G125" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.060=(比較対象ファイルなし)</v>
       </c>
-      <c r="H124" s="5" t="str">
+      <c r="H125" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.060=(No files to compare)</v>
       </c>
-      <c r="I124" s="6" t="str">
+      <c r="I125" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.060=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
-      <c r="B125" s="2" t="s">
+    <row r="126" spans="2:9">
+      <c r="B126" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C126" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="E126" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="G125" s="4" t="str">
+      <c r="G126" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.070=比較結果レポートを保存しています...</v>
       </c>
-      <c r="H125" s="5" t="str">
+      <c r="H126" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.070=Saving result report...</v>
       </c>
-      <c r="I125" s="6" t="str">
+      <c r="I126" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.070=保存比较结果报告...</v>
       </c>
     </row>
-    <row r="126" spans="2:9">
-      <c r="B126" s="2" t="s">
+    <row r="127" spans="2:9">
+      <c r="B127" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C127" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="E127" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="G126" s="4" t="str">
+      <c r="G127" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.080=比較結果レポートの保存に失敗しました。</v>
       </c>
-      <c r="H126" s="5" t="str">
+      <c r="H127" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.080=Failed to save result report.</v>
       </c>
-      <c r="I126" s="6" t="str">
+      <c r="I127" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.080=保存比较结果报告失败。</v>
       </c>
     </row>
-    <row r="127" spans="2:9">
-      <c r="B127" s="2" t="s">
+    <row r="128" spans="2:9">
+      <c r="B128" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C128" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="E128" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="E127" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="G127" s="4" t="str">
+      <c r="G128" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.090=比較結果レポートを表示しています...</v>
       </c>
-      <c r="H127" s="5" t="str">
+      <c r="H128" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.090=Opening result report...</v>
       </c>
-      <c r="I127" s="6" t="str">
+      <c r="I128" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.090=显示比较结果报告...</v>
       </c>
     </row>
-    <row r="128" spans="2:9">
-      <c r="B128" s="2" t="s">
+    <row r="129" spans="2:9">
+      <c r="B129" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D128" s="5" t="s">
+      <c r="C129" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="D129" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="G128" s="4" t="str">
+      <c r="E129" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="G129" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.100=比較結果レポートの表示に失敗しました。</v>
       </c>
-      <c r="H128" s="5" t="str">
+      <c r="H129" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.100=Failed to open result report.</v>
       </c>
-      <c r="I128" s="6" t="str">
+      <c r="I129" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.100=显示比较结果报告失败。</v>
       </c>
     </row>
-    <row r="129" spans="2:9">
-      <c r="B129" s="2" t="s">
+    <row r="130" spans="2:9">
+      <c r="B130" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E130" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G129" s="4" t="str">
+      <c r="G130" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.110=フォルダツリーの比較に失敗しました。</v>
       </c>
-      <c r="H129" s="5" t="str">
+      <c r="H130" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.110=Failed to compare folder trees.</v>
       </c>
-      <c r="I129" s="6" t="str">
+      <c r="I130" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.110=文件夹比较失败。</v>
       </c>
     </row>
-    <row r="130" spans="2:9">
-      <c r="B130" s="2"/>
-      <c r="C130" s="3"/>
-      <c r="G130" s="4" t="str">
+    <row r="131" spans="2:9">
+      <c r="B131" s="2"/>
+      <c r="C131" s="3"/>
+      <c r="G131" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H130" s="5" t="str">
+      <c r="H131" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I130" s="6" t="str">
+      <c r="I131" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:9">
-      <c r="B131" s="2" t="s">
+    <row r="132" spans="2:9">
+      <c r="B132" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E132" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="G131" s="4" t="str">
+      <c r="G132" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.BResult.010=(比較相手なし)</v>
       </c>
-      <c r="H131" s="5" t="str">
+      <c r="H132" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.BResult.010=(no opponent)</v>
       </c>
-      <c r="I131" s="6" t="str">
+      <c r="I132" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.BResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="132" spans="2:9">
-      <c r="B132" s="2" t="s">
+    <row r="133" spans="2:9">
+      <c r="B133" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E133" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G132" s="4" t="str">
+      <c r="G133" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.BResult.020=(差分なし)</v>
       </c>
-      <c r="H132" s="5" t="str">
+      <c r="H133" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.BResult.020=(no diffs)</v>
       </c>
-      <c r="I132" s="6" t="str">
+      <c r="I133" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.BResult.020=(没有区别)</v>
       </c>
     </row>
-    <row r="133" spans="2:9">
-      <c r="B133" s="7" t="s">
+    <row r="134" spans="2:9">
+      <c r="B134" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D134" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E134" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="G133" s="4" t="str">
+      <c r="G134" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.BResult.030=差異発生%dシート</v>
       </c>
-      <c r="H133" s="5" t="str">
+      <c r="H134" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.BResult.030=diff sheets:%d</v>
       </c>
-      <c r="I133" s="6" t="str">
+      <c r="I134" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
-    <row r="134" spans="2:9">
-      <c r="B134" s="7" t="s">
+    <row r="135" spans="2:9">
+      <c r="B135" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="E135" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G134" s="4" t="str">
+      <c r="G135" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.BResult.040=余剰%dシート</v>
       </c>
-      <c r="H134" s="5" t="str">
+      <c r="H135" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.BResult.040=redundant sheets:%d</v>
       </c>
-      <c r="I134" s="6" t="str">
+      <c r="I135" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.BResult.040=冗余工作表%d</v>
       </c>
     </row>
-    <row r="135" spans="2:9">
-      <c r="B135" s="7" t="s">
+    <row r="136" spans="2:9">
+      <c r="B136" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C136" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="E136" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="G135" s="4" t="str">
+      <c r="G136" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
       </c>
-      <c r="H135" s="5" t="str">
+      <c r="H136" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.BResult.050=Book %s : </v>
       </c>
-      <c r="I135" s="6" t="str">
+      <c r="I136" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.BResult.050=工作簿%s：</v>
       </c>
     </row>
-    <row r="136" spans="2:9">
-      <c r="B136" s="7" t="s">
+    <row r="137" spans="2:9">
+      <c r="B137" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C137" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D137" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E137" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G136" s="4" t="str">
+      <c r="G137" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H136" s="5" t="str">
+      <c r="H137" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I136" s="6" t="str">
+      <c r="I137" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="137" spans="2:9">
-      <c r="B137" s="7" t="s">
+    <row r="138" spans="2:9">
+      <c r="B138" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D138" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E138" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="G137" s="4" t="str">
+      <c r="G138" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H137" s="5" t="str">
+      <c r="H138" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I137" s="6" t="str">
+      <c r="I138" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="138" spans="2:9">
-      <c r="G138" s="4" t="str">
+    <row r="139" spans="2:9">
+      <c r="G139" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H138" s="5" t="str">
+      <c r="H139" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I138" s="6" t="str">
+      <c r="I139" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:9">
-      <c r="B139" s="2" t="s">
+    <row r="140" spans="2:9">
+      <c r="B140" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E140" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="G139" s="4" t="str">
+      <c r="G140" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
       </c>
-      <c r="H139" s="5" t="str">
+      <c r="H140" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
       </c>
-      <c r="I139" s="6" t="str">
+      <c r="I140" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
       </c>
     </row>
-    <row r="140" spans="2:9">
-      <c r="G140" s="4" t="str">
+    <row r="141" spans="2:9">
+      <c r="G141" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H140" s="5" t="str">
+      <c r="H141" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I140" s="6" t="str">
+      <c r="I141" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:9">
-      <c r="B141" s="7" t="s">
+    <row r="142" spans="2:9">
+      <c r="B142" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D142" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E142" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="G141" s="4" t="str">
+      <c r="G142" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.010=(比較相手なし)</v>
       </c>
-      <c r="H141" s="5" t="str">
+      <c r="H142" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.010=(no opponent)</v>
       </c>
-      <c r="I141" s="6" t="str">
+      <c r="I142" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="142" spans="2:9">
-      <c r="B142" s="7" t="s">
+    <row r="143" spans="2:9">
+      <c r="B143" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C143" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D143" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="E143" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="G142" s="4" t="str">
+      <c r="G143" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
       </c>
-      <c r="H142" s="5" t="str">
+      <c r="H143" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
       </c>
-      <c r="I142" s="6" t="str">
+      <c r="I143" s="6" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
       </c>
     </row>
-    <row r="143" spans="2:9">
-      <c r="B143" s="7" t="s">
+    <row r="144" spans="2:9">
+      <c r="B144" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C144" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D144" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="E144" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G143" s="4" t="str">
+      <c r="G144" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H143" s="5" t="str">
+      <c r="H144" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I143" s="6" t="str">
+      <c r="I144" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="144" spans="2:9">
-      <c r="B144" s="7" t="s">
+    <row r="145" spans="2:9">
+      <c r="B145" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C145" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D145" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E145" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="G144" s="4" t="str">
+      <c r="G145" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H144" s="5" t="str">
+      <c r="H145" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I144" s="6" t="str">
+      <c r="I145" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="145" spans="2:9">
-      <c r="B145" s="7" t="s">
+    <row r="146" spans="2:9">
+      <c r="B146" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C146" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D146" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E146" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G145" s="4" t="str">
+      <c r="G146" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.050=★失敗しました</v>
       </c>
-      <c r="H145" s="5" t="str">
+      <c r="H146" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.050=★Failed</v>
       </c>
-      <c r="I145" s="6" t="str">
+      <c r="I146" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.050=★失败</v>
       </c>
     </row>
-    <row r="146" spans="2:9">
-      <c r="B146" s="7" t="s">
+    <row r="147" spans="2:9">
+      <c r="B147" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E146" s="6" t="s">
+      <c r="E147" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G146" s="4" t="str">
+      <c r="G147" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.060=(差分なし)</v>
       </c>
-      <c r="H146" s="5" t="str">
+      <c r="H147" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.060=(no diffs)</v>
       </c>
-      <c r="I146" s="6" t="str">
+      <c r="I147" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.060=(没有区别)</v>
       </c>
     </row>
-    <row r="147" spans="2:9">
-      <c r="B147" s="1" t="s">
+    <row r="148" spans="2:9">
+      <c r="B148" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C148" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="E148" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="G147" s="4" t="str">
+      <c r="G148" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.070=差異発生%dブック</v>
       </c>
-      <c r="H147" s="5" t="str">
+      <c r="H148" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.070=diff books:%d</v>
       </c>
-      <c r="I147" s="6" t="str">
+      <c r="I148" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.070=差异工作簿%d</v>
       </c>
     </row>
-    <row r="148" spans="2:9">
-      <c r="B148" s="1" t="s">
+    <row r="149" spans="2:9">
+      <c r="B149" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C149" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E149" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="G148" s="4" t="str">
+      <c r="G149" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.080=余剰%dブック</v>
       </c>
-      <c r="H148" s="5" t="str">
+      <c r="H149" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.080=redundant books:%d</v>
       </c>
-      <c r="I148" s="6" t="str">
+      <c r="I149" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.080=冗余工作簿%d</v>
       </c>
     </row>
-    <row r="149" spans="2:9">
-      <c r="B149" s="1" t="s">
+    <row r="150" spans="2:9">
+      <c r="B150" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C150" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D150" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E150" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G149" s="4" t="str">
+      <c r="G150" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.090=比較失敗%dブック</v>
       </c>
-      <c r="H149" s="5" t="str">
+      <c r="H150" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.090=failed books:%d</v>
       </c>
-      <c r="I149" s="6" t="str">
+      <c r="I150" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.090=失败工作簿%d</v>
       </c>
     </row>
-    <row r="150" spans="2:9">
-      <c r="B150" s="1" t="s">
+    <row r="151" spans="2:9">
+      <c r="B151" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D151" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E151" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="G150" s="4" t="str">
+      <c r="G151" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.100=(比較対象ファイルなし)</v>
       </c>
-      <c r="H150" s="5" t="str">
+      <c r="H151" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.100=(No files to compare)</v>
       </c>
-      <c r="I150" s="6" t="str">
+      <c r="I151" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.100=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="151" spans="2:9">
-      <c r="G151" s="4" t="str">
+    <row r="152" spans="2:9">
+      <c r="G152" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H151" s="5" t="str">
+      <c r="H152" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I151" s="6" t="str">
+      <c r="I152" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:9">
-      <c r="B152" s="2" t="s">
+    <row r="153" spans="2:9">
+      <c r="B153" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C153" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E152" s="6" t="s">
+      <c r="E153" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G152" s="4" t="str">
+      <c r="G153" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SheetType.010=ワークシート</v>
       </c>
-      <c r="H152" s="5" t="str">
+      <c r="H153" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SheetType.010=Worksheet</v>
       </c>
-      <c r="I152" s="6" t="str">
+      <c r="I153" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
-    <row r="153" spans="2:9">
-      <c r="B153" s="2" t="s">
+    <row r="154" spans="2:9">
+      <c r="B154" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E153" s="6" t="s">
+      <c r="E154" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="G153" s="4" t="str">
+      <c r="G154" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SheetType.020=グラフシート</v>
       </c>
-      <c r="H153" s="5" t="str">
+      <c r="H154" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SheetType.020=Chart</v>
       </c>
-      <c r="I153" s="6" t="str">
+      <c r="I154" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SheetType.020=图表表</v>
       </c>
     </row>
-    <row r="154" spans="2:9">
-      <c r="B154" s="2" t="s">
+    <row r="155" spans="2:9">
+      <c r="B155" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="E155" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="G154" s="4" t="str">
+      <c r="G155" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
       </c>
-      <c r="H154" s="5" t="str">
+      <c r="H155" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
       </c>
-      <c r="I154" s="6" t="str">
+      <c r="I155" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
       </c>
     </row>
-    <row r="155" spans="2:9">
-      <c r="B155" s="2" t="s">
+    <row r="156" spans="2:9">
+      <c r="B156" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C156" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D156" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E156" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G155" s="4" t="str">
+      <c r="G156" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
       </c>
-      <c r="H155" s="5" t="str">
+      <c r="H156" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SheetType.040=Excel 4.0 Macro</v>
       </c>
-      <c r="I155" s="6" t="str">
+      <c r="I156" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SheetType.040=Excel 4.0 宏表</v>
       </c>
     </row>
-    <row r="156" spans="2:9">
-      <c r="B156" s="2"/>
-      <c r="C156" s="3"/>
-      <c r="G156" s="4" t="str">
+    <row r="157" spans="2:9">
+      <c r="B157" s="2"/>
+      <c r="C157" s="3"/>
+      <c r="G157" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H156" s="5" t="str">
+      <c r="H157" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I156" s="6" t="str">
+      <c r="I157" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:9">
-      <c r="B157" s="2" t="s">
+    <row r="158" spans="2:9">
+      <c r="B158" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D158" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E157" s="6" t="s">
+      <c r="E158" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G157" s="4" t="str">
+      <c r="G158" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.010=(差分なし)</v>
       </c>
-      <c r="H157" s="5" t="str">
+      <c r="H158" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.010=(no diffs)</v>
       </c>
-      <c r="I157" s="6" t="str">
+      <c r="I158" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
-    <row r="158" spans="2:9">
-      <c r="B158" s="2" t="s">
+    <row r="159" spans="2:9">
+      <c r="B159" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D159" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="E159" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G158" s="4" t="str">
+      <c r="G159" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.020=余剰行%d</v>
       </c>
-      <c r="H158" s="5" t="str">
+      <c r="H159" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.020=redundant rows:%d</v>
       </c>
-      <c r="I158" s="6" t="str">
+      <c r="I159" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.020=冗余行%d</v>
       </c>
     </row>
-    <row r="159" spans="2:9">
-      <c r="B159" s="2" t="s">
+    <row r="160" spans="2:9">
+      <c r="B160" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D160" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="E160" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G159" s="4" t="str">
+      <c r="G160" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.030=余剰列%d</v>
       </c>
-      <c r="H159" s="5" t="str">
+      <c r="H160" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.030=redundant columns:%d</v>
       </c>
-      <c r="I159" s="6" t="str">
+      <c r="I160" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.030=冗余列%d</v>
       </c>
     </row>
-    <row r="160" spans="2:9">
-      <c r="B160" s="2" t="s">
+    <row r="161" spans="2:9">
+      <c r="B161" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C161" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D161" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="E161" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="G160" s="4" t="str">
+      <c r="G161" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.040=差分セル%d</v>
       </c>
-      <c r="H160" s="5" t="str">
+      <c r="H161" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.040=diff cells:%d</v>
       </c>
-      <c r="I160" s="6" t="str">
+      <c r="I161" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.040=差异单元格%d</v>
       </c>
     </row>
-    <row r="161" spans="2:9">
-      <c r="B161" s="2" t="s">
+    <row r="162" spans="2:9">
+      <c r="B162" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C162" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D162" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E162" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G161" s="4" t="str">
+      <c r="G162" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
       </c>
-      <c r="H161" s="5" t="str">
+      <c r="H162" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
       </c>
-      <c r="I161" s="6" t="str">
+      <c r="I162" s="6" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
       </c>
     </row>
-    <row r="162" spans="2:9">
-      <c r="B162" s="2" t="s">
+    <row r="163" spans="2:9">
+      <c r="B163" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C163" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D163" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="E163" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G162" s="4" t="str">
+      <c r="G163" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.060=行%d</v>
       </c>
-      <c r="H162" s="5" t="str">
+      <c r="H163" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.060=Row %d</v>
       </c>
-      <c r="I162" s="6" t="str">
+      <c r="I163" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.060=行%d</v>
       </c>
     </row>
-    <row r="163" spans="2:9">
-      <c r="B163" s="2" t="s">
+    <row r="164" spans="2:9">
+      <c r="B164" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C164" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D164" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E163" s="6" t="s">
+      <c r="E164" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="G163" s="4" t="str">
+      <c r="G164" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
       </c>
-      <c r="H163" s="5" t="str">
+      <c r="H164" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
       </c>
-      <c r="I163" s="6" t="str">
+      <c r="I164" s="6" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
       </c>
     </row>
-    <row r="164" spans="2:9">
-      <c r="B164" s="2" t="s">
+    <row r="165" spans="2:9">
+      <c r="B165" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C165" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E164" s="6" t="s">
+      <c r="E165" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G164" s="4" t="str">
+      <c r="G165" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.080=%s列</v>
       </c>
-      <c r="H164" s="5" t="str">
+      <c r="H165" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.080=Column %s</v>
       </c>
-      <c r="I164" s="6" t="str">
+      <c r="I165" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.080=%s列</v>
       </c>
     </row>
-    <row r="165" spans="2:9">
-      <c r="B165" s="2" t="s">
+    <row r="166" spans="2:9">
+      <c r="B166" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C166" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D166" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="E166" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="G165" s="4" t="str">
+      <c r="G166" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.SResult.090=差分セル : </v>
       </c>
-      <c r="H165" s="5" t="str">
+      <c r="H166" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.SResult.090=Diff cells : </v>
       </c>
-      <c r="I165" s="6" t="str">
+      <c r="I166" s="6" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">excel.SResult.090=差异单元格 : </v>
       </c>
     </row>
-    <row r="166" spans="2:9">
-      <c r="G166" s="4" t="str">
+    <row r="167" spans="2:9">
+      <c r="G167" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H166" s="5" t="str">
+      <c r="H167" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I166" s="6" t="str">
+      <c r="I167" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:9">
-      <c r="B167" s="1" t="s">
+    <row r="168" spans="2:9">
+      <c r="B168" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C168" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D168" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E167" s="6" t="s">
+      <c r="E168" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="G167" s="4" t="str">
+      <c r="G168" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.TreeResult.010=(比較相手なし)</v>
       </c>
-      <c r="H167" s="5" t="str">
+      <c r="H168" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.TreeResult.010=(no opponent)</v>
       </c>
-      <c r="I167" s="6" t="str">
+      <c r="I168" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.TreeResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="168" spans="2:9">
-      <c r="B168" s="1" t="s">
+    <row r="169" spans="2:9">
+      <c r="B169" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D169" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E169" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="G168" s="4" t="str">
+      <c r="G169" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
       </c>
-      <c r="H168" s="5" t="str">
+      <c r="H169" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
       </c>
-      <c r="I168" s="6" t="str">
+      <c r="I169" s="6" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
       </c>
     </row>
-    <row r="169" spans="2:9">
-      <c r="B169" s="1" t="s">
+    <row r="170" spans="2:9">
+      <c r="B170" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C170" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D170" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E169" s="6" t="s">
+      <c r="E170" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G169" s="4" t="str">
+      <c r="G170" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H169" s="5" t="str">
+      <c r="H170" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I169" s="6" t="str">
+      <c r="I170" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="170" spans="2:9">
-      <c r="B170" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="G170" s="4" t="str">
-        <f t="shared" ref="G170:G171" si="15" xml:space="preserve"> IF($B170="", "", $B170 &amp; "=" &amp; C170)</f>
-        <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
-      </c>
-      <c r="H170" s="5" t="str">
-        <f t="shared" ref="H170:H171" si="16" xml:space="preserve"> IF($B170="", "", $B170 &amp; "=" &amp; D170)</f>
-        <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
-      </c>
-      <c r="I170" s="6" t="str">
-        <f t="shared" ref="I170:I171" si="17" xml:space="preserve"> IF($B170="", "", $B170 &amp; "=" &amp; E170)</f>
-        <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
-      </c>
-    </row>
     <row r="171" spans="2:9">
       <c r="B171" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="G171" s="4" t="str">
+        <f t="shared" ref="G171:G172" si="15" xml:space="preserve"> IF($B171="", "", $B171 &amp; "=" &amp; C171)</f>
+        <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
+      </c>
+      <c r="H171" s="5" t="str">
+        <f t="shared" ref="H171:H172" si="16" xml:space="preserve"> IF($B171="", "", $B171 &amp; "=" &amp; D171)</f>
+        <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
+      </c>
+      <c r="I171" s="6" t="str">
+        <f t="shared" ref="I171:I172" si="17" xml:space="preserve"> IF($B171="", "", $B171 &amp; "=" &amp; E171)</f>
+        <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9">
+      <c r="B172" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C172" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D172" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E171" s="6" t="s">
+      <c r="E172" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G171" s="4" t="str">
+      <c r="G172" s="4" t="str">
         <f t="shared" si="15"/>
         <v>excel.TreeResult.050=★失敗しました</v>
       </c>
-      <c r="H171" s="5" t="str">
+      <c r="H172" s="5" t="str">
         <f t="shared" si="16"/>
         <v>excel.TreeResult.050=★Failed</v>
       </c>
-      <c r="I171" s="6" t="str">
+      <c r="I172" s="6" t="str">
         <f t="shared" si="17"/>
         <v>excel.TreeResult.050=★失败</v>
       </c>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202409/hogandiff4/xyz.hotchpotch.hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B19F0C5-BFDB-4F01-9E4D-6F1D8EEDF954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{7B19F0C5-BFDB-4F01-9E4D-6F1D8EEDF954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4FD5F87-11B7-4202-A218-F637A8C6FFC0}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="541">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -2141,6 +2141,34 @@
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.SettingsPane1.compare.050</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート名／ブック名の曖昧マッチを有効にする</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アイマイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>启用工作表／工作簿模糊匹配</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enable sheets/books fuzzy matching</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2579,7 +2607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I172"/>
+  <dimension ref="B1:I173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2660,15 +2688,15 @@
         <v>3</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G35" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
+        <f t="shared" ref="G3:G36" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H35" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
+        <f t="shared" ref="H3:H36" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I35" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
+        <f t="shared" ref="I3:I36" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
     </row>
@@ -2986,3906 +3014,3932 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>537</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>538</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>125</v>
+        <v>540</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>377</v>
+        <v>539</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.020=レポートオプション</v>
+        <v>fx.SettingsPane1.compare.050=シート名／ブック名の曖昧マッチを有効にする</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.020=Reporting options</v>
+        <v>fx.SettingsPane1.compare.050=Enable sheets/books fuzzy matching</v>
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.020=报告选项</v>
+        <v>fx.SettingsPane1.compare.050=启用工作表／工作簿模糊匹配</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>473</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>487</v>
+        <v>125</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>474</v>
+        <v>377</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.report.010=差分箇所に色を着けて表示する</v>
+        <v>fx.SettingsPane1.020=レポートオプション</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.report.010=Display differences in colors</v>
+        <v>fx.SettingsPane1.020=Reporting options</v>
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.report.010=用颜色标记差异</v>
+        <v>fx.SettingsPane1.020=报告选项</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.report.020=比較結果レポートを表示する</v>
+        <v>fx.SettingsPane1.report.010=差分箇所に色を着けて表示する</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.report.020=Display comparison result report</v>
+        <v>fx.SettingsPane1.report.010=Display differences in colors</v>
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.report.020=显示比较结果报告</v>
+        <v>fx.SettingsPane1.report.010=用颜色标记差异</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
+        <v>485</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>126</v>
+        <v>486</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>378</v>
+        <v>488</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.030=実行オプション</v>
+        <v>fx.SettingsPane1.report.020=比較結果レポートを表示する</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.030=Execution options</v>
+        <v>fx.SettingsPane1.report.020=Display comparison result report</v>
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.030=执行选项</v>
+        <v>fx.SettingsPane1.report.020=显示比较结果报告</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>479</v>
+        <v>126</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.execute.010=比較完了時にこのアプリを終了する</v>
+        <v>fx.SettingsPane1.030=実行オプション</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.execute.010=Exit this app upon completion</v>
+        <v>fx.SettingsPane1.030=Execution options</v>
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.execute.010=比较结束后自动退出此应用程序</v>
+        <v>fx.SettingsPane1.030=执行选项</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="2" t="s">
-        <v>439</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>441</v>
+        <v>26</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>443</v>
+        <v>379</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.execute.030=早さ優先</v>
+        <v>fx.SettingsPane1.execute.010=比較完了時にこのアプリを終了する</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.execute.030=Prioritize speed</v>
+        <v>fx.SettingsPane1.execute.010=Exit this app upon completion</v>
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.execute.030=优先考虑速度</v>
+        <v>fx.SettingsPane1.execute.010=比较结束后自动退出此应用程序</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.execute.040=精度優先</v>
+        <v>fx.SettingsPane1.execute.030=早さ優先</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.execute.040=Prioritize accuracy</v>
+        <v>fx.SettingsPane1.execute.030=Prioritize speed</v>
       </c>
       <c r="I22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.execute.040=优先考虑准确性</v>
+        <v>fx.SettingsPane1.execute.030=优先考虑速度</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>440</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>442</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>127</v>
+        <v>481</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.010=言語</v>
+        <v>fx.SettingsPane1.execute.040=精度優先</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.010=Language</v>
+        <v>fx.SettingsPane1.execute.040=Prioritize accuracy</v>
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.010=语言</v>
+        <v>fx.SettingsPane1.execute.040=优先考虑准确性</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.020=作業用\nフォルダ</v>
+        <v>fx.SettingsPane2.010=言語</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.020=Working directory</v>
+        <v>fx.SettingsPane2.010=Language</v>
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.020=工作\n文件夹</v>
+        <v>fx.SettingsPane2.010=语言</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="2" t="s">
-        <v>469</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>472</v>
+        <v>30</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>471</v>
+        <v>187</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>470</v>
+        <v>381</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.030=統計情報の収集に協力する</v>
+        <v>fx.SettingsPane2.020=作業用\nフォルダ</v>
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.030=Allow usage data collection</v>
+        <v>fx.SettingsPane2.020=Working directory</v>
       </c>
       <c r="I25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.030=同意收集使用统计信息</v>
+        <v>fx.SettingsPane2.020=工作\n文件夹</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>469</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>472</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>128</v>
+        <v>471</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>176</v>
+        <v>470</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.workDir.010=開く</v>
+        <v>fx.SettingsPane2.030=統計情報の収集に協力する</v>
       </c>
       <c r="H26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.workDir.010=Open</v>
+        <v>fx.SettingsPane2.030=Allow usage data collection</v>
       </c>
       <c r="I26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.workDir.010=打开</v>
+        <v>fx.SettingsPane2.030=同意收集使用统计信息</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>382</v>
+        <v>176</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.workDir.020=変更...</v>
+        <v>fx.SettingsPane2.workDir.010=開く</v>
       </c>
       <c r="H27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.workDir.020=Change...</v>
+        <v>fx.SettingsPane2.workDir.010=Open</v>
       </c>
       <c r="I27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.workDir.020=改变...</v>
+        <v>fx.SettingsPane2.workDir.010=打开</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.workDir.030=削除...</v>
+        <v>fx.SettingsPane2.workDir.020=変更...</v>
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.workDir.030=Delete...</v>
+        <v>fx.SettingsPane2.workDir.020=Change...</v>
       </c>
       <c r="I28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.workDir.030=删除...</v>
+        <v>fx.SettingsPane2.workDir.020=改变...</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>342</v>
+        <v>130</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.TargetSelectionPane.010=ブックパス：</v>
+        <v>fx.SettingsPane2.workDir.030=削除...</v>
       </c>
       <c r="H29" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">fx.TargetSelectionPane.010=Book Path : </v>
+        <v>fx.SettingsPane2.workDir.030=Delete...</v>
       </c>
       <c r="I29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.TargetSelectionPane.010=工作簿路径：</v>
+        <v>fx.SettingsPane2.workDir.030=删除...</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>6</v>
+        <v>346</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.TargetSelectionPane.020=シート名：</v>
+        <v>fx.TargetSelectionPane.010=ブックパス：</v>
       </c>
       <c r="H30" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">fx.TargetSelectionPane.020=Sheet Name : </v>
+        <v xml:space="preserve">fx.TargetSelectionPane.010=Book Path : </v>
       </c>
       <c r="I30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.TargetSelectionPane.020=工作表名称：</v>
+        <v>fx.TargetSelectionPane.010=工作簿路径：</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>276</v>
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.TargetSelectionPane.030=フォルダパス：</v>
+        <v>fx.TargetSelectionPane.020=シート名：</v>
       </c>
       <c r="H31" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">fx.TargetSelectionPane.030=Folder Path : </v>
+        <v xml:space="preserve">fx.TargetSelectionPane.020=Sheet Name : </v>
       </c>
       <c r="I31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.TargetSelectionPane.030=文件夹路径：</v>
+        <v>fx.TargetSelectionPane.020=工作表名称：</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="2" t="s">
-        <v>468</v>
+        <v>245</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>465</v>
+        <v>276</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>466</v>
+        <v>344</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.EditComparisonPane.010=組み合わせ編集</v>
+        <v>fx.TargetSelectionPane.030=フォルダパス：</v>
       </c>
       <c r="H32" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.EditComparisonPane.010=Edit Pairing</v>
+        <v xml:space="preserve">fx.TargetSelectionPane.030=Folder Path : </v>
       </c>
       <c r="I32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.EditComparisonPane.010=组合编辑</v>
+        <v>fx.TargetSelectionPane.030=文件夹路径：</v>
       </c>
     </row>
     <row r="33" spans="2:9">
+      <c r="B33" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>467</v>
+      </c>
       <c r="G33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>fx.EditComparisonPane.010=組み合わせ編集</v>
       </c>
       <c r="H33" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>fx.EditComparisonPane.010=Edit Pairing</v>
       </c>
       <c r="I33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>fx.EditComparisonPane.010=组合编辑</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="G34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.010=比較フォルダ%s：</v>
+        <v/>
       </c>
       <c r="H34" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.010=Folder %s : </v>
+        <v/>
       </c>
       <c r="I34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.010=文件夹%s：</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>484</v>
+        <v>270</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="G35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.020=作業用フォルダ：</v>
+        <v>excel.poi.usermodel.TreeResultBookCreator.010=比較フォルダ%s：</v>
       </c>
       <c r="H35" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.020=Working dir : </v>
+        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.010=Folder %s : </v>
       </c>
       <c r="I35" s="6" t="str">
         <f t="shared" si="2"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.010=文件夹%s：</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.020=作業用フォルダ：</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.020=Working dir : </v>
+      </c>
+      <c r="I36" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>excel.poi.usermodel.TreeResultBookCreator.020=工作文件夹：</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
-      <c r="G36" s="4" t="str">
-        <f t="shared" ref="G36:G106" si="3" xml:space="preserve"> IF($B36="", "", $B36 &amp; "=" &amp; C36)</f>
+    <row r="37" spans="2:9">
+      <c r="G37" s="4" t="str">
+        <f t="shared" ref="G37:G107" si="3" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; C37)</f>
         <v/>
       </c>
-      <c r="H36" s="5" t="str">
-        <f t="shared" ref="H36:H106" si="4" xml:space="preserve"> IF($B36="", "", $B36 &amp; "=" &amp; D36)</f>
+      <c r="H37" s="5" t="str">
+        <f t="shared" ref="H37:H107" si="4" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; D37)</f>
         <v/>
       </c>
-      <c r="I36" s="6" t="str">
-        <f t="shared" ref="I36:I106" si="5" xml:space="preserve"> IF($B36="", "", $B36 &amp; "=" &amp; E36)</f>
+      <c r="I37" s="6" t="str">
+        <f t="shared" ref="I37:I107" si="5" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; E37)</f>
         <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="G37" s="4" t="str">
-        <f t="shared" ref="G37" si="6" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; C37)</f>
-        <v>excel.poi.usermodel.BookResultBookCreator.010=比較実行日時：</v>
-      </c>
-      <c r="H37" s="5" t="str">
-        <f t="shared" ref="H37" si="7" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; D37)</f>
-        <v xml:space="preserve">excel.poi.usermodel.BookResultBookCreator.010=Exec datetime : </v>
-      </c>
-      <c r="I37" s="6" t="str">
-        <f t="shared" ref="I37" si="8" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; E37)</f>
-        <v>excel.poi.usermodel.BookResultBookCreator.010=执行日期和时间：</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f t="shared" ref="G38" si="6" xml:space="preserve"> IF($B38="", "", $B38 &amp; "=" &amp; C38)</f>
+        <v>excel.poi.usermodel.BookResultBookCreator.010=比較実行日時：</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f t="shared" ref="H38" si="7" xml:space="preserve"> IF($B38="", "", $B38 &amp; "=" &amp; D38)</f>
+        <v xml:space="preserve">excel.poi.usermodel.BookResultBookCreator.010=Exec datetime : </v>
+      </c>
+      <c r="I38" s="6" t="str">
+        <f t="shared" ref="I38" si="8" xml:space="preserve"> IF($B38="", "", $B38 &amp; "=" &amp; E38)</f>
+        <v>excel.poi.usermodel.BookResultBookCreator.010=执行日期和时间：</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="G38" s="4" t="str">
+      <c r="G39" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.poi.usermodel.BookResultBookCreator.020=作業用フォルダ：</v>
       </c>
-      <c r="H38" s="5" t="str">
+      <c r="H39" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">excel.poi.usermodel.BookResultBookCreator.020=Working dir : </v>
       </c>
-      <c r="I38" s="6" t="str">
+      <c r="I39" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.poi.usermodel.BookResultBookCreator.020=工作文件夹：</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="2:9">
+      <c r="B40" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="G39" s="4" t="str">
+      <c r="G40" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.poi.usermodel.BookResultBookCreator.030=ブック%s：</v>
       </c>
-      <c r="H39" s="5" t="str">
+      <c r="H40" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">excel.poi.usermodel.BookResultBookCreator.030=Book %s : </v>
       </c>
-      <c r="I39" s="6" t="str">
+      <c r="I40" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.poi.usermodel.BookResultBookCreator.030=工作簿%s：</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="2:9">
+      <c r="B41" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="G40" s="4" t="str">
+      <c r="G41" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.poi.usermodel.BookResultBookCreator.040=差分なし</v>
       </c>
-      <c r="H40" s="5" t="str">
+      <c r="H41" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.poi.usermodel.BookResultBookCreator.040=No Diffs</v>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="I41" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.poi.usermodel.BookResultBookCreator.040=没有区别</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="2:9">
+      <c r="B42" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="G41" s="4" t="str">
+      <c r="G42" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.poi.usermodel.BookResultBookCreator.050=比較失敗</v>
       </c>
-      <c r="H41" s="5" t="str">
+      <c r="H42" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.poi.usermodel.BookResultBookCreator.050=Comparison Failed</v>
       </c>
-      <c r="I41" s="6" t="str">
+      <c r="I42" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.poi.usermodel.BookResultBookCreator.050=比较失败</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="G42" s="4" t="str">
-        <f t="shared" ref="G42:G45" si="9" xml:space="preserve"> IF($B42="", "", $B42 &amp; "=" &amp; C42)</f>
-        <v>excel.poi.usermodel.BookResultBookCreator.060=余剰行（A: %d, B: %d）</v>
-      </c>
-      <c r="H42" s="5" t="str">
-        <f t="shared" ref="H42:H45" si="10" xml:space="preserve"> IF($B42="", "", $B42 &amp; "=" &amp; D42)</f>
-        <v>excel.poi.usermodel.BookResultBookCreator.060=Redundant Rows (A: %d, B: %d)</v>
-      </c>
-      <c r="I42" s="6" t="str">
-        <f t="shared" ref="I42:I45" si="11" xml:space="preserve"> IF($B42="", "", $B42 &amp; "=" &amp; E42)</f>
-        <v>excel.poi.usermodel.BookResultBookCreator.060=冗余行（A: %d, B: %d）</v>
-      </c>
-    </row>
     <row r="43" spans="2:9">
       <c r="B43" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f t="shared" ref="G43:G46" si="9" xml:space="preserve"> IF($B43="", "", $B43 &amp; "=" &amp; C43)</f>
+        <v>excel.poi.usermodel.BookResultBookCreator.060=余剰行（A: %d, B: %d）</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f t="shared" ref="H43:H46" si="10" xml:space="preserve"> IF($B43="", "", $B43 &amp; "=" &amp; D43)</f>
+        <v>excel.poi.usermodel.BookResultBookCreator.060=Redundant Rows (A: %d, B: %d)</v>
+      </c>
+      <c r="I43" s="6" t="str">
+        <f t="shared" ref="I43:I46" si="11" xml:space="preserve"> IF($B43="", "", $B43 &amp; "=" &amp; E43)</f>
+        <v>excel.poi.usermodel.BookResultBookCreator.060=冗余行（A: %d, B: %d）</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="G43" s="4" t="str">
+      <c r="G44" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.poi.usermodel.BookResultBookCreator.070=余剰列（A: %d, B: %d）</v>
       </c>
-      <c r="H43" s="5" t="str">
+      <c r="H44" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.poi.usermodel.BookResultBookCreator.070=Redundant Columns (A: %d, B: %d)</v>
       </c>
-      <c r="I43" s="6" t="str">
+      <c r="I44" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.poi.usermodel.BookResultBookCreator.070=冗余列（A: %d, B: %d）</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="2:9">
+      <c r="B45" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="G44" s="4" t="str">
+      <c r="G45" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.poi.usermodel.BookResultBookCreator.080=差分セル（%d）</v>
       </c>
-      <c r="H44" s="5" t="str">
+      <c r="H45" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.poi.usermodel.BookResultBookCreator.080=Diff Cells (%d)</v>
       </c>
-      <c r="I44" s="6" t="str">
+      <c r="I45" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.poi.usermodel.BookResultBookCreator.080=差异单元格（%d）</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="2:9">
+      <c r="B46" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="G45" s="4" t="str">
+      <c r="G46" s="4" t="str">
         <f t="shared" si="9"/>
         <v>excel.poi.usermodel.BookResultBookCreator.090=(比較相手なし)</v>
       </c>
-      <c r="H45" s="5" t="str">
+      <c r="H46" s="5" t="str">
         <f t="shared" si="10"/>
         <v>excel.poi.usermodel.BookResultBookCreator.090=(no opponent)</v>
       </c>
-      <c r="I45" s="6" t="str">
+      <c r="I46" s="6" t="str">
         <f t="shared" si="11"/>
         <v>excel.poi.usermodel.BookResultBookCreator.090=(没有对比)</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
-      <c r="G46" s="4" t="str">
+    <row r="47" spans="2:9">
+      <c r="G47" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H46" s="5" t="str">
+      <c r="H47" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I46" s="6" t="str">
+      <c r="I47" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="2" t="s">
+    <row r="48" spans="2:9">
+      <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="G47" s="4" t="str">
+      <c r="G48" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.010=同じフォルダ同士／ブック同士／シート同士を比較することはできません。</v>
       </c>
-      <c r="H47" s="5" t="str">
+      <c r="H48" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.010=Please specify different folders/books/sheets.</v>
       </c>
-      <c r="I47" s="6" t="str">
+      <c r="I48" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.010=指定非相同的文件夹／工作簿／工作表。</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="2" t="s">
+    <row r="49" spans="2:9">
+      <c r="B49" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="G48" s="4" t="str">
+      <c r="G49" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
       </c>
-      <c r="H48" s="5" t="str">
+      <c r="H49" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
       </c>
-      <c r="I48" s="6" t="str">
+      <c r="I49" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="2" t="s">
+    <row r="50" spans="2:9">
+      <c r="B50" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G49" s="4" t="str">
+      <c r="G50" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.030=予期せぬ例外が発生しました。</v>
       </c>
-      <c r="H49" s="5" t="str">
+      <c r="H50" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.030=Unexpected exception occurred.</v>
       </c>
-      <c r="I49" s="6" t="str">
+      <c r="I50" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.030=意外的例外。</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="2" t="s">
+    <row r="51" spans="2:9">
+      <c r="B51" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="G50" s="4" t="str">
+      <c r="G51" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.040=作業用フォルダの作成に失敗しました。</v>
       </c>
-      <c r="H50" s="5" t="str">
+      <c r="H51" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.040=Failed to create working directory.</v>
       </c>
-      <c r="I50" s="6" t="str">
+      <c r="I51" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.040=创建工作文件夹失败。</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="2" t="s">
+    <row r="52" spans="2:9">
+      <c r="B52" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="G51" s="4" t="str">
+      <c r="G52" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.050=別の場所を指定してください。</v>
       </c>
-      <c r="H51" s="5" t="str">
+      <c r="H52" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.050=Please specify another location.</v>
       </c>
-      <c r="I51" s="6" t="str">
+      <c r="I52" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.050=请指定其他位置。</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="2" t="s">
+    <row r="53" spans="2:9">
+      <c r="B53" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="G52" s="4" t="str">
+      <c r="G53" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.060=作業用フォルダの変更</v>
       </c>
-      <c r="H52" s="5" t="str">
+      <c r="H53" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.060=Change working directory</v>
       </c>
-      <c r="I52" s="6" t="str">
+      <c r="I53" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.060=改变工作文件夹</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="2" t="s">
+    <row r="54" spans="2:9">
+      <c r="B54" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="G53" s="4" t="str">
+      <c r="G54" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.MainController.070=処理を中止しました。</v>
       </c>
-      <c r="H53" s="5" t="str">
+      <c r="H54" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.MainController.070=Processing has been canceled.</v>
       </c>
-      <c r="I53" s="6" t="str">
+      <c r="I54" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.MainController.070=处理已被取消。</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="2" t="s">
+    <row r="55" spans="2:9">
+      <c r="B55" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="G54" s="4" t="str">
+      <c r="G55" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.PasswordDialog.010=パスワード指定</v>
       </c>
-      <c r="H54" s="5" t="str">
+      <c r="H55" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.PasswordDialog.010=Enter Password</v>
       </c>
-      <c r="I54" s="6" t="str">
+      <c r="I55" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.PasswordDialog.010=输入密码</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="2" t="s">
+    <row r="56" spans="2:9">
+      <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="G55" s="4" t="str">
+      <c r="G56" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.PasswordDialogPane.010=%s はパスワードで保護されています。</v>
       </c>
-      <c r="H55" s="5" t="str">
+      <c r="H56" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.PasswordDialogPane.010=The book [%s] is password protected.</v>
       </c>
-      <c r="I55" s="6" t="str">
+      <c r="I56" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.PasswordDialogPane.010=%s 是受密码保护的。</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-      <c r="G56" s="4" t="str">
+    <row r="57" spans="2:9">
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="G57" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H56" s="5" t="str">
+      <c r="H57" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I56" s="6" t="str">
+      <c r="I57" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="2" t="s">
+    <row r="58" spans="2:9">
+      <c r="B58" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E58" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="G57" s="4" t="str">
+      <c r="G58" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.component.LinkPane.010=Webページの表示に失敗しました。ご利用のブラウザでお試しください。</v>
       </c>
-      <c r="H57" s="5" t="str">
+      <c r="H58" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.component.LinkPane.010=Failed to open the website. Please try using your browser.</v>
       </c>
-      <c r="I57" s="6" t="str">
+      <c r="I58" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.component.LinkPane.010=网页未能显示。 请尝试使用你的浏览器。</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="7" t="s">
+    <row r="59" spans="2:9">
+      <c r="B59" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E59" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="G58" s="4" t="str">
+      <c r="G59" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
       </c>
-      <c r="H58" s="5" t="str">
+      <c r="H59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
       </c>
-      <c r="I58" s="6" t="str">
+      <c r="I59" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="7" t="s">
+    <row r="60" spans="2:9">
+      <c r="B60" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="G59" s="4" t="str">
+      <c r="G60" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
       </c>
-      <c r="H59" s="5" t="str">
+      <c r="H60" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
       </c>
-      <c r="I59" s="6" t="str">
+      <c r="I60" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="7" t="s">
+    <row r="61" spans="2:9">
+      <c r="B61" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="G60" s="4" t="str">
+      <c r="G61" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
       </c>
-      <c r="H60" s="5" t="str">
+      <c r="H61" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.component.SettingsPane2.020=Change working directory</v>
       </c>
-      <c r="I60" s="6" t="str">
+      <c r="I61" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="7" t="s">
+    <row r="62" spans="2:9">
+      <c r="B62" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="G61" s="4" t="str">
+      <c r="G62" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
       </c>
-      <c r="H61" s="5" t="str">
+      <c r="H62" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
       </c>
-      <c r="I61" s="6" t="str">
+      <c r="I62" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="7" t="s">
+    <row r="63" spans="2:9">
+      <c r="B63" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E63" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="G62" s="4" t="str">
+      <c r="G63" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
       </c>
-      <c r="H62" s="5" t="str">
+      <c r="H63" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
       </c>
-      <c r="I62" s="6" t="str">
+      <c r="I63" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="7" t="s">
+    <row r="64" spans="2:9">
+      <c r="B64" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G63" s="4" t="str">
+      <c r="G64" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
-      <c r="H63" s="5" t="str">
+      <c r="H64" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
-      <c r="I63" s="6" t="str">
+      <c r="I64" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="7" t="s">
+    <row r="65" spans="2:9">
+      <c r="B65" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G64" s="4" t="str">
+      <c r="G65" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
-      <c r="H64" s="5" t="str">
+      <c r="H65" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
-      <c r="I64" s="6" t="str">
+      <c r="I65" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="7" t="s">
+    <row r="66" spans="2:9">
+      <c r="B66" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G65" s="4" t="str">
+      <c r="G66" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
-      <c r="H65" s="5" t="str">
+      <c r="H66" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
-      <c r="I65" s="6" t="str">
+      <c r="I66" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="7" t="s">
+    <row r="67" spans="2:9">
+      <c r="B67" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="G66" s="4" t="str">
+      <c r="G67" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
       </c>
-      <c r="H66" s="5" t="str">
+      <c r="H67" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
       </c>
-      <c r="I66" s="6" t="str">
+      <c r="I67" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="7" t="s">
+    <row r="68" spans="2:9">
+      <c r="B68" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="G67" s="4" t="str">
+      <c r="G68" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
       </c>
-      <c r="H67" s="5" t="str">
+      <c r="H68" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
       </c>
-      <c r="I67" s="6" t="str">
+      <c r="I68" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="7" t="s">
+    <row r="69" spans="2:9">
+      <c r="B69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G68" s="4" t="str">
+      <c r="G69" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
       </c>
-      <c r="H68" s="5" t="str">
+      <c r="H69" s="5" t="str">
         <f t="shared" si="4"/>
         <v>gui.component.TargetSelectionPane.030=Excel book</v>
       </c>
-      <c r="I68" s="6" t="str">
+      <c r="I69" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="7" t="s">
+    <row r="70" spans="2:9">
+      <c r="B70" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E70" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="G69" s="4" t="str">
+      <c r="G70" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
       </c>
-      <c r="H69" s="5" t="str">
+      <c r="H70" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
       </c>
-      <c r="I69" s="6" t="str">
+      <c r="I70" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="7" t="s">
+    <row r="71" spans="2:9">
+      <c r="B71" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="G70" s="4" t="str">
+      <c r="G71" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.component.TargetSelectionPane.050=シートが見つかりません：</v>
       </c>
-      <c r="H70" s="5" t="str">
+      <c r="H71" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">gui.component.TargetSelectionPane.050=No such sheet : </v>
       </c>
-      <c r="I70" s="6" t="str">
+      <c r="I71" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.component.TargetSelectionPane.050=没有找到工作表：</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="7" t="s">
+    <row r="72" spans="2:9">
+      <c r="B72" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="G71" s="4" t="str">
+      <c r="G72" s="4" t="str">
         <f t="shared" si="3"/>
         <v>gui.component.TargetSelectionPane.060=フォルダを読み込めません：</v>
       </c>
-      <c r="H71" s="5" t="str">
+      <c r="H72" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">gui.component.TargetSelectionPane.060=Failed to open folder : </v>
       </c>
-      <c r="I71" s="6" t="str">
+      <c r="I72" s="6" t="str">
         <f t="shared" si="5"/>
         <v>gui.component.TargetSelectionPane.060=无法读取文件夹：</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
-      <c r="G72" s="4" t="str">
+    <row r="73" spans="2:9">
+      <c r="G73" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H72" s="5" t="str">
+      <c r="H73" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I72" s="6" t="str">
+      <c r="I73" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="2" t="s">
+    <row r="74" spans="2:9">
+      <c r="B74" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E74" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G73" s="4" t="str">
+      <c r="G74" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppMain.010=方眼Diff</v>
       </c>
-      <c r="H73" s="5" t="str">
+      <c r="H74" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppMain.010=HoganDiff (方眼Diff)</v>
       </c>
-      <c r="I73" s="6" t="str">
+      <c r="I74" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppMain.010=方眼Diff</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="2" t="s">
+    <row r="75" spans="2:9">
+      <c r="B75" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="G74" s="4" t="str">
+      <c r="G75" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppResource.010=設定の保存に失敗しました。</v>
       </c>
-      <c r="H74" s="5" t="str">
+      <c r="H75" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppResource.010=Failed to save settings.</v>
       </c>
-      <c r="I74" s="6" t="str">
+      <c r="I75" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppResource.010=保存设置失败。</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="2"/>
-      <c r="C75" s="3"/>
-      <c r="G75" s="4" t="str">
+    <row r="76" spans="2:9">
+      <c r="B76" s="2"/>
+      <c r="C76" s="3"/>
+      <c r="G76" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H75" s="5" t="str">
+      <c r="H76" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I75" s="6" t="str">
+      <c r="I76" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="7" t="s">
+    <row r="77" spans="2:9">
+      <c r="B77" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G76" s="4" t="str">
+      <c r="G77" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
       </c>
-      <c r="H76" s="5" t="str">
+      <c r="H77" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.010=Creating working directory...</v>
       </c>
-      <c r="I76" s="6" t="str">
+      <c r="I77" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.010=创建工作文件夹...</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="7" t="s">
+    <row r="78" spans="2:9">
+      <c r="B78" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="G77" s="4" t="str">
+      <c r="G78" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
       </c>
-      <c r="H77" s="5" t="str">
+      <c r="H78" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.020=Failed to create working directory.</v>
       </c>
-      <c r="I77" s="6" t="str">
+      <c r="I78" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.020=创建工作文件夹失败。</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="7" t="s">
+    <row r="79" spans="2:9">
+      <c r="B79" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="G78" s="4" t="str">
+      <c r="G79" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
       </c>
-      <c r="H78" s="5" t="str">
+      <c r="H79" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.030=Saving result text...</v>
       </c>
-      <c r="I78" s="6" t="str">
+      <c r="I79" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.030=存储比较结果文本...</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="7" t="s">
+    <row r="80" spans="2:9">
+      <c r="B80" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E80" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="G79" s="4" t="str">
+      <c r="G80" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
       </c>
-      <c r="H79" s="5" t="str">
+      <c r="H80" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.040=Opening result text...</v>
       </c>
-      <c r="I79" s="6" t="str">
+      <c r="I80" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.040=显示比较结果文本...</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="7" t="s">
+    <row r="81" spans="2:9">
+      <c r="B81" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="G80" s="4" t="str">
+      <c r="G81" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
       </c>
-      <c r="H80" s="5" t="str">
+      <c r="H81" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.050=Failed to save or open result text.</v>
       </c>
-      <c r="I80" s="6" t="str">
+      <c r="I81" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="7" t="s">
+    <row r="82" spans="2:9">
+      <c r="B82" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="G81" s="4" t="str">
+      <c r="G82" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
       </c>
-      <c r="H81" s="5" t="str">
+      <c r="H82" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.060=Painting and saving result book(s)...</v>
       </c>
-      <c r="I81" s="6" t="str">
+      <c r="I82" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.060=着色和存储在工作簿...</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="7" t="s">
+    <row r="83" spans="2:9">
+      <c r="B83" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="G82" s="4" t="str">
+      <c r="G83" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
       </c>
-      <c r="H82" s="5" t="str">
+      <c r="H83" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
       </c>
-      <c r="I82" s="6" t="str">
+      <c r="I83" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.070=着色和保存工作簿失败。</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="7" t="s">
+    <row r="84" spans="2:9">
+      <c r="B84" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="G83" s="4" t="str">
+      <c r="G84" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
       </c>
-      <c r="H83" s="5" t="str">
+      <c r="H84" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.080=Opening result book(s)...</v>
       </c>
-      <c r="I83" s="6" t="str">
+      <c r="I84" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.080=显示比较结果的工作簿...</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="7" t="s">
+    <row r="85" spans="2:9">
+      <c r="B85" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G84" s="4" t="str">
+      <c r="G85" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
       </c>
-      <c r="H84" s="5" t="str">
+      <c r="H85" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.090=Failed to open result book(s).</v>
       </c>
-      <c r="I84" s="6" t="str">
+      <c r="I85" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.090=显示工作簿失败。</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="7" t="s">
+    <row r="86" spans="2:9">
+      <c r="B86" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="G85" s="4" t="str">
+      <c r="G86" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
       </c>
-      <c r="H85" s="5" t="str">
+      <c r="H86" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.100=Failed to paint or save result book A.</v>
       </c>
-      <c r="I85" s="6" t="str">
+      <c r="I86" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="7" t="s">
+    <row r="87" spans="2:9">
+      <c r="B87" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E87" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="G86" s="4" t="str">
+      <c r="G87" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
       </c>
-      <c r="H86" s="5" t="str">
+      <c r="H87" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.110=Failed to paint or save result book B.</v>
       </c>
-      <c r="I86" s="6" t="str">
+      <c r="I87" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
       </c>
     </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="7" t="s">
+    <row r="88" spans="2:9">
+      <c r="B88" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="G87" s="4" t="str">
+      <c r="G88" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.120=処理が完了しました。</v>
       </c>
-      <c r="H87" s="5" t="str">
+      <c r="H88" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.120=Process completed.</v>
       </c>
-      <c r="I87" s="6" t="str">
+      <c r="I88" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.120=过程完成。</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="1" t="s">
+    <row r="89" spans="2:9">
+      <c r="B89" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G88" s="4" t="str">
+      <c r="G89" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.130=比較結果フォルダを表示しています...</v>
       </c>
-      <c r="H88" s="5" t="str">
+      <c r="H89" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.130=Opening result folder...</v>
       </c>
-      <c r="I88" s="6" t="str">
+      <c r="I89" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.130=显示比较结果文件夹...</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="1" t="s">
+    <row r="90" spans="2:9">
+      <c r="B90" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="G89" s="4" t="str">
+      <c r="G90" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.140=比較結果フォルダの表示に失敗しました。</v>
       </c>
-      <c r="H89" s="5" t="str">
+      <c r="H90" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.140=Failed to open result folder(s).</v>
       </c>
-      <c r="I89" s="6" t="str">
+      <c r="I90" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.140=显示文件夹失败。</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="1" t="s">
+    <row r="91" spans="2:9">
+      <c r="B91" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G90" s="4" t="str">
+      <c r="G91" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.150=★失敗しました</v>
       </c>
-      <c r="H90" s="5" t="str">
+      <c r="H91" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.150=★Failed</v>
       </c>
-      <c r="I90" s="6" t="str">
+      <c r="I91" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.150=★失败</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
-      <c r="B91" s="1" t="s">
+    <row r="92" spans="2:9">
+      <c r="B92" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="G91" s="4" t="str">
+      <c r="G92" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.160=(比較対象ファイルなし)</v>
       </c>
-      <c r="H91" s="5" t="str">
+      <c r="H92" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.160=(No files to compare)</v>
       </c>
-      <c r="I91" s="6" t="str">
+      <c r="I92" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.160=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="1" t="s">
+    <row r="93" spans="2:9">
+      <c r="B93" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="G92" s="4" t="str">
+      <c r="G93" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.170=メモリ不足のため処理が失敗しました。\n割り当てメモリ量を増やして再度お試しください。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
       </c>
-      <c r="H92" s="5" t="str">
+      <c r="H93" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.170=Processing failed due to insufficient memory.\nPlease increase the amount of allocated memory and try again.\nSee: https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
       </c>
-      <c r="I92" s="6" t="str">
+      <c r="I93" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.170=由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="1" t="s">
+    <row r="94" spans="2:9">
+      <c r="B94" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E94" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G93" s="4" t="str">
+      <c r="G94" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.180=予期せぬ例外が発生しました。</v>
       </c>
-      <c r="H93" s="5" t="str">
+      <c r="H94" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.180=Unexpected exception occurred.</v>
       </c>
-      <c r="I93" s="6" t="str">
+      <c r="I94" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.180=意外的例外。</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
-      <c r="B94" s="1" t="s">
+    <row r="95" spans="2:9">
+      <c r="B95" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G94" s="4" t="str">
+      <c r="G95" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AppTaskBase.190=フォルダのロードに失敗しました。</v>
       </c>
-      <c r="H94" s="5" t="str">
+      <c r="H95" s="5" t="str">
         <f t="shared" si="4"/>
         <v>AppTaskBase.190=Failed to load directories.</v>
       </c>
-      <c r="I94" s="6" t="str">
+      <c r="I95" s="6" t="str">
         <f t="shared" si="5"/>
         <v>AppTaskBase.190=无法加载文件夹。</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="1" t="s">
+    <row r="96" spans="2:9">
+      <c r="B96" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G95" s="4" t="str">
+      <c r="G96" s="4" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">AppTaskBase.200=比較実行日時 : </v>
       </c>
-      <c r="H95" s="5" t="str">
+      <c r="H96" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">AppTaskBase.200=Exec datetime : </v>
       </c>
-      <c r="I95" s="6" t="str">
+      <c r="I96" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">AppTaskBase.200=执行日期和时间 : </v>
       </c>
     </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="2"/>
-      <c r="C96" s="3"/>
-      <c r="G96" s="4" t="str">
+    <row r="97" spans="2:9">
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="G97" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H96" s="5" t="str">
+      <c r="H97" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I96" s="6" t="str">
+      <c r="I97" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="7" t="s">
+    <row r="98" spans="2:9">
+      <c r="B98" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="G97" s="4" t="str">
+      <c r="G98" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
       </c>
-      <c r="H97" s="5" t="str">
+      <c r="H98" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.010=Starting comparing books.</v>
       </c>
-      <c r="I97" s="6" t="str">
+      <c r="I98" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.010=开始互相比较工作簿。</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="7" t="s">
+    <row r="99" spans="2:9">
+      <c r="B99" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E99" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="G98" s="4" t="str">
+      <c r="G99" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
       </c>
-      <c r="H98" s="5" t="str">
+      <c r="H99" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.020=Pairing sheets...</v>
       </c>
-      <c r="I98" s="6" t="str">
+      <c r="I99" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="7" t="s">
+    <row r="100" spans="2:9">
+      <c r="B100" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E100" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="G99" s="4" t="str">
+      <c r="G100" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H99" s="5" t="str">
+      <c r="H100" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.030=Failed to pair sheets.</v>
       </c>
-      <c r="I99" s="6" t="str">
+      <c r="I100" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.030=确定工作表组合失败。</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="7" t="s">
+    <row r="101" spans="2:9">
+      <c r="B101" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="G100" s="4" t="str">
+      <c r="G101" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.040=シートを比較しています...</v>
       </c>
-      <c r="H100" s="5" t="str">
+      <c r="H101" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.040=Comparing sheets...</v>
       </c>
-      <c r="I100" s="6" t="str">
+      <c r="I101" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.040=比较工作表...</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="7" t="s">
+    <row r="102" spans="2:9">
+      <c r="B102" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E102" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="G101" s="4" t="str">
+      <c r="G102" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
       </c>
-      <c r="H101" s="5" t="str">
+      <c r="H102" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.050=Failed to compare sheets.</v>
       </c>
-      <c r="I101" s="6" t="str">
+      <c r="I102" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.050=工作表比较失败。</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="7" t="s">
+    <row r="103" spans="2:9">
+      <c r="B103" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E103" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="G102" s="4" t="str">
+      <c r="G103" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.060=比較結果レポートを保存しています...</v>
       </c>
-      <c r="H102" s="5" t="str">
+      <c r="H103" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.060=Saving result report...</v>
       </c>
-      <c r="I102" s="6" t="str">
+      <c r="I103" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.060=保存比较结果报告...</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="7" t="s">
+    <row r="104" spans="2:9">
+      <c r="B104" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E104" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="G103" s="4" t="str">
+      <c r="G104" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.070=比較結果レポートの保存に失敗しました。</v>
       </c>
-      <c r="H103" s="5" t="str">
+      <c r="H104" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.070=Failed to save result report.</v>
       </c>
-      <c r="I103" s="6" t="str">
+      <c r="I104" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.070=保存比较结果报告失败。</v>
       </c>
     </row>
-    <row r="104" spans="2:9">
-      <c r="B104" s="7" t="s">
+    <row r="105" spans="2:9">
+      <c r="B105" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E105" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="G104" s="4" t="str">
+      <c r="G105" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.080=比較結果レポートを表示しています...</v>
       </c>
-      <c r="H104" s="5" t="str">
+      <c r="H105" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.080=Opening result report...</v>
       </c>
-      <c r="I104" s="6" t="str">
+      <c r="I105" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.080=显示比较结果报告...</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="7" t="s">
+    <row r="106" spans="2:9">
+      <c r="B106" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E106" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="G105" s="4" t="str">
+      <c r="G106" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.090=比較結果レポートの表示に失敗しました。</v>
       </c>
-      <c r="H105" s="5" t="str">
+      <c r="H106" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.090=Failed to open result report.</v>
       </c>
-      <c r="I105" s="6" t="str">
+      <c r="I106" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.090=显示比较结果报告失败。</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
-      <c r="B106" s="2"/>
-      <c r="C106" s="3"/>
-      <c r="G106" s="4" t="str">
+    <row r="107" spans="2:9">
+      <c r="B107" s="2"/>
+      <c r="C107" s="3"/>
+      <c r="G107" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H106" s="5" t="str">
+      <c r="H107" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I106" s="6" t="str">
+      <c r="I107" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:9">
-      <c r="B107" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="G107" s="4" t="str">
-        <f t="shared" ref="G107:G170" si="12" xml:space="preserve"> IF($B107="", "", $B107 &amp; "=" &amp; C107)</f>
-        <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
-      </c>
-      <c r="H107" s="5" t="str">
-        <f t="shared" ref="H107:H170" si="13" xml:space="preserve"> IF($B107="", "", $B107 &amp; "=" &amp; D107)</f>
-        <v>CompareDirsTask.010=Starting comparing folders.</v>
-      </c>
-      <c r="I107" s="6" t="str">
-        <f t="shared" ref="I107:I170" si="14" xml:space="preserve"> IF($B107="", "", $B107 &amp; "=" &amp; E107)</f>
-        <v>CompareDirsTask.010=开始互相比较文件夹。</v>
-      </c>
-    </row>
     <row r="108" spans="2:9">
       <c r="B108" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <f t="shared" ref="G108:G171" si="12" xml:space="preserve"> IF($B108="", "", $B108 &amp; "=" &amp; C108)</f>
+        <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
+      </c>
+      <c r="H108" s="5" t="str">
+        <f t="shared" ref="H108:H171" si="13" xml:space="preserve"> IF($B108="", "", $B108 &amp; "=" &amp; D108)</f>
+        <v>CompareDirsTask.010=Starting comparing folders.</v>
+      </c>
+      <c r="I108" s="6" t="str">
+        <f t="shared" ref="I108:I171" si="14" xml:space="preserve"> IF($B108="", "", $B108 &amp; "=" &amp; E108)</f>
+        <v>CompareDirsTask.010=开始互相比较文件夹。</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="B109" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E109" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="G108" s="4" t="str">
+      <c r="G109" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
       </c>
-      <c r="H108" s="5" t="str">
+      <c r="H109" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareDirsTask.020=Failed to create output directory.</v>
       </c>
-      <c r="I108" s="6" t="str">
+      <c r="I109" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
-      <c r="B109" s="7" t="s">
+    <row r="110" spans="2:9">
+      <c r="B110" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E110" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="G109" s="4" t="str">
+      <c r="G110" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
       </c>
-      <c r="H109" s="5" t="str">
+      <c r="H110" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareDirsTask.030=Pairing books...</v>
       </c>
-      <c r="I109" s="6" t="str">
+      <c r="I110" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="7" t="s">
+    <row r="111" spans="2:9">
+      <c r="B111" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E111" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="G110" s="4" t="str">
+      <c r="G111" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H110" s="5" t="str">
+      <c r="H111" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareDirsTask.040=Failed to pair books.</v>
       </c>
-      <c r="I110" s="6" t="str">
+      <c r="I111" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareDirsTask.040=确定工作簿组合失败。</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="7" t="s">
+    <row r="112" spans="2:9">
+      <c r="B112" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E112" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="G111" s="4" t="str">
+      <c r="G112" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareDirsTask.050=Excelブックを比較しています...</v>
       </c>
-      <c r="H111" s="5" t="str">
+      <c r="H112" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareDirsTask.050=Comparing books...</v>
       </c>
-      <c r="I111" s="6" t="str">
+      <c r="I112" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareDirsTask.050=比较工作簿...</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
-      <c r="B112" s="7" t="s">
+    <row r="113" spans="2:9">
+      <c r="B113" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E113" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G112" s="4" t="str">
+      <c r="G113" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareDirsTask.060=★失敗しました</v>
       </c>
-      <c r="H112" s="5" t="str">
+      <c r="H113" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareDirsTask.060=★Failed</v>
       </c>
-      <c r="I112" s="6" t="str">
+      <c r="I113" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareDirsTask.060=★失败</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
-      <c r="B113" s="7" t="s">
+    <row r="114" spans="2:9">
+      <c r="B114" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E114" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="G113" s="4" t="str">
+      <c r="G114" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareDirsTask.070=(比較対象ファイルなし)</v>
       </c>
-      <c r="H113" s="5" t="str">
+      <c r="H114" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareDirsTask.070=(No files to compare)</v>
       </c>
-      <c r="I113" s="6" t="str">
+      <c r="I114" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareDirsTask.070=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="7" t="s">
+    <row r="115" spans="2:9">
+      <c r="B115" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E115" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G114" s="4" t="str">
+      <c r="G115" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareDirsTask.080=フォルダの比較に失敗しました。</v>
       </c>
-      <c r="H114" s="5" t="str">
+      <c r="H115" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareDirsTask.080=Failed to compare folders.</v>
       </c>
-      <c r="I114" s="6" t="str">
+      <c r="I115" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareDirsTask.080=文件夹比较失败。</v>
       </c>
     </row>
-    <row r="115" spans="2:9">
-      <c r="B115" s="2"/>
-      <c r="C115" s="3"/>
-      <c r="G115" s="4" t="str">
+    <row r="116" spans="2:9">
+      <c r="B116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="G116" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H115" s="5" t="str">
+      <c r="H116" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I115" s="6" t="str">
+      <c r="I116" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:9">
-      <c r="B116" s="7" t="s">
+    <row r="117" spans="2:9">
+      <c r="B117" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E117" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="G116" s="4" t="str">
+      <c r="G117" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
       </c>
-      <c r="H116" s="5" t="str">
+      <c r="H117" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareSheetsTask.010=Starting comparing sheets.</v>
       </c>
-      <c r="I116" s="6" t="str">
+      <c r="I117" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
-      <c r="B117" s="7" t="s">
+    <row r="118" spans="2:9">
+      <c r="B118" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E118" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="G117" s="4" t="str">
+      <c r="G118" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareSheetsTask.020=シートを比較しています...</v>
       </c>
-      <c r="H117" s="5" t="str">
+      <c r="H118" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareSheetsTask.020=Comparing sheets...</v>
       </c>
-      <c r="I117" s="6" t="str">
+      <c r="I118" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareSheetsTask.020=比较工作表...</v>
       </c>
     </row>
-    <row r="118" spans="2:9">
-      <c r="B118" s="7" t="s">
+    <row r="119" spans="2:9">
+      <c r="B119" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E119" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="G118" s="4" t="str">
+      <c r="G119" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
       </c>
-      <c r="H118" s="5" t="str">
+      <c r="H119" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareSheetsTask.030=Failed to compare sheets.</v>
       </c>
-      <c r="I118" s="6" t="str">
+      <c r="I119" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareSheetsTask.030=工作表比较失败。</v>
       </c>
     </row>
-    <row r="119" spans="2:9">
-      <c r="B119" s="2"/>
-      <c r="C119" s="3"/>
-      <c r="G119" s="4" t="str">
+    <row r="120" spans="2:9">
+      <c r="B120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="G120" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H119" s="5" t="str">
+      <c r="H120" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I119" s="6" t="str">
+      <c r="I120" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="2:9">
-      <c r="B120" s="1" t="s">
+    <row r="121" spans="2:9">
+      <c r="B121" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E121" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G120" s="4" t="str">
+      <c r="G121" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.010=フォルダツリー同士の比較を開始します。</v>
       </c>
-      <c r="H120" s="5" t="str">
+      <c r="H121" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.010=Starting comparing folder trees.</v>
       </c>
-      <c r="I120" s="6" t="str">
+      <c r="I121" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.010=开始互相比较文件夹树。</v>
       </c>
     </row>
-    <row r="121" spans="2:9">
-      <c r="B121" s="1" t="s">
+    <row r="122" spans="2:9">
+      <c r="B122" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E122" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="G121" s="4" t="str">
+      <c r="G122" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.020=比較するフォルダの組み合わせを決定しています...</v>
       </c>
-      <c r="H121" s="5" t="str">
+      <c r="H122" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.020=Pairing folders...</v>
       </c>
-      <c r="I121" s="6" t="str">
+      <c r="I122" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.020=确定要比较的文件夹的组合 ...</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
-      <c r="B122" s="1" t="s">
+    <row r="123" spans="2:9">
+      <c r="B123" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C123" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E123" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="G122" s="4" t="str">
+      <c r="G123" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.030=フォルダの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H122" s="5" t="str">
+      <c r="H123" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.030=Failed to pair folders.</v>
       </c>
-      <c r="I122" s="6" t="str">
+      <c r="I123" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.030=确定文件夹组合失败。</v>
       </c>
     </row>
-    <row r="123" spans="2:9">
-      <c r="B123" s="1" t="s">
+    <row r="124" spans="2:9">
+      <c r="B124" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E124" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="G123" s="4" t="str">
+      <c r="G124" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.040=フォルダツリーを比較しています...</v>
       </c>
-      <c r="H123" s="5" t="str">
+      <c r="H124" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.040=Comparing folders...</v>
       </c>
-      <c r="I123" s="6" t="str">
+      <c r="I124" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.040=比较文件夹...</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
-      <c r="B124" s="1" t="s">
+    <row r="125" spans="2:9">
+      <c r="B125" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E125" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G124" s="4" t="str">
+      <c r="G125" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.050=★失敗しました</v>
       </c>
-      <c r="H124" s="5" t="str">
+      <c r="H125" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.050=★Failed</v>
       </c>
-      <c r="I124" s="6" t="str">
+      <c r="I125" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.050=★失败</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
-      <c r="B125" s="1" t="s">
+    <row r="126" spans="2:9">
+      <c r="B126" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C126" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D126" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="E126" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="G125" s="4" t="str">
+      <c r="G126" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.060=(比較対象ファイルなし)</v>
       </c>
-      <c r="H125" s="5" t="str">
+      <c r="H126" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.060=(No files to compare)</v>
       </c>
-      <c r="I125" s="6" t="str">
+      <c r="I126" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.060=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="126" spans="2:9">
-      <c r="B126" s="2" t="s">
+    <row r="127" spans="2:9">
+      <c r="B127" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="E127" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="G126" s="4" t="str">
+      <c r="G127" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.070=比較結果レポートを保存しています...</v>
       </c>
-      <c r="H126" s="5" t="str">
+      <c r="H127" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.070=Saving result report...</v>
       </c>
-      <c r="I126" s="6" t="str">
+      <c r="I127" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.070=保存比较结果报告...</v>
       </c>
     </row>
-    <row r="127" spans="2:9">
-      <c r="B127" s="2" t="s">
+    <row r="128" spans="2:9">
+      <c r="B128" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="E128" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="G127" s="4" t="str">
+      <c r="G128" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.080=比較結果レポートの保存に失敗しました。</v>
       </c>
-      <c r="H127" s="5" t="str">
+      <c r="H128" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.080=Failed to save result report.</v>
       </c>
-      <c r="I127" s="6" t="str">
+      <c r="I128" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.080=保存比较结果报告失败。</v>
       </c>
     </row>
-    <row r="128" spans="2:9">
-      <c r="B128" s="2" t="s">
+    <row r="129" spans="2:9">
+      <c r="B129" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="E129" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="G128" s="4" t="str">
+      <c r="G129" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.090=比較結果レポートを表示しています...</v>
       </c>
-      <c r="H128" s="5" t="str">
+      <c r="H129" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.090=Opening result report...</v>
       </c>
-      <c r="I128" s="6" t="str">
+      <c r="I129" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.090=显示比较结果报告...</v>
       </c>
     </row>
-    <row r="129" spans="2:9">
-      <c r="B129" s="2" t="s">
+    <row r="130" spans="2:9">
+      <c r="B130" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E130" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="G129" s="4" t="str">
+      <c r="G130" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.100=比較結果レポートの表示に失敗しました。</v>
       </c>
-      <c r="H129" s="5" t="str">
+      <c r="H130" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.100=Failed to open result report.</v>
       </c>
-      <c r="I129" s="6" t="str">
+      <c r="I130" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.100=显示比较结果报告失败。</v>
       </c>
     </row>
-    <row r="130" spans="2:9">
-      <c r="B130" s="2" t="s">
+    <row r="131" spans="2:9">
+      <c r="B131" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="E131" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G130" s="4" t="str">
+      <c r="G131" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CompareTreesTask.110=フォルダツリーの比較に失敗しました。</v>
       </c>
-      <c r="H130" s="5" t="str">
+      <c r="H131" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CompareTreesTask.110=Failed to compare folder trees.</v>
       </c>
-      <c r="I130" s="6" t="str">
+      <c r="I131" s="6" t="str">
         <f t="shared" si="14"/>
         <v>CompareTreesTask.110=文件夹比较失败。</v>
       </c>
     </row>
-    <row r="131" spans="2:9">
-      <c r="B131" s="2"/>
-      <c r="C131" s="3"/>
-      <c r="G131" s="4" t="str">
+    <row r="132" spans="2:9">
+      <c r="B132" s="2"/>
+      <c r="C132" s="3"/>
+      <c r="G132" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H131" s="5" t="str">
+      <c r="H132" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I131" s="6" t="str">
+      <c r="I132" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:9">
-      <c r="B132" s="2" t="s">
+    <row r="133" spans="2:9">
+      <c r="B133" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E133" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="G132" s="4" t="str">
+      <c r="G133" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.BResult.010=(比較相手なし)</v>
       </c>
-      <c r="H132" s="5" t="str">
+      <c r="H133" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.BResult.010=(no opponent)</v>
       </c>
-      <c r="I132" s="6" t="str">
+      <c r="I133" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.BResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="133" spans="2:9">
-      <c r="B133" s="2" t="s">
+    <row r="134" spans="2:9">
+      <c r="B134" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D134" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E134" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G133" s="4" t="str">
+      <c r="G134" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.BResult.020=(差分なし)</v>
       </c>
-      <c r="H133" s="5" t="str">
+      <c r="H134" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.BResult.020=(no diffs)</v>
       </c>
-      <c r="I133" s="6" t="str">
+      <c r="I134" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.BResult.020=(没有区别)</v>
       </c>
     </row>
-    <row r="134" spans="2:9">
-      <c r="B134" s="7" t="s">
+    <row r="135" spans="2:9">
+      <c r="B135" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="E135" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="G134" s="4" t="str">
+      <c r="G135" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.BResult.030=差異発生%dシート</v>
       </c>
-      <c r="H134" s="5" t="str">
+      <c r="H135" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.BResult.030=diff sheets:%d</v>
       </c>
-      <c r="I134" s="6" t="str">
+      <c r="I135" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
-    <row r="135" spans="2:9">
-      <c r="B135" s="7" t="s">
+    <row r="136" spans="2:9">
+      <c r="B136" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="E136" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G135" s="4" t="str">
+      <c r="G136" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.BResult.040=余剰%dシート</v>
       </c>
-      <c r="H135" s="5" t="str">
+      <c r="H136" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.BResult.040=redundant sheets:%d</v>
       </c>
-      <c r="I135" s="6" t="str">
+      <c r="I136" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.BResult.040=冗余工作表%d</v>
       </c>
     </row>
-    <row r="136" spans="2:9">
-      <c r="B136" s="7" t="s">
+    <row r="137" spans="2:9">
+      <c r="B137" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C137" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D137" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E137" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="G136" s="4" t="str">
+      <c r="G137" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
       </c>
-      <c r="H136" s="5" t="str">
+      <c r="H137" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.BResult.050=Book %s : </v>
       </c>
-      <c r="I136" s="6" t="str">
+      <c r="I137" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.BResult.050=工作簿%s：</v>
       </c>
     </row>
-    <row r="137" spans="2:9">
-      <c r="B137" s="7" t="s">
+    <row r="138" spans="2:9">
+      <c r="B138" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D138" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E138" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G137" s="4" t="str">
+      <c r="G138" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H137" s="5" t="str">
+      <c r="H138" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I137" s="6" t="str">
+      <c r="I138" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="138" spans="2:9">
-      <c r="B138" s="7" t="s">
+    <row r="139" spans="2:9">
+      <c r="B139" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C139" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D139" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E139" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="G138" s="4" t="str">
+      <c r="G139" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H138" s="5" t="str">
+      <c r="H139" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I138" s="6" t="str">
+      <c r="I139" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="139" spans="2:9">
-      <c r="G139" s="4" t="str">
+    <row r="140" spans="2:9">
+      <c r="G140" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H139" s="5" t="str">
+      <c r="H140" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I139" s="6" t="str">
+      <c r="I140" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:9">
-      <c r="B140" s="2" t="s">
+    <row r="141" spans="2:9">
+      <c r="B141" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C141" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D141" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="E141" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="G140" s="4" t="str">
+      <c r="G141" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
       </c>
-      <c r="H140" s="5" t="str">
+      <c r="H141" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
       </c>
-      <c r="I140" s="6" t="str">
+      <c r="I141" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
       </c>
     </row>
-    <row r="141" spans="2:9">
-      <c r="G141" s="4" t="str">
+    <row r="142" spans="2:9">
+      <c r="G142" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H141" s="5" t="str">
+      <c r="H142" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I141" s="6" t="str">
+      <c r="I142" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:9">
-      <c r="B142" s="7" t="s">
+    <row r="143" spans="2:9">
+      <c r="B143" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D143" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="E143" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="G142" s="4" t="str">
+      <c r="G143" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.010=(比較相手なし)</v>
       </c>
-      <c r="H142" s="5" t="str">
+      <c r="H143" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.010=(no opponent)</v>
       </c>
-      <c r="I142" s="6" t="str">
+      <c r="I143" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="143" spans="2:9">
-      <c r="B143" s="7" t="s">
+    <row r="144" spans="2:9">
+      <c r="B144" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D144" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="E144" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="G143" s="4" t="str">
+      <c r="G144" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
       </c>
-      <c r="H143" s="5" t="str">
+      <c r="H144" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
       </c>
-      <c r="I143" s="6" t="str">
+      <c r="I144" s="6" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
       </c>
     </row>
-    <row r="144" spans="2:9">
-      <c r="B144" s="7" t="s">
+    <row r="145" spans="2:9">
+      <c r="B145" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C145" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D145" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E145" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G144" s="4" t="str">
+      <c r="G145" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H144" s="5" t="str">
+      <c r="H145" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I144" s="6" t="str">
+      <c r="I145" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="145" spans="2:9">
-      <c r="B145" s="7" t="s">
+    <row r="146" spans="2:9">
+      <c r="B146" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D146" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E146" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="G145" s="4" t="str">
+      <c r="G146" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H145" s="5" t="str">
+      <c r="H146" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I145" s="6" t="str">
+      <c r="I146" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="146" spans="2:9">
-      <c r="B146" s="7" t="s">
+    <row r="147" spans="2:9">
+      <c r="B147" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C147" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E146" s="6" t="s">
+      <c r="E147" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G146" s="4" t="str">
+      <c r="G147" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.050=★失敗しました</v>
       </c>
-      <c r="H146" s="5" t="str">
+      <c r="H147" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.050=★Failed</v>
       </c>
-      <c r="I146" s="6" t="str">
+      <c r="I147" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.050=★失败</v>
       </c>
     </row>
-    <row r="147" spans="2:9">
-      <c r="B147" s="7" t="s">
+    <row r="148" spans="2:9">
+      <c r="B148" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="E148" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G147" s="4" t="str">
+      <c r="G148" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.060=(差分なし)</v>
       </c>
-      <c r="H147" s="5" t="str">
+      <c r="H148" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.060=(no diffs)</v>
       </c>
-      <c r="I147" s="6" t="str">
+      <c r="I148" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.060=(没有区别)</v>
       </c>
     </row>
-    <row r="148" spans="2:9">
-      <c r="B148" s="1" t="s">
+    <row r="149" spans="2:9">
+      <c r="B149" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C149" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E149" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="G148" s="4" t="str">
+      <c r="G149" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.070=差異発生%dブック</v>
       </c>
-      <c r="H148" s="5" t="str">
+      <c r="H149" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.070=diff books:%d</v>
       </c>
-      <c r="I148" s="6" t="str">
+      <c r="I149" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.070=差异工作簿%d</v>
       </c>
     </row>
-    <row r="149" spans="2:9">
-      <c r="B149" s="1" t="s">
+    <row r="150" spans="2:9">
+      <c r="B150" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C150" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D150" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E150" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="G149" s="4" t="str">
+      <c r="G150" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.080=余剰%dブック</v>
       </c>
-      <c r="H149" s="5" t="str">
+      <c r="H150" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.080=redundant books:%d</v>
       </c>
-      <c r="I149" s="6" t="str">
+      <c r="I150" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.080=冗余工作簿%d</v>
       </c>
     </row>
-    <row r="150" spans="2:9">
-      <c r="B150" s="1" t="s">
+    <row r="151" spans="2:9">
+      <c r="B151" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D151" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E151" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G150" s="4" t="str">
+      <c r="G151" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.090=比較失敗%dブック</v>
       </c>
-      <c r="H150" s="5" t="str">
+      <c r="H151" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.090=failed books:%d</v>
       </c>
-      <c r="I150" s="6" t="str">
+      <c r="I151" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.090=失败工作簿%d</v>
       </c>
     </row>
-    <row r="151" spans="2:9">
-      <c r="B151" s="1" t="s">
+    <row r="152" spans="2:9">
+      <c r="B152" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C152" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D152" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E151" s="6" t="s">
+      <c r="E152" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="G151" s="4" t="str">
+      <c r="G152" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.DResult.100=(比較対象ファイルなし)</v>
       </c>
-      <c r="H151" s="5" t="str">
+      <c r="H152" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.DResult.100=(No files to compare)</v>
       </c>
-      <c r="I151" s="6" t="str">
+      <c r="I152" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.DResult.100=(没有可比较的文件)</v>
       </c>
     </row>
-    <row r="152" spans="2:9">
-      <c r="G152" s="4" t="str">
+    <row r="153" spans="2:9">
+      <c r="G153" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H152" s="5" t="str">
+      <c r="H153" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I152" s="6" t="str">
+      <c r="I153" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="2:9">
-      <c r="B153" s="2" t="s">
+    <row r="154" spans="2:9">
+      <c r="B154" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E153" s="6" t="s">
+      <c r="E154" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G153" s="4" t="str">
+      <c r="G154" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SheetType.010=ワークシート</v>
       </c>
-      <c r="H153" s="5" t="str">
+      <c r="H154" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SheetType.010=Worksheet</v>
       </c>
-      <c r="I153" s="6" t="str">
+      <c r="I154" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
-    <row r="154" spans="2:9">
-      <c r="B154" s="2" t="s">
+    <row r="155" spans="2:9">
+      <c r="B155" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="E155" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="G154" s="4" t="str">
+      <c r="G155" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SheetType.020=グラフシート</v>
       </c>
-      <c r="H154" s="5" t="str">
+      <c r="H155" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SheetType.020=Chart</v>
       </c>
-      <c r="I154" s="6" t="str">
+      <c r="I155" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SheetType.020=图表表</v>
       </c>
     </row>
-    <row r="155" spans="2:9">
-      <c r="B155" s="2" t="s">
+    <row r="156" spans="2:9">
+      <c r="B156" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C156" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D156" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E156" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="G155" s="4" t="str">
+      <c r="G156" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
       </c>
-      <c r="H155" s="5" t="str">
+      <c r="H156" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
       </c>
-      <c r="I155" s="6" t="str">
+      <c r="I156" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
       </c>
     </row>
-    <row r="156" spans="2:9">
-      <c r="B156" s="2" t="s">
+    <row r="157" spans="2:9">
+      <c r="B157" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C157" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D157" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="E157" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G156" s="4" t="str">
+      <c r="G157" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
       </c>
-      <c r="H156" s="5" t="str">
+      <c r="H157" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SheetType.040=Excel 4.0 Macro</v>
       </c>
-      <c r="I156" s="6" t="str">
+      <c r="I157" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SheetType.040=Excel 4.0 宏表</v>
       </c>
     </row>
-    <row r="157" spans="2:9">
-      <c r="B157" s="2"/>
-      <c r="C157" s="3"/>
-      <c r="G157" s="4" t="str">
+    <row r="158" spans="2:9">
+      <c r="B158" s="2"/>
+      <c r="C158" s="3"/>
+      <c r="G158" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H157" s="5" t="str">
+      <c r="H158" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I157" s="6" t="str">
+      <c r="I158" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:9">
-      <c r="B158" s="2" t="s">
+    <row r="159" spans="2:9">
+      <c r="B159" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D159" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="E159" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G158" s="4" t="str">
+      <c r="G159" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.010=(差分なし)</v>
       </c>
-      <c r="H158" s="5" t="str">
+      <c r="H159" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.010=(no diffs)</v>
       </c>
-      <c r="I158" s="6" t="str">
+      <c r="I159" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
-    <row r="159" spans="2:9">
-      <c r="B159" s="2" t="s">
+    <row r="160" spans="2:9">
+      <c r="B160" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D160" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="E160" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G159" s="4" t="str">
+      <c r="G160" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.020=余剰行%d</v>
       </c>
-      <c r="H159" s="5" t="str">
+      <c r="H160" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.020=redundant rows:%d</v>
       </c>
-      <c r="I159" s="6" t="str">
+      <c r="I160" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.020=冗余行%d</v>
       </c>
     </row>
-    <row r="160" spans="2:9">
-      <c r="B160" s="2" t="s">
+    <row r="161" spans="2:9">
+      <c r="B161" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C161" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D161" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="E161" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G160" s="4" t="str">
+      <c r="G161" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.030=余剰列%d</v>
       </c>
-      <c r="H160" s="5" t="str">
+      <c r="H161" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.030=redundant columns:%d</v>
       </c>
-      <c r="I160" s="6" t="str">
+      <c r="I161" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.030=冗余列%d</v>
       </c>
     </row>
-    <row r="161" spans="2:9">
-      <c r="B161" s="2" t="s">
+    <row r="162" spans="2:9">
+      <c r="B162" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C162" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D162" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E162" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="G161" s="4" t="str">
+      <c r="G162" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.040=差分セル%d</v>
       </c>
-      <c r="H161" s="5" t="str">
+      <c r="H162" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.040=diff cells:%d</v>
       </c>
-      <c r="I161" s="6" t="str">
+      <c r="I162" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.040=差异单元格%d</v>
       </c>
     </row>
-    <row r="162" spans="2:9">
-      <c r="B162" s="2" t="s">
+    <row r="163" spans="2:9">
+      <c r="B163" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C163" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D163" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="E163" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G162" s="4" t="str">
+      <c r="G163" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
       </c>
-      <c r="H162" s="5" t="str">
+      <c r="H163" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
       </c>
-      <c r="I162" s="6" t="str">
+      <c r="I163" s="6" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
       </c>
     </row>
-    <row r="163" spans="2:9">
-      <c r="B163" s="2" t="s">
+    <row r="164" spans="2:9">
+      <c r="B164" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C164" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D164" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E163" s="6" t="s">
+      <c r="E164" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G163" s="4" t="str">
+      <c r="G164" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.060=行%d</v>
       </c>
-      <c r="H163" s="5" t="str">
+      <c r="H164" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.060=Row %d</v>
       </c>
-      <c r="I163" s="6" t="str">
+      <c r="I164" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.060=行%d</v>
       </c>
     </row>
-    <row r="164" spans="2:9">
-      <c r="B164" s="2" t="s">
+    <row r="165" spans="2:9">
+      <c r="B165" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C165" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E164" s="6" t="s">
+      <c r="E165" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="G164" s="4" t="str">
+      <c r="G165" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
       </c>
-      <c r="H164" s="5" t="str">
+      <c r="H165" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
       </c>
-      <c r="I164" s="6" t="str">
+      <c r="I165" s="6" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
       </c>
     </row>
-    <row r="165" spans="2:9">
-      <c r="B165" s="2" t="s">
+    <row r="166" spans="2:9">
+      <c r="B166" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C166" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D166" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="E166" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G165" s="4" t="str">
+      <c r="G166" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.SResult.080=%s列</v>
       </c>
-      <c r="H165" s="5" t="str">
+      <c r="H166" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.SResult.080=Column %s</v>
       </c>
-      <c r="I165" s="6" t="str">
+      <c r="I166" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.SResult.080=%s列</v>
       </c>
     </row>
-    <row r="166" spans="2:9">
-      <c r="B166" s="2" t="s">
+    <row r="167" spans="2:9">
+      <c r="B167" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C167" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D167" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E167" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="G166" s="4" t="str">
+      <c r="G167" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.SResult.090=差分セル : </v>
       </c>
-      <c r="H166" s="5" t="str">
+      <c r="H167" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.SResult.090=Diff cells : </v>
       </c>
-      <c r="I166" s="6" t="str">
+      <c r="I167" s="6" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">excel.SResult.090=差异单元格 : </v>
       </c>
     </row>
-    <row r="167" spans="2:9">
-      <c r="G167" s="4" t="str">
+    <row r="168" spans="2:9">
+      <c r="G168" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H167" s="5" t="str">
+      <c r="H168" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I167" s="6" t="str">
+      <c r="I168" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="2:9">
-      <c r="B168" s="1" t="s">
+    <row r="169" spans="2:9">
+      <c r="B169" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C169" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D169" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E169" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="G168" s="4" t="str">
+      <c r="G169" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.TreeResult.010=(比較相手なし)</v>
       </c>
-      <c r="H168" s="5" t="str">
+      <c r="H169" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.TreeResult.010=(no opponent)</v>
       </c>
-      <c r="I168" s="6" t="str">
+      <c r="I169" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.TreeResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="169" spans="2:9">
-      <c r="B169" s="1" t="s">
+    <row r="170" spans="2:9">
+      <c r="B170" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C170" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D170" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E169" s="6" t="s">
+      <c r="E170" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="G169" s="4" t="str">
+      <c r="G170" s="4" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">excel.TreeResult.020=ルートフォルダ%s : </v>
       </c>
-      <c r="H169" s="5" t="str">
+      <c r="H170" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">excel.TreeResult.020=Root folder %s : </v>
       </c>
-      <c r="I169" s="6" t="str">
+      <c r="I170" s="6" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">excel.TreeResult.020=根文件夹%s : </v>
       </c>
     </row>
-    <row r="170" spans="2:9">
-      <c r="B170" s="1" t="s">
+    <row r="171" spans="2:9">
+      <c r="B171" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C171" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D171" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E170" s="6" t="s">
+      <c r="E171" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G170" s="4" t="str">
+      <c r="G171" s="4" t="str">
         <f t="shared" si="12"/>
         <v>excel.TreeResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H170" s="5" t="str">
+      <c r="H171" s="5" t="str">
         <f t="shared" si="13"/>
         <v>excel.TreeResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I170" s="6" t="str">
+      <c r="I171" s="6" t="str">
         <f t="shared" si="14"/>
         <v>excel.TreeResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="171" spans="2:9">
-      <c r="B171" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="G171" s="4" t="str">
-        <f t="shared" ref="G171:G172" si="15" xml:space="preserve"> IF($B171="", "", $B171 &amp; "=" &amp; C171)</f>
-        <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
-      </c>
-      <c r="H171" s="5" t="str">
-        <f t="shared" ref="H171:H172" si="16" xml:space="preserve"> IF($B171="", "", $B171 &amp; "=" &amp; D171)</f>
-        <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
-      </c>
-      <c r="I171" s="6" t="str">
-        <f t="shared" ref="I171:I172" si="17" xml:space="preserve"> IF($B171="", "", $B171 &amp; "=" &amp; E171)</f>
-        <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
-      </c>
-    </row>
     <row r="172" spans="2:9">
       <c r="B172" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="G172" s="4" t="str">
+        <f t="shared" ref="G172:G173" si="15" xml:space="preserve"> IF($B172="", "", $B172 &amp; "=" &amp; C172)</f>
+        <v>excel.TreeResult.040=■差分詳細 -----------------------------------------------------</v>
+      </c>
+      <c r="H172" s="5" t="str">
+        <f t="shared" ref="H172:H173" si="16" xml:space="preserve"> IF($B172="", "", $B172 &amp; "=" &amp; D172)</f>
+        <v>excel.TreeResult.040=## DETAIL ------------------------------------------------------</v>
+      </c>
+      <c r="I172" s="6" t="str">
+        <f t="shared" ref="I172:I173" si="17" xml:space="preserve"> IF($B172="", "", $B172 &amp; "=" &amp; E172)</f>
+        <v>excel.TreeResult.040=■差异细节 -----------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9">
+      <c r="B173" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C173" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D173" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E172" s="6" t="s">
+      <c r="E173" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G172" s="4" t="str">
+      <c r="G173" s="4" t="str">
         <f t="shared" si="15"/>
         <v>excel.TreeResult.050=★失敗しました</v>
       </c>
-      <c r="H172" s="5" t="str">
+      <c r="H173" s="5" t="str">
         <f t="shared" si="16"/>
         <v>excel.TreeResult.050=★Failed</v>
       </c>
-      <c r="I172" s="6" t="str">
+      <c r="I173" s="6" t="str">
         <f t="shared" si="17"/>
         <v>excel.TreeResult.050=★失败</v>
       </c>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202409/hogandiff4/xyz.hotchpotch.hogandiff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namba\OneDrive\workspace_202506\hogandiff4\xyz.hotchpotch.hogandiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{7B19F0C5-BFDB-4F01-9E4D-6F1D8EEDF954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4FD5F87-11B7-4202-A218-F637A8C6FFC0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3FC5F4-786B-484D-89ED-F98D63132BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22180" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="615">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -230,9 +241,6 @@
   </si>
   <si>
     <t>%s はパスワードで保護されています。</t>
-  </si>
-  <si>
-    <t>AppMain.010</t>
   </si>
   <si>
     <t>方眼Diff</t>
@@ -1696,21 +1704,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CompareDirsTask.080</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2114,36 +2107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>工作簿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>%s：</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>执行日期和时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fx.SettingsPane1.compare.050</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2169,6 +2132,321 @@
   </si>
   <si>
     <t>Enable sheets/books fuzzy matching</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gui.component.GooglePane.010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方眼DiffとGoogleドライブの連携を解除します。\nよろしいですか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disconnect HoganDiff from Google Drive. Are you sure?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方眼Diff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解除方眼Diff与Google Drive的关联。确定吗？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AppMain.010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gui.component.GooglePane.020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格情報を削除しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Credentials have been deleted.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>已删除凭据。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このPCに保存されていたGoogleアカウント連携のための資格情報を削除しました。\n\nGoogle側の設定では引き続き方眼Diffとの連携が許可されています。\n連携許可を完全に取り消したい場合はGoogleアカウントのサイトから設定を行ってください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The credentials for Google account integration stored on this PC have been deleted.\n\nGoogle's settings still allow integration with Hougan Diff.\nIf you want to completely revoke the integration permission, please configure the settings from your Google account site.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>已删除保存在此电脑上的Google账户关联凭据。\n\n在Google设置中仍允许与方眼Diff的关联。\n如要完全撤销关联权限，请从Google账户网站进行设置。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>由于内存不足，处理失败。\n请增加分配的内存量，然后重试。\n参考：https://hogandiff.hotchpotch.xyz/faq/#toc3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">执行日期和时间 : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gui.component.GooglePane.030</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格情報の削除に失敗しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gui.component.GooglePane.040</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格情報の削除に失敗しました。\n時間をおいてから再度お試しください。\n\n失敗し続ける場合はウェブサイトからお問い合わせください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gui.component.GooglePane.050</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to delete credentials.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>删除凭据失败。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to delete credentials.\nPlease try again after waiting a moment.\n\nIf the failure continues, please contact us from our website.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>删除凭据失败。\n请稍后重试。\n\n如持续失败，请通过网站联系我们。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google連携エラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gui.component.GooglePane.060</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Integration Error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google关联错误</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google連携処理中にエラーが発生しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>An error occurred during Google integration processing.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google关联处理过程中发生错误。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gui.component.GooglePane.070</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー：%s\n\n時間をおいてから再度お試しください。\n失敗し続ける場合はウェブサイトからお問い合わせください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Error: %s\n\nPlease try again after waiting a moment.\nIf the failure continues, please contact us from our website.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失败：%s\n\n请稍后重试。\n如持续失败，请通过网站联系我们。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gui.component.GooglePane.080</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.GoogleFilePickerDialog.010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googleドライブ ファイル選択</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Drive File Selection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Drive 文件选择</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.GoogleFilePickerDialogPane.010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サポートされない形式のURLです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unsupported URL format.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不支持的URL格式。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>google.GoogleFileFetcher.010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新者不明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最新版</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Latest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>google.GoogleFileFetcher.020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googleドライブ上のファイルのURLを指定してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.GoogleFilePickerDialogPane.020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please specify the URL of a file on Google Drive.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>请指定Google Drive上文件的URL。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルURL :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File URL :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.GoogleFilePickerDialogPane.030</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル情報取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fetch File Metadata</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>获取文件元数据</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.GoogleFilePickerDialogPane.040</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名 :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文件URL :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.GoogleFilePickerDialogPane.050</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File Name :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文件名 :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リビジョン :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Revision :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.GoogleFilePickerDialogPane.060</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>版本 :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.GooglePane.010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googleドライブ\n連携</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Connect\nGoogle Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.GooglePane.020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googleドライブ\n連携解除</t>
+    <rPh sb="14" eb="16">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disconnect\nGoogle Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Drive\n关联</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Drive\n关联解除</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2259,7 +2537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2282,6 +2560,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2302,46 +2583,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2607,45 +2848,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I173"/>
+  <dimension ref="B1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.5625" style="1"/>
-    <col min="2" max="2" width="42.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.3125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.5625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.5625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="2.5625" style="1"/>
-    <col min="7" max="7" width="2.5625" style="4"/>
-    <col min="8" max="8" width="2.5625" style="5"/>
-    <col min="9" max="9" width="2.5625" style="6"/>
-    <col min="10" max="16384" width="2.5625" style="1"/>
+    <col min="1" max="1" width="2.58203125" style="1"/>
+    <col min="2" max="2" width="42.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.58203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.58203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="2.58203125" style="1"/>
+    <col min="7" max="7" width="2.58203125" style="4"/>
+    <col min="8" max="8" width="2.58203125" style="5"/>
+    <col min="9" max="9" width="2.58203125" style="6"/>
+    <col min="10" max="16384" width="2.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="2:9">
@@ -2656,10 +2897,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>368</v>
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="G2" s="4" t="str">
         <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; C2)</f>
@@ -2684,19 +2925,19 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G36" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
+        <f t="shared" ref="G3:G66" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H36" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
+        <f t="shared" ref="H3:H66" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I36" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
+        <f t="shared" ref="I3:I66" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
     </row>
@@ -2705,13 +2946,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2731,13 +2972,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2754,16 +2995,16 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2780,16 +3021,16 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>369</v>
+        <v>247</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2806,16 +3047,16 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2838,10 +3079,10 @@
         <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>370</v>
+        <v>481</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2864,10 +3105,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>371</v>
+        <v>480</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>370</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2890,10 +3131,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>372</v>
+        <v>123</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2916,10 +3157,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>373</v>
+        <v>473</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>372</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2942,10 +3183,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>374</v>
+        <v>474</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2968,10 +3209,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>375</v>
+        <v>475</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>374</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2994,10 +3235,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>376</v>
+        <v>476</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3014,16 +3255,16 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>535</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3046,10 +3287,10 @@
         <v>20</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>377</v>
+        <v>124</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>376</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3069,13 +3310,13 @@
         <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>474</v>
+        <v>485</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>472</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3095,13 +3336,13 @@
         <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3124,10 +3365,10 @@
         <v>24</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>378</v>
+        <v>125</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3150,10 +3391,10 @@
         <v>26</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>379</v>
+        <v>477</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>378</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3170,16 +3411,16 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>443</v>
+        <v>478</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3196,16 +3437,16 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>444</v>
+        <v>479</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3228,10 +3469,10 @@
         <v>28</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>380</v>
+        <v>126</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>379</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3254,10 +3495,10 @@
         <v>30</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>381</v>
+        <v>186</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>380</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3274,16 +3515,16 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>470</v>
+      <c r="E26" s="8" t="s">
+        <v>468</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3306,10 +3547,10 @@
         <v>32</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>176</v>
+        <v>127</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3332,10 +3573,10 @@
         <v>34</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>382</v>
+        <v>128</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3358,10 +3599,10 @@
         <v>36</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>383</v>
+        <v>129</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3381,13 +3622,13 @@
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="G30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3410,10 +3651,10 @@
         <v>6</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3430,16 +3671,16 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>384</v>
+        <v>343</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>383</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3456,16 +3697,16 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>465</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="G33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3481,3467 +3722,3989 @@
       </c>
     </row>
     <row r="34" spans="2:9">
+      <c r="B34" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>576</v>
+      </c>
       <c r="G34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>fx.GoogleFilePickerDialog.010=Googleドライブ ファイル選択</v>
       </c>
       <c r="H34" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>fx.GoogleFilePickerDialog.010=Google Drive File Selection</v>
       </c>
       <c r="I34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>fx.GoogleFilePickerDialog.010=Google Drive 文件选择</v>
       </c>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="1" t="s">
-        <v>333</v>
+      <c r="B35" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>339</v>
+        <v>578</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>385</v>
+        <v>579</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>580</v>
       </c>
       <c r="G35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.010=比較フォルダ%s：</v>
+        <v>fx.GoogleFilePickerDialogPane.010=サポートされない形式のURLです。</v>
       </c>
       <c r="H35" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.010=Folder %s : </v>
+        <v>fx.GoogleFilePickerDialogPane.010=Unsupported URL format.</v>
       </c>
       <c r="I35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.010=文件夹%s：</v>
+        <v>fx.GoogleFilePickerDialogPane.010=不支持的URL格式。</v>
       </c>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="1" t="s">
-        <v>334</v>
+      <c r="B36" s="2" t="s">
+        <v>588</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>340</v>
+        <v>587</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>348</v>
+        <v>589</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>590</v>
       </c>
       <c r="G36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.020=作業用フォルダ：</v>
+        <v>fx.GoogleFilePickerDialogPane.020=Googleドライブ上のファイルのURLを指定してください。</v>
       </c>
       <c r="H36" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.020=Working dir : </v>
+        <v>fx.GoogleFilePickerDialogPane.020=Please specify the URL of a file on Google Drive.</v>
       </c>
       <c r="I36" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>excel.poi.usermodel.TreeResultBookCreator.020=工作文件夹：</v>
+        <v>fx.GoogleFilePickerDialogPane.020=请指定Google Drive上文件的URL。</v>
       </c>
     </row>
     <row r="37" spans="2:9">
+      <c r="B37" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>599</v>
+      </c>
       <c r="G37" s="4" t="str">
-        <f t="shared" ref="G37:G107" si="3" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; C37)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>fx.GoogleFilePickerDialogPane.030=ファイルURL :</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f t="shared" ref="H37:H107" si="4" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; D37)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>fx.GoogleFilePickerDialogPane.030=File URL :</v>
       </c>
       <c r="I37" s="6" t="str">
-        <f t="shared" ref="I37:I107" si="5" xml:space="preserve"> IF($B37="", "", $B37 &amp; "=" &amp; E37)</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>fx.GoogleFilePickerDialogPane.030=文件URL :</v>
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="1" t="s">
-        <v>489</v>
+      <c r="B38" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>497</v>
+        <v>594</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>498</v>
+        <v>595</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>596</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f t="shared" ref="G38" si="6" xml:space="preserve"> IF($B38="", "", $B38 &amp; "=" &amp; C38)</f>
-        <v>excel.poi.usermodel.BookResultBookCreator.010=比較実行日時：</v>
+        <f t="shared" si="0"/>
+        <v>fx.GoogleFilePickerDialogPane.040=ファイル情報取得</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f t="shared" ref="H38" si="7" xml:space="preserve"> IF($B38="", "", $B38 &amp; "=" &amp; D38)</f>
-        <v xml:space="preserve">excel.poi.usermodel.BookResultBookCreator.010=Exec datetime : </v>
+        <f t="shared" si="1"/>
+        <v>fx.GoogleFilePickerDialogPane.040=Fetch File Metadata</v>
       </c>
       <c r="I38" s="6" t="str">
-        <f t="shared" ref="I38" si="8" xml:space="preserve"> IF($B38="", "", $B38 &amp; "=" &amp; E38)</f>
-        <v>excel.poi.usermodel.BookResultBookCreator.010=执行日期和时间：</v>
+        <f t="shared" si="2"/>
+        <v>fx.GoogleFilePickerDialogPane.040=获取文件元数据</v>
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="1" t="s">
-        <v>490</v>
+      <c r="B39" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>340</v>
+        <v>598</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>348</v>
+        <v>601</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>602</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.020=作業用フォルダ：</v>
+        <f t="shared" si="0"/>
+        <v>fx.GoogleFilePickerDialogPane.050=ファイル名 :</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">excel.poi.usermodel.BookResultBookCreator.020=Working dir : </v>
+        <f t="shared" si="1"/>
+        <v>fx.GoogleFilePickerDialogPane.050=File Name :</v>
       </c>
       <c r="I39" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.020=工作文件夹：</v>
+        <f t="shared" si="2"/>
+        <v>fx.GoogleFilePickerDialogPane.050=文件名 :</v>
       </c>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="1" t="s">
-        <v>496</v>
+      <c r="B40" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>491</v>
+        <v>603</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>535</v>
+        <v>604</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>606</v>
       </c>
       <c r="G40" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.030=ブック%s：</v>
+        <f t="shared" si="0"/>
+        <v>fx.GoogleFilePickerDialogPane.060=リビジョン :</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">excel.poi.usermodel.BookResultBookCreator.030=Book %s : </v>
+        <f t="shared" si="1"/>
+        <v>fx.GoogleFilePickerDialogPane.060=Revision :</v>
       </c>
       <c r="I40" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.030=工作簿%s：</v>
+        <f t="shared" si="2"/>
+        <v>fx.GoogleFilePickerDialogPane.060=版本 :</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="1" t="s">
-        <v>499</v>
+        <v>607</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>504</v>
+        <v>608</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>507</v>
+        <v>609</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>613</v>
       </c>
       <c r="G41" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.040=差分なし</v>
+        <f t="shared" si="0"/>
+        <v>fx.GooglePane.010=Googleドライブ\n連携</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.040=No Diffs</v>
+        <f t="shared" si="1"/>
+        <v>fx.GooglePane.010=Connect\nGoogle Drive</v>
       </c>
       <c r="I41" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.040=没有区别</v>
+        <f t="shared" si="2"/>
+        <v>fx.GooglePane.010=Google Drive\n关联</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="1" t="s">
-        <v>500</v>
+        <v>610</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>505</v>
+        <v>611</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>508</v>
+        <v>612</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>614</v>
       </c>
       <c r="G42" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.050=比較失敗</v>
+        <f t="shared" si="0"/>
+        <v>fx.GooglePane.020=Googleドライブ\n連携解除</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.050=Comparison Failed</v>
+        <f t="shared" si="1"/>
+        <v>fx.GooglePane.020=Disconnect\nGoogle Drive</v>
       </c>
       <c r="I42" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.050=比较失败</v>
+        <f t="shared" si="2"/>
+        <v>fx.GooglePane.020=Google Drive\n关联解除</v>
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>532</v>
-      </c>
       <c r="G43" s="4" t="str">
-        <f t="shared" ref="G43:G46" si="9" xml:space="preserve"> IF($B43="", "", $B43 &amp; "=" &amp; C43)</f>
-        <v>excel.poi.usermodel.BookResultBookCreator.060=余剰行（A: %d, B: %d）</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H43" s="5" t="str">
-        <f t="shared" ref="H43:H46" si="10" xml:space="preserve"> IF($B43="", "", $B43 &amp; "=" &amp; D43)</f>
-        <v>excel.poi.usermodel.BookResultBookCreator.060=Redundant Rows (A: %d, B: %d)</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="I43" s="6" t="str">
-        <f t="shared" ref="I43:I46" si="11" xml:space="preserve"> IF($B43="", "", $B43 &amp; "=" &amp; E43)</f>
-        <v>excel.poi.usermodel.BookResultBookCreator.060=冗余行（A: %d, B: %d）</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="1" t="s">
-        <v>502</v>
+        <v>332</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>526</v>
+        <v>338</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>530</v>
+        <v>269</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>384</v>
       </c>
       <c r="G44" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.070=余剰列（A: %d, B: %d）</v>
+        <f t="shared" si="0"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.010=比較フォルダ%s：</v>
       </c>
       <c r="H44" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.070=Redundant Columns (A: %d, B: %d)</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.010=Folder %s : </v>
       </c>
       <c r="I44" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>excel.poi.usermodel.BookResultBookCreator.070=冗余列（A: %d, B: %d）</v>
+        <f t="shared" si="2"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.010=文件夹%s：</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.020=作業用フォルダ：</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">excel.poi.usermodel.TreeResultBookCreator.020=Working dir : </v>
+      </c>
+      <c r="I45" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>excel.poi.usermodel.TreeResultBookCreator.020=工作文件夹：</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I46" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.010=比較実行日時：</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">excel.poi.usermodel.BookResultBookCreator.010=Exec datetime : </v>
+      </c>
+      <c r="I47" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.010=执行日期和时间：</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.020=作業用フォルダ：</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">excel.poi.usermodel.BookResultBookCreator.020=Working dir : </v>
+      </c>
+      <c r="I48" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.020=工作文件夹：</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.030=ブック%s：</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">excel.poi.usermodel.BookResultBookCreator.030=Book %s : </v>
+      </c>
+      <c r="I49" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.030=工作簿%s：</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.040=差分なし</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.040=No Diffs</v>
+      </c>
+      <c r="I50" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.040=没有区别</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D51" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.050=比較失敗</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.050=Comparison Failed</v>
+      </c>
+      <c r="I51" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.050=比较失败</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.060=余剰行（A: %d, B: %d）</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.060=Redundant Rows (A: %d, B: %d)</v>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.060=冗余行（A: %d, B: %d）</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.070=余剰列（A: %d, B: %d）</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.070=Redundant Columns (A: %d, B: %d)</v>
+      </c>
+      <c r="I53" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>excel.poi.usermodel.BookResultBookCreator.070=冗余列（A: %d, B: %d）</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E54" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="G45" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>excel.poi.usermodel.BookResultBookCreator.080=差分セル（%d）</v>
       </c>
-      <c r="H45" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H54" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>excel.poi.usermodel.BookResultBookCreator.080=Diff Cells (%d)</v>
       </c>
-      <c r="I45" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I54" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>excel.poi.usermodel.BookResultBookCreator.080=差异单元格（%d）</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="G46" s="4" t="str">
-        <f t="shared" si="9"/>
+    <row r="55" spans="2:9">
+      <c r="B55" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>excel.poi.usermodel.BookResultBookCreator.090=(比較相手なし)</v>
       </c>
-      <c r="H46" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="H55" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>excel.poi.usermodel.BookResultBookCreator.090=(no opponent)</v>
       </c>
-      <c r="I46" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="I55" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>excel.poi.usermodel.BookResultBookCreator.090=(没有对比)</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
-      <c r="G47" s="4" t="str">
+    <row r="56" spans="2:9">
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I56" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.MainController.010=同じフォルダ同士／ブック同士／シート同士を比較することはできません。</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gui.MainController.010=Please specify different folders/books/sheets.</v>
+      </c>
+      <c r="I57" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.MainController.010=指定非相同的文件夹／工作簿／工作表。</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
+      </c>
+      <c r="I58" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.MainController.030=予期せぬ例外が発生しました。</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gui.MainController.030=Unexpected exception occurred.</v>
+      </c>
+      <c r="I59" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.MainController.030=意外的例外。</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.MainController.040=作業用フォルダの作成に失敗しました。</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gui.MainController.040=Failed to create working directory.</v>
+      </c>
+      <c r="I60" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.MainController.040=创建工作文件夹失败。</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.MainController.050=別の場所を指定してください。</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gui.MainController.050=Please specify another location.</v>
+      </c>
+      <c r="I61" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.MainController.050=请指定其他位置。</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.MainController.060=作業用フォルダの変更</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gui.MainController.060=Change working directory</v>
+      </c>
+      <c r="I62" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.MainController.060=改变工作文件夹</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.MainController.070=処理を中止しました。</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gui.MainController.070=Processing has been canceled.</v>
+      </c>
+      <c r="I63" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.MainController.070=处理已被取消。</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.PasswordDialog.010=パスワード指定</v>
+      </c>
+      <c r="H64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gui.PasswordDialog.010=Enter Password</v>
+      </c>
+      <c r="I64" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.PasswordDialog.010=输入密码</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.PasswordDialogPane.010=%s はパスワードで保護されています。</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gui.PasswordDialogPane.010=The book [%s] is password protected.</v>
+      </c>
+      <c r="I65" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.PasswordDialogPane.010=%s 是受密码保护的。</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I66" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" ref="G67:G130" si="3" xml:space="preserve"> IF($B67="", "", $B67 &amp; "=" &amp; C67)</f>
+        <v>gui.component.LinkPane.010=Webページの表示に失敗しました。ご利用のブラウザでお試しください。</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f t="shared" ref="H67:H130" si="4" xml:space="preserve"> IF($B67="", "", $B67 &amp; "=" &amp; D67)</f>
+        <v>gui.component.LinkPane.010=Failed to open the website. Please try using your browser.</v>
+      </c>
+      <c r="I67" s="6" t="str">
+        <f t="shared" ref="I67:I130" si="5" xml:space="preserve"> IF($B67="", "", $B67 &amp; "=" &amp; E67)</f>
+        <v>gui.component.LinkPane.010=网页未能显示。 请尝试使用你的浏览器。</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
+      </c>
+      <c r="I68" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
+      </c>
+      <c r="I69" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.component.SettingsPane2.020=Change working directory</v>
+      </c>
+      <c r="I70" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
+      </c>
+      <c r="I71" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
+      </c>
+      <c r="I72" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+      </c>
+      <c r="I73" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+      </c>
+      <c r="I74" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+      </c>
+      <c r="I75" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
+      </c>
+      <c r="H76" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
+      </c>
+      <c r="I76" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
+      </c>
+      <c r="I77" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>gui.component.TargetSelectionPane.030=Excel book</v>
+      </c>
+      <c r="I78" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
+      </c>
+      <c r="I79" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.component.TargetSelectionPane.050=シートが見つかりません：</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">gui.component.TargetSelectionPane.050=No such sheet : </v>
+      </c>
+      <c r="I80" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.component.TargetSelectionPane.050=没有找到工作表：</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>gui.component.TargetSelectionPane.060=フォルダを読み込めません：</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">gui.component.TargetSelectionPane.060=Failed to open folder : </v>
+      </c>
+      <c r="I81" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>gui.component.TargetSelectionPane.060=无法读取文件夹：</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="G82" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H47" s="5" t="str">
+      <c r="H82" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I47" s="6" t="str">
+      <c r="I82" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="G48" s="4" t="str">
+    <row r="83" spans="2:9">
+      <c r="B83" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="G83" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>gui.MainController.010=同じフォルダ同士／ブック同士／シート同士を比較することはできません。</v>
-      </c>
-      <c r="H48" s="5" t="str">
+        <v>gui.component.GooglePane.010=方眼DiffとGoogleドライブの連携を解除します。\nよろしいですか？</v>
+      </c>
+      <c r="H83" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>gui.MainController.010=Please specify different folders/books/sheets.</v>
-      </c>
-      <c r="I48" s="6" t="str">
+        <v>gui.component.GooglePane.010=Disconnect HoganDiff from Google Drive. Are you sure?</v>
+      </c>
+      <c r="I83" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>gui.MainController.010=指定非相同的文件夹／工作簿／工作表。</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="G49" s="4" t="str">
+        <v>gui.component.GooglePane.010=解除方眼Diff与Google Drive的关联。确定吗？</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="G84" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
-      </c>
-      <c r="H49" s="5" t="str">
+        <v>gui.component.GooglePane.020=資格情報を削除しました。</v>
+      </c>
+      <c r="H84" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
-      </c>
-      <c r="I49" s="6" t="str">
+        <v>gui.component.GooglePane.020=Credentials have been deleted.</v>
+      </c>
+      <c r="I84" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G50" s="4" t="str">
+        <v>gui.component.GooglePane.020=已删除凭据。</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="G85" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>gui.MainController.030=予期せぬ例外が発生しました。</v>
-      </c>
-      <c r="H50" s="5" t="str">
+        <v>gui.component.GooglePane.030=このPCに保存されていたGoogleアカウント連携のための資格情報を削除しました。\n\nGoogle側の設定では引き続き方眼Diffとの連携が許可されています。\n連携許可を完全に取り消したい場合はGoogleアカウントのサイトから設定を行ってください。</v>
+      </c>
+      <c r="H85" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>gui.MainController.030=Unexpected exception occurred.</v>
-      </c>
-      <c r="I50" s="6" t="str">
+        <v>gui.component.GooglePane.030=The credentials for Google account integration stored on this PC have been deleted.\n\nGoogle's settings still allow integration with Hougan Diff.\nIf you want to completely revoke the integration permission, please configure the settings from your Google account site.</v>
+      </c>
+      <c r="I85" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>gui.MainController.030=意外的例外。</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="G51" s="4" t="str">
+        <v>gui.component.GooglePane.030=已删除保存在此电脑上的Google账户关联凭据。\n\n在Google设置中仍允许与方眼Diff的关联。\n如要完全撤销关联权限，请从Google账户网站进行设置。</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="G86" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>gui.MainController.040=作業用フォルダの作成に失敗しました。</v>
-      </c>
-      <c r="H51" s="5" t="str">
+        <v>gui.component.GooglePane.040=資格情報の削除に失敗しました。</v>
+      </c>
+      <c r="H86" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>gui.MainController.040=Failed to create working directory.</v>
-      </c>
-      <c r="I51" s="6" t="str">
+        <v>gui.component.GooglePane.040=Failed to delete credentials.</v>
+      </c>
+      <c r="I86" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>gui.MainController.040=创建工作文件夹失败。</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="G52" s="4" t="str">
+        <v>gui.component.GooglePane.040=删除凭据失败。</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="G87" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>gui.MainController.050=別の場所を指定してください。</v>
-      </c>
-      <c r="H52" s="5" t="str">
+        <v>gui.component.GooglePane.050=資格情報の削除に失敗しました。\n時間をおいてから再度お試しください。\n\n失敗し続ける場合はウェブサイトからお問い合わせください。</v>
+      </c>
+      <c r="H87" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>gui.MainController.050=Please specify another location.</v>
-      </c>
-      <c r="I52" s="6" t="str">
+        <v>gui.component.GooglePane.050=Failed to delete credentials.\nPlease try again after waiting a moment.\n\nIf the failure continues, please contact us from our website.</v>
+      </c>
+      <c r="I87" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>gui.MainController.050=请指定其他位置。</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="G53" s="4" t="str">
+        <v>gui.component.GooglePane.050=删除凭据失败。\n请稍后重试。\n\n如持续失败，请通过网站联系我们。</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="G88" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>gui.MainController.060=作業用フォルダの変更</v>
-      </c>
-      <c r="H53" s="5" t="str">
+        <v>gui.component.GooglePane.060=Google連携エラー</v>
+      </c>
+      <c r="H88" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>gui.MainController.060=Change working directory</v>
-      </c>
-      <c r="I53" s="6" t="str">
+        <v>gui.component.GooglePane.060=Google Integration Error</v>
+      </c>
+      <c r="I88" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>gui.MainController.060=改变工作文件夹</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="G54" s="4" t="str">
+        <v>gui.component.GooglePane.060=Google关联错误</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="G89" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>gui.MainController.070=処理を中止しました。</v>
-      </c>
-      <c r="H54" s="5" t="str">
+        <v>gui.component.GooglePane.070=Google連携処理中にエラーが発生しました。</v>
+      </c>
+      <c r="H89" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>gui.MainController.070=Processing has been canceled.</v>
-      </c>
-      <c r="I54" s="6" t="str">
+        <v>gui.component.GooglePane.070=An error occurred during Google integration processing.</v>
+      </c>
+      <c r="I89" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>gui.MainController.070=处理已被取消。</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="G55" s="4" t="str">
+        <v>gui.component.GooglePane.070=Google关联处理过程中发生错误。</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="G90" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>gui.PasswordDialog.010=パスワード指定</v>
-      </c>
-      <c r="H55" s="5" t="str">
+        <v>gui.component.GooglePane.080=エラー：%s\n\n時間をおいてから再度お試しください。\n失敗し続ける場合はウェブサイトからお問い合わせください。</v>
+      </c>
+      <c r="H90" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>gui.PasswordDialog.010=Enter Password</v>
-      </c>
-      <c r="I55" s="6" t="str">
+        <v>gui.component.GooglePane.080=Error: %s\n\nPlease try again after waiting a moment.\nIf the failure continues, please contact us from our website.</v>
+      </c>
+      <c r="I90" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>gui.PasswordDialog.010=输入密码</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="G56" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>gui.PasswordDialogPane.010=%s はパスワードで保護されています。</v>
-      </c>
-      <c r="H56" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>gui.PasswordDialogPane.010=The book [%s] is password protected.</v>
-      </c>
-      <c r="I56" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>gui.PasswordDialogPane.010=%s 是受密码保护的。</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="G57" s="4" t="str">
+        <v>gui.component.GooglePane.080=失败：%s\n\n请稍后重试。\n如持续失败，请通过网站联系我们。</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="G91" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H57" s="5" t="str">
+      <c r="H91" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I57" s="6" t="str">
+      <c r="I91" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G58" s="4" t="str">
+    <row r="92" spans="2:9">
+      <c r="B92" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="G92" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>gui.component.LinkPane.010=Webページの表示に失敗しました。ご利用のブラウザでお試しください。</v>
-      </c>
-      <c r="H58" s="5" t="str">
+        <v>AppMain.010=方眼Diff</v>
+      </c>
+      <c r="H92" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>gui.component.LinkPane.010=Failed to open the website. Please try using your browser.</v>
-      </c>
-      <c r="I58" s="6" t="str">
+        <v>AppMain.010=HoganDiff (方眼Diff)</v>
+      </c>
+      <c r="I92" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>gui.component.LinkPane.010=网页未能显示。 请尝试使用你的浏览器。</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="G59" s="4" t="str">
+        <v>AppMain.010=方眼Diff</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G93" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
-      </c>
-      <c r="H59" s="5" t="str">
+        <v>AppResource.010=設定の保存に失敗しました。</v>
+      </c>
+      <c r="H93" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
-      </c>
-      <c r="I59" s="6" t="str">
+        <v>AppResource.010=Failed to save settings.</v>
+      </c>
+      <c r="I93" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G60" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
-      </c>
-      <c r="H60" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
-      </c>
-      <c r="I60" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="G61" s="4" t="str">
-        <f t="shared" si="